--- a/data_base/mau_kegio.xlsx
+++ b/data_base/mau_kegio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sumik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93F299D-DDD5-4417-B8D0-B26228111CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07A1712-3E19-4EDC-B270-B1A41AE3AC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="17496" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3388,7 +3388,7 @@
     <xf numFmtId="169" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="380">
+  <cellXfs count="377">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4083,15 +4083,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="105" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="1" fontId="105" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4170,14 +4162,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="2" fontId="106" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="106" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -4369,6 +4353,9 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4420,6 +4407,13 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -4431,33 +4425,6 @@
     <xf numFmtId="0" fontId="76" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4495,32 +4462,76 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4529,6 +4540,86 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4555,139 +4646,36 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="170" fontId="105" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -5761,25 +5749,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="16.8">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="295" t="s">
         <v>526</v>
       </c>
-      <c r="B2" s="298"/>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="298"/>
-      <c r="N2" s="298"/>
-      <c r="O2" s="298"/>
-      <c r="P2" s="298"/>
-      <c r="Q2" s="298"/>
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="17.399999999999999">
       <c r="A3" s="6"/>
@@ -5918,70 +5906,70 @@
       <c r="M12" s="53"/>
       <c r="N12" s="53"/>
     </row>
-    <row r="13" spans="1:17" s="275" customFormat="1" ht="15">
-      <c r="B13" s="276" t="s">
+    <row r="13" spans="1:17" s="271" customFormat="1" ht="15">
+      <c r="B13" s="272" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="275" customFormat="1" ht="15">
-      <c r="B14" s="276"/>
-      <c r="C14" s="275" t="s">
+    <row r="14" spans="1:17" s="271" customFormat="1" ht="15">
+      <c r="B14" s="272"/>
+      <c r="C14" s="271" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="275" customFormat="1" ht="15">
-      <c r="C15" s="275" t="s">
+    <row r="15" spans="1:17" s="271" customFormat="1" ht="15">
+      <c r="C15" s="271" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="275" customFormat="1" ht="13.95" customHeight="1">
-      <c r="C16" s="275" t="s">
+    <row r="16" spans="1:17" s="271" customFormat="1" ht="13.95" customHeight="1">
+      <c r="C16" s="271" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="17" spans="1:256" s="275" customFormat="1" ht="13.95" customHeight="1">
-      <c r="B17" s="276" t="s">
+    <row r="17" spans="1:256" s="271" customFormat="1" ht="13.95" customHeight="1">
+      <c r="B17" s="272" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="18" spans="1:256" s="275" customFormat="1" ht="13.95" customHeight="1">
-      <c r="B18" s="276"/>
-      <c r="C18" s="275" t="s">
+    <row r="18" spans="1:256" s="271" customFormat="1" ht="13.95" customHeight="1">
+      <c r="B18" s="272"/>
+      <c r="C18" s="271" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="19" spans="1:256" s="275" customFormat="1" ht="13.95" customHeight="1">
-      <c r="B19" s="276"/>
-      <c r="C19" s="275" t="s">
+    <row r="19" spans="1:256" s="271" customFormat="1" ht="13.95" customHeight="1">
+      <c r="B19" s="272"/>
+      <c r="C19" s="271" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="20" spans="1:256" s="275" customFormat="1" ht="13.95" customHeight="1">
-      <c r="B20" s="276"/>
-      <c r="C20" s="275" t="s">
+    <row r="20" spans="1:256" s="271" customFormat="1" ht="13.95" customHeight="1">
+      <c r="B20" s="272"/>
+      <c r="C20" s="271" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:256" s="275" customFormat="1" ht="13.95" customHeight="1">
-      <c r="B21" s="276"/>
-      <c r="C21" s="275" t="s">
+    <row r="21" spans="1:256" s="271" customFormat="1" ht="13.95" customHeight="1">
+      <c r="B21" s="272"/>
+      <c r="C21" s="271" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:256" s="275" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="276"/>
-      <c r="C22" s="297" t="s">
+    <row r="22" spans="1:256" s="271" customFormat="1" ht="18" customHeight="1">
+      <c r="B22" s="272"/>
+      <c r="C22" s="294" t="s">
         <v>503</v>
       </c>
-      <c r="D22" s="297"/>
-      <c r="E22" s="297"/>
-      <c r="F22" s="297"/>
-      <c r="G22" s="297"/>
-      <c r="H22" s="297"/>
-      <c r="I22" s="297"/>
-      <c r="J22" s="297"/>
-      <c r="K22" s="297"/>
-      <c r="L22" s="297"/>
+      <c r="D22" s="294"/>
+      <c r="E22" s="294"/>
+      <c r="F22" s="294"/>
+      <c r="G22" s="294"/>
+      <c r="H22" s="294"/>
+      <c r="I22" s="294"/>
+      <c r="J22" s="294"/>
+      <c r="K22" s="294"/>
+      <c r="L22" s="294"/>
     </row>
     <row r="23" spans="1:256" ht="21" customHeight="1">
       <c r="A23" s="5">
@@ -6961,18 +6949,18 @@
       <c r="C54" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="299" t="s">
+      <c r="D54" s="296" t="s">
         <v>529</v>
       </c>
-      <c r="E54" s="300"/>
-      <c r="F54" s="299" t="s">
+      <c r="E54" s="297"/>
+      <c r="F54" s="296" t="s">
         <v>530</v>
       </c>
-      <c r="G54" s="300"/>
-      <c r="H54" s="299" t="s">
+      <c r="G54" s="297"/>
+      <c r="H54" s="296" t="s">
         <v>531</v>
       </c>
-      <c r="I54" s="300"/>
+      <c r="I54" s="297"/>
       <c r="J54" s="193" t="s">
         <v>532</v>
       </c>
@@ -7078,28 +7066,28 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="C59" s="268">
+      <c r="C59" s="264">
         <v>4</v>
       </c>
-      <c r="D59" s="269">
+      <c r="D59" s="265">
         <v>30</v>
       </c>
-      <c r="E59" s="269">
+      <c r="E59" s="265">
         <v>35</v>
       </c>
-      <c r="F59" s="269">
+      <c r="F59" s="265">
         <v>8</v>
       </c>
-      <c r="G59" s="269">
+      <c r="G59" s="265">
         <v>10</v>
       </c>
-      <c r="H59" s="269">
+      <c r="H59" s="265">
         <v>16</v>
       </c>
-      <c r="I59" s="269">
+      <c r="I59" s="265">
         <v>18</v>
       </c>
-      <c r="J59" s="270">
+      <c r="J59" s="266">
         <v>1</v>
       </c>
     </row>
@@ -7159,18 +7147,18 @@
       <c r="C62" s="195">
         <v>7</v>
       </c>
-      <c r="D62" s="295" t="s">
+      <c r="D62" s="292" t="s">
         <v>533</v>
       </c>
-      <c r="E62" s="296"/>
-      <c r="F62" s="295" t="s">
+      <c r="E62" s="293"/>
+      <c r="F62" s="292" t="s">
         <v>534</v>
       </c>
-      <c r="G62" s="296"/>
-      <c r="H62" s="295" t="s">
+      <c r="G62" s="293"/>
+      <c r="H62" s="292" t="s">
         <v>535</v>
       </c>
-      <c r="I62" s="296"/>
+      <c r="I62" s="293"/>
       <c r="J62" s="198">
         <v>1.3</v>
       </c>
@@ -7214,7 +7202,7 @@
       </c>
     </row>
     <row r="107" spans="2:3" s="2" customFormat="1" ht="15.6">
-      <c r="B107" s="234" t="s">
+      <c r="B107" s="232" t="s">
         <v>524</v>
       </c>
       <c r="C107" s="7" t="s">
@@ -7222,7 +7210,7 @@
       </c>
     </row>
     <row r="108" spans="2:3" s="2" customFormat="1" ht="15.6">
-      <c r="B108" s="234"/>
+      <c r="B108" s="232"/>
       <c r="C108" s="7" t="s">
         <v>527</v>
       </c>
@@ -7239,7 +7227,7 @@
     </row>
     <row r="123" spans="2:8" s="2" customFormat="1" ht="15"/>
     <row r="124" spans="2:8" s="2" customFormat="1" ht="15.6">
-      <c r="B124" s="234" t="s">
+      <c r="B124" s="232" t="s">
         <v>524</v>
       </c>
       <c r="C124" s="7" t="s">
@@ -7247,14 +7235,14 @@
       </c>
     </row>
     <row r="125" spans="2:8" s="2" customFormat="1" ht="15.6">
-      <c r="C125" s="277" t="s">
+      <c r="C125" s="273" t="s">
         <v>538</v>
       </c>
-      <c r="D125" s="278"/>
-      <c r="E125" s="278"/>
-      <c r="F125" s="278"/>
-      <c r="G125" s="278"/>
-      <c r="H125" s="278"/>
+      <c r="D125" s="274"/>
+      <c r="E125" s="274"/>
+      <c r="F125" s="274"/>
+      <c r="G125" s="274"/>
+      <c r="H125" s="274"/>
     </row>
     <row r="126" spans="2:8" s="2" customFormat="1" ht="15">
       <c r="C126" s="7" t="s">
@@ -7262,31 +7250,31 @@
       </c>
     </row>
     <row r="141" spans="2:3" ht="13.8">
-      <c r="C141" s="235"/>
-    </row>
-    <row r="142" spans="2:3" s="271" customFormat="1" ht="18" customHeight="1">
-      <c r="B142" s="272" t="s">
+      <c r="C141" s="233"/>
+    </row>
+    <row r="142" spans="2:3" s="267" customFormat="1" ht="18" customHeight="1">
+      <c r="B142" s="268" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="143" spans="2:3" s="271" customFormat="1" ht="18" customHeight="1">
-      <c r="B143" s="272"/>
-      <c r="C143" s="273" t="s">
+    <row r="143" spans="2:3" s="267" customFormat="1" ht="18" customHeight="1">
+      <c r="B143" s="268"/>
+      <c r="C143" s="269" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="144" spans="2:3" s="271" customFormat="1" ht="18" customHeight="1">
-      <c r="C144" s="274" t="s">
+    <row r="144" spans="2:3" s="267" customFormat="1" ht="18" customHeight="1">
+      <c r="C144" s="270" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="145" spans="3:3" s="271" customFormat="1" ht="18" customHeight="1">
-      <c r="C145" s="273" t="s">
+    <row r="145" spans="3:3" s="267" customFormat="1" ht="18" customHeight="1">
+      <c r="C145" s="269" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="146" spans="3:3" s="271" customFormat="1" ht="18" customHeight="1">
-      <c r="C146" s="273" t="s">
+    <row r="146" spans="3:3" s="267" customFormat="1" ht="18" customHeight="1">
+      <c r="C146" s="269" t="s">
         <v>540</v>
       </c>
     </row>
@@ -7344,32 +7332,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.399999999999999">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="302"/>
-      <c r="F1" s="302"/>
-      <c r="G1" s="302"/>
-      <c r="H1" s="302"/>
-      <c r="I1" s="302"/>
-      <c r="J1" s="302"/>
-      <c r="K1" s="302"/>
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="299"/>
+      <c r="J1" s="299"/>
+      <c r="K1" s="299"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="303"/>
-      <c r="B2" s="303"/>
-      <c r="C2" s="303"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="303"/>
-      <c r="F2" s="303"/>
-      <c r="G2" s="303"/>
-      <c r="H2" s="303"/>
-      <c r="I2" s="303"/>
-      <c r="J2" s="303"/>
-      <c r="K2" s="303"/>
+      <c r="A2" s="300"/>
+      <c r="B2" s="300"/>
+      <c r="C2" s="300"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="300"/>
     </row>
     <row r="4" spans="1:37">
       <c r="B4" s="32" t="s">
@@ -7404,32 +7392,32 @@
       </c>
     </row>
     <row r="7" spans="1:37" s="34" customFormat="1" ht="30.15" customHeight="1">
-      <c r="A7" s="301" t="s">
+      <c r="A7" s="298" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="301" t="s">
+      <c r="B7" s="298" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="298" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="301" t="s">
+      <c r="D7" s="298" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="301"/>
-      <c r="F7" s="301"/>
-      <c r="G7" s="301" t="s">
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="301"/>
-      <c r="I7" s="301"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="301"/>
+      <c r="H7" s="298"/>
+      <c r="I7" s="298"/>
+      <c r="J7" s="298"/>
+      <c r="K7" s="298"/>
     </row>
     <row r="8" spans="1:37" s="34" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A8" s="301"/>
-      <c r="B8" s="301"/>
-      <c r="C8" s="301"/>
+      <c r="A8" s="298"/>
+      <c r="B8" s="298"/>
+      <c r="C8" s="298"/>
       <c r="D8" s="35" t="s">
         <v>6</v>
       </c>
@@ -17020,36 +17008,36 @@
       <c r="R1" s="143"/>
     </row>
     <row r="2" spans="1:19" ht="21" customHeight="1">
-      <c r="A2" s="311" t="s">
+      <c r="A2" s="308" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="311"/>
-      <c r="C2" s="311"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="311"/>
-      <c r="H2" s="311"/>
-      <c r="I2" s="311"/>
-      <c r="J2" s="311"/>
-      <c r="K2" s="311"/>
-      <c r="L2" s="311"/>
-      <c r="M2" s="311"/>
-      <c r="N2" s="311"/>
-      <c r="O2" s="311"/>
-      <c r="P2" s="311"/>
-      <c r="Q2" s="311"/>
-      <c r="R2" s="311"/>
-      <c r="S2" s="311"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="308"/>
+      <c r="K2" s="308"/>
+      <c r="L2" s="308"/>
+      <c r="M2" s="308"/>
+      <c r="N2" s="308"/>
+      <c r="O2" s="308"/>
+      <c r="P2" s="308"/>
+      <c r="Q2" s="308"/>
+      <c r="R2" s="308"/>
+      <c r="S2" s="308"/>
     </row>
     <row r="4" spans="1:19" ht="21" customHeight="1">
-      <c r="A4" s="305" t="s">
+      <c r="A4" s="302" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="306"/>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="307"/>
+      <c r="B4" s="303"/>
+      <c r="C4" s="303"/>
+      <c r="D4" s="303"/>
+      <c r="E4" s="304"/>
       <c r="F4" s="151" t="s">
         <v>468</v>
       </c>
@@ -17089,16 +17077,16 @@
       <c r="R4" s="186" t="s">
         <v>563</v>
       </c>
-      <c r="S4" s="304" t="s">
+      <c r="S4" s="301" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="37.200000000000003" customHeight="1">
-      <c r="A5" s="308"/>
-      <c r="B5" s="309"/>
-      <c r="C5" s="309"/>
-      <c r="D5" s="309"/>
-      <c r="E5" s="310"/>
+      <c r="A5" s="305"/>
+      <c r="B5" s="306"/>
+      <c r="C5" s="306"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="307"/>
       <c r="F5" s="192" t="s">
         <v>481</v>
       </c>
@@ -17138,7 +17126,7 @@
       <c r="R5" s="186" t="s">
         <v>480</v>
       </c>
-      <c r="S5" s="304"/>
+      <c r="S5" s="301"/>
     </row>
     <row r="6" spans="1:19" s="59" customFormat="1" ht="21.6" customHeight="1">
       <c r="A6" s="150" t="s">
@@ -17191,7 +17179,7 @@
       <c r="R6" s="187">
         <v>45839</v>
       </c>
-      <c r="S6" s="304"/>
+      <c r="S6" s="301"/>
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1">
       <c r="A7" s="60" t="s">
@@ -24819,8 +24807,8 @@
   </sheetPr>
   <dimension ref="A1:N211"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A176" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="N198" sqref="N198"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A130" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="I203" sqref="I203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -24845,17 +24833,17 @@
     <row r="1" spans="1:12" ht="18.600000000000001">
       <c r="A1" s="94"/>
       <c r="B1" s="9"/>
-      <c r="D1" s="315" t="s">
+      <c r="D1" s="323" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="94"/>
@@ -24878,7 +24866,7 @@
       <c r="B4" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="C4" s="379" t="s">
+      <c r="C4" s="291" t="s">
         <v>564</v>
       </c>
       <c r="D4" s="12"/>
@@ -24890,15 +24878,15 @@
         <v>546</v>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="316"/>
-      <c r="K4" s="316"/>
-      <c r="L4" s="316"/>
+      <c r="J4" s="324"/>
+      <c r="K4" s="324"/>
+      <c r="L4" s="324"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="C5" s="279" t="s">
+      <c r="C5" s="275" t="s">
         <v>544</v>
       </c>
       <c r="D5" s="14"/>
@@ -24941,67 +24929,67 @@
       <c r="D7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="262" t="s">
+      <c r="E7" s="258" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="263" t="s">
+      <c r="F7" s="259" t="s">
         <v>518</v>
       </c>
-      <c r="G7" s="264" t="s">
+      <c r="G7" s="260" t="s">
         <v>516</v>
       </c>
-      <c r="H7" s="264" t="s">
+      <c r="H7" s="260" t="s">
         <v>517</v>
       </c>
-      <c r="I7" s="264" t="s">
+      <c r="I7" s="260" t="s">
         <v>514</v>
       </c>
-      <c r="J7" s="264" t="s">
+      <c r="J7" s="260" t="s">
         <v>515</v>
       </c>
-      <c r="K7" s="264" t="s">
+      <c r="K7" s="260" t="s">
         <v>343</v>
       </c>
-      <c r="L7" s="265" t="s">
+      <c r="L7" s="261" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A8" s="254" t="s">
+      <c r="A8" s="250" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="255" t="s">
+      <c r="B8" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="256">
+      <c r="C8" s="252">
         <v>10</v>
       </c>
-      <c r="D8" s="255" t="s">
+      <c r="D8" s="251" t="s">
         <v>345</v>
       </c>
-      <c r="E8" s="257">
+      <c r="E8" s="253">
         <v>0.89</v>
       </c>
-      <c r="F8" s="258">
+      <c r="F8" s="254">
         <f>SUM(G8,H8)</f>
         <v>12</v>
       </c>
-      <c r="G8" s="259">
+      <c r="G8" s="255">
         <v>4</v>
       </c>
-      <c r="H8" s="259">
+      <c r="H8" s="255">
         <v>8</v>
       </c>
-      <c r="I8" s="260">
+      <c r="I8" s="256">
         <v>0.8</v>
       </c>
-      <c r="J8" s="260">
+      <c r="J8" s="256">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K8" s="260" t="s">
+      <c r="K8" s="256" t="s">
         <v>344</v>
       </c>
-      <c r="L8" s="261">
+      <c r="L8" s="257">
         <f>(G8*I8+H8*J8)*E8</f>
         <v>10.68</v>
       </c>
@@ -25010,16 +24998,16 @@
       <c r="A9" s="103">
         <v>2</v>
       </c>
-      <c r="B9" s="255" t="s">
+      <c r="B9" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="256">
+      <c r="C9" s="252">
         <v>10</v>
       </c>
-      <c r="D9" s="255" t="s">
+      <c r="D9" s="251" t="s">
         <v>345</v>
       </c>
-      <c r="E9" s="257">
+      <c r="E9" s="253">
         <v>0.89</v>
       </c>
       <c r="F9" s="206">
@@ -25032,13 +25020,13 @@
       <c r="H9" s="175">
         <v>8</v>
       </c>
-      <c r="I9" s="260">
+      <c r="I9" s="256">
         <v>0.8</v>
       </c>
-      <c r="J9" s="260">
+      <c r="J9" s="256">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K9" s="260" t="s">
+      <c r="K9" s="256" t="s">
         <v>344</v>
       </c>
       <c r="L9" s="208">
@@ -25050,16 +25038,16 @@
       <c r="A10" s="104">
         <v>3</v>
       </c>
-      <c r="B10" s="255" t="s">
+      <c r="B10" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="256">
+      <c r="C10" s="252">
         <v>10</v>
       </c>
-      <c r="D10" s="255" t="s">
+      <c r="D10" s="251" t="s">
         <v>345</v>
       </c>
-      <c r="E10" s="257">
+      <c r="E10" s="253">
         <v>0.89</v>
       </c>
       <c r="F10" s="206">
@@ -25072,13 +25060,13 @@
       <c r="H10" s="175">
         <v>8</v>
       </c>
-      <c r="I10" s="260">
+      <c r="I10" s="256">
         <v>0.8</v>
       </c>
-      <c r="J10" s="260">
+      <c r="J10" s="256">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K10" s="260" t="s">
+      <c r="K10" s="256" t="s">
         <v>344</v>
       </c>
       <c r="L10" s="208">
@@ -25090,16 +25078,16 @@
       <c r="A11" s="105">
         <v>4</v>
       </c>
-      <c r="B11" s="255" t="s">
+      <c r="B11" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="256">
+      <c r="C11" s="252">
         <v>10</v>
       </c>
-      <c r="D11" s="255" t="s">
+      <c r="D11" s="251" t="s">
         <v>345</v>
       </c>
-      <c r="E11" s="257">
+      <c r="E11" s="253">
         <v>0.89</v>
       </c>
       <c r="F11" s="206">
@@ -25112,13 +25100,13 @@
       <c r="H11" s="175">
         <v>8</v>
       </c>
-      <c r="I11" s="260">
+      <c r="I11" s="256">
         <v>0.8</v>
       </c>
-      <c r="J11" s="260">
+      <c r="J11" s="256">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K11" s="260" t="s">
+      <c r="K11" s="256" t="s">
         <v>344</v>
       </c>
       <c r="L11" s="208">
@@ -25130,16 +25118,16 @@
       <c r="A12" s="105">
         <v>5</v>
       </c>
-      <c r="B12" s="255" t="s">
+      <c r="B12" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="256">
+      <c r="C12" s="252">
         <v>10</v>
       </c>
-      <c r="D12" s="255" t="s">
+      <c r="D12" s="251" t="s">
         <v>345</v>
       </c>
-      <c r="E12" s="257">
+      <c r="E12" s="253">
         <v>0.89</v>
       </c>
       <c r="F12" s="206">
@@ -25152,13 +25140,13 @@
       <c r="H12" s="175">
         <v>8</v>
       </c>
-      <c r="I12" s="260">
+      <c r="I12" s="256">
         <v>0.8</v>
       </c>
-      <c r="J12" s="260">
+      <c r="J12" s="256">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K12" s="260" t="s">
+      <c r="K12" s="256" t="s">
         <v>344</v>
       </c>
       <c r="L12" s="208">
@@ -25170,16 +25158,16 @@
       <c r="A13" s="103">
         <v>6</v>
       </c>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="256">
+      <c r="C13" s="252">
         <v>15</v>
       </c>
-      <c r="D13" s="255" t="s">
+      <c r="D13" s="251" t="s">
         <v>345</v>
       </c>
-      <c r="E13" s="257">
+      <c r="E13" s="253">
         <v>0.89</v>
       </c>
       <c r="F13" s="206">
@@ -25192,13 +25180,13 @@
       <c r="H13" s="175">
         <v>8</v>
       </c>
-      <c r="I13" s="260">
+      <c r="I13" s="256">
         <v>1</v>
       </c>
-      <c r="J13" s="260">
+      <c r="J13" s="256">
         <v>1.2</v>
       </c>
-      <c r="K13" s="260" t="s">
+      <c r="K13" s="256" t="s">
         <v>344</v>
       </c>
       <c r="L13" s="208">
@@ -25210,16 +25198,16 @@
       <c r="A14" s="103">
         <v>7</v>
       </c>
-      <c r="B14" s="255" t="s">
+      <c r="B14" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="256">
+      <c r="C14" s="252">
         <v>15</v>
       </c>
-      <c r="D14" s="255" t="s">
+      <c r="D14" s="251" t="s">
         <v>345</v>
       </c>
-      <c r="E14" s="257">
+      <c r="E14" s="253">
         <v>0.89</v>
       </c>
       <c r="F14" s="206">
@@ -25232,13 +25220,13 @@
       <c r="H14" s="175">
         <v>8</v>
       </c>
-      <c r="I14" s="260">
+      <c r="I14" s="256">
         <v>1</v>
       </c>
-      <c r="J14" s="260">
+      <c r="J14" s="256">
         <v>1.2</v>
       </c>
-      <c r="K14" s="260" t="s">
+      <c r="K14" s="256" t="s">
         <v>344</v>
       </c>
       <c r="L14" s="208">
@@ -25250,16 +25238,16 @@
       <c r="A15" s="104">
         <v>8</v>
       </c>
-      <c r="B15" s="255" t="s">
+      <c r="B15" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="256">
+      <c r="C15" s="252">
         <v>15</v>
       </c>
-      <c r="D15" s="255" t="s">
+      <c r="D15" s="251" t="s">
         <v>345</v>
       </c>
-      <c r="E15" s="257">
+      <c r="E15" s="253">
         <v>0.89</v>
       </c>
       <c r="F15" s="206">
@@ -25272,13 +25260,13 @@
       <c r="H15" s="175">
         <v>8</v>
       </c>
-      <c r="I15" s="260">
+      <c r="I15" s="256">
         <v>1</v>
       </c>
-      <c r="J15" s="260">
+      <c r="J15" s="256">
         <v>1.2</v>
       </c>
-      <c r="K15" s="260" t="s">
+      <c r="K15" s="256" t="s">
         <v>344</v>
       </c>
       <c r="L15" s="208">
@@ -25290,16 +25278,16 @@
       <c r="A16" s="105">
         <v>9</v>
       </c>
-      <c r="B16" s="255" t="s">
+      <c r="B16" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="256">
+      <c r="C16" s="252">
         <v>15</v>
       </c>
-      <c r="D16" s="255" t="s">
+      <c r="D16" s="251" t="s">
         <v>345</v>
       </c>
-      <c r="E16" s="257">
+      <c r="E16" s="253">
         <v>0.89</v>
       </c>
       <c r="F16" s="206">
@@ -25312,13 +25300,13 @@
       <c r="H16" s="175">
         <v>8</v>
       </c>
-      <c r="I16" s="260">
+      <c r="I16" s="256">
         <v>1</v>
       </c>
-      <c r="J16" s="260">
+      <c r="J16" s="256">
         <v>1.2</v>
       </c>
-      <c r="K16" s="260" t="s">
+      <c r="K16" s="256" t="s">
         <v>344</v>
       </c>
       <c r="L16" s="208">
@@ -25330,16 +25318,16 @@
       <c r="A17" s="191">
         <v>10</v>
       </c>
-      <c r="B17" s="255" t="s">
+      <c r="B17" s="251" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="256">
+      <c r="C17" s="252">
         <v>15</v>
       </c>
-      <c r="D17" s="255" t="s">
+      <c r="D17" s="251" t="s">
         <v>345</v>
       </c>
-      <c r="E17" s="257">
+      <c r="E17" s="253">
         <v>0.89</v>
       </c>
       <c r="F17" s="213">
@@ -25352,54 +25340,54 @@
       <c r="H17" s="176">
         <v>8</v>
       </c>
-      <c r="I17" s="260">
+      <c r="I17" s="256">
         <v>1</v>
       </c>
-      <c r="J17" s="260">
+      <c r="J17" s="256">
         <v>1.2</v>
       </c>
-      <c r="K17" s="260" t="s">
+      <c r="K17" s="256" t="s">
         <v>344</v>
       </c>
-      <c r="L17" s="226">
+      <c r="L17" s="224">
         <f t="shared" si="1"/>
         <v>12.103999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="20" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A18" s="227" t="s">
+      <c r="A18" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="255" t="s">
+      <c r="B18" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="256">
+      <c r="C18" s="252">
         <v>20</v>
       </c>
-      <c r="D18" s="255" t="s">
+      <c r="D18" s="251" t="s">
         <v>208</v>
       </c>
-      <c r="E18" s="257">
+      <c r="E18" s="253">
         <v>0.89</v>
       </c>
-      <c r="F18" s="229">
+      <c r="F18" s="227">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G18" s="230">
+      <c r="G18" s="228">
         <v>4</v>
       </c>
-      <c r="H18" s="230">
+      <c r="H18" s="228">
         <v>8</v>
       </c>
-      <c r="I18" s="260">
+      <c r="I18" s="256">
         <v>0.8</v>
       </c>
-      <c r="J18" s="260">
+      <c r="J18" s="256">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K18" s="260"/>
-      <c r="L18" s="231">
+      <c r="K18" s="256"/>
+      <c r="L18" s="229">
         <f t="shared" si="1"/>
         <v>10.68</v>
       </c>
@@ -25408,16 +25396,16 @@
       <c r="A19" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="255" t="s">
+      <c r="B19" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="256">
+      <c r="C19" s="252">
         <v>20</v>
       </c>
-      <c r="D19" s="255" t="s">
+      <c r="D19" s="251" t="s">
         <v>208</v>
       </c>
-      <c r="E19" s="257">
+      <c r="E19" s="253">
         <v>0.89</v>
       </c>
       <c r="F19" s="206">
@@ -25430,13 +25418,13 @@
       <c r="H19" s="175">
         <v>8</v>
       </c>
-      <c r="I19" s="260">
+      <c r="I19" s="256">
         <v>0.8</v>
       </c>
-      <c r="J19" s="260">
+      <c r="J19" s="256">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K19" s="260"/>
+      <c r="K19" s="256"/>
       <c r="L19" s="208">
         <f t="shared" si="1"/>
         <v>10.68</v>
@@ -25446,16 +25434,16 @@
       <c r="A20" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="255" t="s">
+      <c r="B20" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="256">
+      <c r="C20" s="252">
         <v>20</v>
       </c>
-      <c r="D20" s="255" t="s">
+      <c r="D20" s="251" t="s">
         <v>208</v>
       </c>
-      <c r="E20" s="257">
+      <c r="E20" s="253">
         <v>0.89</v>
       </c>
       <c r="F20" s="206">
@@ -25468,13 +25456,13 @@
       <c r="H20" s="175">
         <v>8</v>
       </c>
-      <c r="I20" s="260">
+      <c r="I20" s="256">
         <v>0.8</v>
       </c>
-      <c r="J20" s="260">
+      <c r="J20" s="256">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K20" s="260"/>
+      <c r="K20" s="256"/>
       <c r="L20" s="208">
         <f t="shared" si="1"/>
         <v>10.68</v>
@@ -25484,16 +25472,16 @@
       <c r="A21" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="255" t="s">
+      <c r="B21" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="256">
+      <c r="C21" s="252">
         <v>20</v>
       </c>
-      <c r="D21" s="255" t="s">
+      <c r="D21" s="251" t="s">
         <v>208</v>
       </c>
-      <c r="E21" s="257">
+      <c r="E21" s="253">
         <v>0.89</v>
       </c>
       <c r="F21" s="206">
@@ -25506,13 +25494,13 @@
       <c r="H21" s="175">
         <v>8</v>
       </c>
-      <c r="I21" s="260">
+      <c r="I21" s="256">
         <v>0.8</v>
       </c>
-      <c r="J21" s="260">
+      <c r="J21" s="256">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K21" s="260"/>
+      <c r="K21" s="256"/>
       <c r="L21" s="208">
         <f t="shared" si="1"/>
         <v>10.68</v>
@@ -25522,16 +25510,16 @@
       <c r="A22" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="255" t="s">
+      <c r="B22" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="256">
+      <c r="C22" s="252">
         <v>20</v>
       </c>
-      <c r="D22" s="255" t="s">
+      <c r="D22" s="251" t="s">
         <v>208</v>
       </c>
-      <c r="E22" s="257">
+      <c r="E22" s="253">
         <v>0.89</v>
       </c>
       <c r="F22" s="206">
@@ -25544,13 +25532,13 @@
       <c r="H22" s="175">
         <v>8</v>
       </c>
-      <c r="I22" s="260">
+      <c r="I22" s="256">
         <v>0.8</v>
       </c>
-      <c r="J22" s="260">
+      <c r="J22" s="256">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K22" s="260"/>
+      <c r="K22" s="256"/>
       <c r="L22" s="208">
         <f t="shared" si="1"/>
         <v>10.68</v>
@@ -25560,16 +25548,16 @@
       <c r="A23" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="255" t="s">
+      <c r="B23" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="256">
+      <c r="C23" s="252">
         <v>20</v>
       </c>
-      <c r="D23" s="255" t="s">
+      <c r="D23" s="251" t="s">
         <v>208</v>
       </c>
-      <c r="E23" s="257">
+      <c r="E23" s="253">
         <v>0.89</v>
       </c>
       <c r="F23" s="206">
@@ -25582,13 +25570,13 @@
       <c r="H23" s="175">
         <v>8</v>
       </c>
-      <c r="I23" s="260">
+      <c r="I23" s="256">
         <v>1</v>
       </c>
-      <c r="J23" s="260">
+      <c r="J23" s="256">
         <v>1.2</v>
       </c>
-      <c r="K23" s="260"/>
+      <c r="K23" s="256"/>
       <c r="L23" s="208">
         <f t="shared" si="1"/>
         <v>12.103999999999999</v>
@@ -25598,16 +25586,16 @@
       <c r="A24" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="255" t="s">
+      <c r="B24" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="256">
+      <c r="C24" s="252">
         <v>20</v>
       </c>
-      <c r="D24" s="255" t="s">
+      <c r="D24" s="251" t="s">
         <v>208</v>
       </c>
-      <c r="E24" s="257">
+      <c r="E24" s="253">
         <v>0.89</v>
       </c>
       <c r="F24" s="206">
@@ -25620,13 +25608,13 @@
       <c r="H24" s="175">
         <v>8</v>
       </c>
-      <c r="I24" s="260">
+      <c r="I24" s="256">
         <v>1</v>
       </c>
-      <c r="J24" s="260">
+      <c r="J24" s="256">
         <v>1.2</v>
       </c>
-      <c r="K24" s="260"/>
+      <c r="K24" s="256"/>
       <c r="L24" s="208">
         <f t="shared" si="1"/>
         <v>12.103999999999999</v>
@@ -25636,16 +25624,16 @@
       <c r="A25" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="255" t="s">
+      <c r="B25" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="256">
+      <c r="C25" s="252">
         <v>20</v>
       </c>
-      <c r="D25" s="255" t="s">
+      <c r="D25" s="251" t="s">
         <v>208</v>
       </c>
-      <c r="E25" s="257">
+      <c r="E25" s="253">
         <v>0.89</v>
       </c>
       <c r="F25" s="206">
@@ -25658,13 +25646,13 @@
       <c r="H25" s="175">
         <v>8</v>
       </c>
-      <c r="I25" s="260">
+      <c r="I25" s="256">
         <v>1</v>
       </c>
-      <c r="J25" s="260">
+      <c r="J25" s="256">
         <v>1.2</v>
       </c>
-      <c r="K25" s="260"/>
+      <c r="K25" s="256"/>
       <c r="L25" s="208">
         <f t="shared" si="1"/>
         <v>12.103999999999999</v>
@@ -25674,16 +25662,16 @@
       <c r="A26" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="255" t="s">
+      <c r="B26" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="256">
+      <c r="C26" s="252">
         <v>20</v>
       </c>
-      <c r="D26" s="255" t="s">
+      <c r="D26" s="251" t="s">
         <v>208</v>
       </c>
-      <c r="E26" s="257">
+      <c r="E26" s="253">
         <v>0.89</v>
       </c>
       <c r="F26" s="206">
@@ -25696,13 +25684,13 @@
       <c r="H26" s="175">
         <v>8</v>
       </c>
-      <c r="I26" s="260">
+      <c r="I26" s="256">
         <v>1</v>
       </c>
-      <c r="J26" s="260">
+      <c r="J26" s="256">
         <v>1.2</v>
       </c>
-      <c r="K26" s="260"/>
+      <c r="K26" s="256"/>
       <c r="L26" s="208">
         <f t="shared" si="1"/>
         <v>12.103999999999999</v>
@@ -25712,16 +25700,16 @@
       <c r="A27" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="255" t="s">
+      <c r="B27" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="256">
+      <c r="C27" s="252">
         <v>20</v>
       </c>
-      <c r="D27" s="255" t="s">
+      <c r="D27" s="251" t="s">
         <v>208</v>
       </c>
-      <c r="E27" s="257">
+      <c r="E27" s="253">
         <v>0.89</v>
       </c>
       <c r="F27" s="206">
@@ -25734,13 +25722,13 @@
       <c r="H27" s="184">
         <v>8</v>
       </c>
-      <c r="I27" s="260">
+      <c r="I27" s="256">
         <v>1</v>
       </c>
-      <c r="J27" s="260">
+      <c r="J27" s="256">
         <v>1.2</v>
       </c>
-      <c r="K27" s="260"/>
+      <c r="K27" s="256"/>
       <c r="L27" s="208">
         <f t="shared" si="1"/>
         <v>12.103999999999999</v>
@@ -25748,19 +25736,19 @@
     </row>
     <row r="28" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A28" s="96"/>
-      <c r="B28" s="255"/>
-      <c r="C28" s="256"/>
-      <c r="D28" s="255"/>
-      <c r="E28" s="257"/>
+      <c r="B28" s="251"/>
+      <c r="C28" s="252"/>
+      <c r="D28" s="251"/>
+      <c r="E28" s="253"/>
       <c r="F28" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="177"/>
       <c r="H28" s="177"/>
-      <c r="I28" s="260"/>
-      <c r="J28" s="260"/>
-      <c r="K28" s="260"/>
+      <c r="I28" s="256"/>
+      <c r="J28" s="256"/>
+      <c r="K28" s="256"/>
       <c r="L28" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25768,19 +25756,19 @@
     </row>
     <row r="29" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A29" s="96"/>
-      <c r="B29" s="255"/>
-      <c r="C29" s="256"/>
-      <c r="D29" s="255"/>
-      <c r="E29" s="257"/>
+      <c r="B29" s="251"/>
+      <c r="C29" s="252"/>
+      <c r="D29" s="251"/>
+      <c r="E29" s="253"/>
       <c r="F29" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
-      <c r="I29" s="260"/>
-      <c r="J29" s="260"/>
-      <c r="K29" s="260"/>
+      <c r="I29" s="256"/>
+      <c r="J29" s="256"/>
+      <c r="K29" s="256"/>
       <c r="L29" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25788,19 +25776,19 @@
     </row>
     <row r="30" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A30" s="97"/>
-      <c r="B30" s="255"/>
-      <c r="C30" s="256"/>
-      <c r="D30" s="255"/>
-      <c r="E30" s="257"/>
+      <c r="B30" s="251"/>
+      <c r="C30" s="252"/>
+      <c r="D30" s="251"/>
+      <c r="E30" s="253"/>
       <c r="F30" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="177"/>
       <c r="H30" s="177"/>
-      <c r="I30" s="260"/>
-      <c r="J30" s="260"/>
-      <c r="K30" s="260"/>
+      <c r="I30" s="256"/>
+      <c r="J30" s="256"/>
+      <c r="K30" s="256"/>
       <c r="L30" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25808,19 +25796,19 @@
     </row>
     <row r="31" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A31" s="85"/>
-      <c r="B31" s="255"/>
-      <c r="C31" s="256"/>
-      <c r="D31" s="255"/>
-      <c r="E31" s="257"/>
+      <c r="B31" s="251"/>
+      <c r="C31" s="252"/>
+      <c r="D31" s="251"/>
+      <c r="E31" s="253"/>
       <c r="F31" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G31" s="177"/>
       <c r="H31" s="177"/>
-      <c r="I31" s="260"/>
-      <c r="J31" s="260"/>
-      <c r="K31" s="260"/>
+      <c r="I31" s="256"/>
+      <c r="J31" s="256"/>
+      <c r="K31" s="256"/>
       <c r="L31" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25828,19 +25816,19 @@
     </row>
     <row r="32" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A32" s="85"/>
-      <c r="B32" s="255"/>
-      <c r="C32" s="256"/>
-      <c r="D32" s="255"/>
-      <c r="E32" s="257"/>
+      <c r="B32" s="251"/>
+      <c r="C32" s="252"/>
+      <c r="D32" s="251"/>
+      <c r="E32" s="253"/>
       <c r="F32" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G32" s="177"/>
       <c r="H32" s="177"/>
-      <c r="I32" s="260"/>
-      <c r="J32" s="260"/>
-      <c r="K32" s="260"/>
+      <c r="I32" s="256"/>
+      <c r="J32" s="256"/>
+      <c r="K32" s="256"/>
       <c r="L32" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25848,19 +25836,19 @@
     </row>
     <row r="33" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A33" s="100"/>
-      <c r="B33" s="255"/>
-      <c r="C33" s="256"/>
-      <c r="D33" s="255"/>
-      <c r="E33" s="257"/>
+      <c r="B33" s="251"/>
+      <c r="C33" s="252"/>
+      <c r="D33" s="251"/>
+      <c r="E33" s="253"/>
       <c r="F33" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G33" s="177"/>
       <c r="H33" s="177"/>
-      <c r="I33" s="260"/>
-      <c r="J33" s="260"/>
-      <c r="K33" s="260"/>
+      <c r="I33" s="256"/>
+      <c r="J33" s="256"/>
+      <c r="K33" s="256"/>
       <c r="L33" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25868,19 +25856,19 @@
     </row>
     <row r="34" spans="1:12" s="20" customFormat="1" ht="12.75" customHeight="1">
       <c r="A34" s="100"/>
-      <c r="B34" s="255"/>
-      <c r="C34" s="256"/>
-      <c r="D34" s="255"/>
-      <c r="E34" s="257"/>
+      <c r="B34" s="251"/>
+      <c r="C34" s="252"/>
+      <c r="D34" s="251"/>
+      <c r="E34" s="253"/>
       <c r="F34" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G34" s="177"/>
       <c r="H34" s="177"/>
-      <c r="I34" s="260"/>
-      <c r="J34" s="260"/>
-      <c r="K34" s="260"/>
+      <c r="I34" s="256"/>
+      <c r="J34" s="256"/>
+      <c r="K34" s="256"/>
       <c r="L34" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25888,19 +25876,19 @@
     </row>
     <row r="35" spans="1:12" s="20" customFormat="1" ht="12.75" customHeight="1">
       <c r="A35" s="100"/>
-      <c r="B35" s="255"/>
-      <c r="C35" s="256"/>
-      <c r="D35" s="255"/>
-      <c r="E35" s="257"/>
+      <c r="B35" s="251"/>
+      <c r="C35" s="252"/>
+      <c r="D35" s="251"/>
+      <c r="E35" s="253"/>
       <c r="F35" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G35" s="177"/>
       <c r="H35" s="177"/>
-      <c r="I35" s="260"/>
-      <c r="J35" s="260"/>
-      <c r="K35" s="260"/>
+      <c r="I35" s="256"/>
+      <c r="J35" s="256"/>
+      <c r="K35" s="256"/>
       <c r="L35" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25908,19 +25896,19 @@
     </row>
     <row r="36" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A36" s="85"/>
-      <c r="B36" s="255"/>
-      <c r="C36" s="256"/>
-      <c r="D36" s="255"/>
-      <c r="E36" s="257"/>
+      <c r="B36" s="251"/>
+      <c r="C36" s="252"/>
+      <c r="D36" s="251"/>
+      <c r="E36" s="253"/>
       <c r="F36" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G36" s="177"/>
       <c r="H36" s="177"/>
-      <c r="I36" s="260"/>
-      <c r="J36" s="260"/>
-      <c r="K36" s="260"/>
+      <c r="I36" s="256"/>
+      <c r="J36" s="256"/>
+      <c r="K36" s="256"/>
       <c r="L36" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25928,19 +25916,19 @@
     </row>
     <row r="37" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A37" s="85"/>
-      <c r="B37" s="255"/>
-      <c r="C37" s="256"/>
-      <c r="D37" s="255"/>
-      <c r="E37" s="257"/>
+      <c r="B37" s="251"/>
+      <c r="C37" s="252"/>
+      <c r="D37" s="251"/>
+      <c r="E37" s="253"/>
       <c r="F37" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G37" s="177"/>
       <c r="H37" s="177"/>
-      <c r="I37" s="260"/>
-      <c r="J37" s="260"/>
-      <c r="K37" s="260"/>
+      <c r="I37" s="256"/>
+      <c r="J37" s="256"/>
+      <c r="K37" s="256"/>
       <c r="L37" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25948,19 +25936,19 @@
     </row>
     <row r="38" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A38" s="96"/>
-      <c r="B38" s="255"/>
-      <c r="C38" s="256"/>
-      <c r="D38" s="255"/>
-      <c r="E38" s="257"/>
+      <c r="B38" s="251"/>
+      <c r="C38" s="252"/>
+      <c r="D38" s="251"/>
+      <c r="E38" s="253"/>
       <c r="F38" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G38" s="177"/>
       <c r="H38" s="177"/>
-      <c r="I38" s="260"/>
-      <c r="J38" s="260"/>
-      <c r="K38" s="260"/>
+      <c r="I38" s="256"/>
+      <c r="J38" s="256"/>
+      <c r="K38" s="256"/>
       <c r="L38" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25968,19 +25956,19 @@
     </row>
     <row r="39" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A39" s="96"/>
-      <c r="B39" s="255"/>
-      <c r="C39" s="256"/>
-      <c r="D39" s="255"/>
-      <c r="E39" s="257"/>
+      <c r="B39" s="251"/>
+      <c r="C39" s="252"/>
+      <c r="D39" s="251"/>
+      <c r="E39" s="253"/>
       <c r="F39" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G39" s="177"/>
       <c r="H39" s="177"/>
-      <c r="I39" s="260"/>
-      <c r="J39" s="260"/>
-      <c r="K39" s="260"/>
+      <c r="I39" s="256"/>
+      <c r="J39" s="256"/>
+      <c r="K39" s="256"/>
       <c r="L39" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25988,19 +25976,19 @@
     </row>
     <row r="40" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A40" s="97"/>
-      <c r="B40" s="255"/>
-      <c r="C40" s="256"/>
-      <c r="D40" s="255"/>
-      <c r="E40" s="257"/>
+      <c r="B40" s="251"/>
+      <c r="C40" s="252"/>
+      <c r="D40" s="251"/>
+      <c r="E40" s="253"/>
       <c r="F40" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G40" s="177"/>
       <c r="H40" s="177"/>
-      <c r="I40" s="260"/>
-      <c r="J40" s="260"/>
-      <c r="K40" s="260"/>
+      <c r="I40" s="256"/>
+      <c r="J40" s="256"/>
+      <c r="K40" s="256"/>
       <c r="L40" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26008,19 +25996,19 @@
     </row>
     <row r="41" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A41" s="85"/>
-      <c r="B41" s="255"/>
-      <c r="C41" s="256"/>
-      <c r="D41" s="255"/>
-      <c r="E41" s="257"/>
+      <c r="B41" s="251"/>
+      <c r="C41" s="252"/>
+      <c r="D41" s="251"/>
+      <c r="E41" s="253"/>
       <c r="F41" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G41" s="177"/>
       <c r="H41" s="177"/>
-      <c r="I41" s="260"/>
-      <c r="J41" s="260"/>
-      <c r="K41" s="260"/>
+      <c r="I41" s="256"/>
+      <c r="J41" s="256"/>
+      <c r="K41" s="256"/>
       <c r="L41" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26028,19 +26016,19 @@
     </row>
     <row r="42" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A42" s="85"/>
-      <c r="B42" s="255"/>
-      <c r="C42" s="256"/>
-      <c r="D42" s="255"/>
-      <c r="E42" s="257"/>
+      <c r="B42" s="251"/>
+      <c r="C42" s="252"/>
+      <c r="D42" s="251"/>
+      <c r="E42" s="253"/>
       <c r="F42" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G42" s="177"/>
       <c r="H42" s="177"/>
-      <c r="I42" s="260"/>
-      <c r="J42" s="260"/>
-      <c r="K42" s="260"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="256"/>
       <c r="L42" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26048,19 +26036,19 @@
     </row>
     <row r="43" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A43" s="85"/>
-      <c r="B43" s="255"/>
-      <c r="C43" s="256"/>
-      <c r="D43" s="255"/>
-      <c r="E43" s="257"/>
+      <c r="B43" s="251"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="251"/>
+      <c r="E43" s="253"/>
       <c r="F43" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G43" s="177"/>
       <c r="H43" s="177"/>
-      <c r="I43" s="260"/>
-      <c r="J43" s="260"/>
-      <c r="K43" s="260"/>
+      <c r="I43" s="256"/>
+      <c r="J43" s="256"/>
+      <c r="K43" s="256"/>
       <c r="L43" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26068,19 +26056,19 @@
     </row>
     <row r="44" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A44" s="85"/>
-      <c r="B44" s="255"/>
-      <c r="C44" s="256"/>
-      <c r="D44" s="255"/>
-      <c r="E44" s="257"/>
+      <c r="B44" s="251"/>
+      <c r="C44" s="252"/>
+      <c r="D44" s="251"/>
+      <c r="E44" s="253"/>
       <c r="F44" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G44" s="177"/>
       <c r="H44" s="177"/>
-      <c r="I44" s="260"/>
-      <c r="J44" s="260"/>
-      <c r="K44" s="260"/>
+      <c r="I44" s="256"/>
+      <c r="J44" s="256"/>
+      <c r="K44" s="256"/>
       <c r="L44" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26088,19 +26076,19 @@
     </row>
     <row r="45" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A45" s="85"/>
-      <c r="B45" s="255"/>
-      <c r="C45" s="256"/>
-      <c r="D45" s="255"/>
-      <c r="E45" s="257"/>
+      <c r="B45" s="251"/>
+      <c r="C45" s="252"/>
+      <c r="D45" s="251"/>
+      <c r="E45" s="253"/>
       <c r="F45" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G45" s="177"/>
       <c r="H45" s="177"/>
-      <c r="I45" s="260"/>
-      <c r="J45" s="260"/>
-      <c r="K45" s="260"/>
+      <c r="I45" s="256"/>
+      <c r="J45" s="256"/>
+      <c r="K45" s="256"/>
       <c r="L45" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26108,19 +26096,19 @@
     </row>
     <row r="46" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A46" s="85"/>
-      <c r="B46" s="255"/>
-      <c r="C46" s="256"/>
-      <c r="D46" s="255"/>
-      <c r="E46" s="257"/>
+      <c r="B46" s="251"/>
+      <c r="C46" s="252"/>
+      <c r="D46" s="251"/>
+      <c r="E46" s="253"/>
       <c r="F46" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G46" s="177"/>
       <c r="H46" s="177"/>
-      <c r="I46" s="260"/>
-      <c r="J46" s="260"/>
-      <c r="K46" s="260"/>
+      <c r="I46" s="256"/>
+      <c r="J46" s="256"/>
+      <c r="K46" s="256"/>
       <c r="L46" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26128,19 +26116,19 @@
     </row>
     <row r="47" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A47" s="96"/>
-      <c r="B47" s="255"/>
-      <c r="C47" s="256"/>
-      <c r="D47" s="255"/>
-      <c r="E47" s="257"/>
+      <c r="B47" s="251"/>
+      <c r="C47" s="252"/>
+      <c r="D47" s="251"/>
+      <c r="E47" s="253"/>
       <c r="F47" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G47" s="177"/>
       <c r="H47" s="177"/>
-      <c r="I47" s="260"/>
-      <c r="J47" s="260"/>
-      <c r="K47" s="260"/>
+      <c r="I47" s="256"/>
+      <c r="J47" s="256"/>
+      <c r="K47" s="256"/>
       <c r="L47" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26148,19 +26136,19 @@
     </row>
     <row r="48" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A48" s="96"/>
-      <c r="B48" s="255"/>
-      <c r="C48" s="256"/>
-      <c r="D48" s="255"/>
-      <c r="E48" s="257"/>
+      <c r="B48" s="251"/>
+      <c r="C48" s="252"/>
+      <c r="D48" s="251"/>
+      <c r="E48" s="253"/>
       <c r="F48" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G48" s="177"/>
       <c r="H48" s="177"/>
-      <c r="I48" s="260"/>
-      <c r="J48" s="260"/>
-      <c r="K48" s="260"/>
+      <c r="I48" s="256"/>
+      <c r="J48" s="256"/>
+      <c r="K48" s="256"/>
       <c r="L48" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26168,19 +26156,19 @@
     </row>
     <row r="49" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A49" s="85"/>
-      <c r="B49" s="255"/>
-      <c r="C49" s="256"/>
-      <c r="D49" s="255"/>
-      <c r="E49" s="257"/>
+      <c r="B49" s="251"/>
+      <c r="C49" s="252"/>
+      <c r="D49" s="251"/>
+      <c r="E49" s="253"/>
       <c r="F49" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G49" s="177"/>
       <c r="H49" s="177"/>
-      <c r="I49" s="260"/>
-      <c r="J49" s="260"/>
-      <c r="K49" s="260"/>
+      <c r="I49" s="256"/>
+      <c r="J49" s="256"/>
+      <c r="K49" s="256"/>
       <c r="L49" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26188,19 +26176,19 @@
     </row>
     <row r="50" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A50" s="85"/>
-      <c r="B50" s="255"/>
-      <c r="C50" s="256"/>
-      <c r="D50" s="255"/>
-      <c r="E50" s="257"/>
+      <c r="B50" s="251"/>
+      <c r="C50" s="252"/>
+      <c r="D50" s="251"/>
+      <c r="E50" s="253"/>
       <c r="F50" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G50" s="177"/>
       <c r="H50" s="177"/>
-      <c r="I50" s="260"/>
-      <c r="J50" s="260"/>
-      <c r="K50" s="260"/>
+      <c r="I50" s="256"/>
+      <c r="J50" s="256"/>
+      <c r="K50" s="256"/>
       <c r="L50" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26208,19 +26196,19 @@
     </row>
     <row r="51" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A51" s="97"/>
-      <c r="B51" s="255"/>
-      <c r="C51" s="256"/>
-      <c r="D51" s="255"/>
-      <c r="E51" s="257"/>
+      <c r="B51" s="251"/>
+      <c r="C51" s="252"/>
+      <c r="D51" s="251"/>
+      <c r="E51" s="253"/>
       <c r="F51" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G51" s="177"/>
       <c r="H51" s="177"/>
-      <c r="I51" s="260"/>
-      <c r="J51" s="260"/>
-      <c r="K51" s="260"/>
+      <c r="I51" s="256"/>
+      <c r="J51" s="256"/>
+      <c r="K51" s="256"/>
       <c r="L51" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26228,19 +26216,19 @@
     </row>
     <row r="52" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A52" s="97"/>
-      <c r="B52" s="255"/>
-      <c r="C52" s="256"/>
-      <c r="D52" s="255"/>
-      <c r="E52" s="257"/>
+      <c r="B52" s="251"/>
+      <c r="C52" s="252"/>
+      <c r="D52" s="251"/>
+      <c r="E52" s="253"/>
       <c r="F52" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G52" s="177"/>
       <c r="H52" s="177"/>
-      <c r="I52" s="260"/>
-      <c r="J52" s="260"/>
-      <c r="K52" s="260"/>
+      <c r="I52" s="256"/>
+      <c r="J52" s="256"/>
+      <c r="K52" s="256"/>
       <c r="L52" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26248,19 +26236,19 @@
     </row>
     <row r="53" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A53" s="85"/>
-      <c r="B53" s="255"/>
-      <c r="C53" s="256"/>
-      <c r="D53" s="255"/>
-      <c r="E53" s="257"/>
+      <c r="B53" s="251"/>
+      <c r="C53" s="252"/>
+      <c r="D53" s="251"/>
+      <c r="E53" s="253"/>
       <c r="F53" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G53" s="177"/>
       <c r="H53" s="177"/>
-      <c r="I53" s="260"/>
-      <c r="J53" s="260"/>
-      <c r="K53" s="260"/>
+      <c r="I53" s="256"/>
+      <c r="J53" s="256"/>
+      <c r="K53" s="256"/>
       <c r="L53" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26268,19 +26256,19 @@
     </row>
     <row r="54" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A54" s="96"/>
-      <c r="B54" s="255"/>
-      <c r="C54" s="256"/>
-      <c r="D54" s="255"/>
-      <c r="E54" s="257"/>
+      <c r="B54" s="251"/>
+      <c r="C54" s="252"/>
+      <c r="D54" s="251"/>
+      <c r="E54" s="253"/>
       <c r="F54" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G54" s="177"/>
       <c r="H54" s="177"/>
-      <c r="I54" s="260"/>
-      <c r="J54" s="260"/>
-      <c r="K54" s="260"/>
+      <c r="I54" s="256"/>
+      <c r="J54" s="256"/>
+      <c r="K54" s="256"/>
       <c r="L54" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26288,19 +26276,19 @@
     </row>
     <row r="55" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A55" s="96"/>
-      <c r="B55" s="255"/>
-      <c r="C55" s="256"/>
-      <c r="D55" s="255"/>
-      <c r="E55" s="257"/>
+      <c r="B55" s="251"/>
+      <c r="C55" s="252"/>
+      <c r="D55" s="251"/>
+      <c r="E55" s="253"/>
       <c r="F55" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G55" s="177"/>
       <c r="H55" s="177"/>
-      <c r="I55" s="260"/>
-      <c r="J55" s="260"/>
-      <c r="K55" s="260"/>
+      <c r="I55" s="256"/>
+      <c r="J55" s="256"/>
+      <c r="K55" s="256"/>
       <c r="L55" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26308,19 +26296,19 @@
     </row>
     <row r="56" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A56" s="85"/>
-      <c r="B56" s="255"/>
-      <c r="C56" s="256"/>
-      <c r="D56" s="255"/>
-      <c r="E56" s="257"/>
+      <c r="B56" s="251"/>
+      <c r="C56" s="252"/>
+      <c r="D56" s="251"/>
+      <c r="E56" s="253"/>
       <c r="F56" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G56" s="177"/>
       <c r="H56" s="177"/>
-      <c r="I56" s="260"/>
-      <c r="J56" s="260"/>
-      <c r="K56" s="260"/>
+      <c r="I56" s="256"/>
+      <c r="J56" s="256"/>
+      <c r="K56" s="256"/>
       <c r="L56" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26328,19 +26316,19 @@
     </row>
     <row r="57" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A57" s="85"/>
-      <c r="B57" s="255"/>
-      <c r="C57" s="256"/>
-      <c r="D57" s="255"/>
-      <c r="E57" s="257"/>
+      <c r="B57" s="251"/>
+      <c r="C57" s="252"/>
+      <c r="D57" s="251"/>
+      <c r="E57" s="253"/>
       <c r="F57" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G57" s="177"/>
       <c r="H57" s="177"/>
-      <c r="I57" s="260"/>
-      <c r="J57" s="260"/>
-      <c r="K57" s="260"/>
+      <c r="I57" s="256"/>
+      <c r="J57" s="256"/>
+      <c r="K57" s="256"/>
       <c r="L57" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26348,19 +26336,19 @@
     </row>
     <row r="58" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A58" s="101"/>
-      <c r="B58" s="255"/>
-      <c r="C58" s="256"/>
-      <c r="D58" s="255"/>
-      <c r="E58" s="257"/>
+      <c r="B58" s="251"/>
+      <c r="C58" s="252"/>
+      <c r="D58" s="251"/>
+      <c r="E58" s="253"/>
       <c r="F58" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G58" s="177"/>
       <c r="H58" s="177"/>
-      <c r="I58" s="260"/>
-      <c r="J58" s="260"/>
-      <c r="K58" s="260"/>
+      <c r="I58" s="256"/>
+      <c r="J58" s="256"/>
+      <c r="K58" s="256"/>
       <c r="L58" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26368,19 +26356,19 @@
     </row>
     <row r="59" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A59" s="101"/>
-      <c r="B59" s="255"/>
-      <c r="C59" s="256"/>
-      <c r="D59" s="255"/>
-      <c r="E59" s="257"/>
+      <c r="B59" s="251"/>
+      <c r="C59" s="252"/>
+      <c r="D59" s="251"/>
+      <c r="E59" s="253"/>
       <c r="F59" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G59" s="177"/>
       <c r="H59" s="177"/>
-      <c r="I59" s="260"/>
-      <c r="J59" s="260"/>
-      <c r="K59" s="260"/>
+      <c r="I59" s="256"/>
+      <c r="J59" s="256"/>
+      <c r="K59" s="256"/>
       <c r="L59" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26388,19 +26376,19 @@
     </row>
     <row r="60" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A60" s="101"/>
-      <c r="B60" s="255"/>
-      <c r="C60" s="256"/>
-      <c r="D60" s="255"/>
-      <c r="E60" s="257"/>
+      <c r="B60" s="251"/>
+      <c r="C60" s="252"/>
+      <c r="D60" s="251"/>
+      <c r="E60" s="253"/>
       <c r="F60" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G60" s="177"/>
       <c r="H60" s="177"/>
-      <c r="I60" s="260"/>
-      <c r="J60" s="260"/>
-      <c r="K60" s="260"/>
+      <c r="I60" s="256"/>
+      <c r="J60" s="256"/>
+      <c r="K60" s="256"/>
       <c r="L60" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26408,19 +26396,19 @@
     </row>
     <row r="61" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A61" s="85"/>
-      <c r="B61" s="255"/>
-      <c r="C61" s="256"/>
-      <c r="D61" s="255"/>
-      <c r="E61" s="257"/>
+      <c r="B61" s="251"/>
+      <c r="C61" s="252"/>
+      <c r="D61" s="251"/>
+      <c r="E61" s="253"/>
       <c r="F61" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G61" s="177"/>
       <c r="H61" s="177"/>
-      <c r="I61" s="260"/>
-      <c r="J61" s="260"/>
-      <c r="K61" s="260"/>
+      <c r="I61" s="256"/>
+      <c r="J61" s="256"/>
+      <c r="K61" s="256"/>
       <c r="L61" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26428,19 +26416,19 @@
     </row>
     <row r="62" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A62" s="85"/>
-      <c r="B62" s="255"/>
-      <c r="C62" s="256"/>
-      <c r="D62" s="255"/>
-      <c r="E62" s="257"/>
+      <c r="B62" s="251"/>
+      <c r="C62" s="252"/>
+      <c r="D62" s="251"/>
+      <c r="E62" s="253"/>
       <c r="F62" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G62" s="177"/>
       <c r="H62" s="177"/>
-      <c r="I62" s="260"/>
-      <c r="J62" s="260"/>
-      <c r="K62" s="260"/>
+      <c r="I62" s="256"/>
+      <c r="J62" s="256"/>
+      <c r="K62" s="256"/>
       <c r="L62" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26448,19 +26436,19 @@
     </row>
     <row r="63" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A63" s="96"/>
-      <c r="B63" s="255"/>
-      <c r="C63" s="256"/>
-      <c r="D63" s="255"/>
-      <c r="E63" s="257"/>
+      <c r="B63" s="251"/>
+      <c r="C63" s="252"/>
+      <c r="D63" s="251"/>
+      <c r="E63" s="253"/>
       <c r="F63" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G63" s="177"/>
       <c r="H63" s="177"/>
-      <c r="I63" s="260"/>
-      <c r="J63" s="260"/>
-      <c r="K63" s="260"/>
+      <c r="I63" s="256"/>
+      <c r="J63" s="256"/>
+      <c r="K63" s="256"/>
       <c r="L63" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26468,19 +26456,19 @@
     </row>
     <row r="64" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A64" s="96"/>
-      <c r="B64" s="255"/>
-      <c r="C64" s="256"/>
-      <c r="D64" s="255"/>
-      <c r="E64" s="257"/>
+      <c r="B64" s="251"/>
+      <c r="C64" s="252"/>
+      <c r="D64" s="251"/>
+      <c r="E64" s="253"/>
       <c r="F64" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G64" s="177"/>
       <c r="H64" s="177"/>
-      <c r="I64" s="260"/>
-      <c r="J64" s="260"/>
-      <c r="K64" s="260"/>
+      <c r="I64" s="256"/>
+      <c r="J64" s="256"/>
+      <c r="K64" s="256"/>
       <c r="L64" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26488,19 +26476,19 @@
     </row>
     <row r="65" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A65" s="96"/>
-      <c r="B65" s="255"/>
-      <c r="C65" s="256"/>
-      <c r="D65" s="255"/>
-      <c r="E65" s="257"/>
+      <c r="B65" s="251"/>
+      <c r="C65" s="252"/>
+      <c r="D65" s="251"/>
+      <c r="E65" s="253"/>
       <c r="F65" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G65" s="177"/>
       <c r="H65" s="177"/>
-      <c r="I65" s="260"/>
-      <c r="J65" s="260"/>
-      <c r="K65" s="260"/>
+      <c r="I65" s="256"/>
+      <c r="J65" s="256"/>
+      <c r="K65" s="256"/>
       <c r="L65" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26508,19 +26496,19 @@
     </row>
     <row r="66" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A66" s="96"/>
-      <c r="B66" s="255"/>
-      <c r="C66" s="256"/>
-      <c r="D66" s="255"/>
-      <c r="E66" s="257"/>
+      <c r="B66" s="251"/>
+      <c r="C66" s="252"/>
+      <c r="D66" s="251"/>
+      <c r="E66" s="253"/>
       <c r="F66" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G66" s="177"/>
       <c r="H66" s="177"/>
-      <c r="I66" s="260"/>
-      <c r="J66" s="260"/>
-      <c r="K66" s="260"/>
+      <c r="I66" s="256"/>
+      <c r="J66" s="256"/>
+      <c r="K66" s="256"/>
       <c r="L66" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26528,19 +26516,19 @@
     </row>
     <row r="67" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A67" s="85"/>
-      <c r="B67" s="255"/>
-      <c r="C67" s="256"/>
-      <c r="D67" s="255"/>
-      <c r="E67" s="257"/>
+      <c r="B67" s="251"/>
+      <c r="C67" s="252"/>
+      <c r="D67" s="251"/>
+      <c r="E67" s="253"/>
       <c r="F67" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G67" s="177"/>
       <c r="H67" s="177"/>
-      <c r="I67" s="260"/>
-      <c r="J67" s="260"/>
-      <c r="K67" s="260"/>
+      <c r="I67" s="256"/>
+      <c r="J67" s="256"/>
+      <c r="K67" s="256"/>
       <c r="L67" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26548,19 +26536,19 @@
     </row>
     <row r="68" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
       <c r="A68" s="85"/>
-      <c r="B68" s="255"/>
-      <c r="C68" s="256"/>
-      <c r="D68" s="255"/>
-      <c r="E68" s="257"/>
+      <c r="B68" s="251"/>
+      <c r="C68" s="252"/>
+      <c r="D68" s="251"/>
+      <c r="E68" s="253"/>
       <c r="F68" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G68" s="177"/>
       <c r="H68" s="177"/>
-      <c r="I68" s="260"/>
-      <c r="J68" s="260"/>
-      <c r="K68" s="260"/>
+      <c r="I68" s="256"/>
+      <c r="J68" s="256"/>
+      <c r="K68" s="256"/>
       <c r="L68" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26568,19 +26556,19 @@
     </row>
     <row r="69" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A69" s="102"/>
-      <c r="B69" s="255"/>
-      <c r="C69" s="256"/>
-      <c r="D69" s="255"/>
-      <c r="E69" s="257"/>
+      <c r="B69" s="251"/>
+      <c r="C69" s="252"/>
+      <c r="D69" s="251"/>
+      <c r="E69" s="253"/>
       <c r="F69" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G69" s="177"/>
       <c r="H69" s="177"/>
-      <c r="I69" s="260"/>
-      <c r="J69" s="260"/>
-      <c r="K69" s="260"/>
+      <c r="I69" s="256"/>
+      <c r="J69" s="256"/>
+      <c r="K69" s="256"/>
       <c r="L69" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26588,19 +26576,19 @@
     </row>
     <row r="70" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A70" s="102"/>
-      <c r="B70" s="255"/>
-      <c r="C70" s="256"/>
-      <c r="D70" s="255"/>
-      <c r="E70" s="257"/>
+      <c r="B70" s="251"/>
+      <c r="C70" s="252"/>
+      <c r="D70" s="251"/>
+      <c r="E70" s="253"/>
       <c r="F70" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G70" s="177"/>
       <c r="H70" s="177"/>
-      <c r="I70" s="260"/>
-      <c r="J70" s="260"/>
-      <c r="K70" s="260"/>
+      <c r="I70" s="256"/>
+      <c r="J70" s="256"/>
+      <c r="K70" s="256"/>
       <c r="L70" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26608,19 +26596,19 @@
     </row>
     <row r="71" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A71" s="102"/>
-      <c r="B71" s="255"/>
-      <c r="C71" s="256"/>
-      <c r="D71" s="255"/>
-      <c r="E71" s="257"/>
+      <c r="B71" s="251"/>
+      <c r="C71" s="252"/>
+      <c r="D71" s="251"/>
+      <c r="E71" s="253"/>
       <c r="F71" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G71" s="177"/>
       <c r="H71" s="177"/>
-      <c r="I71" s="260"/>
-      <c r="J71" s="260"/>
-      <c r="K71" s="260"/>
+      <c r="I71" s="256"/>
+      <c r="J71" s="256"/>
+      <c r="K71" s="256"/>
       <c r="L71" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26628,19 +26616,19 @@
     </row>
     <row r="72" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A72" s="85"/>
-      <c r="B72" s="255"/>
-      <c r="C72" s="256"/>
-      <c r="D72" s="255"/>
-      <c r="E72" s="257"/>
+      <c r="B72" s="251"/>
+      <c r="C72" s="252"/>
+      <c r="D72" s="251"/>
+      <c r="E72" s="253"/>
       <c r="F72" s="206">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G72" s="177"/>
       <c r="H72" s="177"/>
-      <c r="I72" s="260"/>
-      <c r="J72" s="260"/>
-      <c r="K72" s="260"/>
+      <c r="I72" s="256"/>
+      <c r="J72" s="256"/>
+      <c r="K72" s="256"/>
       <c r="L72" s="208">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26648,19 +26636,19 @@
     </row>
     <row r="73" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A73" s="96"/>
-      <c r="B73" s="255"/>
-      <c r="C73" s="256"/>
-      <c r="D73" s="255"/>
-      <c r="E73" s="257"/>
+      <c r="B73" s="251"/>
+      <c r="C73" s="252"/>
+      <c r="D73" s="251"/>
+      <c r="E73" s="253"/>
       <c r="F73" s="206">
         <f t="shared" ref="F73:F136" si="2">SUM(G73,H73)</f>
         <v>0</v>
       </c>
       <c r="G73" s="177"/>
       <c r="H73" s="177"/>
-      <c r="I73" s="260"/>
-      <c r="J73" s="260"/>
-      <c r="K73" s="260"/>
+      <c r="I73" s="256"/>
+      <c r="J73" s="256"/>
+      <c r="K73" s="256"/>
       <c r="L73" s="208">
         <f t="shared" ref="L73:L136" si="3">(G73*I73+H73*J73)*E73</f>
         <v>0</v>
@@ -26668,19 +26656,19 @@
     </row>
     <row r="74" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A74" s="96"/>
-      <c r="B74" s="255"/>
-      <c r="C74" s="256"/>
-      <c r="D74" s="255"/>
-      <c r="E74" s="257"/>
+      <c r="B74" s="251"/>
+      <c r="C74" s="252"/>
+      <c r="D74" s="251"/>
+      <c r="E74" s="253"/>
       <c r="F74" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="177"/>
       <c r="H74" s="177"/>
-      <c r="I74" s="260"/>
-      <c r="J74" s="260"/>
-      <c r="K74" s="260"/>
+      <c r="I74" s="256"/>
+      <c r="J74" s="256"/>
+      <c r="K74" s="256"/>
       <c r="L74" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -26688,19 +26676,19 @@
     </row>
     <row r="75" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A75" s="85"/>
-      <c r="B75" s="255"/>
-      <c r="C75" s="256"/>
-      <c r="D75" s="255"/>
-      <c r="E75" s="257"/>
+      <c r="B75" s="251"/>
+      <c r="C75" s="252"/>
+      <c r="D75" s="251"/>
+      <c r="E75" s="253"/>
       <c r="F75" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G75" s="177"/>
       <c r="H75" s="177"/>
-      <c r="I75" s="260"/>
-      <c r="J75" s="260"/>
-      <c r="K75" s="260"/>
+      <c r="I75" s="256"/>
+      <c r="J75" s="256"/>
+      <c r="K75" s="256"/>
       <c r="L75" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -26708,19 +26696,19 @@
     </row>
     <row r="76" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A76" s="85"/>
-      <c r="B76" s="255"/>
-      <c r="C76" s="256"/>
-      <c r="D76" s="255"/>
-      <c r="E76" s="257"/>
+      <c r="B76" s="251"/>
+      <c r="C76" s="252"/>
+      <c r="D76" s="251"/>
+      <c r="E76" s="253"/>
       <c r="F76" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G76" s="177"/>
       <c r="H76" s="177"/>
-      <c r="I76" s="260"/>
-      <c r="J76" s="260"/>
-      <c r="K76" s="260"/>
+      <c r="I76" s="256"/>
+      <c r="J76" s="256"/>
+      <c r="K76" s="256"/>
       <c r="L76" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -26728,19 +26716,19 @@
     </row>
     <row r="77" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A77" s="85"/>
-      <c r="B77" s="255"/>
-      <c r="C77" s="256"/>
-      <c r="D77" s="255"/>
-      <c r="E77" s="257"/>
+      <c r="B77" s="251"/>
+      <c r="C77" s="252"/>
+      <c r="D77" s="251"/>
+      <c r="E77" s="253"/>
       <c r="F77" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G77" s="177"/>
       <c r="H77" s="177"/>
-      <c r="I77" s="260"/>
-      <c r="J77" s="260"/>
-      <c r="K77" s="260"/>
+      <c r="I77" s="256"/>
+      <c r="J77" s="256"/>
+      <c r="K77" s="256"/>
       <c r="L77" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -26748,19 +26736,19 @@
     </row>
     <row r="78" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A78" s="85"/>
-      <c r="B78" s="255"/>
-      <c r="C78" s="256"/>
-      <c r="D78" s="255"/>
-      <c r="E78" s="257"/>
+      <c r="B78" s="251"/>
+      <c r="C78" s="252"/>
+      <c r="D78" s="251"/>
+      <c r="E78" s="253"/>
       <c r="F78" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G78" s="177"/>
       <c r="H78" s="177"/>
-      <c r="I78" s="260"/>
-      <c r="J78" s="260"/>
-      <c r="K78" s="260"/>
+      <c r="I78" s="256"/>
+      <c r="J78" s="256"/>
+      <c r="K78" s="256"/>
       <c r="L78" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -26768,19 +26756,19 @@
     </row>
     <row r="79" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A79" s="85"/>
-      <c r="B79" s="255"/>
-      <c r="C79" s="256"/>
-      <c r="D79" s="255"/>
-      <c r="E79" s="257"/>
+      <c r="B79" s="251"/>
+      <c r="C79" s="252"/>
+      <c r="D79" s="251"/>
+      <c r="E79" s="253"/>
       <c r="F79" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G79" s="177"/>
       <c r="H79" s="177"/>
-      <c r="I79" s="260"/>
-      <c r="J79" s="260"/>
-      <c r="K79" s="260"/>
+      <c r="I79" s="256"/>
+      <c r="J79" s="256"/>
+      <c r="K79" s="256"/>
       <c r="L79" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -26788,19 +26776,19 @@
     </row>
     <row r="80" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A80" s="96"/>
-      <c r="B80" s="255"/>
-      <c r="C80" s="256"/>
-      <c r="D80" s="255"/>
-      <c r="E80" s="257"/>
+      <c r="B80" s="251"/>
+      <c r="C80" s="252"/>
+      <c r="D80" s="251"/>
+      <c r="E80" s="253"/>
       <c r="F80" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G80" s="177"/>
       <c r="H80" s="177"/>
-      <c r="I80" s="260"/>
-      <c r="J80" s="260"/>
-      <c r="K80" s="260"/>
+      <c r="I80" s="256"/>
+      <c r="J80" s="256"/>
+      <c r="K80" s="256"/>
       <c r="L80" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -26808,19 +26796,19 @@
     </row>
     <row r="81" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A81" s="96"/>
-      <c r="B81" s="255"/>
-      <c r="C81" s="256"/>
-      <c r="D81" s="255"/>
-      <c r="E81" s="257"/>
+      <c r="B81" s="251"/>
+      <c r="C81" s="252"/>
+      <c r="D81" s="251"/>
+      <c r="E81" s="253"/>
       <c r="F81" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G81" s="177"/>
       <c r="H81" s="177"/>
-      <c r="I81" s="260"/>
-      <c r="J81" s="260"/>
-      <c r="K81" s="260"/>
+      <c r="I81" s="256"/>
+      <c r="J81" s="256"/>
+      <c r="K81" s="256"/>
       <c r="L81" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -26828,19 +26816,19 @@
     </row>
     <row r="82" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A82" s="85"/>
-      <c r="B82" s="255"/>
-      <c r="C82" s="256"/>
-      <c r="D82" s="255"/>
-      <c r="E82" s="257"/>
+      <c r="B82" s="251"/>
+      <c r="C82" s="252"/>
+      <c r="D82" s="251"/>
+      <c r="E82" s="253"/>
       <c r="F82" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G82" s="177"/>
       <c r="H82" s="177"/>
-      <c r="I82" s="260"/>
-      <c r="J82" s="260"/>
-      <c r="K82" s="260"/>
+      <c r="I82" s="256"/>
+      <c r="J82" s="256"/>
+      <c r="K82" s="256"/>
       <c r="L82" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -26848,19 +26836,19 @@
     </row>
     <row r="83" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A83" s="85"/>
-      <c r="B83" s="255"/>
-      <c r="C83" s="256"/>
-      <c r="D83" s="255"/>
-      <c r="E83" s="257"/>
+      <c r="B83" s="251"/>
+      <c r="C83" s="252"/>
+      <c r="D83" s="251"/>
+      <c r="E83" s="253"/>
       <c r="F83" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="177"/>
       <c r="H83" s="177"/>
-      <c r="I83" s="260"/>
-      <c r="J83" s="260"/>
-      <c r="K83" s="260"/>
+      <c r="I83" s="256"/>
+      <c r="J83" s="256"/>
+      <c r="K83" s="256"/>
       <c r="L83" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -26868,19 +26856,19 @@
     </row>
     <row r="84" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A84" s="85"/>
-      <c r="B84" s="255"/>
-      <c r="C84" s="256"/>
-      <c r="D84" s="255"/>
-      <c r="E84" s="257"/>
+      <c r="B84" s="251"/>
+      <c r="C84" s="252"/>
+      <c r="D84" s="251"/>
+      <c r="E84" s="253"/>
       <c r="F84" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G84" s="177"/>
       <c r="H84" s="177"/>
-      <c r="I84" s="260"/>
-      <c r="J84" s="260"/>
-      <c r="K84" s="260"/>
+      <c r="I84" s="256"/>
+      <c r="J84" s="256"/>
+      <c r="K84" s="256"/>
       <c r="L84" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -26888,19 +26876,19 @@
     </row>
     <row r="85" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A85" s="85"/>
-      <c r="B85" s="255"/>
-      <c r="C85" s="256"/>
-      <c r="D85" s="255"/>
-      <c r="E85" s="257"/>
+      <c r="B85" s="251"/>
+      <c r="C85" s="252"/>
+      <c r="D85" s="251"/>
+      <c r="E85" s="253"/>
       <c r="F85" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G85" s="177"/>
       <c r="H85" s="177"/>
-      <c r="I85" s="260"/>
-      <c r="J85" s="260"/>
-      <c r="K85" s="260"/>
+      <c r="I85" s="256"/>
+      <c r="J85" s="256"/>
+      <c r="K85" s="256"/>
       <c r="L85" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -26908,19 +26896,19 @@
     </row>
     <row r="86" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A86" s="96"/>
-      <c r="B86" s="255"/>
-      <c r="C86" s="256"/>
-      <c r="D86" s="255"/>
-      <c r="E86" s="257"/>
+      <c r="B86" s="251"/>
+      <c r="C86" s="252"/>
+      <c r="D86" s="251"/>
+      <c r="E86" s="253"/>
       <c r="F86" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G86" s="177"/>
       <c r="H86" s="177"/>
-      <c r="I86" s="260"/>
-      <c r="J86" s="260"/>
-      <c r="K86" s="260"/>
+      <c r="I86" s="256"/>
+      <c r="J86" s="256"/>
+      <c r="K86" s="256"/>
       <c r="L86" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -26928,19 +26916,19 @@
     </row>
     <row r="87" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A87" s="96"/>
-      <c r="B87" s="255"/>
-      <c r="C87" s="256"/>
-      <c r="D87" s="255"/>
-      <c r="E87" s="257"/>
+      <c r="B87" s="251"/>
+      <c r="C87" s="252"/>
+      <c r="D87" s="251"/>
+      <c r="E87" s="253"/>
       <c r="F87" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G87" s="177"/>
       <c r="H87" s="177"/>
-      <c r="I87" s="260"/>
-      <c r="J87" s="260"/>
-      <c r="K87" s="260"/>
+      <c r="I87" s="256"/>
+      <c r="J87" s="256"/>
+      <c r="K87" s="256"/>
       <c r="L87" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -26948,19 +26936,19 @@
     </row>
     <row r="88" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A88" s="85"/>
-      <c r="B88" s="255"/>
-      <c r="C88" s="256"/>
-      <c r="D88" s="255"/>
-      <c r="E88" s="257"/>
+      <c r="B88" s="251"/>
+      <c r="C88" s="252"/>
+      <c r="D88" s="251"/>
+      <c r="E88" s="253"/>
       <c r="F88" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G88" s="177"/>
       <c r="H88" s="177"/>
-      <c r="I88" s="260"/>
-      <c r="J88" s="260"/>
-      <c r="K88" s="260"/>
+      <c r="I88" s="256"/>
+      <c r="J88" s="256"/>
+      <c r="K88" s="256"/>
       <c r="L88" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -26968,19 +26956,19 @@
     </row>
     <row r="89" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A89" s="85"/>
-      <c r="B89" s="255"/>
-      <c r="C89" s="256"/>
-      <c r="D89" s="255"/>
-      <c r="E89" s="257"/>
+      <c r="B89" s="251"/>
+      <c r="C89" s="252"/>
+      <c r="D89" s="251"/>
+      <c r="E89" s="253"/>
       <c r="F89" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G89" s="177"/>
       <c r="H89" s="177"/>
-      <c r="I89" s="260"/>
-      <c r="J89" s="260"/>
-      <c r="K89" s="260"/>
+      <c r="I89" s="256"/>
+      <c r="J89" s="256"/>
+      <c r="K89" s="256"/>
       <c r="L89" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -26988,19 +26976,19 @@
     </row>
     <row r="90" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A90" s="85"/>
-      <c r="B90" s="255"/>
-      <c r="C90" s="256"/>
-      <c r="D90" s="255"/>
-      <c r="E90" s="257"/>
+      <c r="B90" s="251"/>
+      <c r="C90" s="252"/>
+      <c r="D90" s="251"/>
+      <c r="E90" s="253"/>
       <c r="F90" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G90" s="177"/>
       <c r="H90" s="177"/>
-      <c r="I90" s="260"/>
-      <c r="J90" s="260"/>
-      <c r="K90" s="260"/>
+      <c r="I90" s="256"/>
+      <c r="J90" s="256"/>
+      <c r="K90" s="256"/>
       <c r="L90" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27008,19 +26996,19 @@
     </row>
     <row r="91" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A91" s="96"/>
-      <c r="B91" s="255"/>
-      <c r="C91" s="256"/>
-      <c r="D91" s="255"/>
-      <c r="E91" s="257"/>
+      <c r="B91" s="251"/>
+      <c r="C91" s="252"/>
+      <c r="D91" s="251"/>
+      <c r="E91" s="253"/>
       <c r="F91" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G91" s="177"/>
       <c r="H91" s="177"/>
-      <c r="I91" s="260"/>
-      <c r="J91" s="260"/>
-      <c r="K91" s="260"/>
+      <c r="I91" s="256"/>
+      <c r="J91" s="256"/>
+      <c r="K91" s="256"/>
       <c r="L91" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27028,19 +27016,19 @@
     </row>
     <row r="92" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A92" s="96"/>
-      <c r="B92" s="255"/>
-      <c r="C92" s="256"/>
-      <c r="D92" s="255"/>
-      <c r="E92" s="257"/>
+      <c r="B92" s="251"/>
+      <c r="C92" s="252"/>
+      <c r="D92" s="251"/>
+      <c r="E92" s="253"/>
       <c r="F92" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G92" s="177"/>
       <c r="H92" s="177"/>
-      <c r="I92" s="260"/>
-      <c r="J92" s="260"/>
-      <c r="K92" s="260"/>
+      <c r="I92" s="256"/>
+      <c r="J92" s="256"/>
+      <c r="K92" s="256"/>
       <c r="L92" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27048,19 +27036,19 @@
     </row>
     <row r="93" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A93" s="85"/>
-      <c r="B93" s="255"/>
-      <c r="C93" s="256"/>
-      <c r="D93" s="255"/>
-      <c r="E93" s="257"/>
+      <c r="B93" s="251"/>
+      <c r="C93" s="252"/>
+      <c r="D93" s="251"/>
+      <c r="E93" s="253"/>
       <c r="F93" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G93" s="177"/>
       <c r="H93" s="177"/>
-      <c r="I93" s="260"/>
-      <c r="J93" s="260"/>
-      <c r="K93" s="260"/>
+      <c r="I93" s="256"/>
+      <c r="J93" s="256"/>
+      <c r="K93" s="256"/>
       <c r="L93" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27068,19 +27056,19 @@
     </row>
     <row r="94" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A94" s="85"/>
-      <c r="B94" s="255"/>
-      <c r="C94" s="256"/>
-      <c r="D94" s="255"/>
-      <c r="E94" s="257"/>
+      <c r="B94" s="251"/>
+      <c r="C94" s="252"/>
+      <c r="D94" s="251"/>
+      <c r="E94" s="253"/>
       <c r="F94" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G94" s="177"/>
       <c r="H94" s="177"/>
-      <c r="I94" s="260"/>
-      <c r="J94" s="260"/>
-      <c r="K94" s="260"/>
+      <c r="I94" s="256"/>
+      <c r="J94" s="256"/>
+      <c r="K94" s="256"/>
       <c r="L94" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27088,19 +27076,19 @@
     </row>
     <row r="95" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A95" s="96"/>
-      <c r="B95" s="255"/>
-      <c r="C95" s="256"/>
-      <c r="D95" s="255"/>
-      <c r="E95" s="257"/>
+      <c r="B95" s="251"/>
+      <c r="C95" s="252"/>
+      <c r="D95" s="251"/>
+      <c r="E95" s="253"/>
       <c r="F95" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G95" s="177"/>
       <c r="H95" s="177"/>
-      <c r="I95" s="260"/>
-      <c r="J95" s="260"/>
-      <c r="K95" s="260"/>
+      <c r="I95" s="256"/>
+      <c r="J95" s="256"/>
+      <c r="K95" s="256"/>
       <c r="L95" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27108,19 +27096,19 @@
     </row>
     <row r="96" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A96" s="96"/>
-      <c r="B96" s="255"/>
-      <c r="C96" s="256"/>
-      <c r="D96" s="255"/>
-      <c r="E96" s="257"/>
+      <c r="B96" s="251"/>
+      <c r="C96" s="252"/>
+      <c r="D96" s="251"/>
+      <c r="E96" s="253"/>
       <c r="F96" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G96" s="177"/>
       <c r="H96" s="177"/>
-      <c r="I96" s="260"/>
-      <c r="J96" s="260"/>
-      <c r="K96" s="260"/>
+      <c r="I96" s="256"/>
+      <c r="J96" s="256"/>
+      <c r="K96" s="256"/>
       <c r="L96" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27128,19 +27116,19 @@
     </row>
     <row r="97" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A97" s="85"/>
-      <c r="B97" s="255"/>
-      <c r="C97" s="256"/>
-      <c r="D97" s="255"/>
-      <c r="E97" s="257"/>
+      <c r="B97" s="251"/>
+      <c r="C97" s="252"/>
+      <c r="D97" s="251"/>
+      <c r="E97" s="253"/>
       <c r="F97" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G97" s="177"/>
       <c r="H97" s="177"/>
-      <c r="I97" s="260"/>
-      <c r="J97" s="260"/>
-      <c r="K97" s="260"/>
+      <c r="I97" s="256"/>
+      <c r="J97" s="256"/>
+      <c r="K97" s="256"/>
       <c r="L97" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27148,19 +27136,19 @@
     </row>
     <row r="98" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A98" s="85"/>
-      <c r="B98" s="255"/>
-      <c r="C98" s="256"/>
-      <c r="D98" s="255"/>
-      <c r="E98" s="257"/>
+      <c r="B98" s="251"/>
+      <c r="C98" s="252"/>
+      <c r="D98" s="251"/>
+      <c r="E98" s="253"/>
       <c r="F98" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G98" s="177"/>
       <c r="H98" s="177"/>
-      <c r="I98" s="260"/>
-      <c r="J98" s="260"/>
-      <c r="K98" s="260"/>
+      <c r="I98" s="256"/>
+      <c r="J98" s="256"/>
+      <c r="K98" s="256"/>
       <c r="L98" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27168,19 +27156,19 @@
     </row>
     <row r="99" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A99" s="85"/>
-      <c r="B99" s="255"/>
-      <c r="C99" s="256"/>
-      <c r="D99" s="255"/>
-      <c r="E99" s="257"/>
+      <c r="B99" s="251"/>
+      <c r="C99" s="252"/>
+      <c r="D99" s="251"/>
+      <c r="E99" s="253"/>
       <c r="F99" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G99" s="177"/>
       <c r="H99" s="177"/>
-      <c r="I99" s="260"/>
-      <c r="J99" s="260"/>
-      <c r="K99" s="260"/>
+      <c r="I99" s="256"/>
+      <c r="J99" s="256"/>
+      <c r="K99" s="256"/>
       <c r="L99" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27188,19 +27176,19 @@
     </row>
     <row r="100" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A100" s="85"/>
-      <c r="B100" s="255"/>
-      <c r="C100" s="256"/>
-      <c r="D100" s="255"/>
-      <c r="E100" s="257"/>
+      <c r="B100" s="251"/>
+      <c r="C100" s="252"/>
+      <c r="D100" s="251"/>
+      <c r="E100" s="253"/>
       <c r="F100" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G100" s="177"/>
       <c r="H100" s="177"/>
-      <c r="I100" s="260"/>
-      <c r="J100" s="260"/>
-      <c r="K100" s="260"/>
+      <c r="I100" s="256"/>
+      <c r="J100" s="256"/>
+      <c r="K100" s="256"/>
       <c r="L100" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27208,19 +27196,19 @@
     </row>
     <row r="101" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A101" s="85"/>
-      <c r="B101" s="255"/>
-      <c r="C101" s="256"/>
-      <c r="D101" s="255"/>
-      <c r="E101" s="257"/>
+      <c r="B101" s="251"/>
+      <c r="C101" s="252"/>
+      <c r="D101" s="251"/>
+      <c r="E101" s="253"/>
       <c r="F101" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G101" s="177"/>
       <c r="H101" s="177"/>
-      <c r="I101" s="260"/>
-      <c r="J101" s="260"/>
-      <c r="K101" s="260"/>
+      <c r="I101" s="256"/>
+      <c r="J101" s="256"/>
+      <c r="K101" s="256"/>
       <c r="L101" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27228,19 +27216,19 @@
     </row>
     <row r="102" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A102" s="85"/>
-      <c r="B102" s="255"/>
-      <c r="C102" s="256"/>
-      <c r="D102" s="255"/>
-      <c r="E102" s="257"/>
+      <c r="B102" s="251"/>
+      <c r="C102" s="252"/>
+      <c r="D102" s="251"/>
+      <c r="E102" s="253"/>
       <c r="F102" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G102" s="177"/>
       <c r="H102" s="177"/>
-      <c r="I102" s="260"/>
-      <c r="J102" s="260"/>
-      <c r="K102" s="260"/>
+      <c r="I102" s="256"/>
+      <c r="J102" s="256"/>
+      <c r="K102" s="256"/>
       <c r="L102" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27248,19 +27236,19 @@
     </row>
     <row r="103" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A103" s="96"/>
-      <c r="B103" s="255"/>
-      <c r="C103" s="256"/>
-      <c r="D103" s="255"/>
-      <c r="E103" s="257"/>
+      <c r="B103" s="251"/>
+      <c r="C103" s="252"/>
+      <c r="D103" s="251"/>
+      <c r="E103" s="253"/>
       <c r="F103" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G103" s="177"/>
       <c r="H103" s="177"/>
-      <c r="I103" s="260"/>
-      <c r="J103" s="260"/>
-      <c r="K103" s="260"/>
+      <c r="I103" s="256"/>
+      <c r="J103" s="256"/>
+      <c r="K103" s="256"/>
       <c r="L103" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27268,19 +27256,19 @@
     </row>
     <row r="104" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A104" s="96"/>
-      <c r="B104" s="255"/>
-      <c r="C104" s="256"/>
-      <c r="D104" s="255"/>
-      <c r="E104" s="257"/>
+      <c r="B104" s="251"/>
+      <c r="C104" s="252"/>
+      <c r="D104" s="251"/>
+      <c r="E104" s="253"/>
       <c r="F104" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G104" s="177"/>
       <c r="H104" s="177"/>
-      <c r="I104" s="260"/>
-      <c r="J104" s="260"/>
-      <c r="K104" s="260"/>
+      <c r="I104" s="256"/>
+      <c r="J104" s="256"/>
+      <c r="K104" s="256"/>
       <c r="L104" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27288,19 +27276,19 @@
     </row>
     <row r="105" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A105" s="96"/>
-      <c r="B105" s="255"/>
-      <c r="C105" s="256"/>
-      <c r="D105" s="255"/>
-      <c r="E105" s="257"/>
+      <c r="B105" s="251"/>
+      <c r="C105" s="252"/>
+      <c r="D105" s="251"/>
+      <c r="E105" s="253"/>
       <c r="F105" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G105" s="177"/>
       <c r="H105" s="177"/>
-      <c r="I105" s="260"/>
-      <c r="J105" s="260"/>
-      <c r="K105" s="260"/>
+      <c r="I105" s="256"/>
+      <c r="J105" s="256"/>
+      <c r="K105" s="256"/>
       <c r="L105" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27308,19 +27296,19 @@
     </row>
     <row r="106" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A106" s="96"/>
-      <c r="B106" s="255"/>
-      <c r="C106" s="256"/>
-      <c r="D106" s="255"/>
-      <c r="E106" s="257"/>
+      <c r="B106" s="251"/>
+      <c r="C106" s="252"/>
+      <c r="D106" s="251"/>
+      <c r="E106" s="253"/>
       <c r="F106" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G106" s="177"/>
       <c r="H106" s="177"/>
-      <c r="I106" s="260"/>
-      <c r="J106" s="260"/>
-      <c r="K106" s="260"/>
+      <c r="I106" s="256"/>
+      <c r="J106" s="256"/>
+      <c r="K106" s="256"/>
       <c r="L106" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27328,19 +27316,19 @@
     </row>
     <row r="107" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A107" s="85"/>
-      <c r="B107" s="255"/>
-      <c r="C107" s="256"/>
-      <c r="D107" s="255"/>
-      <c r="E107" s="257"/>
+      <c r="B107" s="251"/>
+      <c r="C107" s="252"/>
+      <c r="D107" s="251"/>
+      <c r="E107" s="253"/>
       <c r="F107" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G107" s="177"/>
       <c r="H107" s="177"/>
-      <c r="I107" s="260"/>
-      <c r="J107" s="260"/>
-      <c r="K107" s="260"/>
+      <c r="I107" s="256"/>
+      <c r="J107" s="256"/>
+      <c r="K107" s="256"/>
       <c r="L107" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27348,19 +27336,19 @@
     </row>
     <row r="108" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A108" s="85"/>
-      <c r="B108" s="255"/>
-      <c r="C108" s="256"/>
-      <c r="D108" s="255"/>
-      <c r="E108" s="257"/>
+      <c r="B108" s="251"/>
+      <c r="C108" s="252"/>
+      <c r="D108" s="251"/>
+      <c r="E108" s="253"/>
       <c r="F108" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G108" s="177"/>
       <c r="H108" s="177"/>
-      <c r="I108" s="260"/>
-      <c r="J108" s="260"/>
-      <c r="K108" s="260"/>
+      <c r="I108" s="256"/>
+      <c r="J108" s="256"/>
+      <c r="K108" s="256"/>
       <c r="L108" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27368,19 +27356,19 @@
     </row>
     <row r="109" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A109" s="85"/>
-      <c r="B109" s="255"/>
-      <c r="C109" s="256"/>
-      <c r="D109" s="255"/>
-      <c r="E109" s="257"/>
+      <c r="B109" s="251"/>
+      <c r="C109" s="252"/>
+      <c r="D109" s="251"/>
+      <c r="E109" s="253"/>
       <c r="F109" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G109" s="177"/>
       <c r="H109" s="177"/>
-      <c r="I109" s="260"/>
-      <c r="J109" s="260"/>
-      <c r="K109" s="260"/>
+      <c r="I109" s="256"/>
+      <c r="J109" s="256"/>
+      <c r="K109" s="256"/>
       <c r="L109" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27388,19 +27376,19 @@
     </row>
     <row r="110" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A110" s="85"/>
-      <c r="B110" s="255"/>
-      <c r="C110" s="256"/>
-      <c r="D110" s="255"/>
-      <c r="E110" s="257"/>
+      <c r="B110" s="251"/>
+      <c r="C110" s="252"/>
+      <c r="D110" s="251"/>
+      <c r="E110" s="253"/>
       <c r="F110" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G110" s="177"/>
       <c r="H110" s="177"/>
-      <c r="I110" s="260"/>
-      <c r="J110" s="260"/>
-      <c r="K110" s="260"/>
+      <c r="I110" s="256"/>
+      <c r="J110" s="256"/>
+      <c r="K110" s="256"/>
       <c r="L110" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27408,19 +27396,19 @@
     </row>
     <row r="111" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A111" s="85"/>
-      <c r="B111" s="255"/>
-      <c r="C111" s="256"/>
-      <c r="D111" s="255"/>
-      <c r="E111" s="257"/>
+      <c r="B111" s="251"/>
+      <c r="C111" s="252"/>
+      <c r="D111" s="251"/>
+      <c r="E111" s="253"/>
       <c r="F111" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G111" s="177"/>
       <c r="H111" s="177"/>
-      <c r="I111" s="260"/>
-      <c r="J111" s="260"/>
-      <c r="K111" s="260"/>
+      <c r="I111" s="256"/>
+      <c r="J111" s="256"/>
+      <c r="K111" s="256"/>
       <c r="L111" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27428,19 +27416,19 @@
     </row>
     <row r="112" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A112" s="85"/>
-      <c r="B112" s="255"/>
-      <c r="C112" s="256"/>
-      <c r="D112" s="255"/>
-      <c r="E112" s="257"/>
+      <c r="B112" s="251"/>
+      <c r="C112" s="252"/>
+      <c r="D112" s="251"/>
+      <c r="E112" s="253"/>
       <c r="F112" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G112" s="177"/>
       <c r="H112" s="177"/>
-      <c r="I112" s="260"/>
-      <c r="J112" s="260"/>
-      <c r="K112" s="260"/>
+      <c r="I112" s="256"/>
+      <c r="J112" s="256"/>
+      <c r="K112" s="256"/>
       <c r="L112" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27448,19 +27436,19 @@
     </row>
     <row r="113" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A113" s="96"/>
-      <c r="B113" s="255"/>
-      <c r="C113" s="256"/>
-      <c r="D113" s="255"/>
-      <c r="E113" s="257"/>
+      <c r="B113" s="251"/>
+      <c r="C113" s="252"/>
+      <c r="D113" s="251"/>
+      <c r="E113" s="253"/>
       <c r="F113" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G113" s="177"/>
       <c r="H113" s="177"/>
-      <c r="I113" s="260"/>
-      <c r="J113" s="260"/>
-      <c r="K113" s="260"/>
+      <c r="I113" s="256"/>
+      <c r="J113" s="256"/>
+      <c r="K113" s="256"/>
       <c r="L113" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27468,19 +27456,19 @@
     </row>
     <row r="114" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A114" s="96"/>
-      <c r="B114" s="255"/>
-      <c r="C114" s="256"/>
-      <c r="D114" s="255"/>
-      <c r="E114" s="257"/>
+      <c r="B114" s="251"/>
+      <c r="C114" s="252"/>
+      <c r="D114" s="251"/>
+      <c r="E114" s="253"/>
       <c r="F114" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G114" s="177"/>
       <c r="H114" s="177"/>
-      <c r="I114" s="260"/>
-      <c r="J114" s="260"/>
-      <c r="K114" s="260"/>
+      <c r="I114" s="256"/>
+      <c r="J114" s="256"/>
+      <c r="K114" s="256"/>
       <c r="L114" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27488,19 +27476,19 @@
     </row>
     <row r="115" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A115" s="97"/>
-      <c r="B115" s="255"/>
-      <c r="C115" s="256"/>
-      <c r="D115" s="255"/>
-      <c r="E115" s="257"/>
+      <c r="B115" s="251"/>
+      <c r="C115" s="252"/>
+      <c r="D115" s="251"/>
+      <c r="E115" s="253"/>
       <c r="F115" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G115" s="177"/>
       <c r="H115" s="177"/>
-      <c r="I115" s="260"/>
-      <c r="J115" s="260"/>
-      <c r="K115" s="260"/>
+      <c r="I115" s="256"/>
+      <c r="J115" s="256"/>
+      <c r="K115" s="256"/>
       <c r="L115" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27508,19 +27496,19 @@
     </row>
     <row r="116" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A116" s="97"/>
-      <c r="B116" s="255"/>
-      <c r="C116" s="256"/>
-      <c r="D116" s="255"/>
-      <c r="E116" s="257"/>
+      <c r="B116" s="251"/>
+      <c r="C116" s="252"/>
+      <c r="D116" s="251"/>
+      <c r="E116" s="253"/>
       <c r="F116" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G116" s="177"/>
       <c r="H116" s="177"/>
-      <c r="I116" s="260"/>
-      <c r="J116" s="260"/>
-      <c r="K116" s="260"/>
+      <c r="I116" s="256"/>
+      <c r="J116" s="256"/>
+      <c r="K116" s="256"/>
       <c r="L116" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27528,19 +27516,19 @@
     </row>
     <row r="117" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A117" s="96"/>
-      <c r="B117" s="255"/>
-      <c r="C117" s="256"/>
-      <c r="D117" s="255"/>
-      <c r="E117" s="257"/>
+      <c r="B117" s="251"/>
+      <c r="C117" s="252"/>
+      <c r="D117" s="251"/>
+      <c r="E117" s="253"/>
       <c r="F117" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G117" s="177"/>
       <c r="H117" s="177"/>
-      <c r="I117" s="260"/>
-      <c r="J117" s="260"/>
-      <c r="K117" s="260"/>
+      <c r="I117" s="256"/>
+      <c r="J117" s="256"/>
+      <c r="K117" s="256"/>
       <c r="L117" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27548,19 +27536,19 @@
     </row>
     <row r="118" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A118" s="96"/>
-      <c r="B118" s="255"/>
-      <c r="C118" s="256"/>
-      <c r="D118" s="255"/>
-      <c r="E118" s="257"/>
+      <c r="B118" s="251"/>
+      <c r="C118" s="252"/>
+      <c r="D118" s="251"/>
+      <c r="E118" s="253"/>
       <c r="F118" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G118" s="177"/>
       <c r="H118" s="177"/>
-      <c r="I118" s="260"/>
-      <c r="J118" s="260"/>
-      <c r="K118" s="260"/>
+      <c r="I118" s="256"/>
+      <c r="J118" s="256"/>
+      <c r="K118" s="256"/>
       <c r="L118" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27568,19 +27556,19 @@
     </row>
     <row r="119" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A119" s="85"/>
-      <c r="B119" s="255"/>
-      <c r="C119" s="256"/>
-      <c r="D119" s="255"/>
-      <c r="E119" s="257"/>
+      <c r="B119" s="251"/>
+      <c r="C119" s="252"/>
+      <c r="D119" s="251"/>
+      <c r="E119" s="253"/>
       <c r="F119" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G119" s="177"/>
       <c r="H119" s="177"/>
-      <c r="I119" s="260"/>
-      <c r="J119" s="260"/>
-      <c r="K119" s="260"/>
+      <c r="I119" s="256"/>
+      <c r="J119" s="256"/>
+      <c r="K119" s="256"/>
       <c r="L119" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27588,19 +27576,19 @@
     </row>
     <row r="120" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A120" s="85"/>
-      <c r="B120" s="255"/>
-      <c r="C120" s="256"/>
-      <c r="D120" s="255"/>
-      <c r="E120" s="257"/>
+      <c r="B120" s="251"/>
+      <c r="C120" s="252"/>
+      <c r="D120" s="251"/>
+      <c r="E120" s="253"/>
       <c r="F120" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G120" s="177"/>
       <c r="H120" s="177"/>
-      <c r="I120" s="260"/>
-      <c r="J120" s="260"/>
-      <c r="K120" s="260"/>
+      <c r="I120" s="256"/>
+      <c r="J120" s="256"/>
+      <c r="K120" s="256"/>
       <c r="L120" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27608,19 +27596,19 @@
     </row>
     <row r="121" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A121" s="85"/>
-      <c r="B121" s="255"/>
-      <c r="C121" s="256"/>
-      <c r="D121" s="255"/>
-      <c r="E121" s="257"/>
+      <c r="B121" s="251"/>
+      <c r="C121" s="252"/>
+      <c r="D121" s="251"/>
+      <c r="E121" s="253"/>
       <c r="F121" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G121" s="177"/>
       <c r="H121" s="177"/>
-      <c r="I121" s="260"/>
-      <c r="J121" s="260"/>
-      <c r="K121" s="260"/>
+      <c r="I121" s="256"/>
+      <c r="J121" s="256"/>
+      <c r="K121" s="256"/>
       <c r="L121" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27628,19 +27616,19 @@
     </row>
     <row r="122" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A122" s="85"/>
-      <c r="B122" s="255"/>
-      <c r="C122" s="256"/>
-      <c r="D122" s="255"/>
-      <c r="E122" s="257"/>
+      <c r="B122" s="251"/>
+      <c r="C122" s="252"/>
+      <c r="D122" s="251"/>
+      <c r="E122" s="253"/>
       <c r="F122" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G122" s="177"/>
       <c r="H122" s="177"/>
-      <c r="I122" s="260"/>
-      <c r="J122" s="260"/>
-      <c r="K122" s="260"/>
+      <c r="I122" s="256"/>
+      <c r="J122" s="256"/>
+      <c r="K122" s="256"/>
       <c r="L122" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27648,19 +27636,19 @@
     </row>
     <row r="123" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A123" s="96"/>
-      <c r="B123" s="255"/>
-      <c r="C123" s="256"/>
-      <c r="D123" s="255"/>
-      <c r="E123" s="257"/>
+      <c r="B123" s="251"/>
+      <c r="C123" s="252"/>
+      <c r="D123" s="251"/>
+      <c r="E123" s="253"/>
       <c r="F123" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G123" s="177"/>
       <c r="H123" s="177"/>
-      <c r="I123" s="260"/>
-      <c r="J123" s="260"/>
-      <c r="K123" s="260"/>
+      <c r="I123" s="256"/>
+      <c r="J123" s="256"/>
+      <c r="K123" s="256"/>
       <c r="L123" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27668,19 +27656,19 @@
     </row>
     <row r="124" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A124" s="96"/>
-      <c r="B124" s="255"/>
-      <c r="C124" s="256"/>
-      <c r="D124" s="255"/>
-      <c r="E124" s="257"/>
+      <c r="B124" s="251"/>
+      <c r="C124" s="252"/>
+      <c r="D124" s="251"/>
+      <c r="E124" s="253"/>
       <c r="F124" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G124" s="177"/>
       <c r="H124" s="177"/>
-      <c r="I124" s="260"/>
-      <c r="J124" s="260"/>
-      <c r="K124" s="260"/>
+      <c r="I124" s="256"/>
+      <c r="J124" s="256"/>
+      <c r="K124" s="256"/>
       <c r="L124" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27688,19 +27676,19 @@
     </row>
     <row r="125" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A125" s="85"/>
-      <c r="B125" s="255"/>
-      <c r="C125" s="256"/>
-      <c r="D125" s="255"/>
-      <c r="E125" s="257"/>
+      <c r="B125" s="251"/>
+      <c r="C125" s="252"/>
+      <c r="D125" s="251"/>
+      <c r="E125" s="253"/>
       <c r="F125" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G125" s="177"/>
       <c r="H125" s="177"/>
-      <c r="I125" s="260"/>
-      <c r="J125" s="260"/>
-      <c r="K125" s="260"/>
+      <c r="I125" s="256"/>
+      <c r="J125" s="256"/>
+      <c r="K125" s="256"/>
       <c r="L125" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27708,19 +27696,19 @@
     </row>
     <row r="126" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A126" s="85"/>
-      <c r="B126" s="255"/>
-      <c r="C126" s="256"/>
-      <c r="D126" s="255"/>
-      <c r="E126" s="257"/>
+      <c r="B126" s="251"/>
+      <c r="C126" s="252"/>
+      <c r="D126" s="251"/>
+      <c r="E126" s="253"/>
       <c r="F126" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G126" s="177"/>
       <c r="H126" s="177"/>
-      <c r="I126" s="260"/>
-      <c r="J126" s="260"/>
-      <c r="K126" s="260"/>
+      <c r="I126" s="256"/>
+      <c r="J126" s="256"/>
+      <c r="K126" s="256"/>
       <c r="L126" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27728,19 +27716,19 @@
     </row>
     <row r="127" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A127" s="85"/>
-      <c r="B127" s="255"/>
-      <c r="C127" s="256"/>
-      <c r="D127" s="255"/>
-      <c r="E127" s="257"/>
+      <c r="B127" s="251"/>
+      <c r="C127" s="252"/>
+      <c r="D127" s="251"/>
+      <c r="E127" s="253"/>
       <c r="F127" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G127" s="177"/>
       <c r="H127" s="177"/>
-      <c r="I127" s="260"/>
-      <c r="J127" s="260"/>
-      <c r="K127" s="260"/>
+      <c r="I127" s="256"/>
+      <c r="J127" s="256"/>
+      <c r="K127" s="256"/>
       <c r="L127" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27748,19 +27736,19 @@
     </row>
     <row r="128" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A128" s="85"/>
-      <c r="B128" s="255"/>
-      <c r="C128" s="256"/>
-      <c r="D128" s="255"/>
-      <c r="E128" s="257"/>
+      <c r="B128" s="251"/>
+      <c r="C128" s="252"/>
+      <c r="D128" s="251"/>
+      <c r="E128" s="253"/>
       <c r="F128" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G128" s="177"/>
       <c r="H128" s="177"/>
-      <c r="I128" s="260"/>
-      <c r="J128" s="260"/>
-      <c r="K128" s="260"/>
+      <c r="I128" s="256"/>
+      <c r="J128" s="256"/>
+      <c r="K128" s="256"/>
       <c r="L128" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27768,19 +27756,19 @@
     </row>
     <row r="129" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A129" s="85"/>
-      <c r="B129" s="255"/>
-      <c r="C129" s="256"/>
-      <c r="D129" s="255"/>
-      <c r="E129" s="257"/>
+      <c r="B129" s="251"/>
+      <c r="C129" s="252"/>
+      <c r="D129" s="251"/>
+      <c r="E129" s="253"/>
       <c r="F129" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G129" s="177"/>
       <c r="H129" s="177"/>
-      <c r="I129" s="260"/>
-      <c r="J129" s="260"/>
-      <c r="K129" s="260"/>
+      <c r="I129" s="256"/>
+      <c r="J129" s="256"/>
+      <c r="K129" s="256"/>
       <c r="L129" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27788,19 +27776,19 @@
     </row>
     <row r="130" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A130" s="96"/>
-      <c r="B130" s="255"/>
-      <c r="C130" s="256"/>
-      <c r="D130" s="255"/>
-      <c r="E130" s="257"/>
+      <c r="B130" s="251"/>
+      <c r="C130" s="252"/>
+      <c r="D130" s="251"/>
+      <c r="E130" s="253"/>
       <c r="F130" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G130" s="177"/>
       <c r="H130" s="177"/>
-      <c r="I130" s="260"/>
-      <c r="J130" s="260"/>
-      <c r="K130" s="260"/>
+      <c r="I130" s="256"/>
+      <c r="J130" s="256"/>
+      <c r="K130" s="256"/>
       <c r="L130" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27808,19 +27796,19 @@
     </row>
     <row r="131" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A131" s="96"/>
-      <c r="B131" s="255"/>
-      <c r="C131" s="256"/>
-      <c r="D131" s="255"/>
-      <c r="E131" s="257"/>
+      <c r="B131" s="251"/>
+      <c r="C131" s="252"/>
+      <c r="D131" s="251"/>
+      <c r="E131" s="253"/>
       <c r="F131" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G131" s="177"/>
       <c r="H131" s="177"/>
-      <c r="I131" s="260"/>
-      <c r="J131" s="260"/>
-      <c r="K131" s="260"/>
+      <c r="I131" s="256"/>
+      <c r="J131" s="256"/>
+      <c r="K131" s="256"/>
       <c r="L131" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27828,19 +27816,19 @@
     </row>
     <row r="132" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A132" s="85"/>
-      <c r="B132" s="255"/>
-      <c r="C132" s="256"/>
-      <c r="D132" s="255"/>
-      <c r="E132" s="257"/>
+      <c r="B132" s="251"/>
+      <c r="C132" s="252"/>
+      <c r="D132" s="251"/>
+      <c r="E132" s="253"/>
       <c r="F132" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G132" s="177"/>
       <c r="H132" s="177"/>
-      <c r="I132" s="260"/>
-      <c r="J132" s="260"/>
-      <c r="K132" s="260"/>
+      <c r="I132" s="256"/>
+      <c r="J132" s="256"/>
+      <c r="K132" s="256"/>
       <c r="L132" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27848,19 +27836,19 @@
     </row>
     <row r="133" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A133" s="85"/>
-      <c r="B133" s="255"/>
-      <c r="C133" s="256"/>
-      <c r="D133" s="255"/>
-      <c r="E133" s="257"/>
+      <c r="B133" s="251"/>
+      <c r="C133" s="252"/>
+      <c r="D133" s="251"/>
+      <c r="E133" s="253"/>
       <c r="F133" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G133" s="177"/>
       <c r="H133" s="177"/>
-      <c r="I133" s="260"/>
-      <c r="J133" s="260"/>
-      <c r="K133" s="260"/>
+      <c r="I133" s="256"/>
+      <c r="J133" s="256"/>
+      <c r="K133" s="256"/>
       <c r="L133" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27868,19 +27856,19 @@
     </row>
     <row r="134" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A134" s="85"/>
-      <c r="B134" s="255"/>
-      <c r="C134" s="256"/>
-      <c r="D134" s="255"/>
-      <c r="E134" s="257"/>
+      <c r="B134" s="251"/>
+      <c r="C134" s="252"/>
+      <c r="D134" s="251"/>
+      <c r="E134" s="253"/>
       <c r="F134" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G134" s="177"/>
       <c r="H134" s="177"/>
-      <c r="I134" s="260"/>
-      <c r="J134" s="260"/>
-      <c r="K134" s="260"/>
+      <c r="I134" s="256"/>
+      <c r="J134" s="256"/>
+      <c r="K134" s="256"/>
       <c r="L134" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27888,19 +27876,19 @@
     </row>
     <row r="135" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A135" s="85"/>
-      <c r="B135" s="255"/>
-      <c r="C135" s="256"/>
-      <c r="D135" s="255"/>
-      <c r="E135" s="257"/>
+      <c r="B135" s="251"/>
+      <c r="C135" s="252"/>
+      <c r="D135" s="251"/>
+      <c r="E135" s="253"/>
       <c r="F135" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G135" s="177"/>
       <c r="H135" s="177"/>
-      <c r="I135" s="260"/>
-      <c r="J135" s="260"/>
-      <c r="K135" s="260"/>
+      <c r="I135" s="256"/>
+      <c r="J135" s="256"/>
+      <c r="K135" s="256"/>
       <c r="L135" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27908,19 +27896,19 @@
     </row>
     <row r="136" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A136" s="85"/>
-      <c r="B136" s="255"/>
-      <c r="C136" s="256"/>
-      <c r="D136" s="255"/>
-      <c r="E136" s="257"/>
+      <c r="B136" s="251"/>
+      <c r="C136" s="252"/>
+      <c r="D136" s="251"/>
+      <c r="E136" s="253"/>
       <c r="F136" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G136" s="177"/>
       <c r="H136" s="177"/>
-      <c r="I136" s="260"/>
-      <c r="J136" s="260"/>
-      <c r="K136" s="260"/>
+      <c r="I136" s="256"/>
+      <c r="J136" s="256"/>
+      <c r="K136" s="256"/>
       <c r="L136" s="208">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -27928,19 +27916,19 @@
     </row>
     <row r="137" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A137" s="85"/>
-      <c r="B137" s="255"/>
-      <c r="C137" s="256"/>
-      <c r="D137" s="255"/>
-      <c r="E137" s="257"/>
+      <c r="B137" s="251"/>
+      <c r="C137" s="252"/>
+      <c r="D137" s="251"/>
+      <c r="E137" s="253"/>
       <c r="F137" s="206">
         <f t="shared" ref="F137:F179" si="4">SUM(G137,H137)</f>
         <v>0</v>
       </c>
       <c r="G137" s="177"/>
       <c r="H137" s="177"/>
-      <c r="I137" s="260"/>
-      <c r="J137" s="260"/>
-      <c r="K137" s="260"/>
+      <c r="I137" s="256"/>
+      <c r="J137" s="256"/>
+      <c r="K137" s="256"/>
       <c r="L137" s="208">
         <f t="shared" ref="L137:L179" si="5">(G137*I137+H137*J137)*E137</f>
         <v>0</v>
@@ -27948,19 +27936,19 @@
     </row>
     <row r="138" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A138" s="85"/>
-      <c r="B138" s="255"/>
-      <c r="C138" s="256"/>
-      <c r="D138" s="255"/>
-      <c r="E138" s="257"/>
+      <c r="B138" s="251"/>
+      <c r="C138" s="252"/>
+      <c r="D138" s="251"/>
+      <c r="E138" s="253"/>
       <c r="F138" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G138" s="177"/>
       <c r="H138" s="177"/>
-      <c r="I138" s="260"/>
-      <c r="J138" s="260"/>
-      <c r="K138" s="260"/>
+      <c r="I138" s="256"/>
+      <c r="J138" s="256"/>
+      <c r="K138" s="256"/>
       <c r="L138" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -27968,19 +27956,19 @@
     </row>
     <row r="139" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A139" s="96"/>
-      <c r="B139" s="255"/>
-      <c r="C139" s="256"/>
-      <c r="D139" s="255"/>
-      <c r="E139" s="257"/>
+      <c r="B139" s="251"/>
+      <c r="C139" s="252"/>
+      <c r="D139" s="251"/>
+      <c r="E139" s="253"/>
       <c r="F139" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G139" s="177"/>
       <c r="H139" s="177"/>
-      <c r="I139" s="260"/>
-      <c r="J139" s="260"/>
-      <c r="K139" s="260"/>
+      <c r="I139" s="256"/>
+      <c r="J139" s="256"/>
+      <c r="K139" s="256"/>
       <c r="L139" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -27988,19 +27976,19 @@
     </row>
     <row r="140" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A140" s="96"/>
-      <c r="B140" s="255"/>
-      <c r="C140" s="256"/>
-      <c r="D140" s="255"/>
-      <c r="E140" s="257"/>
+      <c r="B140" s="251"/>
+      <c r="C140" s="252"/>
+      <c r="D140" s="251"/>
+      <c r="E140" s="253"/>
       <c r="F140" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G140" s="177"/>
       <c r="H140" s="177"/>
-      <c r="I140" s="260"/>
-      <c r="J140" s="260"/>
-      <c r="K140" s="260"/>
+      <c r="I140" s="256"/>
+      <c r="J140" s="256"/>
+      <c r="K140" s="256"/>
       <c r="L140" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28008,19 +27996,19 @@
     </row>
     <row r="141" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A141" s="97"/>
-      <c r="B141" s="255"/>
-      <c r="C141" s="256"/>
-      <c r="D141" s="255"/>
-      <c r="E141" s="257"/>
+      <c r="B141" s="251"/>
+      <c r="C141" s="252"/>
+      <c r="D141" s="251"/>
+      <c r="E141" s="253"/>
       <c r="F141" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G141" s="177"/>
       <c r="H141" s="177"/>
-      <c r="I141" s="260"/>
-      <c r="J141" s="260"/>
-      <c r="K141" s="260"/>
+      <c r="I141" s="256"/>
+      <c r="J141" s="256"/>
+      <c r="K141" s="256"/>
       <c r="L141" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28028,19 +28016,19 @@
     </row>
     <row r="142" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A142" s="97"/>
-      <c r="B142" s="255"/>
-      <c r="C142" s="256"/>
-      <c r="D142" s="255"/>
-      <c r="E142" s="257"/>
+      <c r="B142" s="251"/>
+      <c r="C142" s="252"/>
+      <c r="D142" s="251"/>
+      <c r="E142" s="253"/>
       <c r="F142" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G142" s="177"/>
       <c r="H142" s="177"/>
-      <c r="I142" s="260"/>
-      <c r="J142" s="260"/>
-      <c r="K142" s="260"/>
+      <c r="I142" s="256"/>
+      <c r="J142" s="256"/>
+      <c r="K142" s="256"/>
       <c r="L142" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28048,19 +28036,19 @@
     </row>
     <row r="143" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A143" s="96"/>
-      <c r="B143" s="255"/>
-      <c r="C143" s="256"/>
-      <c r="D143" s="255"/>
-      <c r="E143" s="257"/>
+      <c r="B143" s="251"/>
+      <c r="C143" s="252"/>
+      <c r="D143" s="251"/>
+      <c r="E143" s="253"/>
       <c r="F143" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G143" s="177"/>
       <c r="H143" s="177"/>
-      <c r="I143" s="260"/>
-      <c r="J143" s="260"/>
-      <c r="K143" s="260"/>
+      <c r="I143" s="256"/>
+      <c r="J143" s="256"/>
+      <c r="K143" s="256"/>
       <c r="L143" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28068,19 +28056,19 @@
     </row>
     <row r="144" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A144" s="85"/>
-      <c r="B144" s="255"/>
-      <c r="C144" s="256"/>
-      <c r="D144" s="255"/>
-      <c r="E144" s="257"/>
+      <c r="B144" s="251"/>
+      <c r="C144" s="252"/>
+      <c r="D144" s="251"/>
+      <c r="E144" s="253"/>
       <c r="F144" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G144" s="177"/>
       <c r="H144" s="177"/>
-      <c r="I144" s="260"/>
-      <c r="J144" s="260"/>
-      <c r="K144" s="260"/>
+      <c r="I144" s="256"/>
+      <c r="J144" s="256"/>
+      <c r="K144" s="256"/>
       <c r="L144" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28088,19 +28076,19 @@
     </row>
     <row r="145" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A145" s="85"/>
-      <c r="B145" s="255"/>
-      <c r="C145" s="256"/>
-      <c r="D145" s="255"/>
-      <c r="E145" s="257"/>
+      <c r="B145" s="251"/>
+      <c r="C145" s="252"/>
+      <c r="D145" s="251"/>
+      <c r="E145" s="253"/>
       <c r="F145" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G145" s="177"/>
       <c r="H145" s="177"/>
-      <c r="I145" s="260"/>
-      <c r="J145" s="260"/>
-      <c r="K145" s="260"/>
+      <c r="I145" s="256"/>
+      <c r="J145" s="256"/>
+      <c r="K145" s="256"/>
       <c r="L145" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28108,19 +28096,19 @@
     </row>
     <row r="146" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A146" s="85"/>
-      <c r="B146" s="255"/>
-      <c r="C146" s="256"/>
-      <c r="D146" s="255"/>
-      <c r="E146" s="257"/>
+      <c r="B146" s="251"/>
+      <c r="C146" s="252"/>
+      <c r="D146" s="251"/>
+      <c r="E146" s="253"/>
       <c r="F146" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G146" s="177"/>
       <c r="H146" s="177"/>
-      <c r="I146" s="260"/>
-      <c r="J146" s="260"/>
-      <c r="K146" s="260"/>
+      <c r="I146" s="256"/>
+      <c r="J146" s="256"/>
+      <c r="K146" s="256"/>
       <c r="L146" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28128,19 +28116,19 @@
     </row>
     <row r="147" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A147" s="96"/>
-      <c r="B147" s="255"/>
-      <c r="C147" s="256"/>
-      <c r="D147" s="255"/>
-      <c r="E147" s="257"/>
+      <c r="B147" s="251"/>
+      <c r="C147" s="252"/>
+      <c r="D147" s="251"/>
+      <c r="E147" s="253"/>
       <c r="F147" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G147" s="177"/>
       <c r="H147" s="177"/>
-      <c r="I147" s="260"/>
-      <c r="J147" s="260"/>
-      <c r="K147" s="260"/>
+      <c r="I147" s="256"/>
+      <c r="J147" s="256"/>
+      <c r="K147" s="256"/>
       <c r="L147" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28148,19 +28136,19 @@
     </row>
     <row r="148" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A148" s="96"/>
-      <c r="B148" s="255"/>
-      <c r="C148" s="256"/>
-      <c r="D148" s="255"/>
-      <c r="E148" s="257"/>
+      <c r="B148" s="251"/>
+      <c r="C148" s="252"/>
+      <c r="D148" s="251"/>
+      <c r="E148" s="253"/>
       <c r="F148" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G148" s="177"/>
       <c r="H148" s="177"/>
-      <c r="I148" s="260"/>
-      <c r="J148" s="260"/>
-      <c r="K148" s="260"/>
+      <c r="I148" s="256"/>
+      <c r="J148" s="256"/>
+      <c r="K148" s="256"/>
       <c r="L148" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28168,19 +28156,19 @@
     </row>
     <row r="149" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A149" s="85"/>
-      <c r="B149" s="255"/>
-      <c r="C149" s="256"/>
-      <c r="D149" s="255"/>
-      <c r="E149" s="257"/>
+      <c r="B149" s="251"/>
+      <c r="C149" s="252"/>
+      <c r="D149" s="251"/>
+      <c r="E149" s="253"/>
       <c r="F149" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G149" s="177"/>
       <c r="H149" s="177"/>
-      <c r="I149" s="260"/>
-      <c r="J149" s="260"/>
-      <c r="K149" s="260"/>
+      <c r="I149" s="256"/>
+      <c r="J149" s="256"/>
+      <c r="K149" s="256"/>
       <c r="L149" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28188,19 +28176,19 @@
     </row>
     <row r="150" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A150" s="85"/>
-      <c r="B150" s="255"/>
-      <c r="C150" s="256"/>
-      <c r="D150" s="255"/>
-      <c r="E150" s="257"/>
+      <c r="B150" s="251"/>
+      <c r="C150" s="252"/>
+      <c r="D150" s="251"/>
+      <c r="E150" s="253"/>
       <c r="F150" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G150" s="177"/>
       <c r="H150" s="177"/>
-      <c r="I150" s="260"/>
-      <c r="J150" s="260"/>
-      <c r="K150" s="260"/>
+      <c r="I150" s="256"/>
+      <c r="J150" s="256"/>
+      <c r="K150" s="256"/>
       <c r="L150" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28208,19 +28196,19 @@
     </row>
     <row r="151" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A151" s="85"/>
-      <c r="B151" s="255"/>
-      <c r="C151" s="256"/>
-      <c r="D151" s="255"/>
-      <c r="E151" s="257"/>
+      <c r="B151" s="251"/>
+      <c r="C151" s="252"/>
+      <c r="D151" s="251"/>
+      <c r="E151" s="253"/>
       <c r="F151" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G151" s="177"/>
       <c r="H151" s="177"/>
-      <c r="I151" s="260"/>
-      <c r="J151" s="260"/>
-      <c r="K151" s="260"/>
+      <c r="I151" s="256"/>
+      <c r="J151" s="256"/>
+      <c r="K151" s="256"/>
       <c r="L151" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28228,19 +28216,19 @@
     </row>
     <row r="152" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A152" s="85"/>
-      <c r="B152" s="255"/>
-      <c r="C152" s="256"/>
-      <c r="D152" s="255"/>
-      <c r="E152" s="257"/>
+      <c r="B152" s="251"/>
+      <c r="C152" s="252"/>
+      <c r="D152" s="251"/>
+      <c r="E152" s="253"/>
       <c r="F152" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G152" s="177"/>
       <c r="H152" s="177"/>
-      <c r="I152" s="260"/>
-      <c r="J152" s="260"/>
-      <c r="K152" s="260"/>
+      <c r="I152" s="256"/>
+      <c r="J152" s="256"/>
+      <c r="K152" s="256"/>
       <c r="L152" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28248,19 +28236,19 @@
     </row>
     <row r="153" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A153" s="85"/>
-      <c r="B153" s="255"/>
-      <c r="C153" s="256"/>
-      <c r="D153" s="255"/>
-      <c r="E153" s="257"/>
+      <c r="B153" s="251"/>
+      <c r="C153" s="252"/>
+      <c r="D153" s="251"/>
+      <c r="E153" s="253"/>
       <c r="F153" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G153" s="177"/>
       <c r="H153" s="177"/>
-      <c r="I153" s="260"/>
-      <c r="J153" s="260"/>
-      <c r="K153" s="260"/>
+      <c r="I153" s="256"/>
+      <c r="J153" s="256"/>
+      <c r="K153" s="256"/>
       <c r="L153" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28268,19 +28256,19 @@
     </row>
     <row r="154" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A154" s="96"/>
-      <c r="B154" s="255"/>
-      <c r="C154" s="256"/>
-      <c r="D154" s="255"/>
-      <c r="E154" s="257"/>
+      <c r="B154" s="251"/>
+      <c r="C154" s="252"/>
+      <c r="D154" s="251"/>
+      <c r="E154" s="253"/>
       <c r="F154" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G154" s="177"/>
       <c r="H154" s="177"/>
-      <c r="I154" s="260"/>
-      <c r="J154" s="260"/>
-      <c r="K154" s="260"/>
+      <c r="I154" s="256"/>
+      <c r="J154" s="256"/>
+      <c r="K154" s="256"/>
       <c r="L154" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28288,19 +28276,19 @@
     </row>
     <row r="155" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A155" s="96"/>
-      <c r="B155" s="255"/>
-      <c r="C155" s="256"/>
-      <c r="D155" s="255"/>
-      <c r="E155" s="257"/>
+      <c r="B155" s="251"/>
+      <c r="C155" s="252"/>
+      <c r="D155" s="251"/>
+      <c r="E155" s="253"/>
       <c r="F155" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G155" s="177"/>
       <c r="H155" s="177"/>
-      <c r="I155" s="260"/>
-      <c r="J155" s="260"/>
-      <c r="K155" s="260"/>
+      <c r="I155" s="256"/>
+      <c r="J155" s="256"/>
+      <c r="K155" s="256"/>
       <c r="L155" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28308,19 +28296,19 @@
     </row>
     <row r="156" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A156" s="85"/>
-      <c r="B156" s="255"/>
-      <c r="C156" s="256"/>
-      <c r="D156" s="255"/>
-      <c r="E156" s="257"/>
+      <c r="B156" s="251"/>
+      <c r="C156" s="252"/>
+      <c r="D156" s="251"/>
+      <c r="E156" s="253"/>
       <c r="F156" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G156" s="177"/>
       <c r="H156" s="177"/>
-      <c r="I156" s="260"/>
-      <c r="J156" s="260"/>
-      <c r="K156" s="260"/>
+      <c r="I156" s="256"/>
+      <c r="J156" s="256"/>
+      <c r="K156" s="256"/>
       <c r="L156" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28328,19 +28316,19 @@
     </row>
     <row r="157" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A157" s="85"/>
-      <c r="B157" s="255"/>
-      <c r="C157" s="256"/>
-      <c r="D157" s="255"/>
-      <c r="E157" s="257"/>
+      <c r="B157" s="251"/>
+      <c r="C157" s="252"/>
+      <c r="D157" s="251"/>
+      <c r="E157" s="253"/>
       <c r="F157" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G157" s="177"/>
       <c r="H157" s="177"/>
-      <c r="I157" s="260"/>
-      <c r="J157" s="260"/>
-      <c r="K157" s="260"/>
+      <c r="I157" s="256"/>
+      <c r="J157" s="256"/>
+      <c r="K157" s="256"/>
       <c r="L157" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28348,19 +28336,19 @@
     </row>
     <row r="158" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A158" s="85"/>
-      <c r="B158" s="255"/>
-      <c r="C158" s="256"/>
-      <c r="D158" s="255"/>
-      <c r="E158" s="257"/>
+      <c r="B158" s="251"/>
+      <c r="C158" s="252"/>
+      <c r="D158" s="251"/>
+      <c r="E158" s="253"/>
       <c r="F158" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G158" s="177"/>
       <c r="H158" s="177"/>
-      <c r="I158" s="260"/>
-      <c r="J158" s="260"/>
-      <c r="K158" s="260"/>
+      <c r="I158" s="256"/>
+      <c r="J158" s="256"/>
+      <c r="K158" s="256"/>
       <c r="L158" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28368,19 +28356,19 @@
     </row>
     <row r="159" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A159" s="85"/>
-      <c r="B159" s="255"/>
-      <c r="C159" s="256"/>
-      <c r="D159" s="255"/>
-      <c r="E159" s="257"/>
+      <c r="B159" s="251"/>
+      <c r="C159" s="252"/>
+      <c r="D159" s="251"/>
+      <c r="E159" s="253"/>
       <c r="F159" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G159" s="177"/>
       <c r="H159" s="177"/>
-      <c r="I159" s="260"/>
-      <c r="J159" s="260"/>
-      <c r="K159" s="260"/>
+      <c r="I159" s="256"/>
+      <c r="J159" s="256"/>
+      <c r="K159" s="256"/>
       <c r="L159" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28388,19 +28376,19 @@
     </row>
     <row r="160" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A160" s="85"/>
-      <c r="B160" s="255"/>
-      <c r="C160" s="256"/>
-      <c r="D160" s="255"/>
-      <c r="E160" s="257"/>
+      <c r="B160" s="251"/>
+      <c r="C160" s="252"/>
+      <c r="D160" s="251"/>
+      <c r="E160" s="253"/>
       <c r="F160" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G160" s="177"/>
       <c r="H160" s="177"/>
-      <c r="I160" s="260"/>
-      <c r="J160" s="260"/>
-      <c r="K160" s="260"/>
+      <c r="I160" s="256"/>
+      <c r="J160" s="256"/>
+      <c r="K160" s="256"/>
       <c r="L160" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28408,19 +28396,19 @@
     </row>
     <row r="161" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A161" s="96"/>
-      <c r="B161" s="255"/>
-      <c r="C161" s="256"/>
-      <c r="D161" s="255"/>
-      <c r="E161" s="257"/>
+      <c r="B161" s="251"/>
+      <c r="C161" s="252"/>
+      <c r="D161" s="251"/>
+      <c r="E161" s="253"/>
       <c r="F161" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G161" s="177"/>
       <c r="H161" s="177"/>
-      <c r="I161" s="260"/>
-      <c r="J161" s="260"/>
-      <c r="K161" s="260"/>
+      <c r="I161" s="256"/>
+      <c r="J161" s="256"/>
+      <c r="K161" s="256"/>
       <c r="L161" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28428,19 +28416,19 @@
     </row>
     <row r="162" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A162" s="96"/>
-      <c r="B162" s="255"/>
-      <c r="C162" s="256"/>
-      <c r="D162" s="255"/>
-      <c r="E162" s="257"/>
+      <c r="B162" s="251"/>
+      <c r="C162" s="252"/>
+      <c r="D162" s="251"/>
+      <c r="E162" s="253"/>
       <c r="F162" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G162" s="177"/>
       <c r="H162" s="177"/>
-      <c r="I162" s="260"/>
-      <c r="J162" s="260"/>
-      <c r="K162" s="260"/>
+      <c r="I162" s="256"/>
+      <c r="J162" s="256"/>
+      <c r="K162" s="256"/>
       <c r="L162" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28448,19 +28436,19 @@
     </row>
     <row r="163" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A163" s="85"/>
-      <c r="B163" s="255"/>
-      <c r="C163" s="256"/>
-      <c r="D163" s="255"/>
-      <c r="E163" s="257"/>
+      <c r="B163" s="251"/>
+      <c r="C163" s="252"/>
+      <c r="D163" s="251"/>
+      <c r="E163" s="253"/>
       <c r="F163" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G163" s="177"/>
       <c r="H163" s="177"/>
-      <c r="I163" s="260"/>
-      <c r="J163" s="260"/>
-      <c r="K163" s="260"/>
+      <c r="I163" s="256"/>
+      <c r="J163" s="256"/>
+      <c r="K163" s="256"/>
       <c r="L163" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28468,19 +28456,19 @@
     </row>
     <row r="164" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A164" s="85"/>
-      <c r="B164" s="255"/>
-      <c r="C164" s="256"/>
-      <c r="D164" s="255"/>
-      <c r="E164" s="257"/>
+      <c r="B164" s="251"/>
+      <c r="C164" s="252"/>
+      <c r="D164" s="251"/>
+      <c r="E164" s="253"/>
       <c r="F164" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G164" s="177"/>
       <c r="H164" s="177"/>
-      <c r="I164" s="260"/>
-      <c r="J164" s="260"/>
-      <c r="K164" s="260"/>
+      <c r="I164" s="256"/>
+      <c r="J164" s="256"/>
+      <c r="K164" s="256"/>
       <c r="L164" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28488,19 +28476,19 @@
     </row>
     <row r="165" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A165" s="85"/>
-      <c r="B165" s="255"/>
-      <c r="C165" s="256"/>
-      <c r="D165" s="255"/>
-      <c r="E165" s="257"/>
+      <c r="B165" s="251"/>
+      <c r="C165" s="252"/>
+      <c r="D165" s="251"/>
+      <c r="E165" s="253"/>
       <c r="F165" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G165" s="177"/>
       <c r="H165" s="177"/>
-      <c r="I165" s="260"/>
-      <c r="J165" s="260"/>
-      <c r="K165" s="260"/>
+      <c r="I165" s="256"/>
+      <c r="J165" s="256"/>
+      <c r="K165" s="256"/>
       <c r="L165" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28508,19 +28496,19 @@
     </row>
     <row r="166" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A166" s="85"/>
-      <c r="B166" s="255"/>
-      <c r="C166" s="256"/>
-      <c r="D166" s="255"/>
-      <c r="E166" s="257"/>
+      <c r="B166" s="251"/>
+      <c r="C166" s="252"/>
+      <c r="D166" s="251"/>
+      <c r="E166" s="253"/>
       <c r="F166" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G166" s="177"/>
       <c r="H166" s="177"/>
-      <c r="I166" s="260"/>
-      <c r="J166" s="260"/>
-      <c r="K166" s="260"/>
+      <c r="I166" s="256"/>
+      <c r="J166" s="256"/>
+      <c r="K166" s="256"/>
       <c r="L166" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28528,19 +28516,19 @@
     </row>
     <row r="167" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A167" s="85"/>
-      <c r="B167" s="255"/>
-      <c r="C167" s="256"/>
-      <c r="D167" s="255"/>
-      <c r="E167" s="257"/>
+      <c r="B167" s="251"/>
+      <c r="C167" s="252"/>
+      <c r="D167" s="251"/>
+      <c r="E167" s="253"/>
       <c r="F167" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G167" s="177"/>
       <c r="H167" s="177"/>
-      <c r="I167" s="260"/>
-      <c r="J167" s="260"/>
-      <c r="K167" s="260"/>
+      <c r="I167" s="256"/>
+      <c r="J167" s="256"/>
+      <c r="K167" s="256"/>
       <c r="L167" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28548,19 +28536,19 @@
     </row>
     <row r="168" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A168" s="96"/>
-      <c r="B168" s="255"/>
-      <c r="C168" s="256"/>
-      <c r="D168" s="255"/>
-      <c r="E168" s="257"/>
+      <c r="B168" s="251"/>
+      <c r="C168" s="252"/>
+      <c r="D168" s="251"/>
+      <c r="E168" s="253"/>
       <c r="F168" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G168" s="177"/>
       <c r="H168" s="177"/>
-      <c r="I168" s="260"/>
-      <c r="J168" s="260"/>
-      <c r="K168" s="260"/>
+      <c r="I168" s="256"/>
+      <c r="J168" s="256"/>
+      <c r="K168" s="256"/>
       <c r="L168" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28568,19 +28556,19 @@
     </row>
     <row r="169" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A169" s="96"/>
-      <c r="B169" s="255"/>
-      <c r="C169" s="256"/>
-      <c r="D169" s="255"/>
-      <c r="E169" s="257"/>
+      <c r="B169" s="251"/>
+      <c r="C169" s="252"/>
+      <c r="D169" s="251"/>
+      <c r="E169" s="253"/>
       <c r="F169" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G169" s="177"/>
       <c r="H169" s="177"/>
-      <c r="I169" s="260"/>
-      <c r="J169" s="260"/>
-      <c r="K169" s="260"/>
+      <c r="I169" s="256"/>
+      <c r="J169" s="256"/>
+      <c r="K169" s="256"/>
       <c r="L169" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28588,19 +28576,19 @@
     </row>
     <row r="170" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A170" s="85"/>
-      <c r="B170" s="255"/>
-      <c r="C170" s="256"/>
-      <c r="D170" s="255"/>
-      <c r="E170" s="257"/>
+      <c r="B170" s="251"/>
+      <c r="C170" s="252"/>
+      <c r="D170" s="251"/>
+      <c r="E170" s="253"/>
       <c r="F170" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G170" s="177"/>
       <c r="H170" s="177"/>
-      <c r="I170" s="260"/>
-      <c r="J170" s="260"/>
-      <c r="K170" s="260"/>
+      <c r="I170" s="256"/>
+      <c r="J170" s="256"/>
+      <c r="K170" s="256"/>
       <c r="L170" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28609,19 +28597,19 @@
     </row>
     <row r="171" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A171" s="85"/>
-      <c r="B171" s="255"/>
-      <c r="C171" s="256"/>
-      <c r="D171" s="255"/>
-      <c r="E171" s="257"/>
+      <c r="B171" s="251"/>
+      <c r="C171" s="252"/>
+      <c r="D171" s="251"/>
+      <c r="E171" s="253"/>
       <c r="F171" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G171" s="177"/>
       <c r="H171" s="177"/>
-      <c r="I171" s="260"/>
-      <c r="J171" s="260"/>
-      <c r="K171" s="260"/>
+      <c r="I171" s="256"/>
+      <c r="J171" s="256"/>
+      <c r="K171" s="256"/>
       <c r="L171" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28629,19 +28617,19 @@
     </row>
     <row r="172" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A172" s="85"/>
-      <c r="B172" s="255"/>
-      <c r="C172" s="256"/>
-      <c r="D172" s="255"/>
-      <c r="E172" s="257"/>
+      <c r="B172" s="251"/>
+      <c r="C172" s="252"/>
+      <c r="D172" s="251"/>
+      <c r="E172" s="253"/>
       <c r="F172" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G172" s="177"/>
       <c r="H172" s="177"/>
-      <c r="I172" s="260"/>
-      <c r="J172" s="260"/>
-      <c r="K172" s="260"/>
+      <c r="I172" s="256"/>
+      <c r="J172" s="256"/>
+      <c r="K172" s="256"/>
       <c r="L172" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28649,19 +28637,19 @@
     </row>
     <row r="173" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A173" s="85"/>
-      <c r="B173" s="255"/>
-      <c r="C173" s="256"/>
-      <c r="D173" s="255"/>
-      <c r="E173" s="257"/>
+      <c r="B173" s="251"/>
+      <c r="C173" s="252"/>
+      <c r="D173" s="251"/>
+      <c r="E173" s="253"/>
       <c r="F173" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G173" s="177"/>
       <c r="H173" s="177"/>
-      <c r="I173" s="260"/>
-      <c r="J173" s="260"/>
-      <c r="K173" s="260"/>
+      <c r="I173" s="256"/>
+      <c r="J173" s="256"/>
+      <c r="K173" s="256"/>
       <c r="L173" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28669,19 +28657,19 @@
     </row>
     <row r="174" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A174" s="96"/>
-      <c r="B174" s="255"/>
-      <c r="C174" s="256"/>
-      <c r="D174" s="255"/>
-      <c r="E174" s="257"/>
+      <c r="B174" s="251"/>
+      <c r="C174" s="252"/>
+      <c r="D174" s="251"/>
+      <c r="E174" s="253"/>
       <c r="F174" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G174" s="177"/>
       <c r="H174" s="177"/>
-      <c r="I174" s="260"/>
-      <c r="J174" s="260"/>
-      <c r="K174" s="260"/>
+      <c r="I174" s="256"/>
+      <c r="J174" s="256"/>
+      <c r="K174" s="256"/>
       <c r="L174" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28689,19 +28677,19 @@
     </row>
     <row r="175" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A175" s="96"/>
-      <c r="B175" s="255"/>
-      <c r="C175" s="256"/>
-      <c r="D175" s="255"/>
-      <c r="E175" s="257"/>
+      <c r="B175" s="251"/>
+      <c r="C175" s="252"/>
+      <c r="D175" s="251"/>
+      <c r="E175" s="253"/>
       <c r="F175" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G175" s="177"/>
       <c r="H175" s="177"/>
-      <c r="I175" s="260"/>
-      <c r="J175" s="260"/>
-      <c r="K175" s="260"/>
+      <c r="I175" s="256"/>
+      <c r="J175" s="256"/>
+      <c r="K175" s="256"/>
       <c r="L175" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28709,19 +28697,19 @@
     </row>
     <row r="176" spans="1:14" s="20" customFormat="1" ht="13.2" customHeight="1">
       <c r="A176" s="85"/>
-      <c r="B176" s="255"/>
-      <c r="C176" s="256"/>
-      <c r="D176" s="255"/>
-      <c r="E176" s="257"/>
+      <c r="B176" s="251"/>
+      <c r="C176" s="252"/>
+      <c r="D176" s="251"/>
+      <c r="E176" s="253"/>
       <c r="F176" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G176" s="177"/>
       <c r="H176" s="177"/>
-      <c r="I176" s="260"/>
-      <c r="J176" s="260"/>
-      <c r="K176" s="260"/>
+      <c r="I176" s="256"/>
+      <c r="J176" s="256"/>
+      <c r="K176" s="256"/>
       <c r="L176" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28730,19 +28718,19 @@
     </row>
     <row r="177" spans="1:14" s="20" customFormat="1" ht="13.2" customHeight="1">
       <c r="A177" s="85"/>
-      <c r="B177" s="255"/>
-      <c r="C177" s="256"/>
-      <c r="D177" s="255"/>
-      <c r="E177" s="257"/>
+      <c r="B177" s="251"/>
+      <c r="C177" s="252"/>
+      <c r="D177" s="251"/>
+      <c r="E177" s="253"/>
       <c r="F177" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G177" s="177"/>
       <c r="H177" s="177"/>
-      <c r="I177" s="260"/>
-      <c r="J177" s="260"/>
-      <c r="K177" s="260"/>
+      <c r="I177" s="256"/>
+      <c r="J177" s="256"/>
+      <c r="K177" s="256"/>
       <c r="L177" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28751,19 +28739,19 @@
     </row>
     <row r="178" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A178" s="85"/>
-      <c r="B178" s="255"/>
-      <c r="C178" s="256"/>
-      <c r="D178" s="255"/>
-      <c r="E178" s="257"/>
+      <c r="B178" s="251"/>
+      <c r="C178" s="252"/>
+      <c r="D178" s="251"/>
+      <c r="E178" s="253"/>
       <c r="F178" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G178" s="177"/>
       <c r="H178" s="177"/>
-      <c r="I178" s="260"/>
-      <c r="J178" s="260"/>
-      <c r="K178" s="260"/>
+      <c r="I178" s="256"/>
+      <c r="J178" s="256"/>
+      <c r="K178" s="256"/>
       <c r="L178" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -28771,42 +28759,42 @@
       <c r="N178" s="80"/>
     </row>
     <row r="179" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
-      <c r="A179" s="266"/>
-      <c r="B179" s="255"/>
-      <c r="C179" s="256"/>
-      <c r="D179" s="255"/>
-      <c r="E179" s="257"/>
+      <c r="A179" s="262"/>
+      <c r="B179" s="251"/>
+      <c r="C179" s="252"/>
+      <c r="D179" s="251"/>
+      <c r="E179" s="253"/>
       <c r="F179" s="206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G179" s="267"/>
-      <c r="H179" s="267"/>
-      <c r="I179" s="260"/>
-      <c r="J179" s="260"/>
-      <c r="K179" s="260"/>
+      <c r="G179" s="263"/>
+      <c r="H179" s="263"/>
+      <c r="I179" s="256"/>
+      <c r="J179" s="256"/>
+      <c r="K179" s="256"/>
       <c r="L179" s="208">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="15" customHeight="1">
-      <c r="A180" s="317" t="s">
+      <c r="A180" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="B180" s="317"/>
-      <c r="C180" s="317"/>
-      <c r="D180" s="317"/>
+      <c r="B180" s="325"/>
+      <c r="C180" s="325"/>
+      <c r="D180" s="325"/>
       <c r="E180" s="125"/>
-      <c r="F180" s="225">
+      <c r="F180" s="223">
         <f>SUM(F8:F179)</f>
         <v>240</v>
       </c>
-      <c r="G180" s="225">
+      <c r="G180" s="223">
         <f>SUM(G8:G179)</f>
         <v>80</v>
       </c>
-      <c r="H180" s="225">
+      <c r="H180" s="223">
         <f>SUM(H8:H179)</f>
         <v>160</v>
       </c>
@@ -28835,21 +28823,21 @@
       <c r="K181" s="24"/>
       <c r="L181" s="128"/>
     </row>
-    <row r="182" spans="1:14" s="280" customFormat="1" ht="15.9" customHeight="1">
-      <c r="A182" s="318" t="s">
+    <row r="182" spans="1:14" s="276" customFormat="1" ht="15.9" customHeight="1">
+      <c r="A182" s="326" t="s">
         <v>510</v>
       </c>
-      <c r="B182" s="318"/>
-      <c r="C182" s="318"/>
-      <c r="D182" s="318"/>
-      <c r="E182" s="318"/>
-      <c r="F182" s="318"/>
-      <c r="G182" s="318"/>
-      <c r="H182" s="318"/>
-      <c r="I182" s="318"/>
-      <c r="J182" s="318"/>
-      <c r="K182" s="318"/>
-      <c r="L182" s="318"/>
+      <c r="B182" s="326"/>
+      <c r="C182" s="326"/>
+      <c r="D182" s="326"/>
+      <c r="E182" s="326"/>
+      <c r="F182" s="326"/>
+      <c r="G182" s="326"/>
+      <c r="H182" s="326"/>
+      <c r="I182" s="326"/>
+      <c r="J182" s="326"/>
+      <c r="K182" s="326"/>
+      <c r="L182" s="326"/>
     </row>
     <row r="183" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A183" s="90"/>
@@ -28893,11 +28881,11 @@
       <c r="I184" s="200" t="s">
         <v>209</v>
       </c>
-      <c r="J184" s="319" t="s">
+      <c r="J184" s="327" t="s">
         <v>26</v>
       </c>
-      <c r="K184" s="319"/>
-      <c r="L184" s="319"/>
+      <c r="K184" s="327"/>
+      <c r="L184" s="327"/>
     </row>
     <row r="185" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A185" s="133">
@@ -28907,7 +28895,7 @@
         <v>36</v>
       </c>
       <c r="C185" s="135"/>
-      <c r="D185" s="255" t="s">
+      <c r="D185" s="251" t="s">
         <v>345</v>
       </c>
       <c r="E185" s="210" cm="1">
@@ -28930,9 +28918,9 @@
         <f>SUMIFS($L$8:$L$180, $B$8:$B$180,B185,$D$8:$D$180,D185)</f>
         <v>113.91999999999999</v>
       </c>
-      <c r="J185" s="312"/>
-      <c r="K185" s="313"/>
-      <c r="L185" s="314"/>
+      <c r="J185" s="311"/>
+      <c r="K185" s="312"/>
+      <c r="L185" s="313"/>
     </row>
     <row r="186" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A186" s="133">
@@ -28965,9 +28953,9 @@
         <f t="shared" ref="I186:I187" si="9">SUMIFS($L$8:$L$180, $B$8:$B$180,B186,$D$8:$D$180,D186)</f>
         <v>113.91999999999999</v>
       </c>
-      <c r="J186" s="312"/>
-      <c r="K186" s="313"/>
-      <c r="L186" s="314"/>
+      <c r="J186" s="311"/>
+      <c r="K186" s="312"/>
+      <c r="L186" s="313"/>
     </row>
     <row r="187" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A187" s="133">
@@ -28996,9 +28984,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J187" s="312"/>
-      <c r="K187" s="313"/>
-      <c r="L187" s="314"/>
+      <c r="J187" s="311"/>
+      <c r="K187" s="312"/>
+      <c r="L187" s="313"/>
     </row>
     <row r="188" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A188" s="133">
@@ -29027,9 +29015,9 @@
         <f t="shared" ref="I188:I202" si="13">SUMIFS($L$8:$L$180, $B$8:$B$180,B188,$D$8:$D$180,D188)</f>
         <v>0</v>
       </c>
-      <c r="J188" s="312"/>
-      <c r="K188" s="313"/>
-      <c r="L188" s="314"/>
+      <c r="J188" s="311"/>
+      <c r="K188" s="312"/>
+      <c r="L188" s="313"/>
     </row>
     <row r="189" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A189" s="133">
@@ -29058,9 +29046,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J189" s="312"/>
-      <c r="K189" s="313"/>
-      <c r="L189" s="314"/>
+      <c r="J189" s="311"/>
+      <c r="K189" s="312"/>
+      <c r="L189" s="313"/>
     </row>
     <row r="190" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A190" s="133">
@@ -29089,9 +29077,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J190" s="312"/>
-      <c r="K190" s="313"/>
-      <c r="L190" s="314"/>
+      <c r="J190" s="311"/>
+      <c r="K190" s="312"/>
+      <c r="L190" s="313"/>
     </row>
     <row r="191" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A191" s="133">
@@ -29120,9 +29108,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J191" s="312"/>
-      <c r="K191" s="313"/>
-      <c r="L191" s="314"/>
+      <c r="J191" s="311"/>
+      <c r="K191" s="312"/>
+      <c r="L191" s="313"/>
     </row>
     <row r="192" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A192" s="133">
@@ -29151,9 +29139,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J192" s="312"/>
-      <c r="K192" s="313"/>
-      <c r="L192" s="314"/>
+      <c r="J192" s="311"/>
+      <c r="K192" s="312"/>
+      <c r="L192" s="313"/>
     </row>
     <row r="193" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A193" s="133">
@@ -29182,9 +29170,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J193" s="312"/>
-      <c r="K193" s="313"/>
-      <c r="L193" s="314"/>
+      <c r="J193" s="311"/>
+      <c r="K193" s="312"/>
+      <c r="L193" s="313"/>
     </row>
     <row r="194" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A194" s="133">
@@ -29213,9 +29201,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J194" s="312"/>
-      <c r="K194" s="313"/>
-      <c r="L194" s="314"/>
+      <c r="J194" s="311"/>
+      <c r="K194" s="312"/>
+      <c r="L194" s="313"/>
     </row>
     <row r="195" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A195" s="133">
@@ -29244,9 +29232,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J195" s="312"/>
-      <c r="K195" s="313"/>
-      <c r="L195" s="314"/>
+      <c r="J195" s="311"/>
+      <c r="K195" s="312"/>
+      <c r="L195" s="313"/>
     </row>
     <row r="196" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A196" s="133">
@@ -29275,9 +29263,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J196" s="312"/>
-      <c r="K196" s="313"/>
-      <c r="L196" s="314"/>
+      <c r="J196" s="311"/>
+      <c r="K196" s="312"/>
+      <c r="L196" s="313"/>
     </row>
     <row r="197" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A197" s="133">
@@ -29306,9 +29294,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J197" s="312"/>
-      <c r="K197" s="313"/>
-      <c r="L197" s="314"/>
+      <c r="J197" s="311"/>
+      <c r="K197" s="312"/>
+      <c r="L197" s="313"/>
     </row>
     <row r="198" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A198" s="133">
@@ -29337,9 +29325,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J198" s="312"/>
-      <c r="K198" s="313"/>
-      <c r="L198" s="314"/>
+      <c r="J198" s="311"/>
+      <c r="K198" s="312"/>
+      <c r="L198" s="313"/>
     </row>
     <row r="199" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A199" s="133">
@@ -29368,9 +29356,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J199" s="312"/>
-      <c r="K199" s="313"/>
-      <c r="L199" s="314"/>
+      <c r="J199" s="311"/>
+      <c r="K199" s="312"/>
+      <c r="L199" s="313"/>
     </row>
     <row r="200" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A200" s="133">
@@ -29399,9 +29387,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J200" s="312"/>
-      <c r="K200" s="313"/>
-      <c r="L200" s="314"/>
+      <c r="J200" s="311"/>
+      <c r="K200" s="312"/>
+      <c r="L200" s="313"/>
     </row>
     <row r="201" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A201" s="133">
@@ -29430,68 +29418,68 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J201" s="312"/>
-      <c r="K201" s="313"/>
-      <c r="L201" s="314"/>
+      <c r="J201" s="311"/>
+      <c r="K201" s="312"/>
+      <c r="L201" s="313"/>
     </row>
     <row r="202" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A202" s="236">
+      <c r="A202" s="234">
         <v>17</v>
       </c>
-      <c r="B202" s="237"/>
-      <c r="C202" s="237"/>
-      <c r="D202" s="237"/>
-      <c r="E202" s="238" cm="1">
+      <c r="B202" s="235"/>
+      <c r="C202" s="235"/>
+      <c r="D202" s="235"/>
+      <c r="E202" s="236" cm="1">
         <f t="array" ref="E202">MIN(IF(($B$8:$B$180=B202)*($D$8:$D$180=D202), $E$8:$E$180))</f>
         <v>0</v>
       </c>
-      <c r="F202" s="239">
+      <c r="F202" s="237">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G202" s="239">
+      <c r="G202" s="237">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H202" s="239">
+      <c r="H202" s="237">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I202" s="239">
+      <c r="I202" s="237">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J202" s="328"/>
-      <c r="K202" s="329"/>
-      <c r="L202" s="330"/>
+      <c r="J202" s="320"/>
+      <c r="K202" s="321"/>
+      <c r="L202" s="322"/>
     </row>
     <row r="203" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A203" s="322" t="s">
+      <c r="A203" s="314" t="s">
         <v>28</v>
       </c>
-      <c r="B203" s="323"/>
-      <c r="C203" s="323"/>
-      <c r="D203" s="324"/>
-      <c r="E203" s="240"/>
-      <c r="F203" s="241">
-        <f>SUM(F186:F195)</f>
-        <v>120</v>
-      </c>
-      <c r="G203" s="242">
-        <f>SUM(G186:G195)</f>
-        <v>40</v>
-      </c>
-      <c r="H203" s="242">
-        <f>SUM(H186:H195)</f>
+      <c r="B203" s="315"/>
+      <c r="C203" s="315"/>
+      <c r="D203" s="316"/>
+      <c r="E203" s="238"/>
+      <c r="F203" s="217">
+        <f t="shared" ref="F203:H203" si="14">SUM(F185:F202)</f>
+        <v>240</v>
+      </c>
+      <c r="G203" s="217">
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
-      <c r="I203" s="219">
-        <f>SUM(I186:I195)</f>
-        <v>113.91999999999999</v>
-      </c>
-      <c r="J203" s="325"/>
-      <c r="K203" s="326"/>
-      <c r="L203" s="327"/>
+      <c r="H203" s="217">
+        <f t="shared" si="14"/>
+        <v>160</v>
+      </c>
+      <c r="I203" s="376">
+        <f>SUM(I185:I202)</f>
+        <v>227.83999999999997</v>
+      </c>
+      <c r="J203" s="317"/>
+      <c r="K203" s="318"/>
+      <c r="L203" s="319"/>
     </row>
     <row r="204" spans="1:14" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A204" s="90"/>
@@ -29511,23 +29499,23 @@
       <c r="A205" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="B205" s="321" t="s">
+      <c r="B205" s="310" t="s">
         <v>203</v>
       </c>
-      <c r="C205" s="321"/>
-      <c r="D205" s="321"/>
-      <c r="E205" s="321"/>
-      <c r="F205" s="321"/>
-      <c r="G205" s="321"/>
-      <c r="H205" s="321"/>
-      <c r="I205" s="321"/>
-      <c r="J205" s="321"/>
-      <c r="K205" s="321"/>
-      <c r="L205" s="321"/>
+      <c r="C205" s="310"/>
+      <c r="D205" s="310"/>
+      <c r="E205" s="310"/>
+      <c r="F205" s="310"/>
+      <c r="G205" s="310"/>
+      <c r="H205" s="310"/>
+      <c r="I205" s="310"/>
+      <c r="J205" s="310"/>
+      <c r="K205" s="310"/>
+      <c r="L205" s="310"/>
       <c r="N205" s="78"/>
     </row>
     <row r="206" spans="1:14" ht="15" customHeight="1">
-      <c r="J206" s="243" t="s">
+      <c r="J206" s="239" t="s">
         <v>387</v>
       </c>
     </row>
@@ -29560,9 +29548,9 @@
     <row r="211" spans="4:12" ht="15" customHeight="1">
       <c r="D211" s="28"/>
       <c r="E211" s="126"/>
-      <c r="J211" s="320"/>
-      <c r="K211" s="320"/>
-      <c r="L211" s="320"/>
+      <c r="J211" s="309"/>
+      <c r="K211" s="309"/>
+      <c r="L211" s="309"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -29573,6 +29561,19 @@
     <protectedRange sqref="E185:L185 E186:I202" name="TongHop_4"/>
   </protectedRanges>
   <mergeCells count="27">
+    <mergeCell ref="J192:L192"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A182:L182"/>
+    <mergeCell ref="J184:L184"/>
+    <mergeCell ref="J186:L186"/>
+    <mergeCell ref="J187:L187"/>
+    <mergeCell ref="J188:L188"/>
+    <mergeCell ref="J189:L189"/>
+    <mergeCell ref="J190:L190"/>
+    <mergeCell ref="J191:L191"/>
+    <mergeCell ref="J185:L185"/>
     <mergeCell ref="J211:L211"/>
     <mergeCell ref="B205:L205"/>
     <mergeCell ref="J193:L193"/>
@@ -29587,19 +29588,6 @@
     <mergeCell ref="J200:L200"/>
     <mergeCell ref="J201:L201"/>
     <mergeCell ref="J202:L202"/>
-    <mergeCell ref="J192:L192"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A182:L182"/>
-    <mergeCell ref="J184:L184"/>
-    <mergeCell ref="J186:L186"/>
-    <mergeCell ref="J187:L187"/>
-    <mergeCell ref="J188:L188"/>
-    <mergeCell ref="J189:L189"/>
-    <mergeCell ref="J190:L190"/>
-    <mergeCell ref="J191:L191"/>
-    <mergeCell ref="J185:L185"/>
   </mergeCells>
   <phoneticPr fontId="88" type="noConversion"/>
   <dataValidations count="1">
@@ -29623,8 +29611,8 @@
   </sheetPr>
   <dimension ref="A1:M244"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="A204" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J243" sqref="J243"/>
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="A177" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="I199" sqref="I199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -29648,17 +29636,17 @@
     <row r="1" spans="1:12" ht="18.600000000000001">
       <c r="A1" s="94"/>
       <c r="B1" s="9"/>
-      <c r="D1" s="315" t="s">
+      <c r="D1" s="323" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="94"/>
@@ -29682,7 +29670,7 @@
       <c r="B4" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="C4" s="379" t="s">
+      <c r="C4" s="291" t="s">
         <v>564</v>
       </c>
       <c r="D4" s="12"/>
@@ -29694,15 +29682,15 @@
         <v>546</v>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="316"/>
-      <c r="K4" s="316"/>
-      <c r="L4" s="316"/>
+      <c r="J4" s="324"/>
+      <c r="K4" s="324"/>
+      <c r="L4" s="324"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="C5" s="279" t="s">
+      <c r="C5" s="275" t="s">
         <v>544</v>
       </c>
       <c r="D5" s="14"/>
@@ -30164,19 +30152,19 @@
       <c r="K17" s="181" t="s">
         <v>344</v>
       </c>
-      <c r="L17" s="226">
+      <c r="L17" s="224">
         <f t="shared" si="1"/>
         <v>12.103999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A18" s="227" t="s">
+      <c r="A18" s="225" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="228">
+      <c r="C18" s="226">
         <v>20</v>
       </c>
       <c r="D18" s="179" t="s">
@@ -30185,14 +30173,14 @@
       <c r="E18" s="180">
         <v>1</v>
       </c>
-      <c r="F18" s="229">
+      <c r="F18" s="227">
         <f>SUM(G18,H18)</f>
         <v>12</v>
       </c>
-      <c r="G18" s="230">
+      <c r="G18" s="228">
         <v>4</v>
       </c>
-      <c r="H18" s="230">
+      <c r="H18" s="228">
         <v>8</v>
       </c>
       <c r="I18" s="181">
@@ -30202,7 +30190,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K18" s="181"/>
-      <c r="L18" s="231">
+      <c r="L18" s="229">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -33590,22 +33578,22 @@
       </c>
     </row>
     <row r="180" spans="1:12" ht="18" customHeight="1">
-      <c r="A180" s="334" t="s">
+      <c r="A180" s="369" t="s">
         <v>12</v>
       </c>
-      <c r="B180" s="334"/>
-      <c r="C180" s="334"/>
-      <c r="D180" s="334"/>
+      <c r="B180" s="369"/>
+      <c r="C180" s="369"/>
+      <c r="D180" s="369"/>
       <c r="E180" s="205"/>
-      <c r="F180" s="224">
+      <c r="F180" s="222">
         <f t="shared" ref="F180:L180" si="7">SUM(F8:F179)</f>
         <v>240</v>
       </c>
-      <c r="G180" s="224">
+      <c r="G180" s="222">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="H180" s="224">
+      <c r="H180" s="222">
         <f t="shared" si="7"/>
         <v>160</v>
       </c>
@@ -33634,21 +33622,21 @@
       <c r="K181" s="24"/>
       <c r="L181" s="128"/>
     </row>
-    <row r="182" spans="1:12" s="280" customFormat="1" ht="15.9" customHeight="1">
-      <c r="A182" s="318" t="s">
+    <row r="182" spans="1:12" s="276" customFormat="1" ht="15.9" customHeight="1">
+      <c r="A182" s="326" t="s">
         <v>509</v>
       </c>
-      <c r="B182" s="318"/>
-      <c r="C182" s="318"/>
-      <c r="D182" s="318"/>
-      <c r="E182" s="318"/>
-      <c r="F182" s="318"/>
-      <c r="G182" s="318"/>
-      <c r="H182" s="318"/>
-      <c r="I182" s="318"/>
-      <c r="J182" s="318"/>
-      <c r="K182" s="318"/>
-      <c r="L182" s="318"/>
+      <c r="B182" s="326"/>
+      <c r="C182" s="326"/>
+      <c r="D182" s="326"/>
+      <c r="E182" s="326"/>
+      <c r="F182" s="326"/>
+      <c r="G182" s="326"/>
+      <c r="H182" s="326"/>
+      <c r="I182" s="326"/>
+      <c r="J182" s="326"/>
+      <c r="K182" s="326"/>
+      <c r="L182" s="326"/>
     </row>
     <row r="183" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A183" s="90"/>
@@ -33665,75 +33653,75 @@
       <c r="L183" s="128"/>
     </row>
     <row r="184" spans="1:12" s="19" customFormat="1" ht="42" customHeight="1">
-      <c r="A184" s="248" t="s">
+      <c r="A184" s="244" t="s">
         <v>10</v>
       </c>
-      <c r="B184" s="249" t="s">
+      <c r="B184" s="245" t="s">
         <v>31</v>
       </c>
-      <c r="C184" s="249" t="s">
+      <c r="C184" s="245" t="s">
         <v>338</v>
       </c>
-      <c r="D184" s="249" t="s">
+      <c r="D184" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="E184" s="249" t="s">
+      <c r="E184" s="245" t="s">
         <v>342</v>
       </c>
-      <c r="F184" s="250" t="s">
+      <c r="F184" s="246" t="s">
         <v>339</v>
       </c>
-      <c r="G184" s="251" t="s">
+      <c r="G184" s="247" t="s">
         <v>340</v>
       </c>
-      <c r="H184" s="251" t="s">
+      <c r="H184" s="247" t="s">
         <v>341</v>
       </c>
-      <c r="I184" s="249" t="s">
+      <c r="I184" s="245" t="s">
         <v>209</v>
       </c>
-      <c r="J184" s="342" t="s">
+      <c r="J184" s="365" t="s">
         <v>26</v>
       </c>
-      <c r="K184" s="342"/>
-      <c r="L184" s="342"/>
+      <c r="K184" s="365"/>
+      <c r="L184" s="365"/>
     </row>
     <row r="185" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A185" s="244">
+      <c r="A185" s="240">
         <v>1</v>
       </c>
-      <c r="B185" s="245" t="s">
+      <c r="B185" s="241" t="s">
         <v>36</v>
       </c>
-      <c r="C185" s="245">
+      <c r="C185" s="241">
         <v>15</v>
       </c>
-      <c r="D185" s="245" t="s">
+      <c r="D185" s="241" t="s">
         <v>345</v>
       </c>
-      <c r="E185" s="246" cm="1">
+      <c r="E185" s="242" cm="1">
         <f t="array" ref="E185">MIN(IF(($B$8:$B$180=B185)*($D$8:$D$180=D185), $E$8:$E$180))</f>
         <v>0.89</v>
       </c>
-      <c r="F185" s="247">
+      <c r="F185" s="243">
         <f>SUMIFS($F$8:$F$180, $B$8:$B$180,B185,$D$8:$D$180,D185)</f>
         <v>120</v>
       </c>
-      <c r="G185" s="247">
+      <c r="G185" s="243">
         <f>SUMIFS($G$8:$G$180, $B$8:$B$180,B185,$D$8:$D$180,D185)</f>
         <v>40</v>
       </c>
-      <c r="H185" s="247">
+      <c r="H185" s="243">
         <f>SUMIFS($H$8:$H$180, $B$8:$B$180,B185,$D$8:$D$180,D185)</f>
         <v>80</v>
       </c>
-      <c r="I185" s="247">
+      <c r="I185" s="243">
         <f>SUMIFS($L$8:$L$180, $B$8:$B$180,B185,$D$8:$D$180,D185)</f>
         <v>113.91999999999999</v>
       </c>
-      <c r="J185" s="335"/>
-      <c r="K185" s="336"/>
-      <c r="L185" s="337"/>
+      <c r="J185" s="370"/>
+      <c r="K185" s="371"/>
+      <c r="L185" s="372"/>
     </row>
     <row r="186" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A186" s="133">
@@ -33768,9 +33756,9 @@
         <f t="shared" ref="I186:I198" si="11">SUMIFS($L$8:$L$180, $B$8:$B$180,B186,$D$8:$D$180,D186)</f>
         <v>127.99999999999997</v>
       </c>
-      <c r="J186" s="312"/>
-      <c r="K186" s="313"/>
-      <c r="L186" s="314"/>
+      <c r="J186" s="311"/>
+      <c r="K186" s="312"/>
+      <c r="L186" s="313"/>
     </row>
     <row r="187" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A187" s="133">
@@ -33799,9 +33787,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J187" s="312"/>
-      <c r="K187" s="313"/>
-      <c r="L187" s="314"/>
+      <c r="J187" s="311"/>
+      <c r="K187" s="312"/>
+      <c r="L187" s="313"/>
     </row>
     <row r="188" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A188" s="133">
@@ -33830,9 +33818,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J188" s="312"/>
-      <c r="K188" s="313"/>
-      <c r="L188" s="314"/>
+      <c r="J188" s="311"/>
+      <c r="K188" s="312"/>
+      <c r="L188" s="313"/>
     </row>
     <row r="189" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A189" s="133">
@@ -33861,9 +33849,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J189" s="312"/>
-      <c r="K189" s="313"/>
-      <c r="L189" s="314"/>
+      <c r="J189" s="311"/>
+      <c r="K189" s="312"/>
+      <c r="L189" s="313"/>
     </row>
     <row r="190" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A190" s="133">
@@ -33892,9 +33880,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J190" s="312"/>
-      <c r="K190" s="313"/>
-      <c r="L190" s="314"/>
+      <c r="J190" s="311"/>
+      <c r="K190" s="312"/>
+      <c r="L190" s="313"/>
     </row>
     <row r="191" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A191" s="133">
@@ -33923,9 +33911,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J191" s="312"/>
-      <c r="K191" s="313"/>
-      <c r="L191" s="314"/>
+      <c r="J191" s="311"/>
+      <c r="K191" s="312"/>
+      <c r="L191" s="313"/>
     </row>
     <row r="192" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A192" s="133">
@@ -33954,9 +33942,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J192" s="312"/>
-      <c r="K192" s="313"/>
-      <c r="L192" s="314"/>
+      <c r="J192" s="311"/>
+      <c r="K192" s="312"/>
+      <c r="L192" s="313"/>
     </row>
     <row r="193" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A193" s="133">
@@ -33985,9 +33973,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J193" s="312"/>
-      <c r="K193" s="313"/>
-      <c r="L193" s="314"/>
+      <c r="J193" s="311"/>
+      <c r="K193" s="312"/>
+      <c r="L193" s="313"/>
     </row>
     <row r="194" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A194" s="133">
@@ -34016,9 +34004,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J194" s="312"/>
-      <c r="K194" s="313"/>
-      <c r="L194" s="314"/>
+      <c r="J194" s="311"/>
+      <c r="K194" s="312"/>
+      <c r="L194" s="313"/>
     </row>
     <row r="195" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A195" s="133">
@@ -34047,9 +34035,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J195" s="312"/>
-      <c r="K195" s="313"/>
-      <c r="L195" s="314"/>
+      <c r="J195" s="311"/>
+      <c r="K195" s="312"/>
+      <c r="L195" s="313"/>
     </row>
     <row r="196" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A196" s="133">
@@ -34078,9 +34066,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J196" s="312"/>
-      <c r="K196" s="313"/>
-      <c r="L196" s="314"/>
+      <c r="J196" s="311"/>
+      <c r="K196" s="312"/>
+      <c r="L196" s="313"/>
     </row>
     <row r="197" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A197" s="133">
@@ -34109,9 +34097,9 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J197" s="312"/>
-      <c r="K197" s="313"/>
-      <c r="L197" s="314"/>
+      <c r="J197" s="311"/>
+      <c r="K197" s="312"/>
+      <c r="L197" s="313"/>
     </row>
     <row r="198" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A198" s="134">
@@ -34140,37 +34128,37 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J198" s="331"/>
-      <c r="K198" s="332"/>
-      <c r="L198" s="333"/>
+      <c r="J198" s="373"/>
+      <c r="K198" s="374"/>
+      <c r="L198" s="375"/>
     </row>
     <row r="199" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A199" s="322" t="s">
+      <c r="A199" s="314" t="s">
         <v>28</v>
       </c>
-      <c r="B199" s="323"/>
-      <c r="C199" s="323"/>
-      <c r="D199" s="324"/>
-      <c r="E199" s="232"/>
-      <c r="F199" s="218">
-        <f>SUM(F185:F194)</f>
+      <c r="B199" s="315"/>
+      <c r="C199" s="315"/>
+      <c r="D199" s="316"/>
+      <c r="E199" s="230"/>
+      <c r="F199" s="217">
+        <f>SUM(F185:F198)</f>
         <v>240</v>
       </c>
-      <c r="G199" s="219">
-        <f>SUM(G185:G194)</f>
+      <c r="G199" s="217">
+        <f t="shared" ref="G199:I199" si="12">SUM(G185:G198)</f>
         <v>80</v>
       </c>
-      <c r="H199" s="219">
-        <f>SUM(H185:H194)</f>
+      <c r="H199" s="217">
+        <f t="shared" si="12"/>
         <v>160</v>
       </c>
-      <c r="I199" s="217">
-        <f>SUM(I185:I194)</f>
+      <c r="I199" s="376">
+        <f>SUM(I185:I198)</f>
         <v>241.91999999999996</v>
       </c>
-      <c r="J199" s="343"/>
-      <c r="K199" s="344"/>
-      <c r="L199" s="345"/>
+      <c r="J199" s="366"/>
+      <c r="K199" s="367"/>
+      <c r="L199" s="368"/>
     </row>
     <row r="200" spans="1:12" s="20" customFormat="1" ht="12.9" customHeight="1">
       <c r="A200" s="90"/>
@@ -34187,20 +34175,20 @@
       <c r="L200" s="128"/>
     </row>
     <row r="201" spans="1:12" ht="15.9" customHeight="1">
-      <c r="A201" s="346" t="s">
+      <c r="A201" s="351" t="s">
         <v>80</v>
       </c>
-      <c r="B201" s="346"/>
-      <c r="C201" s="346"/>
-      <c r="D201" s="346"/>
-      <c r="E201" s="346"/>
-      <c r="F201" s="346"/>
-      <c r="G201" s="346"/>
-      <c r="H201" s="346"/>
-      <c r="I201" s="346"/>
-      <c r="J201" s="346"/>
-      <c r="K201" s="346"/>
-      <c r="L201" s="346"/>
+      <c r="B201" s="351"/>
+      <c r="C201" s="351"/>
+      <c r="D201" s="351"/>
+      <c r="E201" s="351"/>
+      <c r="F201" s="351"/>
+      <c r="G201" s="351"/>
+      <c r="H201" s="351"/>
+      <c r="I201" s="351"/>
+      <c r="J201" s="351"/>
+      <c r="K201" s="351"/>
+      <c r="L201" s="351"/>
     </row>
     <row r="202" spans="1:12" ht="12.9" customHeight="1">
       <c r="A202" s="91"/>
@@ -34220,20 +34208,20 @@
       <c r="A203" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B203" s="353" t="s">
+      <c r="B203" s="352" t="s">
         <v>79</v>
       </c>
-      <c r="C203" s="354"/>
-      <c r="D203" s="355" t="s">
+      <c r="C203" s="353"/>
+      <c r="D203" s="354" t="s">
         <v>201</v>
       </c>
-      <c r="E203" s="356"/>
-      <c r="F203" s="356"/>
-      <c r="G203" s="356"/>
-      <c r="H203" s="356"/>
-      <c r="I203" s="356"/>
-      <c r="J203" s="356"/>
-      <c r="K203" s="357"/>
+      <c r="E203" s="355"/>
+      <c r="F203" s="355"/>
+      <c r="G203" s="355"/>
+      <c r="H203" s="355"/>
+      <c r="I203" s="355"/>
+      <c r="J203" s="355"/>
+      <c r="K203" s="356"/>
       <c r="L203" s="18" t="s">
         <v>78</v>
       </c>
@@ -34242,206 +34230,206 @@
       <c r="A204" s="98">
         <v>1</v>
       </c>
-      <c r="B204" s="367" t="s">
+      <c r="B204" s="343" t="s">
         <v>361</v>
       </c>
-      <c r="C204" s="368"/>
-      <c r="D204" s="358"/>
-      <c r="E204" s="359"/>
-      <c r="F204" s="359"/>
-      <c r="G204" s="359"/>
-      <c r="H204" s="359"/>
-      <c r="I204" s="359"/>
-      <c r="J204" s="359"/>
-      <c r="K204" s="360"/>
+      <c r="C204" s="344"/>
+      <c r="D204" s="360"/>
+      <c r="E204" s="346"/>
+      <c r="F204" s="346"/>
+      <c r="G204" s="346"/>
+      <c r="H204" s="346"/>
+      <c r="I204" s="346"/>
+      <c r="J204" s="346"/>
+      <c r="K204" s="347"/>
       <c r="L204" s="166"/>
     </row>
     <row r="205" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A205" s="99">
         <v>2</v>
       </c>
-      <c r="B205" s="338" t="s">
+      <c r="B205" s="341" t="s">
         <v>364</v>
       </c>
-      <c r="C205" s="339"/>
-      <c r="D205" s="361"/>
-      <c r="E205" s="362"/>
-      <c r="F205" s="362"/>
-      <c r="G205" s="362"/>
-      <c r="H205" s="362"/>
-      <c r="I205" s="362"/>
-      <c r="J205" s="362"/>
-      <c r="K205" s="363"/>
+      <c r="C205" s="342"/>
+      <c r="D205" s="338"/>
+      <c r="E205" s="339"/>
+      <c r="F205" s="339"/>
+      <c r="G205" s="339"/>
+      <c r="H205" s="339"/>
+      <c r="I205" s="339"/>
+      <c r="J205" s="339"/>
+      <c r="K205" s="340"/>
       <c r="L205" s="167"/>
     </row>
     <row r="206" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A206" s="99">
         <v>3</v>
       </c>
-      <c r="B206" s="338" t="s">
+      <c r="B206" s="341" t="s">
         <v>372</v>
       </c>
-      <c r="C206" s="339"/>
-      <c r="D206" s="364"/>
-      <c r="E206" s="365"/>
-      <c r="F206" s="365"/>
-      <c r="G206" s="365"/>
-      <c r="H206" s="365"/>
-      <c r="I206" s="365"/>
-      <c r="J206" s="365"/>
-      <c r="K206" s="366"/>
+      <c r="C206" s="342"/>
+      <c r="D206" s="348"/>
+      <c r="E206" s="349"/>
+      <c r="F206" s="349"/>
+      <c r="G206" s="349"/>
+      <c r="H206" s="349"/>
+      <c r="I206" s="349"/>
+      <c r="J206" s="349"/>
+      <c r="K206" s="350"/>
       <c r="L206" s="168"/>
     </row>
     <row r="207" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A207" s="99">
         <v>4</v>
       </c>
-      <c r="B207" s="338" t="s">
+      <c r="B207" s="341" t="s">
         <v>355</v>
       </c>
-      <c r="C207" s="339"/>
-      <c r="D207" s="361"/>
-      <c r="E207" s="362"/>
-      <c r="F207" s="362"/>
-      <c r="G207" s="362"/>
-      <c r="H207" s="362"/>
-      <c r="I207" s="362"/>
-      <c r="J207" s="362"/>
-      <c r="K207" s="363"/>
+      <c r="C207" s="342"/>
+      <c r="D207" s="338"/>
+      <c r="E207" s="339"/>
+      <c r="F207" s="339"/>
+      <c r="G207" s="339"/>
+      <c r="H207" s="339"/>
+      <c r="I207" s="339"/>
+      <c r="J207" s="339"/>
+      <c r="K207" s="340"/>
       <c r="L207" s="167"/>
     </row>
     <row r="208" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A208" s="174">
         <v>5</v>
       </c>
-      <c r="B208" s="340" t="s">
+      <c r="B208" s="363" t="s">
         <v>368</v>
       </c>
-      <c r="C208" s="341"/>
-      <c r="D208" s="369"/>
-      <c r="E208" s="370"/>
-      <c r="F208" s="370"/>
-      <c r="G208" s="370"/>
-      <c r="H208" s="370"/>
-      <c r="I208" s="370"/>
-      <c r="J208" s="370"/>
-      <c r="K208" s="371"/>
+      <c r="C208" s="364"/>
+      <c r="D208" s="330"/>
+      <c r="E208" s="331"/>
+      <c r="F208" s="331"/>
+      <c r="G208" s="331"/>
+      <c r="H208" s="331"/>
+      <c r="I208" s="331"/>
+      <c r="J208" s="331"/>
+      <c r="K208" s="332"/>
       <c r="L208" s="169"/>
     </row>
     <row r="209" spans="1:12" s="20" customFormat="1" ht="18" hidden="1" customHeight="1">
-      <c r="A209" s="252">
+      <c r="A209" s="248">
         <v>6</v>
       </c>
-      <c r="B209" s="347"/>
-      <c r="C209" s="348"/>
-      <c r="D209" s="372"/>
-      <c r="E209" s="373"/>
-      <c r="F209" s="373"/>
-      <c r="G209" s="373"/>
-      <c r="H209" s="373"/>
-      <c r="I209" s="373"/>
-      <c r="J209" s="373"/>
-      <c r="K209" s="374"/>
-      <c r="L209" s="253"/>
+      <c r="B209" s="361"/>
+      <c r="C209" s="362"/>
+      <c r="D209" s="357"/>
+      <c r="E209" s="358"/>
+      <c r="F209" s="358"/>
+      <c r="G209" s="358"/>
+      <c r="H209" s="358"/>
+      <c r="I209" s="358"/>
+      <c r="J209" s="358"/>
+      <c r="K209" s="359"/>
+      <c r="L209" s="249"/>
     </row>
     <row r="210" spans="1:12" s="20" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A210" s="98">
         <v>7</v>
       </c>
-      <c r="B210" s="349"/>
-      <c r="C210" s="350"/>
-      <c r="D210" s="361"/>
-      <c r="E210" s="362"/>
-      <c r="F210" s="362"/>
-      <c r="G210" s="362"/>
-      <c r="H210" s="362"/>
-      <c r="I210" s="362"/>
-      <c r="J210" s="362"/>
-      <c r="K210" s="363"/>
+      <c r="B210" s="336"/>
+      <c r="C210" s="337"/>
+      <c r="D210" s="338"/>
+      <c r="E210" s="339"/>
+      <c r="F210" s="339"/>
+      <c r="G210" s="339"/>
+      <c r="H210" s="339"/>
+      <c r="I210" s="339"/>
+      <c r="J210" s="339"/>
+      <c r="K210" s="340"/>
       <c r="L210" s="167"/>
     </row>
     <row r="211" spans="1:12" s="20" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A211" s="98">
         <v>8</v>
       </c>
-      <c r="B211" s="349"/>
-      <c r="C211" s="350"/>
-      <c r="D211" s="361"/>
-      <c r="E211" s="362"/>
-      <c r="F211" s="362"/>
-      <c r="G211" s="362"/>
-      <c r="H211" s="362"/>
-      <c r="I211" s="362"/>
-      <c r="J211" s="362"/>
-      <c r="K211" s="363"/>
+      <c r="B211" s="336"/>
+      <c r="C211" s="337"/>
+      <c r="D211" s="338"/>
+      <c r="E211" s="339"/>
+      <c r="F211" s="339"/>
+      <c r="G211" s="339"/>
+      <c r="H211" s="339"/>
+      <c r="I211" s="339"/>
+      <c r="J211" s="339"/>
+      <c r="K211" s="340"/>
       <c r="L211" s="167"/>
     </row>
     <row r="212" spans="1:12" s="20" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A212" s="98">
         <v>9</v>
       </c>
-      <c r="B212" s="349"/>
-      <c r="C212" s="350"/>
-      <c r="D212" s="361"/>
-      <c r="E212" s="362"/>
-      <c r="F212" s="362"/>
-      <c r="G212" s="362"/>
-      <c r="H212" s="362"/>
-      <c r="I212" s="362"/>
-      <c r="J212" s="362"/>
-      <c r="K212" s="363"/>
+      <c r="B212" s="336"/>
+      <c r="C212" s="337"/>
+      <c r="D212" s="338"/>
+      <c r="E212" s="339"/>
+      <c r="F212" s="339"/>
+      <c r="G212" s="339"/>
+      <c r="H212" s="339"/>
+      <c r="I212" s="339"/>
+      <c r="J212" s="339"/>
+      <c r="K212" s="340"/>
       <c r="L212" s="167"/>
     </row>
     <row r="213" spans="1:12" s="20" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A213" s="98">
         <v>10</v>
       </c>
-      <c r="B213" s="351"/>
-      <c r="C213" s="352"/>
-      <c r="D213" s="369"/>
-      <c r="E213" s="370"/>
-      <c r="F213" s="370"/>
-      <c r="G213" s="370"/>
-      <c r="H213" s="370"/>
-      <c r="I213" s="370"/>
-      <c r="J213" s="370"/>
-      <c r="K213" s="371"/>
+      <c r="B213" s="328"/>
+      <c r="C213" s="329"/>
+      <c r="D213" s="330"/>
+      <c r="E213" s="331"/>
+      <c r="F213" s="331"/>
+      <c r="G213" s="331"/>
+      <c r="H213" s="331"/>
+      <c r="I213" s="331"/>
+      <c r="J213" s="331"/>
+      <c r="K213" s="332"/>
       <c r="L213" s="169"/>
     </row>
     <row r="214" spans="1:12" ht="15" customHeight="1">
-      <c r="A214" s="375" t="s">
+      <c r="A214" s="333" t="s">
         <v>12</v>
       </c>
-      <c r="B214" s="376"/>
-      <c r="C214" s="376"/>
-      <c r="D214" s="376"/>
-      <c r="E214" s="376"/>
-      <c r="F214" s="376"/>
-      <c r="G214" s="376"/>
-      <c r="H214" s="376"/>
-      <c r="I214" s="376"/>
-      <c r="J214" s="376"/>
-      <c r="K214" s="377"/>
-      <c r="L214" s="223">
+      <c r="B214" s="334"/>
+      <c r="C214" s="334"/>
+      <c r="D214" s="334"/>
+      <c r="E214" s="334"/>
+      <c r="F214" s="334"/>
+      <c r="G214" s="334"/>
+      <c r="H214" s="334"/>
+      <c r="I214" s="334"/>
+      <c r="J214" s="334"/>
+      <c r="K214" s="335"/>
+      <c r="L214" s="221">
         <f>SUM(L204:L213)</f>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A215" s="346" t="s">
+      <c r="A215" s="351" t="s">
         <v>460</v>
       </c>
-      <c r="B215" s="346"/>
-      <c r="C215" s="346"/>
-      <c r="D215" s="346"/>
-      <c r="E215" s="346"/>
-      <c r="F215" s="346"/>
-      <c r="G215" s="346"/>
-      <c r="H215" s="346"/>
-      <c r="I215" s="346"/>
-      <c r="J215" s="346"/>
-      <c r="K215" s="346"/>
-      <c r="L215" s="346"/>
+      <c r="B215" s="351"/>
+      <c r="C215" s="351"/>
+      <c r="D215" s="351"/>
+      <c r="E215" s="351"/>
+      <c r="F215" s="351"/>
+      <c r="G215" s="351"/>
+      <c r="H215" s="351"/>
+      <c r="I215" s="351"/>
+      <c r="J215" s="351"/>
+      <c r="K215" s="351"/>
+      <c r="L215" s="351"/>
     </row>
     <row r="216" spans="1:12" ht="9" customHeight="1">
       <c r="A216" s="91"/>
@@ -34461,20 +34449,20 @@
       <c r="A217" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B217" s="353" t="s">
+      <c r="B217" s="352" t="s">
         <v>79</v>
       </c>
-      <c r="C217" s="354"/>
-      <c r="D217" s="355" t="s">
+      <c r="C217" s="353"/>
+      <c r="D217" s="354" t="s">
         <v>201</v>
       </c>
-      <c r="E217" s="356"/>
-      <c r="F217" s="356"/>
-      <c r="G217" s="356"/>
-      <c r="H217" s="356"/>
-      <c r="I217" s="356"/>
-      <c r="J217" s="356"/>
-      <c r="K217" s="357"/>
+      <c r="E217" s="355"/>
+      <c r="F217" s="355"/>
+      <c r="G217" s="355"/>
+      <c r="H217" s="355"/>
+      <c r="I217" s="355"/>
+      <c r="J217" s="355"/>
+      <c r="K217" s="356"/>
       <c r="L217" s="18" t="s">
         <v>78</v>
       </c>
@@ -34483,18 +34471,18 @@
       <c r="A218" s="98">
         <v>1</v>
       </c>
-      <c r="B218" s="367" t="s">
+      <c r="B218" s="343" t="s">
         <v>392</v>
       </c>
-      <c r="C218" s="368"/>
-      <c r="D218" s="378"/>
-      <c r="E218" s="359"/>
-      <c r="F218" s="359"/>
-      <c r="G218" s="359"/>
-      <c r="H218" s="359"/>
-      <c r="I218" s="359"/>
-      <c r="J218" s="359"/>
-      <c r="K218" s="360"/>
+      <c r="C218" s="344"/>
+      <c r="D218" s="345"/>
+      <c r="E218" s="346"/>
+      <c r="F218" s="346"/>
+      <c r="G218" s="346"/>
+      <c r="H218" s="346"/>
+      <c r="I218" s="346"/>
+      <c r="J218" s="346"/>
+      <c r="K218" s="347"/>
       <c r="L218" s="166">
         <v>56</v>
       </c>
@@ -34503,169 +34491,169 @@
       <c r="A219" s="99">
         <v>2</v>
       </c>
-      <c r="B219" s="338" t="s">
+      <c r="B219" s="341" t="s">
         <v>398</v>
       </c>
-      <c r="C219" s="339"/>
-      <c r="D219" s="361"/>
-      <c r="E219" s="362"/>
-      <c r="F219" s="362"/>
-      <c r="G219" s="362"/>
-      <c r="H219" s="362"/>
-      <c r="I219" s="362"/>
-      <c r="J219" s="362"/>
-      <c r="K219" s="363"/>
+      <c r="C219" s="342"/>
+      <c r="D219" s="338"/>
+      <c r="E219" s="339"/>
+      <c r="F219" s="339"/>
+      <c r="G219" s="339"/>
+      <c r="H219" s="339"/>
+      <c r="I219" s="339"/>
+      <c r="J219" s="339"/>
+      <c r="K219" s="340"/>
       <c r="L219" s="167"/>
     </row>
     <row r="220" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A220" s="99">
         <v>3</v>
       </c>
-      <c r="B220" s="338" t="s">
+      <c r="B220" s="341" t="s">
         <v>413</v>
       </c>
-      <c r="C220" s="339"/>
-      <c r="D220" s="364"/>
-      <c r="E220" s="365"/>
-      <c r="F220" s="365"/>
-      <c r="G220" s="365"/>
-      <c r="H220" s="365"/>
-      <c r="I220" s="365"/>
-      <c r="J220" s="365"/>
-      <c r="K220" s="366"/>
+      <c r="C220" s="342"/>
+      <c r="D220" s="348"/>
+      <c r="E220" s="349"/>
+      <c r="F220" s="349"/>
+      <c r="G220" s="349"/>
+      <c r="H220" s="349"/>
+      <c r="I220" s="349"/>
+      <c r="J220" s="349"/>
+      <c r="K220" s="350"/>
       <c r="L220" s="168"/>
     </row>
     <row r="221" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A221" s="99">
         <v>4</v>
       </c>
-      <c r="B221" s="338" t="s">
+      <c r="B221" s="341" t="s">
         <v>416</v>
       </c>
-      <c r="C221" s="339"/>
-      <c r="D221" s="361"/>
-      <c r="E221" s="362"/>
-      <c r="F221" s="362"/>
-      <c r="G221" s="362"/>
-      <c r="H221" s="362"/>
-      <c r="I221" s="362"/>
-      <c r="J221" s="362"/>
-      <c r="K221" s="363"/>
+      <c r="C221" s="342"/>
+      <c r="D221" s="338"/>
+      <c r="E221" s="339"/>
+      <c r="F221" s="339"/>
+      <c r="G221" s="339"/>
+      <c r="H221" s="339"/>
+      <c r="I221" s="339"/>
+      <c r="J221" s="339"/>
+      <c r="K221" s="340"/>
       <c r="L221" s="167"/>
     </row>
     <row r="222" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A222" s="99">
         <v>5</v>
       </c>
-      <c r="B222" s="338" t="s">
+      <c r="B222" s="341" t="s">
         <v>428</v>
       </c>
-      <c r="C222" s="339"/>
-      <c r="D222" s="361"/>
-      <c r="E222" s="362"/>
-      <c r="F222" s="362"/>
-      <c r="G222" s="362"/>
-      <c r="H222" s="362"/>
-      <c r="I222" s="362"/>
-      <c r="J222" s="362"/>
-      <c r="K222" s="363"/>
+      <c r="C222" s="342"/>
+      <c r="D222" s="338"/>
+      <c r="E222" s="339"/>
+      <c r="F222" s="339"/>
+      <c r="G222" s="339"/>
+      <c r="H222" s="339"/>
+      <c r="I222" s="339"/>
+      <c r="J222" s="339"/>
+      <c r="K222" s="340"/>
       <c r="L222" s="167"/>
     </row>
     <row r="223" spans="1:12" s="20" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A223" s="99">
         <v>6</v>
       </c>
-      <c r="B223" s="349"/>
-      <c r="C223" s="350"/>
-      <c r="D223" s="361"/>
-      <c r="E223" s="362"/>
-      <c r="F223" s="362"/>
-      <c r="G223" s="362"/>
-      <c r="H223" s="362"/>
-      <c r="I223" s="362"/>
-      <c r="J223" s="362"/>
-      <c r="K223" s="363"/>
+      <c r="B223" s="336"/>
+      <c r="C223" s="337"/>
+      <c r="D223" s="338"/>
+      <c r="E223" s="339"/>
+      <c r="F223" s="339"/>
+      <c r="G223" s="339"/>
+      <c r="H223" s="339"/>
+      <c r="I223" s="339"/>
+      <c r="J223" s="339"/>
+      <c r="K223" s="340"/>
       <c r="L223" s="167"/>
     </row>
     <row r="224" spans="1:12" s="20" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A224" s="99">
         <v>7</v>
       </c>
-      <c r="B224" s="349"/>
-      <c r="C224" s="350"/>
-      <c r="D224" s="361"/>
-      <c r="E224" s="362"/>
-      <c r="F224" s="362"/>
-      <c r="G224" s="362"/>
-      <c r="H224" s="362"/>
-      <c r="I224" s="362"/>
-      <c r="J224" s="362"/>
-      <c r="K224" s="363"/>
+      <c r="B224" s="336"/>
+      <c r="C224" s="337"/>
+      <c r="D224" s="338"/>
+      <c r="E224" s="339"/>
+      <c r="F224" s="339"/>
+      <c r="G224" s="339"/>
+      <c r="H224" s="339"/>
+      <c r="I224" s="339"/>
+      <c r="J224" s="339"/>
+      <c r="K224" s="340"/>
       <c r="L224" s="167"/>
     </row>
     <row r="225" spans="1:13" s="20" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A225" s="99">
         <v>8</v>
       </c>
-      <c r="B225" s="349"/>
-      <c r="C225" s="350"/>
-      <c r="D225" s="361"/>
-      <c r="E225" s="362"/>
-      <c r="F225" s="362"/>
-      <c r="G225" s="362"/>
-      <c r="H225" s="362"/>
-      <c r="I225" s="362"/>
-      <c r="J225" s="362"/>
-      <c r="K225" s="363"/>
+      <c r="B225" s="336"/>
+      <c r="C225" s="337"/>
+      <c r="D225" s="338"/>
+      <c r="E225" s="339"/>
+      <c r="F225" s="339"/>
+      <c r="G225" s="339"/>
+      <c r="H225" s="339"/>
+      <c r="I225" s="339"/>
+      <c r="J225" s="339"/>
+      <c r="K225" s="340"/>
       <c r="L225" s="167"/>
     </row>
     <row r="226" spans="1:13" s="20" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A226" s="99">
         <v>9</v>
       </c>
-      <c r="B226" s="349"/>
-      <c r="C226" s="350"/>
-      <c r="D226" s="361"/>
-      <c r="E226" s="362"/>
-      <c r="F226" s="362"/>
-      <c r="G226" s="362"/>
-      <c r="H226" s="362"/>
-      <c r="I226" s="362"/>
-      <c r="J226" s="362"/>
-      <c r="K226" s="363"/>
+      <c r="B226" s="336"/>
+      <c r="C226" s="337"/>
+      <c r="D226" s="338"/>
+      <c r="E226" s="339"/>
+      <c r="F226" s="339"/>
+      <c r="G226" s="339"/>
+      <c r="H226" s="339"/>
+      <c r="I226" s="339"/>
+      <c r="J226" s="339"/>
+      <c r="K226" s="340"/>
       <c r="L226" s="167"/>
     </row>
     <row r="227" spans="1:13" s="20" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A227" s="174">
         <v>10</v>
       </c>
-      <c r="B227" s="351"/>
-      <c r="C227" s="352"/>
-      <c r="D227" s="369"/>
-      <c r="E227" s="370"/>
-      <c r="F227" s="370"/>
-      <c r="G227" s="370"/>
-      <c r="H227" s="370"/>
-      <c r="I227" s="370"/>
-      <c r="J227" s="370"/>
-      <c r="K227" s="371"/>
+      <c r="B227" s="328"/>
+      <c r="C227" s="329"/>
+      <c r="D227" s="330"/>
+      <c r="E227" s="331"/>
+      <c r="F227" s="331"/>
+      <c r="G227" s="331"/>
+      <c r="H227" s="331"/>
+      <c r="I227" s="331"/>
+      <c r="J227" s="331"/>
+      <c r="K227" s="332"/>
       <c r="L227" s="169"/>
     </row>
     <row r="228" spans="1:13" ht="15" customHeight="1">
-      <c r="A228" s="375" t="s">
+      <c r="A228" s="333" t="s">
         <v>12</v>
       </c>
-      <c r="B228" s="376"/>
-      <c r="C228" s="376"/>
-      <c r="D228" s="376"/>
-      <c r="E228" s="376"/>
-      <c r="F228" s="376"/>
-      <c r="G228" s="376"/>
-      <c r="H228" s="376"/>
-      <c r="I228" s="376"/>
-      <c r="J228" s="376"/>
-      <c r="K228" s="377"/>
-      <c r="L228" s="223">
+      <c r="B228" s="334"/>
+      <c r="C228" s="334"/>
+      <c r="D228" s="334"/>
+      <c r="E228" s="334"/>
+      <c r="F228" s="334"/>
+      <c r="G228" s="334"/>
+      <c r="H228" s="334"/>
+      <c r="I228" s="334"/>
+      <c r="J228" s="334"/>
+      <c r="K228" s="335"/>
+      <c r="L228" s="221">
         <f>SUM(L218:L227)</f>
         <v>56</v>
       </c>
@@ -34698,200 +34686,200 @@
       <c r="K230" s="170"/>
       <c r="L230" s="23"/>
     </row>
-    <row r="231" spans="1:13" s="282" customFormat="1" ht="21" customHeight="1">
+    <row r="231" spans="1:13" s="278" customFormat="1" ht="21" customHeight="1">
       <c r="A231" s="95" t="s">
         <v>504</v>
       </c>
-      <c r="B231" s="281" t="s">
+      <c r="B231" s="277" t="s">
         <v>458</v>
       </c>
-      <c r="D231" s="233">
+      <c r="D231" s="231">
         <v>594</v>
       </c>
-      <c r="E231" s="283" t="s">
+      <c r="E231" s="279" t="s">
         <v>461</v>
       </c>
-      <c r="F231" s="284"/>
-      <c r="G231" s="285"/>
-      <c r="H231" s="285"/>
-      <c r="I231" s="285"/>
-      <c r="J231" s="285"/>
-      <c r="K231" s="285"/>
-      <c r="L231" s="286"/>
-      <c r="M231" s="287"/>
-    </row>
-    <row r="232" spans="1:13" s="282" customFormat="1" ht="21" customHeight="1">
+      <c r="F231" s="280"/>
+      <c r="G231" s="281"/>
+      <c r="H231" s="281"/>
+      <c r="I231" s="281"/>
+      <c r="J231" s="281"/>
+      <c r="K231" s="281"/>
+      <c r="L231" s="282"/>
+      <c r="M231" s="283"/>
+    </row>
+    <row r="232" spans="1:13" s="278" customFormat="1" ht="21" customHeight="1">
       <c r="A232" s="95" t="s">
         <v>505</v>
       </c>
-      <c r="B232" s="281" t="s">
+      <c r="B232" s="277" t="s">
         <v>457</v>
       </c>
-      <c r="D232" s="220">
+      <c r="D232" s="218">
         <f>L228</f>
         <v>56</v>
       </c>
-      <c r="E232" s="283" t="s">
+      <c r="E232" s="279" t="s">
         <v>462</v>
       </c>
-      <c r="F232" s="284"/>
-      <c r="G232" s="285"/>
-      <c r="H232" s="285"/>
-      <c r="I232" s="285"/>
-      <c r="J232" s="285"/>
-      <c r="K232" s="285"/>
-      <c r="L232" s="286"/>
-      <c r="M232" s="287"/>
-    </row>
-    <row r="233" spans="1:13" s="282" customFormat="1" ht="21" customHeight="1">
+      <c r="F232" s="280"/>
+      <c r="G232" s="281"/>
+      <c r="H232" s="281"/>
+      <c r="I232" s="281"/>
+      <c r="J232" s="281"/>
+      <c r="K232" s="281"/>
+      <c r="L232" s="282"/>
+      <c r="M232" s="283"/>
+    </row>
+    <row r="233" spans="1:13" s="278" customFormat="1" ht="21" customHeight="1">
       <c r="A233" s="95" t="s">
         <v>506</v>
       </c>
-      <c r="B233" s="281" t="s">
+      <c r="B233" s="277" t="s">
         <v>459</v>
       </c>
-      <c r="D233" s="220">
+      <c r="D233" s="218">
         <f>L214</f>
         <v>0</v>
       </c>
-      <c r="E233" s="283" t="s">
+      <c r="E233" s="279" t="s">
         <v>463</v>
       </c>
-      <c r="F233" s="284"/>
-      <c r="G233" s="285"/>
-      <c r="H233" s="285"/>
-      <c r="I233" s="285"/>
-      <c r="J233" s="285"/>
-      <c r="K233" s="285"/>
-      <c r="L233" s="286"/>
-      <c r="M233" s="287"/>
-    </row>
-    <row r="234" spans="1:13" s="282" customFormat="1" ht="21" customHeight="1">
+      <c r="F233" s="280"/>
+      <c r="G233" s="281"/>
+      <c r="H233" s="281"/>
+      <c r="I233" s="281"/>
+      <c r="J233" s="281"/>
+      <c r="K233" s="281"/>
+      <c r="L233" s="282"/>
+      <c r="M233" s="283"/>
+    </row>
+    <row r="234" spans="1:13" s="278" customFormat="1" ht="21" customHeight="1">
       <c r="A234" s="95" t="s">
         <v>507</v>
       </c>
-      <c r="B234" s="281" t="s">
+      <c r="B234" s="277" t="s">
         <v>464</v>
       </c>
-      <c r="D234" s="220">
+      <c r="D234" s="218">
         <f>Ke_gio_HK1!L180</f>
         <v>227.83999999999997</v>
       </c>
-      <c r="E234" s="283" t="s">
+      <c r="E234" s="279" t="s">
         <v>466</v>
       </c>
-      <c r="F234" s="284"/>
-      <c r="G234" s="285"/>
-      <c r="H234" s="285"/>
-      <c r="I234" s="285"/>
-      <c r="J234" s="285"/>
-      <c r="K234" s="285"/>
-      <c r="L234" s="286"/>
-      <c r="M234" s="287"/>
-    </row>
-    <row r="235" spans="1:13" s="282" customFormat="1" ht="21" customHeight="1">
+      <c r="F234" s="280"/>
+      <c r="G234" s="281"/>
+      <c r="H234" s="281"/>
+      <c r="I234" s="281"/>
+      <c r="J234" s="281"/>
+      <c r="K234" s="281"/>
+      <c r="L234" s="282"/>
+      <c r="M234" s="283"/>
+    </row>
+    <row r="235" spans="1:13" s="278" customFormat="1" ht="21" customHeight="1">
       <c r="A235" s="95" t="s">
         <v>508</v>
       </c>
-      <c r="B235" s="281" t="s">
+      <c r="B235" s="277" t="s">
         <v>465</v>
       </c>
-      <c r="D235" s="221">
+      <c r="D235" s="219">
         <f>I199</f>
         <v>241.91999999999996</v>
       </c>
-      <c r="E235" s="283" t="s">
+      <c r="E235" s="279" t="s">
         <v>467</v>
       </c>
-      <c r="F235" s="284"/>
-      <c r="G235" s="285"/>
-      <c r="H235" s="285"/>
-      <c r="I235" s="285"/>
-      <c r="J235" s="285"/>
-      <c r="K235" s="285"/>
-      <c r="L235" s="286"/>
-      <c r="M235" s="287"/>
-    </row>
-    <row r="236" spans="1:13" s="282" customFormat="1" ht="21" customHeight="1">
+      <c r="F235" s="280"/>
+      <c r="G235" s="281"/>
+      <c r="H235" s="281"/>
+      <c r="I235" s="281"/>
+      <c r="J235" s="281"/>
+      <c r="K235" s="281"/>
+      <c r="L235" s="282"/>
+      <c r="M235" s="283"/>
+    </row>
+    <row r="236" spans="1:13" s="278" customFormat="1" ht="21" customHeight="1">
       <c r="A236" s="95"/>
-      <c r="B236" s="281" t="s">
+      <c r="B236" s="277" t="s">
         <v>536</v>
       </c>
-      <c r="D236" s="222">
+      <c r="D236" s="220">
         <f>(D232+D233+D234+D235)-D231</f>
         <v>-68.240000000000009</v>
       </c>
-      <c r="E236" s="283" t="s">
+      <c r="E236" s="279" t="s">
         <v>537</v>
       </c>
-      <c r="F236" s="284"/>
-      <c r="G236" s="285"/>
-      <c r="H236" s="285"/>
-      <c r="I236" s="285"/>
-      <c r="J236" s="285"/>
-      <c r="K236" s="285"/>
-      <c r="L236" s="286"/>
-      <c r="M236" s="287"/>
-    </row>
-    <row r="237" spans="1:13" s="282" customFormat="1" ht="21" customHeight="1">
+      <c r="F236" s="280"/>
+      <c r="G236" s="281"/>
+      <c r="H236" s="281"/>
+      <c r="I236" s="281"/>
+      <c r="J236" s="281"/>
+      <c r="K236" s="281"/>
+      <c r="L236" s="282"/>
+      <c r="M236" s="283"/>
+    </row>
+    <row r="237" spans="1:13" s="278" customFormat="1" ht="21" customHeight="1">
       <c r="A237" s="95"/>
-      <c r="B237" s="281" t="s">
+      <c r="B237" s="277" t="s">
         <v>204</v>
       </c>
       <c r="D237" s="204">
         <v>0</v>
       </c>
-      <c r="E237" s="288"/>
-      <c r="F237" s="289"/>
-      <c r="G237" s="287"/>
-      <c r="H237" s="287"/>
-      <c r="I237" s="287"/>
-      <c r="J237" s="287"/>
-      <c r="K237" s="287"/>
-      <c r="L237" s="290"/>
-      <c r="M237" s="287"/>
+      <c r="E237" s="284"/>
+      <c r="F237" s="285"/>
+      <c r="G237" s="283"/>
+      <c r="H237" s="283"/>
+      <c r="I237" s="283"/>
+      <c r="J237" s="283"/>
+      <c r="K237" s="283"/>
+      <c r="L237" s="286"/>
+      <c r="M237" s="283"/>
     </row>
     <row r="238" spans="1:13" s="77" customFormat="1" ht="39" customHeight="1">
       <c r="A238" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="B238" s="321" t="s">
+      <c r="B238" s="310" t="s">
         <v>203</v>
       </c>
-      <c r="C238" s="321"/>
-      <c r="D238" s="321"/>
-      <c r="E238" s="321"/>
-      <c r="F238" s="321"/>
-      <c r="G238" s="321"/>
-      <c r="H238" s="321"/>
-      <c r="I238" s="321"/>
-      <c r="J238" s="321"/>
-      <c r="K238" s="321"/>
-      <c r="L238" s="321"/>
+      <c r="C238" s="310"/>
+      <c r="D238" s="310"/>
+      <c r="E238" s="310"/>
+      <c r="F238" s="310"/>
+      <c r="G238" s="310"/>
+      <c r="H238" s="310"/>
+      <c r="I238" s="310"/>
+      <c r="J238" s="310"/>
+      <c r="K238" s="310"/>
+      <c r="L238" s="310"/>
     </row>
     <row r="239" spans="1:13" ht="15" customHeight="1">
-      <c r="J239" s="243" t="s">
+      <c r="J239" s="239" t="s">
         <v>387</v>
       </c>
       <c r="L239" s="132"/>
     </row>
-    <row r="240" spans="1:13" s="292" customFormat="1" ht="15.9" customHeight="1">
+    <row r="240" spans="1:13" s="288" customFormat="1" ht="15.9" customHeight="1">
       <c r="A240" s="93"/>
-      <c r="B240" s="291" t="s">
+      <c r="B240" s="287" t="s">
         <v>13</v>
       </c>
-      <c r="D240" s="291" t="s">
+      <c r="D240" s="287" t="s">
         <v>77</v>
       </c>
-      <c r="E240" s="293"/>
-      <c r="F240" s="294"/>
-      <c r="G240" s="291" t="s">
+      <c r="E240" s="289"/>
+      <c r="F240" s="290"/>
+      <c r="G240" s="287" t="s">
         <v>14</v>
       </c>
-      <c r="J240" s="291" t="s">
+      <c r="J240" s="287" t="s">
         <v>200</v>
       </c>
-      <c r="K240" s="291"/>
+      <c r="K240" s="287"/>
     </row>
     <row r="241" spans="4:12" ht="15" customHeight="1"/>
     <row r="242" spans="4:12" ht="15" customHeight="1"/>
@@ -34904,9 +34892,9 @@
     <row r="244" spans="4:12" ht="15" customHeight="1">
       <c r="D244" s="28"/>
       <c r="E244" s="126"/>
-      <c r="J244" s="320"/>
-      <c r="K244" s="320"/>
-      <c r="L244" s="320"/>
+      <c r="J244" s="309"/>
+      <c r="K244" s="309"/>
+      <c r="L244" s="309"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -34917,51 +34905,16 @@
     <protectedRange sqref="E185:L198" name="TongHop"/>
   </protectedRanges>
   <mergeCells count="71">
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D227:K227"/>
-    <mergeCell ref="A228:K228"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="D224:K224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="D225:K225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="D226:K226"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="D221:K221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="D222:K222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="D223:K223"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="D218:K218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="D219:K219"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="D220:K220"/>
-    <mergeCell ref="D212:K212"/>
-    <mergeCell ref="D213:K213"/>
-    <mergeCell ref="A214:K214"/>
-    <mergeCell ref="A215:L215"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="D217:K217"/>
-    <mergeCell ref="D207:K207"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="D209:K209"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="D211:K211"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="D203:K203"/>
-    <mergeCell ref="D204:K204"/>
-    <mergeCell ref="D205:K205"/>
-    <mergeCell ref="D206:K206"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="J195:L195"/>
+    <mergeCell ref="J196:L196"/>
+    <mergeCell ref="J197:L197"/>
+    <mergeCell ref="J198:L198"/>
+    <mergeCell ref="J193:L193"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="A182:L182"/>
+    <mergeCell ref="J185:L185"/>
     <mergeCell ref="B207:C207"/>
     <mergeCell ref="B208:C208"/>
     <mergeCell ref="J244:L244"/>
@@ -34978,16 +34931,51 @@
     <mergeCell ref="J191:L191"/>
     <mergeCell ref="A199:D199"/>
     <mergeCell ref="J192:L192"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="A182:L182"/>
-    <mergeCell ref="J185:L185"/>
-    <mergeCell ref="J195:L195"/>
-    <mergeCell ref="J196:L196"/>
-    <mergeCell ref="J197:L197"/>
-    <mergeCell ref="J198:L198"/>
-    <mergeCell ref="J193:L193"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="D203:K203"/>
+    <mergeCell ref="D204:K204"/>
+    <mergeCell ref="D205:K205"/>
+    <mergeCell ref="D206:K206"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="D207:K207"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="D209:K209"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="D211:K211"/>
+    <mergeCell ref="D212:K212"/>
+    <mergeCell ref="D213:K213"/>
+    <mergeCell ref="A214:K214"/>
+    <mergeCell ref="A215:L215"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="D217:K217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="D218:K218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="D219:K219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="D220:K220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="D221:K221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="D222:K222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="D223:K223"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D227:K227"/>
+    <mergeCell ref="A228:K228"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="D224:K224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="D225:K225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D226:K226"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">

--- a/data_base/mau_kegio.xlsx
+++ b/data_base/mau_kegio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sumik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E77506-1821-481D-B7B9-3541F861FE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0420F39C-82E5-453B-9F2C-514AE20042D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hướng dẫn" sheetId="1" r:id="rId1"/>
@@ -2645,7 +2645,7 @@
     <xf numFmtId="172" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="319">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3627,9 +3627,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -3641,6 +3638,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -3678,10 +3678,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="79" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -15181,7 +15177,7 @@
       <c r="J63" s="131"/>
       <c r="K63" s="131"/>
       <c r="L63" s="153">
-        <f t="shared" ref="L44:L71" si="2">(G63*I63+H63*J63)*E63</f>
+        <f t="shared" ref="L63:L71" si="2">(G63*I63+H63*J63)*E63</f>
         <v>0</v>
       </c>
     </row>
@@ -15472,7 +15468,7 @@
       <c r="D78" s="222"/>
       <c r="E78" s="130"/>
       <c r="F78" s="151">
-        <f t="shared" ref="F76:F107" si="5">SUM(G78,H78)</f>
+        <f t="shared" ref="F78:F107" si="5">SUM(G78,H78)</f>
         <v>0</v>
       </c>
       <c r="G78" s="128"/>
@@ -18327,7 +18323,7 @@
   <dimension ref="A1:M244"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -18478,7 +18474,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="220"/>
       <c r="E8" s="130"/>
-      <c r="F8" s="318">
+      <c r="F8" s="151">
         <f>SUM(G8,H8)</f>
         <v>0</v>
       </c>
@@ -18498,7 +18494,7 @@
       <c r="C9" s="21"/>
       <c r="D9" s="220"/>
       <c r="E9" s="130"/>
-      <c r="F9" s="318">
+      <c r="F9" s="151">
         <f t="shared" ref="F9:F72" si="0">SUM(G9,H9)</f>
         <v>0</v>
       </c>
@@ -18518,7 +18514,7 @@
       <c r="C10" s="21"/>
       <c r="D10" s="220"/>
       <c r="E10" s="130"/>
-      <c r="F10" s="318">
+      <c r="F10" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18538,7 +18534,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="220"/>
       <c r="E11" s="130"/>
-      <c r="F11" s="318">
+      <c r="F11" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18558,7 +18554,7 @@
       <c r="C12" s="21"/>
       <c r="D12" s="220"/>
       <c r="E12" s="130"/>
-      <c r="F12" s="318">
+      <c r="F12" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18578,7 +18574,7 @@
       <c r="C13" s="21"/>
       <c r="D13" s="220"/>
       <c r="E13" s="130"/>
-      <c r="F13" s="318">
+      <c r="F13" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18598,7 +18594,7 @@
       <c r="C14" s="21"/>
       <c r="D14" s="220"/>
       <c r="E14" s="130"/>
-      <c r="F14" s="318">
+      <c r="F14" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18618,7 +18614,7 @@
       <c r="C15" s="21"/>
       <c r="D15" s="220"/>
       <c r="E15" s="130"/>
-      <c r="F15" s="318">
+      <c r="F15" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18638,7 +18634,7 @@
       <c r="C16" s="21"/>
       <c r="D16" s="220"/>
       <c r="E16" s="130"/>
-      <c r="F16" s="318">
+      <c r="F16" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18658,7 +18654,7 @@
       <c r="C17" s="21"/>
       <c r="D17" s="220"/>
       <c r="E17" s="130"/>
-      <c r="F17" s="318">
+      <c r="F17" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18678,7 +18674,7 @@
       <c r="C18" s="21"/>
       <c r="D18" s="220"/>
       <c r="E18" s="130"/>
-      <c r="F18" s="318">
+      <c r="F18" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18698,7 +18694,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="220"/>
       <c r="E19" s="130"/>
-      <c r="F19" s="318">
+      <c r="F19" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18718,7 +18714,7 @@
       <c r="C20" s="21"/>
       <c r="D20" s="220"/>
       <c r="E20" s="130"/>
-      <c r="F20" s="318">
+      <c r="F20" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18738,7 +18734,7 @@
       <c r="C21" s="21"/>
       <c r="D21" s="220"/>
       <c r="E21" s="130"/>
-      <c r="F21" s="318">
+      <c r="F21" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18758,7 +18754,7 @@
       <c r="C22" s="21"/>
       <c r="D22" s="220"/>
       <c r="E22" s="130"/>
-      <c r="F22" s="318">
+      <c r="F22" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18778,7 +18774,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="220"/>
       <c r="E23" s="130"/>
-      <c r="F23" s="318">
+      <c r="F23" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18798,7 +18794,7 @@
       <c r="C24" s="21"/>
       <c r="D24" s="220"/>
       <c r="E24" s="130"/>
-      <c r="F24" s="318">
+      <c r="F24" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18818,7 +18814,7 @@
       <c r="C25" s="21"/>
       <c r="D25" s="220"/>
       <c r="E25" s="130"/>
-      <c r="F25" s="318">
+      <c r="F25" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18838,7 +18834,7 @@
       <c r="C26" s="21"/>
       <c r="D26" s="220"/>
       <c r="E26" s="130"/>
-      <c r="F26" s="318">
+      <c r="F26" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18858,7 +18854,7 @@
       <c r="C27" s="21"/>
       <c r="D27" s="220"/>
       <c r="E27" s="130"/>
-      <c r="F27" s="318">
+      <c r="F27" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18878,7 +18874,7 @@
       <c r="C28" s="21"/>
       <c r="D28" s="220"/>
       <c r="E28" s="130"/>
-      <c r="F28" s="318">
+      <c r="F28" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18898,7 +18894,7 @@
       <c r="C29" s="21"/>
       <c r="D29" s="220"/>
       <c r="E29" s="130"/>
-      <c r="F29" s="318">
+      <c r="F29" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18918,7 +18914,7 @@
       <c r="C30" s="21"/>
       <c r="D30" s="220"/>
       <c r="E30" s="130"/>
-      <c r="F30" s="318">
+      <c r="F30" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18938,7 +18934,7 @@
       <c r="C31" s="21"/>
       <c r="D31" s="220"/>
       <c r="E31" s="130"/>
-      <c r="F31" s="318">
+      <c r="F31" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18958,7 +18954,7 @@
       <c r="C32" s="21"/>
       <c r="D32" s="220"/>
       <c r="E32" s="130"/>
-      <c r="F32" s="318">
+      <c r="F32" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18978,7 +18974,7 @@
       <c r="C33" s="21"/>
       <c r="D33" s="220"/>
       <c r="E33" s="130"/>
-      <c r="F33" s="318">
+      <c r="F33" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18998,7 +18994,7 @@
       <c r="C34" s="21"/>
       <c r="D34" s="220"/>
       <c r="E34" s="130"/>
-      <c r="F34" s="318">
+      <c r="F34" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19018,7 +19014,7 @@
       <c r="C35" s="21"/>
       <c r="D35" s="220"/>
       <c r="E35" s="130"/>
-      <c r="F35" s="318">
+      <c r="F35" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19038,7 +19034,7 @@
       <c r="C36" s="21"/>
       <c r="D36" s="220"/>
       <c r="E36" s="130"/>
-      <c r="F36" s="318">
+      <c r="F36" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19058,7 +19054,7 @@
       <c r="C37" s="21"/>
       <c r="D37" s="220"/>
       <c r="E37" s="130"/>
-      <c r="F37" s="318">
+      <c r="F37" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19078,7 +19074,7 @@
       <c r="C38" s="21"/>
       <c r="D38" s="220"/>
       <c r="E38" s="130"/>
-      <c r="F38" s="318">
+      <c r="F38" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19098,7 +19094,7 @@
       <c r="C39" s="21"/>
       <c r="D39" s="220"/>
       <c r="E39" s="130"/>
-      <c r="F39" s="318">
+      <c r="F39" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19118,7 +19114,7 @@
       <c r="C40" s="21"/>
       <c r="D40" s="220"/>
       <c r="E40" s="130"/>
-      <c r="F40" s="318">
+      <c r="F40" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19138,7 +19134,7 @@
       <c r="C41" s="21"/>
       <c r="D41" s="220"/>
       <c r="E41" s="130"/>
-      <c r="F41" s="318">
+      <c r="F41" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19158,7 +19154,7 @@
       <c r="C42" s="21"/>
       <c r="D42" s="220"/>
       <c r="E42" s="130"/>
-      <c r="F42" s="318">
+      <c r="F42" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19178,7 +19174,7 @@
       <c r="C43" s="21"/>
       <c r="D43" s="220"/>
       <c r="E43" s="130"/>
-      <c r="F43" s="318">
+      <c r="F43" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19198,7 +19194,7 @@
       <c r="C44" s="21"/>
       <c r="D44" s="220"/>
       <c r="E44" s="130"/>
-      <c r="F44" s="318">
+      <c r="F44" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19218,7 +19214,7 @@
       <c r="C45" s="21"/>
       <c r="D45" s="220"/>
       <c r="E45" s="130"/>
-      <c r="F45" s="318">
+      <c r="F45" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19238,7 +19234,7 @@
       <c r="C46" s="21"/>
       <c r="D46" s="220"/>
       <c r="E46" s="130"/>
-      <c r="F46" s="318">
+      <c r="F46" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19258,7 +19254,7 @@
       <c r="C47" s="21"/>
       <c r="D47" s="220"/>
       <c r="E47" s="130"/>
-      <c r="F47" s="318">
+      <c r="F47" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19278,7 +19274,7 @@
       <c r="C48" s="21"/>
       <c r="D48" s="220"/>
       <c r="E48" s="130"/>
-      <c r="F48" s="318">
+      <c r="F48" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19298,7 +19294,7 @@
       <c r="C49" s="21"/>
       <c r="D49" s="220"/>
       <c r="E49" s="130"/>
-      <c r="F49" s="318">
+      <c r="F49" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19318,7 +19314,7 @@
       <c r="C50" s="21"/>
       <c r="D50" s="220"/>
       <c r="E50" s="130"/>
-      <c r="F50" s="318">
+      <c r="F50" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19338,7 +19334,7 @@
       <c r="C51" s="21"/>
       <c r="D51" s="220"/>
       <c r="E51" s="130"/>
-      <c r="F51" s="318">
+      <c r="F51" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19358,7 +19354,7 @@
       <c r="C52" s="21"/>
       <c r="D52" s="220"/>
       <c r="E52" s="130"/>
-      <c r="F52" s="318">
+      <c r="F52" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19378,7 +19374,7 @@
       <c r="C53" s="21"/>
       <c r="D53" s="220"/>
       <c r="E53" s="130"/>
-      <c r="F53" s="318">
+      <c r="F53" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19398,7 +19394,7 @@
       <c r="C54" s="21"/>
       <c r="D54" s="220"/>
       <c r="E54" s="130"/>
-      <c r="F54" s="318">
+      <c r="F54" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19418,7 +19414,7 @@
       <c r="C55" s="21"/>
       <c r="D55" s="220"/>
       <c r="E55" s="130"/>
-      <c r="F55" s="318">
+      <c r="F55" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19438,7 +19434,7 @@
       <c r="C56" s="21"/>
       <c r="D56" s="220"/>
       <c r="E56" s="130"/>
-      <c r="F56" s="318">
+      <c r="F56" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19458,7 +19454,7 @@
       <c r="C57" s="21"/>
       <c r="D57" s="220"/>
       <c r="E57" s="130"/>
-      <c r="F57" s="318">
+      <c r="F57" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19478,7 +19474,7 @@
       <c r="C58" s="21"/>
       <c r="D58" s="220"/>
       <c r="E58" s="130"/>
-      <c r="F58" s="318">
+      <c r="F58" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19498,7 +19494,7 @@
       <c r="C59" s="21"/>
       <c r="D59" s="220"/>
       <c r="E59" s="130"/>
-      <c r="F59" s="318">
+      <c r="F59" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19518,7 +19514,7 @@
       <c r="C60" s="21"/>
       <c r="D60" s="220"/>
       <c r="E60" s="130"/>
-      <c r="F60" s="318">
+      <c r="F60" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19538,7 +19534,7 @@
       <c r="C61" s="21"/>
       <c r="D61" s="220"/>
       <c r="E61" s="130"/>
-      <c r="F61" s="318">
+      <c r="F61" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19558,7 +19554,7 @@
       <c r="C62" s="21"/>
       <c r="D62" s="220"/>
       <c r="E62" s="130"/>
-      <c r="F62" s="318">
+      <c r="F62" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19578,7 +19574,7 @@
       <c r="C63" s="21"/>
       <c r="D63" s="220"/>
       <c r="E63" s="130"/>
-      <c r="F63" s="318">
+      <c r="F63" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19598,7 +19594,7 @@
       <c r="C64" s="21"/>
       <c r="D64" s="220"/>
       <c r="E64" s="130"/>
-      <c r="F64" s="318">
+      <c r="F64" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19618,7 +19614,7 @@
       <c r="C65" s="21"/>
       <c r="D65" s="220"/>
       <c r="E65" s="130"/>
-      <c r="F65" s="318">
+      <c r="F65" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19638,7 +19634,7 @@
       <c r="C66" s="21"/>
       <c r="D66" s="220"/>
       <c r="E66" s="130"/>
-      <c r="F66" s="318">
+      <c r="F66" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19658,7 +19654,7 @@
       <c r="C67" s="21"/>
       <c r="D67" s="220"/>
       <c r="E67" s="130"/>
-      <c r="F67" s="318">
+      <c r="F67" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19678,7 +19674,7 @@
       <c r="C68" s="21"/>
       <c r="D68" s="220"/>
       <c r="E68" s="130"/>
-      <c r="F68" s="318">
+      <c r="F68" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19698,7 +19694,7 @@
       <c r="C69" s="21"/>
       <c r="D69" s="220"/>
       <c r="E69" s="130"/>
-      <c r="F69" s="318">
+      <c r="F69" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19718,7 +19714,7 @@
       <c r="C70" s="21"/>
       <c r="D70" s="220"/>
       <c r="E70" s="130"/>
-      <c r="F70" s="318">
+      <c r="F70" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19738,7 +19734,7 @@
       <c r="C71" s="21"/>
       <c r="D71" s="220"/>
       <c r="E71" s="130"/>
-      <c r="F71" s="318">
+      <c r="F71" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19758,7 +19754,7 @@
       <c r="C72" s="21"/>
       <c r="D72" s="220"/>
       <c r="E72" s="130"/>
-      <c r="F72" s="318">
+      <c r="F72" s="151">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19778,7 +19774,7 @@
       <c r="C73" s="21"/>
       <c r="D73" s="220"/>
       <c r="E73" s="130"/>
-      <c r="F73" s="318">
+      <c r="F73" s="151">
         <f t="shared" ref="F73:F136" si="2">SUM(G73,H73)</f>
         <v>0</v>
       </c>
@@ -19798,7 +19794,7 @@
       <c r="C74" s="21"/>
       <c r="D74" s="220"/>
       <c r="E74" s="130"/>
-      <c r="F74" s="318">
+      <c r="F74" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19818,7 +19814,7 @@
       <c r="C75" s="21"/>
       <c r="D75" s="220"/>
       <c r="E75" s="130"/>
-      <c r="F75" s="318">
+      <c r="F75" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19838,7 +19834,7 @@
       <c r="C76" s="21"/>
       <c r="D76" s="220"/>
       <c r="E76" s="130"/>
-      <c r="F76" s="318">
+      <c r="F76" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19858,7 +19854,7 @@
       <c r="C77" s="21"/>
       <c r="D77" s="220"/>
       <c r="E77" s="130"/>
-      <c r="F77" s="318">
+      <c r="F77" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19878,7 +19874,7 @@
       <c r="C78" s="21"/>
       <c r="D78" s="220"/>
       <c r="E78" s="130"/>
-      <c r="F78" s="318">
+      <c r="F78" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19898,7 +19894,7 @@
       <c r="C79" s="21"/>
       <c r="D79" s="220"/>
       <c r="E79" s="130"/>
-      <c r="F79" s="318">
+      <c r="F79" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19918,7 +19914,7 @@
       <c r="C80" s="21"/>
       <c r="D80" s="220"/>
       <c r="E80" s="130"/>
-      <c r="F80" s="318">
+      <c r="F80" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19938,7 +19934,7 @@
       <c r="C81" s="21"/>
       <c r="D81" s="220"/>
       <c r="E81" s="130"/>
-      <c r="F81" s="318">
+      <c r="F81" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19958,7 +19954,7 @@
       <c r="C82" s="21"/>
       <c r="D82" s="220"/>
       <c r="E82" s="130"/>
-      <c r="F82" s="318">
+      <c r="F82" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19978,7 +19974,7 @@
       <c r="C83" s="21"/>
       <c r="D83" s="220"/>
       <c r="E83" s="130"/>
-      <c r="F83" s="318">
+      <c r="F83" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19998,7 +19994,7 @@
       <c r="C84" s="21"/>
       <c r="D84" s="220"/>
       <c r="E84" s="130"/>
-      <c r="F84" s="318">
+      <c r="F84" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20018,7 +20014,7 @@
       <c r="C85" s="21"/>
       <c r="D85" s="220"/>
       <c r="E85" s="130"/>
-      <c r="F85" s="318">
+      <c r="F85" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20038,7 +20034,7 @@
       <c r="C86" s="21"/>
       <c r="D86" s="220"/>
       <c r="E86" s="130"/>
-      <c r="F86" s="318">
+      <c r="F86" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20058,7 +20054,7 @@
       <c r="C87" s="21"/>
       <c r="D87" s="220"/>
       <c r="E87" s="130"/>
-      <c r="F87" s="318">
+      <c r="F87" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20078,7 +20074,7 @@
       <c r="C88" s="21"/>
       <c r="D88" s="220"/>
       <c r="E88" s="130"/>
-      <c r="F88" s="318">
+      <c r="F88" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20098,7 +20094,7 @@
       <c r="C89" s="21"/>
       <c r="D89" s="220"/>
       <c r="E89" s="130"/>
-      <c r="F89" s="318">
+      <c r="F89" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20118,7 +20114,7 @@
       <c r="C90" s="21"/>
       <c r="D90" s="220"/>
       <c r="E90" s="130"/>
-      <c r="F90" s="318">
+      <c r="F90" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20138,7 +20134,7 @@
       <c r="C91" s="21"/>
       <c r="D91" s="220"/>
       <c r="E91" s="130"/>
-      <c r="F91" s="318">
+      <c r="F91" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20158,7 +20154,7 @@
       <c r="C92" s="21"/>
       <c r="D92" s="220"/>
       <c r="E92" s="130"/>
-      <c r="F92" s="318">
+      <c r="F92" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20178,7 +20174,7 @@
       <c r="C93" s="21"/>
       <c r="D93" s="220"/>
       <c r="E93" s="130"/>
-      <c r="F93" s="318">
+      <c r="F93" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20198,7 +20194,7 @@
       <c r="C94" s="21"/>
       <c r="D94" s="220"/>
       <c r="E94" s="130"/>
-      <c r="F94" s="318">
+      <c r="F94" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20218,7 +20214,7 @@
       <c r="C95" s="21"/>
       <c r="D95" s="220"/>
       <c r="E95" s="130"/>
-      <c r="F95" s="318">
+      <c r="F95" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20238,7 +20234,7 @@
       <c r="C96" s="21"/>
       <c r="D96" s="220"/>
       <c r="E96" s="130"/>
-      <c r="F96" s="318">
+      <c r="F96" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20258,7 +20254,7 @@
       <c r="C97" s="21"/>
       <c r="D97" s="220"/>
       <c r="E97" s="130"/>
-      <c r="F97" s="318">
+      <c r="F97" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20278,7 +20274,7 @@
       <c r="C98" s="21"/>
       <c r="D98" s="220"/>
       <c r="E98" s="130"/>
-      <c r="F98" s="318">
+      <c r="F98" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20298,7 +20294,7 @@
       <c r="C99" s="21"/>
       <c r="D99" s="220"/>
       <c r="E99" s="130"/>
-      <c r="F99" s="318">
+      <c r="F99" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20318,7 +20314,7 @@
       <c r="C100" s="21"/>
       <c r="D100" s="220"/>
       <c r="E100" s="130"/>
-      <c r="F100" s="318">
+      <c r="F100" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20338,7 +20334,7 @@
       <c r="C101" s="21"/>
       <c r="D101" s="220"/>
       <c r="E101" s="130"/>
-      <c r="F101" s="318">
+      <c r="F101" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20358,7 +20354,7 @@
       <c r="C102" s="21"/>
       <c r="D102" s="220"/>
       <c r="E102" s="130"/>
-      <c r="F102" s="318">
+      <c r="F102" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20378,7 +20374,7 @@
       <c r="C103" s="21"/>
       <c r="D103" s="220"/>
       <c r="E103" s="130"/>
-      <c r="F103" s="318">
+      <c r="F103" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20398,7 +20394,7 @@
       <c r="C104" s="21"/>
       <c r="D104" s="220"/>
       <c r="E104" s="130"/>
-      <c r="F104" s="318">
+      <c r="F104" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20418,7 +20414,7 @@
       <c r="C105" s="21"/>
       <c r="D105" s="220"/>
       <c r="E105" s="130"/>
-      <c r="F105" s="318">
+      <c r="F105" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20438,7 +20434,7 @@
       <c r="C106" s="21"/>
       <c r="D106" s="220"/>
       <c r="E106" s="130"/>
-      <c r="F106" s="318">
+      <c r="F106" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20458,7 +20454,7 @@
       <c r="C107" s="21"/>
       <c r="D107" s="220"/>
       <c r="E107" s="130"/>
-      <c r="F107" s="318">
+      <c r="F107" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20478,7 +20474,7 @@
       <c r="C108" s="21"/>
       <c r="D108" s="220"/>
       <c r="E108" s="130"/>
-      <c r="F108" s="318">
+      <c r="F108" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20498,7 +20494,7 @@
       <c r="C109" s="21"/>
       <c r="D109" s="220"/>
       <c r="E109" s="130"/>
-      <c r="F109" s="318">
+      <c r="F109" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20518,7 +20514,7 @@
       <c r="C110" s="21"/>
       <c r="D110" s="220"/>
       <c r="E110" s="130"/>
-      <c r="F110" s="318">
+      <c r="F110" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20538,7 +20534,7 @@
       <c r="C111" s="21"/>
       <c r="D111" s="220"/>
       <c r="E111" s="130"/>
-      <c r="F111" s="318">
+      <c r="F111" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20558,7 +20554,7 @@
       <c r="C112" s="21"/>
       <c r="D112" s="220"/>
       <c r="E112" s="130"/>
-      <c r="F112" s="318">
+      <c r="F112" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20578,7 +20574,7 @@
       <c r="C113" s="21"/>
       <c r="D113" s="220"/>
       <c r="E113" s="130"/>
-      <c r="F113" s="318">
+      <c r="F113" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20598,7 +20594,7 @@
       <c r="C114" s="21"/>
       <c r="D114" s="220"/>
       <c r="E114" s="130"/>
-      <c r="F114" s="318">
+      <c r="F114" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20618,7 +20614,7 @@
       <c r="C115" s="21"/>
       <c r="D115" s="220"/>
       <c r="E115" s="130"/>
-      <c r="F115" s="318">
+      <c r="F115" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20638,7 +20634,7 @@
       <c r="C116" s="21"/>
       <c r="D116" s="220"/>
       <c r="E116" s="130"/>
-      <c r="F116" s="318">
+      <c r="F116" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20658,7 +20654,7 @@
       <c r="C117" s="21"/>
       <c r="D117" s="220"/>
       <c r="E117" s="130"/>
-      <c r="F117" s="318">
+      <c r="F117" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20678,7 +20674,7 @@
       <c r="C118" s="21"/>
       <c r="D118" s="220"/>
       <c r="E118" s="130"/>
-      <c r="F118" s="318">
+      <c r="F118" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20698,7 +20694,7 @@
       <c r="C119" s="21"/>
       <c r="D119" s="220"/>
       <c r="E119" s="130"/>
-      <c r="F119" s="318">
+      <c r="F119" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20718,7 +20714,7 @@
       <c r="C120" s="21"/>
       <c r="D120" s="220"/>
       <c r="E120" s="130"/>
-      <c r="F120" s="318">
+      <c r="F120" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20738,7 +20734,7 @@
       <c r="C121" s="21"/>
       <c r="D121" s="220"/>
       <c r="E121" s="130"/>
-      <c r="F121" s="318">
+      <c r="F121" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20758,7 +20754,7 @@
       <c r="C122" s="21"/>
       <c r="D122" s="220"/>
       <c r="E122" s="130"/>
-      <c r="F122" s="318">
+      <c r="F122" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20778,7 +20774,7 @@
       <c r="C123" s="21"/>
       <c r="D123" s="220"/>
       <c r="E123" s="130"/>
-      <c r="F123" s="318">
+      <c r="F123" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20798,7 +20794,7 @@
       <c r="C124" s="21"/>
       <c r="D124" s="220"/>
       <c r="E124" s="130"/>
-      <c r="F124" s="318">
+      <c r="F124" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20818,7 +20814,7 @@
       <c r="C125" s="21"/>
       <c r="D125" s="220"/>
       <c r="E125" s="130"/>
-      <c r="F125" s="318">
+      <c r="F125" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20838,7 +20834,7 @@
       <c r="C126" s="21"/>
       <c r="D126" s="220"/>
       <c r="E126" s="130"/>
-      <c r="F126" s="318">
+      <c r="F126" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20858,7 +20854,7 @@
       <c r="C127" s="21"/>
       <c r="D127" s="220"/>
       <c r="E127" s="130"/>
-      <c r="F127" s="318">
+      <c r="F127" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20878,7 +20874,7 @@
       <c r="C128" s="21"/>
       <c r="D128" s="220"/>
       <c r="E128" s="130"/>
-      <c r="F128" s="318">
+      <c r="F128" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20898,7 +20894,7 @@
       <c r="C129" s="21"/>
       <c r="D129" s="220"/>
       <c r="E129" s="130"/>
-      <c r="F129" s="318">
+      <c r="F129" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20918,7 +20914,7 @@
       <c r="C130" s="21"/>
       <c r="D130" s="220"/>
       <c r="E130" s="130"/>
-      <c r="F130" s="318">
+      <c r="F130" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20938,7 +20934,7 @@
       <c r="C131" s="21"/>
       <c r="D131" s="220"/>
       <c r="E131" s="130"/>
-      <c r="F131" s="318">
+      <c r="F131" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20958,7 +20954,7 @@
       <c r="C132" s="21"/>
       <c r="D132" s="220"/>
       <c r="E132" s="130"/>
-      <c r="F132" s="318">
+      <c r="F132" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20978,7 +20974,7 @@
       <c r="C133" s="21"/>
       <c r="D133" s="220"/>
       <c r="E133" s="130"/>
-      <c r="F133" s="318">
+      <c r="F133" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20998,7 +20994,7 @@
       <c r="C134" s="21"/>
       <c r="D134" s="220"/>
       <c r="E134" s="130"/>
-      <c r="F134" s="318">
+      <c r="F134" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21018,7 +21014,7 @@
       <c r="C135" s="21"/>
       <c r="D135" s="220"/>
       <c r="E135" s="130"/>
-      <c r="F135" s="318">
+      <c r="F135" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21038,7 +21034,7 @@
       <c r="C136" s="21"/>
       <c r="D136" s="220"/>
       <c r="E136" s="130"/>
-      <c r="F136" s="318">
+      <c r="F136" s="151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21058,7 +21054,7 @@
       <c r="C137" s="21"/>
       <c r="D137" s="220"/>
       <c r="E137" s="130"/>
-      <c r="F137" s="318">
+      <c r="F137" s="151">
         <f t="shared" ref="F137:F179" si="4">SUM(G137,H137)</f>
         <v>0</v>
       </c>
@@ -21078,7 +21074,7 @@
       <c r="C138" s="21"/>
       <c r="D138" s="220"/>
       <c r="E138" s="130"/>
-      <c r="F138" s="318">
+      <c r="F138" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21098,7 +21094,7 @@
       <c r="C139" s="21"/>
       <c r="D139" s="220"/>
       <c r="E139" s="130"/>
-      <c r="F139" s="318">
+      <c r="F139" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21118,7 +21114,7 @@
       <c r="C140" s="21"/>
       <c r="D140" s="220"/>
       <c r="E140" s="130"/>
-      <c r="F140" s="318">
+      <c r="F140" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21138,7 +21134,7 @@
       <c r="C141" s="21"/>
       <c r="D141" s="220"/>
       <c r="E141" s="130"/>
-      <c r="F141" s="318">
+      <c r="F141" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21158,7 +21154,7 @@
       <c r="C142" s="21"/>
       <c r="D142" s="220"/>
       <c r="E142" s="130"/>
-      <c r="F142" s="318">
+      <c r="F142" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21178,7 +21174,7 @@
       <c r="C143" s="21"/>
       <c r="D143" s="220"/>
       <c r="E143" s="130"/>
-      <c r="F143" s="318">
+      <c r="F143" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21198,7 +21194,7 @@
       <c r="C144" s="21"/>
       <c r="D144" s="220"/>
       <c r="E144" s="130"/>
-      <c r="F144" s="318">
+      <c r="F144" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21218,7 +21214,7 @@
       <c r="C145" s="21"/>
       <c r="D145" s="220"/>
       <c r="E145" s="130"/>
-      <c r="F145" s="318">
+      <c r="F145" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21238,7 +21234,7 @@
       <c r="C146" s="21"/>
       <c r="D146" s="220"/>
       <c r="E146" s="130"/>
-      <c r="F146" s="318">
+      <c r="F146" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21258,7 +21254,7 @@
       <c r="C147" s="21"/>
       <c r="D147" s="220"/>
       <c r="E147" s="130"/>
-      <c r="F147" s="318">
+      <c r="F147" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21278,7 +21274,7 @@
       <c r="C148" s="21"/>
       <c r="D148" s="220"/>
       <c r="E148" s="130"/>
-      <c r="F148" s="318">
+      <c r="F148" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21298,7 +21294,7 @@
       <c r="C149" s="21"/>
       <c r="D149" s="220"/>
       <c r="E149" s="130"/>
-      <c r="F149" s="318">
+      <c r="F149" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21318,7 +21314,7 @@
       <c r="C150" s="21"/>
       <c r="D150" s="220"/>
       <c r="E150" s="130"/>
-      <c r="F150" s="318">
+      <c r="F150" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21338,7 +21334,7 @@
       <c r="C151" s="21"/>
       <c r="D151" s="220"/>
       <c r="E151" s="130"/>
-      <c r="F151" s="318">
+      <c r="F151" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21358,7 +21354,7 @@
       <c r="C152" s="21"/>
       <c r="D152" s="220"/>
       <c r="E152" s="130"/>
-      <c r="F152" s="318">
+      <c r="F152" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21378,7 +21374,7 @@
       <c r="C153" s="21"/>
       <c r="D153" s="220"/>
       <c r="E153" s="130"/>
-      <c r="F153" s="318">
+      <c r="F153" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21398,7 +21394,7 @@
       <c r="C154" s="21"/>
       <c r="D154" s="220"/>
       <c r="E154" s="130"/>
-      <c r="F154" s="318">
+      <c r="F154" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21418,7 +21414,7 @@
       <c r="C155" s="21"/>
       <c r="D155" s="220"/>
       <c r="E155" s="130"/>
-      <c r="F155" s="318">
+      <c r="F155" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21438,7 +21434,7 @@
       <c r="C156" s="21"/>
       <c r="D156" s="220"/>
       <c r="E156" s="130"/>
-      <c r="F156" s="318">
+      <c r="F156" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21458,7 +21454,7 @@
       <c r="C157" s="21"/>
       <c r="D157" s="220"/>
       <c r="E157" s="130"/>
-      <c r="F157" s="318">
+      <c r="F157" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21478,7 +21474,7 @@
       <c r="C158" s="21"/>
       <c r="D158" s="220"/>
       <c r="E158" s="130"/>
-      <c r="F158" s="318">
+      <c r="F158" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21498,7 +21494,7 @@
       <c r="C159" s="21"/>
       <c r="D159" s="220"/>
       <c r="E159" s="130"/>
-      <c r="F159" s="318">
+      <c r="F159" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21518,7 +21514,7 @@
       <c r="C160" s="21"/>
       <c r="D160" s="220"/>
       <c r="E160" s="130"/>
-      <c r="F160" s="318">
+      <c r="F160" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21538,7 +21534,7 @@
       <c r="C161" s="21"/>
       <c r="D161" s="220"/>
       <c r="E161" s="130"/>
-      <c r="F161" s="318">
+      <c r="F161" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21558,7 +21554,7 @@
       <c r="C162" s="21"/>
       <c r="D162" s="220"/>
       <c r="E162" s="130"/>
-      <c r="F162" s="318">
+      <c r="F162" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21578,7 +21574,7 @@
       <c r="C163" s="21"/>
       <c r="D163" s="220"/>
       <c r="E163" s="130"/>
-      <c r="F163" s="318">
+      <c r="F163" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21598,7 +21594,7 @@
       <c r="C164" s="21"/>
       <c r="D164" s="220"/>
       <c r="E164" s="130"/>
-      <c r="F164" s="318">
+      <c r="F164" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21618,7 +21614,7 @@
       <c r="C165" s="21"/>
       <c r="D165" s="220"/>
       <c r="E165" s="130"/>
-      <c r="F165" s="318">
+      <c r="F165" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21638,7 +21634,7 @@
       <c r="C166" s="21"/>
       <c r="D166" s="220"/>
       <c r="E166" s="130"/>
-      <c r="F166" s="318">
+      <c r="F166" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21658,7 +21654,7 @@
       <c r="C167" s="21"/>
       <c r="D167" s="220"/>
       <c r="E167" s="130"/>
-      <c r="F167" s="318">
+      <c r="F167" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21678,7 +21674,7 @@
       <c r="C168" s="21"/>
       <c r="D168" s="220"/>
       <c r="E168" s="130"/>
-      <c r="F168" s="318">
+      <c r="F168" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21698,7 +21694,7 @@
       <c r="C169" s="21"/>
       <c r="D169" s="220"/>
       <c r="E169" s="130"/>
-      <c r="F169" s="318">
+      <c r="F169" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21718,7 +21714,7 @@
       <c r="C170" s="21"/>
       <c r="D170" s="220"/>
       <c r="E170" s="130"/>
-      <c r="F170" s="318">
+      <c r="F170" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21738,7 +21734,7 @@
       <c r="C171" s="21"/>
       <c r="D171" s="220"/>
       <c r="E171" s="130"/>
-      <c r="F171" s="318">
+      <c r="F171" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21758,7 +21754,7 @@
       <c r="C172" s="21"/>
       <c r="D172" s="220"/>
       <c r="E172" s="130"/>
-      <c r="F172" s="318">
+      <c r="F172" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21778,7 +21774,7 @@
       <c r="C173" s="21"/>
       <c r="D173" s="220"/>
       <c r="E173" s="130"/>
-      <c r="F173" s="318">
+      <c r="F173" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21798,7 +21794,7 @@
       <c r="C174" s="21"/>
       <c r="D174" s="220"/>
       <c r="E174" s="130"/>
-      <c r="F174" s="318">
+      <c r="F174" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21818,7 +21814,7 @@
       <c r="C175" s="21"/>
       <c r="D175" s="220"/>
       <c r="E175" s="130"/>
-      <c r="F175" s="318">
+      <c r="F175" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21838,7 +21834,7 @@
       <c r="C176" s="21"/>
       <c r="D176" s="220"/>
       <c r="E176" s="130"/>
-      <c r="F176" s="318">
+      <c r="F176" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21858,7 +21854,7 @@
       <c r="C177" s="21"/>
       <c r="D177" s="220"/>
       <c r="E177" s="130"/>
-      <c r="F177" s="318">
+      <c r="F177" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21878,7 +21874,7 @@
       <c r="C178" s="21"/>
       <c r="D178" s="220"/>
       <c r="E178" s="130"/>
-      <c r="F178" s="318">
+      <c r="F178" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21898,7 +21894,7 @@
       <c r="C179" s="219"/>
       <c r="D179" s="232"/>
       <c r="E179" s="225"/>
-      <c r="F179" s="318">
+      <c r="F179" s="151">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21913,7 +21909,7 @@
       </c>
     </row>
     <row r="180" spans="1:12" ht="18" customHeight="1">
-      <c r="A180" s="305" t="s">
+      <c r="A180" s="304" t="s">
         <v>386</v>
       </c>
       <c r="B180" s="274"/>
@@ -22080,7 +22076,7 @@
         <v>0</v>
       </c>
       <c r="J186" s="271"/>
-      <c r="K186" s="304"/>
+      <c r="K186" s="307"/>
       <c r="L186" s="300"/>
     </row>
     <row r="187" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
@@ -22111,7 +22107,7 @@
         <v>0</v>
       </c>
       <c r="J187" s="271"/>
-      <c r="K187" s="304"/>
+      <c r="K187" s="307"/>
       <c r="L187" s="300"/>
     </row>
     <row r="188" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
@@ -22142,7 +22138,7 @@
         <v>0</v>
       </c>
       <c r="J188" s="271"/>
-      <c r="K188" s="304"/>
+      <c r="K188" s="307"/>
       <c r="L188" s="300"/>
     </row>
     <row r="189" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
@@ -22173,7 +22169,7 @@
         <v>0</v>
       </c>
       <c r="J189" s="271"/>
-      <c r="K189" s="304"/>
+      <c r="K189" s="307"/>
       <c r="L189" s="300"/>
     </row>
     <row r="190" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
@@ -22204,7 +22200,7 @@
         <v>0</v>
       </c>
       <c r="J190" s="271"/>
-      <c r="K190" s="304"/>
+      <c r="K190" s="307"/>
       <c r="L190" s="300"/>
     </row>
     <row r="191" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
@@ -22235,7 +22231,7 @@
         <v>0</v>
       </c>
       <c r="J191" s="271"/>
-      <c r="K191" s="304"/>
+      <c r="K191" s="307"/>
       <c r="L191" s="300"/>
     </row>
     <row r="192" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
@@ -22266,7 +22262,7 @@
         <v>0</v>
       </c>
       <c r="J192" s="271"/>
-      <c r="K192" s="304"/>
+      <c r="K192" s="307"/>
       <c r="L192" s="300"/>
     </row>
     <row r="193" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
@@ -22297,7 +22293,7 @@
         <v>0</v>
       </c>
       <c r="J193" s="271"/>
-      <c r="K193" s="304"/>
+      <c r="K193" s="307"/>
       <c r="L193" s="300"/>
     </row>
     <row r="194" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
@@ -22328,7 +22324,7 @@
         <v>0</v>
       </c>
       <c r="J194" s="271"/>
-      <c r="K194" s="304"/>
+      <c r="K194" s="307"/>
       <c r="L194" s="300"/>
     </row>
     <row r="195" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
@@ -22359,7 +22355,7 @@
         <v>0</v>
       </c>
       <c r="J195" s="271"/>
-      <c r="K195" s="304"/>
+      <c r="K195" s="307"/>
       <c r="L195" s="300"/>
     </row>
     <row r="196" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
@@ -22390,7 +22386,7 @@
         <v>0</v>
       </c>
       <c r="J196" s="271"/>
-      <c r="K196" s="304"/>
+      <c r="K196" s="307"/>
       <c r="L196" s="300"/>
     </row>
     <row r="197" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
@@ -22421,7 +22417,7 @@
         <v>0</v>
       </c>
       <c r="J197" s="271"/>
-      <c r="K197" s="304"/>
+      <c r="K197" s="307"/>
       <c r="L197" s="300"/>
     </row>
     <row r="198" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
@@ -22452,7 +22448,7 @@
         <v>0</v>
       </c>
       <c r="J198" s="279"/>
-      <c r="K198" s="307"/>
+      <c r="K198" s="306"/>
       <c r="L198" s="295"/>
     </row>
     <row r="199" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
@@ -22571,12 +22567,12 @@
       <c r="B205" s="301"/>
       <c r="C205" s="300"/>
       <c r="D205" s="311"/>
-      <c r="E205" s="304"/>
-      <c r="F205" s="304"/>
-      <c r="G205" s="304"/>
-      <c r="H205" s="304"/>
-      <c r="I205" s="304"/>
-      <c r="J205" s="304"/>
+      <c r="E205" s="307"/>
+      <c r="F205" s="307"/>
+      <c r="G205" s="307"/>
+      <c r="H205" s="307"/>
+      <c r="I205" s="307"/>
+      <c r="J205" s="307"/>
       <c r="K205" s="300"/>
       <c r="L205" s="121"/>
     </row>
@@ -22587,12 +22583,12 @@
       <c r="B206" s="301"/>
       <c r="C206" s="300"/>
       <c r="D206" s="309"/>
-      <c r="E206" s="304"/>
-      <c r="F206" s="304"/>
-      <c r="G206" s="304"/>
-      <c r="H206" s="304"/>
-      <c r="I206" s="304"/>
-      <c r="J206" s="304"/>
+      <c r="E206" s="307"/>
+      <c r="F206" s="307"/>
+      <c r="G206" s="307"/>
+      <c r="H206" s="307"/>
+      <c r="I206" s="307"/>
+      <c r="J206" s="307"/>
       <c r="K206" s="300"/>
       <c r="L206" s="122"/>
     </row>
@@ -22603,12 +22599,12 @@
       <c r="B207" s="301"/>
       <c r="C207" s="300"/>
       <c r="D207" s="311"/>
-      <c r="E207" s="304"/>
-      <c r="F207" s="304"/>
-      <c r="G207" s="304"/>
-      <c r="H207" s="304"/>
-      <c r="I207" s="304"/>
-      <c r="J207" s="304"/>
+      <c r="E207" s="307"/>
+      <c r="F207" s="307"/>
+      <c r="G207" s="307"/>
+      <c r="H207" s="307"/>
+      <c r="I207" s="307"/>
+      <c r="J207" s="307"/>
       <c r="K207" s="300"/>
       <c r="L207" s="121"/>
     </row>
@@ -22618,13 +22614,13 @@
       </c>
       <c r="B208" s="314"/>
       <c r="C208" s="295"/>
-      <c r="D208" s="306"/>
-      <c r="E208" s="307"/>
-      <c r="F208" s="307"/>
-      <c r="G208" s="307"/>
-      <c r="H208" s="307"/>
-      <c r="I208" s="307"/>
-      <c r="J208" s="307"/>
+      <c r="D208" s="305"/>
+      <c r="E208" s="306"/>
+      <c r="F208" s="306"/>
+      <c r="G208" s="306"/>
+      <c r="H208" s="306"/>
+      <c r="I208" s="306"/>
+      <c r="J208" s="306"/>
       <c r="K208" s="295"/>
       <c r="L208" s="123"/>
     </row>
@@ -22651,12 +22647,12 @@
       <c r="B210" s="299"/>
       <c r="C210" s="300"/>
       <c r="D210" s="311"/>
-      <c r="E210" s="304"/>
-      <c r="F210" s="304"/>
-      <c r="G210" s="304"/>
-      <c r="H210" s="304"/>
-      <c r="I210" s="304"/>
-      <c r="J210" s="304"/>
+      <c r="E210" s="307"/>
+      <c r="F210" s="307"/>
+      <c r="G210" s="307"/>
+      <c r="H210" s="307"/>
+      <c r="I210" s="307"/>
+      <c r="J210" s="307"/>
       <c r="K210" s="300"/>
       <c r="L210" s="121"/>
     </row>
@@ -22667,12 +22663,12 @@
       <c r="B211" s="299"/>
       <c r="C211" s="300"/>
       <c r="D211" s="311"/>
-      <c r="E211" s="304"/>
-      <c r="F211" s="304"/>
-      <c r="G211" s="304"/>
-      <c r="H211" s="304"/>
-      <c r="I211" s="304"/>
-      <c r="J211" s="304"/>
+      <c r="E211" s="307"/>
+      <c r="F211" s="307"/>
+      <c r="G211" s="307"/>
+      <c r="H211" s="307"/>
+      <c r="I211" s="307"/>
+      <c r="J211" s="307"/>
       <c r="K211" s="300"/>
       <c r="L211" s="121"/>
     </row>
@@ -22683,12 +22679,12 @@
       <c r="B212" s="299"/>
       <c r="C212" s="300"/>
       <c r="D212" s="311"/>
-      <c r="E212" s="304"/>
-      <c r="F212" s="304"/>
-      <c r="G212" s="304"/>
-      <c r="H212" s="304"/>
-      <c r="I212" s="304"/>
-      <c r="J212" s="304"/>
+      <c r="E212" s="307"/>
+      <c r="F212" s="307"/>
+      <c r="G212" s="307"/>
+      <c r="H212" s="307"/>
+      <c r="I212" s="307"/>
+      <c r="J212" s="307"/>
       <c r="K212" s="300"/>
       <c r="L212" s="121"/>
     </row>
@@ -22698,13 +22694,13 @@
       </c>
       <c r="B213" s="294"/>
       <c r="C213" s="295"/>
-      <c r="D213" s="306"/>
-      <c r="E213" s="307"/>
-      <c r="F213" s="307"/>
-      <c r="G213" s="307"/>
-      <c r="H213" s="307"/>
-      <c r="I213" s="307"/>
-      <c r="J213" s="307"/>
+      <c r="D213" s="305"/>
+      <c r="E213" s="306"/>
+      <c r="F213" s="306"/>
+      <c r="G213" s="306"/>
+      <c r="H213" s="306"/>
+      <c r="I213" s="306"/>
+      <c r="J213" s="306"/>
       <c r="K213" s="295"/>
       <c r="L213" s="123"/>
     </row>
@@ -22801,12 +22797,12 @@
       <c r="B219" s="301"/>
       <c r="C219" s="300"/>
       <c r="D219" s="311"/>
-      <c r="E219" s="304"/>
-      <c r="F219" s="304"/>
-      <c r="G219" s="304"/>
-      <c r="H219" s="304"/>
-      <c r="I219" s="304"/>
-      <c r="J219" s="304"/>
+      <c r="E219" s="307"/>
+      <c r="F219" s="307"/>
+      <c r="G219" s="307"/>
+      <c r="H219" s="307"/>
+      <c r="I219" s="307"/>
+      <c r="J219" s="307"/>
       <c r="K219" s="300"/>
       <c r="L219" s="121"/>
     </row>
@@ -22817,12 +22813,12 @@
       <c r="B220" s="301"/>
       <c r="C220" s="300"/>
       <c r="D220" s="309"/>
-      <c r="E220" s="304"/>
-      <c r="F220" s="304"/>
-      <c r="G220" s="304"/>
-      <c r="H220" s="304"/>
-      <c r="I220" s="304"/>
-      <c r="J220" s="304"/>
+      <c r="E220" s="307"/>
+      <c r="F220" s="307"/>
+      <c r="G220" s="307"/>
+      <c r="H220" s="307"/>
+      <c r="I220" s="307"/>
+      <c r="J220" s="307"/>
       <c r="K220" s="300"/>
       <c r="L220" s="122"/>
     </row>
@@ -22833,12 +22829,12 @@
       <c r="B221" s="301"/>
       <c r="C221" s="300"/>
       <c r="D221" s="311"/>
-      <c r="E221" s="304"/>
-      <c r="F221" s="304"/>
-      <c r="G221" s="304"/>
-      <c r="H221" s="304"/>
-      <c r="I221" s="304"/>
-      <c r="J221" s="304"/>
+      <c r="E221" s="307"/>
+      <c r="F221" s="307"/>
+      <c r="G221" s="307"/>
+      <c r="H221" s="307"/>
+      <c r="I221" s="307"/>
+      <c r="J221" s="307"/>
       <c r="K221" s="300"/>
       <c r="L221" s="121"/>
     </row>
@@ -22849,12 +22845,12 @@
       <c r="B222" s="301"/>
       <c r="C222" s="300"/>
       <c r="D222" s="311"/>
-      <c r="E222" s="304"/>
-      <c r="F222" s="304"/>
-      <c r="G222" s="304"/>
-      <c r="H222" s="304"/>
-      <c r="I222" s="304"/>
-      <c r="J222" s="304"/>
+      <c r="E222" s="307"/>
+      <c r="F222" s="307"/>
+      <c r="G222" s="307"/>
+      <c r="H222" s="307"/>
+      <c r="I222" s="307"/>
+      <c r="J222" s="307"/>
       <c r="K222" s="300"/>
       <c r="L222" s="121"/>
     </row>
@@ -22865,12 +22861,12 @@
       <c r="B223" s="299"/>
       <c r="C223" s="300"/>
       <c r="D223" s="311"/>
-      <c r="E223" s="304"/>
-      <c r="F223" s="304"/>
-      <c r="G223" s="304"/>
-      <c r="H223" s="304"/>
-      <c r="I223" s="304"/>
-      <c r="J223" s="304"/>
+      <c r="E223" s="307"/>
+      <c r="F223" s="307"/>
+      <c r="G223" s="307"/>
+      <c r="H223" s="307"/>
+      <c r="I223" s="307"/>
+      <c r="J223" s="307"/>
       <c r="K223" s="300"/>
       <c r="L223" s="121"/>
     </row>
@@ -22881,12 +22877,12 @@
       <c r="B224" s="299"/>
       <c r="C224" s="300"/>
       <c r="D224" s="311"/>
-      <c r="E224" s="304"/>
-      <c r="F224" s="304"/>
-      <c r="G224" s="304"/>
-      <c r="H224" s="304"/>
-      <c r="I224" s="304"/>
-      <c r="J224" s="304"/>
+      <c r="E224" s="307"/>
+      <c r="F224" s="307"/>
+      <c r="G224" s="307"/>
+      <c r="H224" s="307"/>
+      <c r="I224" s="307"/>
+      <c r="J224" s="307"/>
       <c r="K224" s="300"/>
       <c r="L224" s="121"/>
     </row>
@@ -22897,12 +22893,12 @@
       <c r="B225" s="299"/>
       <c r="C225" s="300"/>
       <c r="D225" s="311"/>
-      <c r="E225" s="304"/>
-      <c r="F225" s="304"/>
-      <c r="G225" s="304"/>
-      <c r="H225" s="304"/>
-      <c r="I225" s="304"/>
-      <c r="J225" s="304"/>
+      <c r="E225" s="307"/>
+      <c r="F225" s="307"/>
+      <c r="G225" s="307"/>
+      <c r="H225" s="307"/>
+      <c r="I225" s="307"/>
+      <c r="J225" s="307"/>
       <c r="K225" s="300"/>
       <c r="L225" s="121"/>
     </row>
@@ -22913,12 +22909,12 @@
       <c r="B226" s="299"/>
       <c r="C226" s="300"/>
       <c r="D226" s="311"/>
-      <c r="E226" s="304"/>
-      <c r="F226" s="304"/>
-      <c r="G226" s="304"/>
-      <c r="H226" s="304"/>
-      <c r="I226" s="304"/>
-      <c r="J226" s="304"/>
+      <c r="E226" s="307"/>
+      <c r="F226" s="307"/>
+      <c r="G226" s="307"/>
+      <c r="H226" s="307"/>
+      <c r="I226" s="307"/>
+      <c r="J226" s="307"/>
       <c r="K226" s="300"/>
       <c r="L226" s="121"/>
     </row>
@@ -22928,13 +22924,13 @@
       </c>
       <c r="B227" s="294"/>
       <c r="C227" s="295"/>
-      <c r="D227" s="306"/>
-      <c r="E227" s="307"/>
-      <c r="F227" s="307"/>
-      <c r="G227" s="307"/>
-      <c r="H227" s="307"/>
-      <c r="I227" s="307"/>
-      <c r="J227" s="307"/>
+      <c r="D227" s="305"/>
+      <c r="E227" s="306"/>
+      <c r="F227" s="306"/>
+      <c r="G227" s="306"/>
+      <c r="H227" s="306"/>
+      <c r="I227" s="306"/>
+      <c r="J227" s="306"/>
       <c r="K227" s="295"/>
       <c r="L227" s="123"/>
     </row>
@@ -23230,8 +23226,6 @@
     <mergeCell ref="B208:C208"/>
     <mergeCell ref="D222:K222"/>
     <mergeCell ref="B224:C224"/>
-    <mergeCell ref="J185:L185"/>
-    <mergeCell ref="D227:K227"/>
     <mergeCell ref="J188:L188"/>
     <mergeCell ref="J194:L194"/>
     <mergeCell ref="D212:K212"/>
@@ -23241,10 +23235,8 @@
     <mergeCell ref="D219:K219"/>
     <mergeCell ref="D213:K213"/>
     <mergeCell ref="A215:L215"/>
-    <mergeCell ref="D225:K225"/>
     <mergeCell ref="D210:K210"/>
     <mergeCell ref="A214:K214"/>
-    <mergeCell ref="B226:C226"/>
     <mergeCell ref="J197:L197"/>
     <mergeCell ref="A180:D180"/>
     <mergeCell ref="D203:K203"/>
@@ -23261,6 +23253,7 @@
     <mergeCell ref="J198:L198"/>
     <mergeCell ref="B205:C205"/>
     <mergeCell ref="J189:L189"/>
+    <mergeCell ref="J185:L185"/>
     <mergeCell ref="B218:C218"/>
     <mergeCell ref="B209:C209"/>
     <mergeCell ref="B227:C227"/>
@@ -23269,6 +23262,9 @@
     <mergeCell ref="B223:C223"/>
     <mergeCell ref="B220:C220"/>
     <mergeCell ref="D209:K209"/>
+    <mergeCell ref="D227:K227"/>
+    <mergeCell ref="D225:K225"/>
+    <mergeCell ref="B226:C226"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0300-000000000000}">

--- a/data_base/mau_kegio.xlsx
+++ b/data_base/mau_kegio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sumik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7937EE0B-3116-4E7E-8079-B606630A1195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0E07FD-7CBC-4A74-9994-0E29EA0CE5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2664,7 +2664,7 @@
     <xf numFmtId="172" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="318">
+  <cellXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3232,10 +3232,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="54" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -3466,6 +3462,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="2" fontId="82" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="97" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="97" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3504,25 +3528,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -3551,154 +3589,128 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="82" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="97" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="97" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -4549,25 +4561,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="16.899999999999999" customHeight="1">
-      <c r="A2" s="244" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="245"/>
-      <c r="O2" s="245"/>
-      <c r="P2" s="245"/>
-      <c r="Q2" s="245"/>
+      <c r="A2" s="250" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="251"/>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="17.45" customHeight="1">
       <c r="A3" s="6"/>
@@ -4706,70 +4718,70 @@
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
     </row>
-    <row r="13" spans="1:17" s="192" customFormat="1" ht="15" customHeight="1">
-      <c r="B13" s="193" t="s">
+    <row r="13" spans="1:17" s="191" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="192" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="192" customFormat="1" ht="15" customHeight="1">
-      <c r="B14" s="193"/>
-      <c r="C14" s="192" t="s">
+    <row r="14" spans="1:17" s="191" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="192"/>
+      <c r="C14" s="191" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="192" customFormat="1" ht="15" customHeight="1">
-      <c r="C15" s="192" t="s">
+    <row r="15" spans="1:17" s="191" customFormat="1" ht="15" customHeight="1">
+      <c r="C15" s="191" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="192" customFormat="1" ht="13.9" customHeight="1">
-      <c r="C16" s="192" t="s">
+    <row r="16" spans="1:17" s="191" customFormat="1" ht="13.9" customHeight="1">
+      <c r="C16" s="191" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:256" s="192" customFormat="1" ht="13.9" customHeight="1">
-      <c r="B17" s="193" t="s">
+    <row r="17" spans="1:256" s="191" customFormat="1" ht="13.9" customHeight="1">
+      <c r="B17" s="192" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:256" s="192" customFormat="1" ht="13.9" customHeight="1">
-      <c r="B18" s="193"/>
-      <c r="C18" s="192" t="s">
+    <row r="18" spans="1:256" s="191" customFormat="1" ht="13.9" customHeight="1">
+      <c r="B18" s="192"/>
+      <c r="C18" s="191" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:256" s="192" customFormat="1" ht="13.9" customHeight="1">
-      <c r="B19" s="193"/>
-      <c r="C19" s="192" t="s">
+    <row r="19" spans="1:256" s="191" customFormat="1" ht="13.9" customHeight="1">
+      <c r="B19" s="192"/>
+      <c r="C19" s="191" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:256" s="192" customFormat="1" ht="13.9" customHeight="1">
-      <c r="B20" s="193"/>
-      <c r="C20" s="192" t="s">
+    <row r="20" spans="1:256" s="191" customFormat="1" ht="13.9" customHeight="1">
+      <c r="B20" s="192"/>
+      <c r="C20" s="191" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:256" s="192" customFormat="1" ht="13.9" customHeight="1">
-      <c r="B21" s="193"/>
-      <c r="C21" s="192" t="s">
+    <row r="21" spans="1:256" s="191" customFormat="1" ht="13.9" customHeight="1">
+      <c r="B21" s="192"/>
+      <c r="C21" s="191" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:256" s="192" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="193"/>
-      <c r="C22" s="250" t="s">
+    <row r="22" spans="1:256" s="191" customFormat="1" ht="18" customHeight="1">
+      <c r="B22" s="192"/>
+      <c r="C22" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="251"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="251"/>
-      <c r="G22" s="251"/>
-      <c r="H22" s="251"/>
-      <c r="I22" s="251"/>
-      <c r="J22" s="251"/>
-      <c r="K22" s="251"/>
-      <c r="L22" s="251"/>
+      <c r="D22" s="257"/>
+      <c r="E22" s="257"/>
+      <c r="F22" s="257"/>
+      <c r="G22" s="257"/>
+      <c r="H22" s="257"/>
+      <c r="I22" s="257"/>
+      <c r="J22" s="257"/>
+      <c r="K22" s="257"/>
+      <c r="L22" s="257"/>
     </row>
     <row r="23" spans="1:256" ht="21" customHeight="1">
       <c r="A23" s="5">
@@ -5749,18 +5761,18 @@
       <c r="C54" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="248" t="s">
+      <c r="D54" s="254" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="249"/>
-      <c r="F54" s="248" t="s">
+      <c r="E54" s="255"/>
+      <c r="F54" s="254" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="249"/>
-      <c r="H54" s="248" t="s">
+      <c r="G54" s="255"/>
+      <c r="H54" s="254" t="s">
         <v>24</v>
       </c>
-      <c r="I54" s="249"/>
+      <c r="I54" s="255"/>
       <c r="J54" s="138" t="s">
         <v>25</v>
       </c>
@@ -5866,28 +5878,28 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="C59" s="185">
+      <c r="C59" s="184">
         <v>4</v>
       </c>
-      <c r="D59" s="186">
+      <c r="D59" s="185">
         <v>30</v>
       </c>
-      <c r="E59" s="186">
+      <c r="E59" s="185">
         <v>35</v>
       </c>
-      <c r="F59" s="186">
+      <c r="F59" s="185">
         <v>8</v>
       </c>
-      <c r="G59" s="186">
+      <c r="G59" s="185">
         <v>10</v>
       </c>
-      <c r="H59" s="186">
+      <c r="H59" s="185">
         <v>16</v>
       </c>
-      <c r="I59" s="186">
+      <c r="I59" s="185">
         <v>18</v>
       </c>
-      <c r="J59" s="187">
+      <c r="J59" s="186">
         <v>1</v>
       </c>
     </row>
@@ -5947,18 +5959,18 @@
       <c r="C62" s="140">
         <v>7</v>
       </c>
-      <c r="D62" s="246" t="s">
+      <c r="D62" s="252" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="247"/>
-      <c r="F62" s="246" t="s">
+      <c r="E62" s="253"/>
+      <c r="F62" s="252" t="s">
         <v>30</v>
       </c>
-      <c r="G62" s="247"/>
-      <c r="H62" s="246" t="s">
+      <c r="G62" s="253"/>
+      <c r="H62" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="I62" s="247"/>
+      <c r="I62" s="253"/>
       <c r="J62" s="143">
         <v>1.3</v>
       </c>
@@ -6035,14 +6047,14 @@
       </c>
     </row>
     <row r="125" spans="2:8" s="2" customFormat="1" ht="15.6" customHeight="1">
-      <c r="C125" s="194" t="s">
+      <c r="C125" s="193" t="s">
         <v>43</v>
       </c>
-      <c r="D125" s="195"/>
-      <c r="E125" s="195"/>
-      <c r="F125" s="195"/>
-      <c r="G125" s="195"/>
-      <c r="H125" s="195"/>
+      <c r="D125" s="194"/>
+      <c r="E125" s="194"/>
+      <c r="F125" s="194"/>
+      <c r="G125" s="194"/>
+      <c r="H125" s="194"/>
     </row>
     <row r="126" spans="2:8" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="C126" s="7" t="s">
@@ -6052,29 +6064,29 @@
     <row r="141" spans="2:3" ht="13.9" customHeight="1">
       <c r="C141" s="171"/>
     </row>
-    <row r="142" spans="2:3" s="188" customFormat="1" ht="18" customHeight="1">
-      <c r="B142" s="189" t="s">
+    <row r="142" spans="2:3" s="187" customFormat="1" ht="18" customHeight="1">
+      <c r="B142" s="188" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="2:3" s="188" customFormat="1" ht="18" customHeight="1">
-      <c r="B143" s="189"/>
-      <c r="C143" s="190" t="s">
+    <row r="143" spans="2:3" s="187" customFormat="1" ht="18" customHeight="1">
+      <c r="B143" s="188"/>
+      <c r="C143" s="189" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="144" spans="2:3" s="188" customFormat="1" ht="18" customHeight="1">
-      <c r="C144" s="191" t="s">
+    <row r="144" spans="2:3" s="187" customFormat="1" ht="18" customHeight="1">
+      <c r="C144" s="190" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="3:3" s="188" customFormat="1" ht="18" customHeight="1">
-      <c r="C145" s="190" t="s">
+    <row r="145" spans="3:3" s="187" customFormat="1" ht="18" customHeight="1">
+      <c r="C145" s="189" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="3:3" s="188" customFormat="1" ht="18" customHeight="1">
-      <c r="C146" s="190" t="s">
+    <row r="146" spans="3:3" s="187" customFormat="1" ht="18" customHeight="1">
+      <c r="C146" s="189" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6146,36 +6158,36 @@
       <c r="R1" s="96"/>
     </row>
     <row r="2" spans="1:19" ht="21" customHeight="1">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="261" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="257"/>
-      <c r="E2" s="257"/>
-      <c r="F2" s="257"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="258"/>
-      <c r="Q2" s="258"/>
-      <c r="R2" s="258"/>
-      <c r="S2" s="258"/>
+      <c r="B2" s="262"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="264"/>
+      <c r="L2" s="264"/>
+      <c r="M2" s="264"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="264"/>
+      <c r="Q2" s="264"/>
+      <c r="R2" s="264"/>
+      <c r="S2" s="264"/>
     </row>
     <row r="4" spans="1:19" ht="21" customHeight="1">
-      <c r="A4" s="259" t="s">
+      <c r="A4" s="265" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="260"/>
-      <c r="C4" s="260"/>
-      <c r="D4" s="260"/>
-      <c r="E4" s="249"/>
+      <c r="B4" s="266"/>
+      <c r="C4" s="266"/>
+      <c r="D4" s="266"/>
+      <c r="E4" s="255"/>
       <c r="F4" s="104" t="s">
         <v>52</v>
       </c>
@@ -6215,16 +6227,16 @@
       <c r="R4" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="252" t="s">
+      <c r="S4" s="258" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="37.15" customHeight="1">
-      <c r="A5" s="261"/>
-      <c r="B5" s="262"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="263"/>
+      <c r="A5" s="267"/>
+      <c r="B5" s="268"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="269"/>
       <c r="F5" s="137" t="s">
         <v>66</v>
       </c>
@@ -6264,7 +6276,7 @@
       <c r="R5" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="S5" s="253"/>
+      <c r="S5" s="259"/>
     </row>
     <row r="6" spans="1:19" s="39" customFormat="1" ht="21.6" customHeight="1">
       <c r="A6" s="103" t="s">
@@ -6317,7 +6329,7 @@
       <c r="R6" s="133">
         <v>45839</v>
       </c>
-      <c r="S6" s="254"/>
+      <c r="S6" s="260"/>
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1">
       <c r="A7" s="40" t="s">
@@ -13938,12 +13950,12 @@
   <dimension ref="A1:N211"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" topLeftCell="A181" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J203" sqref="J203:L203"/>
+      <selection activeCell="D185" sqref="D185:D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="235" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="234" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="10" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="10" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" style="65" customWidth="1"/>
@@ -13963,21 +13975,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.600000000000001" customHeight="1">
       <c r="B1" s="9"/>
-      <c r="D1" s="270" t="s">
+      <c r="D1" s="280" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="276"/>
+      <c r="K1" s="276"/>
+      <c r="L1" s="276"/>
     </row>
     <row r="2" spans="1:12">
       <c r="B2" s="11"/>
-      <c r="D2" s="312" t="s">
+      <c r="D2" s="244" t="s">
         <v>365</v>
       </c>
       <c r="E2" s="72">
@@ -13995,7 +14007,7 @@
       <c r="B4" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="207" t="s">
         <v>367</v>
       </c>
       <c r="D4" s="12"/>
@@ -14007,15 +14019,15 @@
         <v>369</v>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="265"/>
-      <c r="L4" s="265"/>
+      <c r="J4" s="275"/>
+      <c r="K4" s="276"/>
+      <c r="L4" s="276"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="B5" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C5" s="196" t="s">
+      <c r="C5" s="195" t="s">
         <v>371</v>
       </c>
       <c r="D5" s="14"/>
@@ -14032,7 +14044,7 @@
       <c r="L5" s="85"/>
     </row>
     <row r="6" spans="1:12" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="239"/>
+      <c r="A6" s="238"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="66"/>
@@ -14046,7 +14058,7 @@
       <c r="L6" s="86"/>
     </row>
     <row r="7" spans="1:12" s="19" customFormat="1" ht="57" customHeight="1">
-      <c r="A7" s="234" t="s">
+      <c r="A7" s="233" t="s">
         <v>374</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -14058,56 +14070,56 @@
       <c r="D7" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="E7" s="181" t="s">
+      <c r="E7" s="180" t="s">
         <v>378</v>
       </c>
-      <c r="F7" s="182" t="s">
+      <c r="F7" s="181" t="s">
         <v>379</v>
       </c>
-      <c r="G7" s="183" t="s">
+      <c r="G7" s="182" t="s">
         <v>380</v>
       </c>
-      <c r="H7" s="183" t="s">
+      <c r="H7" s="182" t="s">
         <v>381</v>
       </c>
-      <c r="I7" s="183" t="s">
+      <c r="I7" s="182" t="s">
         <v>382</v>
       </c>
-      <c r="J7" s="183" t="s">
+      <c r="J7" s="182" t="s">
         <v>383</v>
       </c>
-      <c r="K7" s="183" t="s">
+      <c r="K7" s="182" t="s">
         <v>384</v>
       </c>
-      <c r="L7" s="184" t="s">
+      <c r="L7" s="183" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A8" s="236"/>
-      <c r="B8" s="209"/>
+      <c r="A8" s="235"/>
+      <c r="B8" s="208"/>
       <c r="C8" s="166"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="210"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="209"/>
       <c r="F8" s="150">
         <f t="shared" ref="F8:F71" si="0">SUM(G8,H8)</f>
         <v>0</v>
       </c>
       <c r="G8" s="167"/>
       <c r="H8" s="167"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="211"/>
-      <c r="K8" s="211"/>
+      <c r="I8" s="210"/>
+      <c r="J8" s="210"/>
+      <c r="K8" s="210"/>
       <c r="L8" s="152">
         <f t="shared" ref="L8:L62" si="1">(G8*I8+H8*J8)*E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A9" s="237"/>
+      <c r="A9" s="236"/>
       <c r="B9" s="128"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="215"/>
+      <c r="D9" s="214"/>
       <c r="E9" s="129"/>
       <c r="F9" s="150">
         <f t="shared" si="0"/>
@@ -14124,10 +14136,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A10" s="237"/>
+      <c r="A10" s="236"/>
       <c r="B10" s="128"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="215"/>
+      <c r="D10" s="214"/>
       <c r="E10" s="129"/>
       <c r="F10" s="150">
         <f t="shared" si="0"/>
@@ -14144,10 +14156,10 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A11" s="237"/>
+      <c r="A11" s="236"/>
       <c r="B11" s="128"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="215"/>
+      <c r="D11" s="214"/>
       <c r="E11" s="129"/>
       <c r="F11" s="150">
         <f t="shared" si="0"/>
@@ -14164,10 +14176,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A12" s="237"/>
+      <c r="A12" s="236"/>
       <c r="B12" s="128"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="215"/>
+      <c r="D12" s="214"/>
       <c r="E12" s="129"/>
       <c r="F12" s="150">
         <f t="shared" si="0"/>
@@ -14184,10 +14196,10 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A13" s="237"/>
+      <c r="A13" s="236"/>
       <c r="B13" s="128"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="215"/>
+      <c r="D13" s="214"/>
       <c r="E13" s="129"/>
       <c r="F13" s="150">
         <f t="shared" si="0"/>
@@ -14204,10 +14216,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A14" s="237"/>
+      <c r="A14" s="236"/>
       <c r="B14" s="128"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="215"/>
+      <c r="D14" s="214"/>
       <c r="E14" s="129"/>
       <c r="F14" s="150">
         <f t="shared" si="0"/>
@@ -14224,10 +14236,10 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A15" s="237"/>
+      <c r="A15" s="236"/>
       <c r="B15" s="128"/>
       <c r="C15" s="21"/>
-      <c r="D15" s="215"/>
+      <c r="D15" s="214"/>
       <c r="E15" s="129"/>
       <c r="F15" s="150">
         <f t="shared" si="0"/>
@@ -14244,10 +14256,10 @@
       </c>
     </row>
     <row r="16" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A16" s="237"/>
+      <c r="A16" s="236"/>
       <c r="B16" s="128"/>
       <c r="C16" s="21"/>
-      <c r="D16" s="215"/>
+      <c r="D16" s="214"/>
       <c r="E16" s="129"/>
       <c r="F16" s="150">
         <f t="shared" si="0"/>
@@ -14264,10 +14276,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" s="20" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A17" s="237"/>
+      <c r="A17" s="236"/>
       <c r="B17" s="128"/>
       <c r="C17" s="21"/>
-      <c r="D17" s="215"/>
+      <c r="D17" s="214"/>
       <c r="E17" s="129"/>
       <c r="F17" s="150">
         <f t="shared" si="0"/>
@@ -14284,10 +14296,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="20" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A18" s="237"/>
+      <c r="A18" s="236"/>
       <c r="B18" s="128"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="215"/>
+      <c r="D18" s="214"/>
       <c r="E18" s="129"/>
       <c r="F18" s="150">
         <f t="shared" si="0"/>
@@ -14304,10 +14316,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A19" s="237"/>
+      <c r="A19" s="236"/>
       <c r="B19" s="128"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="215"/>
+      <c r="D19" s="214"/>
       <c r="E19" s="129"/>
       <c r="F19" s="150">
         <f t="shared" si="0"/>
@@ -14324,10 +14336,10 @@
       </c>
     </row>
     <row r="20" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A20" s="237"/>
+      <c r="A20" s="236"/>
       <c r="B20" s="128"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="215"/>
+      <c r="D20" s="214"/>
       <c r="E20" s="129"/>
       <c r="F20" s="150">
         <f t="shared" si="0"/>
@@ -14344,10 +14356,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A21" s="237"/>
+      <c r="A21" s="236"/>
       <c r="B21" s="128"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="215"/>
+      <c r="D21" s="214"/>
       <c r="E21" s="129"/>
       <c r="F21" s="150">
         <f t="shared" si="0"/>
@@ -14364,10 +14376,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A22" s="237"/>
+      <c r="A22" s="236"/>
       <c r="B22" s="128"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="215"/>
+      <c r="D22" s="214"/>
       <c r="E22" s="129"/>
       <c r="F22" s="150">
         <f t="shared" si="0"/>
@@ -14384,10 +14396,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A23" s="237"/>
+      <c r="A23" s="236"/>
       <c r="B23" s="128"/>
       <c r="C23" s="21"/>
-      <c r="D23" s="215"/>
+      <c r="D23" s="214"/>
       <c r="E23" s="129"/>
       <c r="F23" s="150">
         <f t="shared" si="0"/>
@@ -14404,10 +14416,10 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A24" s="237"/>
+      <c r="A24" s="236"/>
       <c r="B24" s="128"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="215"/>
+      <c r="D24" s="214"/>
       <c r="E24" s="129"/>
       <c r="F24" s="150">
         <f t="shared" si="0"/>
@@ -14424,10 +14436,10 @@
       </c>
     </row>
     <row r="25" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A25" s="237"/>
+      <c r="A25" s="236"/>
       <c r="B25" s="128"/>
       <c r="C25" s="21"/>
-      <c r="D25" s="215"/>
+      <c r="D25" s="214"/>
       <c r="E25" s="129"/>
       <c r="F25" s="150">
         <f t="shared" si="0"/>
@@ -14444,10 +14456,10 @@
       </c>
     </row>
     <row r="26" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A26" s="237"/>
+      <c r="A26" s="236"/>
       <c r="B26" s="128"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="215"/>
+      <c r="D26" s="214"/>
       <c r="E26" s="129"/>
       <c r="F26" s="150">
         <f t="shared" si="0"/>
@@ -14464,10 +14476,10 @@
       </c>
     </row>
     <row r="27" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A27" s="237"/>
+      <c r="A27" s="236"/>
       <c r="B27" s="128"/>
       <c r="C27" s="21"/>
-      <c r="D27" s="215"/>
+      <c r="D27" s="214"/>
       <c r="E27" s="129"/>
       <c r="F27" s="150">
         <f t="shared" si="0"/>
@@ -14484,10 +14496,10 @@
       </c>
     </row>
     <row r="28" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A28" s="237"/>
+      <c r="A28" s="236"/>
       <c r="B28" s="128"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="215"/>
+      <c r="D28" s="214"/>
       <c r="E28" s="129"/>
       <c r="F28" s="150">
         <f t="shared" si="0"/>
@@ -14504,10 +14516,10 @@
       </c>
     </row>
     <row r="29" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A29" s="237"/>
+      <c r="A29" s="236"/>
       <c r="B29" s="128"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="215"/>
+      <c r="D29" s="214"/>
       <c r="E29" s="129"/>
       <c r="F29" s="150">
         <f t="shared" si="0"/>
@@ -14524,10 +14536,10 @@
       </c>
     </row>
     <row r="30" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A30" s="237"/>
+      <c r="A30" s="236"/>
       <c r="B30" s="128"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="215"/>
+      <c r="D30" s="214"/>
       <c r="E30" s="129"/>
       <c r="F30" s="150">
         <f t="shared" si="0"/>
@@ -14544,10 +14556,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A31" s="237"/>
+      <c r="A31" s="236"/>
       <c r="B31" s="128"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="215"/>
+      <c r="D31" s="214"/>
       <c r="E31" s="129"/>
       <c r="F31" s="150">
         <f t="shared" si="0"/>
@@ -14564,10 +14576,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A32" s="237"/>
+      <c r="A32" s="236"/>
       <c r="B32" s="128"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="215"/>
+      <c r="D32" s="214"/>
       <c r="E32" s="129"/>
       <c r="F32" s="150">
         <f t="shared" si="0"/>
@@ -14584,10 +14596,10 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A33" s="237"/>
+      <c r="A33" s="236"/>
       <c r="B33" s="128"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="215"/>
+      <c r="D33" s="214"/>
       <c r="E33" s="129"/>
       <c r="F33" s="150">
         <f t="shared" si="0"/>
@@ -14604,10 +14616,10 @@
       </c>
     </row>
     <row r="34" spans="1:12" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A34" s="237"/>
+      <c r="A34" s="236"/>
       <c r="B34" s="128"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="215"/>
+      <c r="D34" s="214"/>
       <c r="E34" s="129"/>
       <c r="F34" s="150">
         <f t="shared" si="0"/>
@@ -14624,10 +14636,10 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A35" s="237"/>
+      <c r="A35" s="236"/>
       <c r="B35" s="128"/>
       <c r="C35" s="21"/>
-      <c r="D35" s="215"/>
+      <c r="D35" s="214"/>
       <c r="E35" s="129"/>
       <c r="F35" s="150">
         <f t="shared" si="0"/>
@@ -14644,10 +14656,10 @@
       </c>
     </row>
     <row r="36" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A36" s="237"/>
+      <c r="A36" s="236"/>
       <c r="B36" s="128"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="215"/>
+      <c r="D36" s="214"/>
       <c r="E36" s="129"/>
       <c r="F36" s="150">
         <f t="shared" si="0"/>
@@ -14664,10 +14676,10 @@
       </c>
     </row>
     <row r="37" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A37" s="237"/>
+      <c r="A37" s="236"/>
       <c r="B37" s="128"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="215"/>
+      <c r="D37" s="214"/>
       <c r="E37" s="129"/>
       <c r="F37" s="150">
         <f t="shared" si="0"/>
@@ -14684,10 +14696,10 @@
       </c>
     </row>
     <row r="38" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A38" s="237"/>
+      <c r="A38" s="236"/>
       <c r="B38" s="128"/>
       <c r="C38" s="21"/>
-      <c r="D38" s="215"/>
+      <c r="D38" s="214"/>
       <c r="E38" s="129"/>
       <c r="F38" s="150">
         <f t="shared" si="0"/>
@@ -14704,10 +14716,10 @@
       </c>
     </row>
     <row r="39" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A39" s="237"/>
+      <c r="A39" s="236"/>
       <c r="B39" s="128"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="215"/>
+      <c r="D39" s="214"/>
       <c r="E39" s="129"/>
       <c r="F39" s="150">
         <f t="shared" si="0"/>
@@ -14724,10 +14736,10 @@
       </c>
     </row>
     <row r="40" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A40" s="237"/>
+      <c r="A40" s="236"/>
       <c r="B40" s="128"/>
       <c r="C40" s="21"/>
-      <c r="D40" s="215"/>
+      <c r="D40" s="214"/>
       <c r="E40" s="129"/>
       <c r="F40" s="150">
         <f t="shared" si="0"/>
@@ -14744,10 +14756,10 @@
       </c>
     </row>
     <row r="41" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A41" s="237"/>
+      <c r="A41" s="236"/>
       <c r="B41" s="128"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="215"/>
+      <c r="D41" s="214"/>
       <c r="E41" s="129"/>
       <c r="F41" s="150">
         <f t="shared" si="0"/>
@@ -14764,10 +14776,10 @@
       </c>
     </row>
     <row r="42" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A42" s="237"/>
+      <c r="A42" s="236"/>
       <c r="B42" s="128"/>
       <c r="C42" s="21"/>
-      <c r="D42" s="215"/>
+      <c r="D42" s="214"/>
       <c r="E42" s="129"/>
       <c r="F42" s="150">
         <f t="shared" si="0"/>
@@ -14784,10 +14796,10 @@
       </c>
     </row>
     <row r="43" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A43" s="237"/>
+      <c r="A43" s="236"/>
       <c r="B43" s="128"/>
       <c r="C43" s="21"/>
-      <c r="D43" s="215"/>
+      <c r="D43" s="214"/>
       <c r="E43" s="129"/>
       <c r="F43" s="150">
         <f t="shared" si="0"/>
@@ -14804,10 +14816,10 @@
       </c>
     </row>
     <row r="44" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A44" s="237"/>
+      <c r="A44" s="236"/>
       <c r="B44" s="128"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="215"/>
+      <c r="D44" s="214"/>
       <c r="E44" s="129"/>
       <c r="F44" s="150">
         <f t="shared" si="0"/>
@@ -14824,10 +14836,10 @@
       </c>
     </row>
     <row r="45" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A45" s="237"/>
+      <c r="A45" s="236"/>
       <c r="B45" s="128"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="215"/>
+      <c r="D45" s="214"/>
       <c r="E45" s="129"/>
       <c r="F45" s="150">
         <f t="shared" si="0"/>
@@ -14844,10 +14856,10 @@
       </c>
     </row>
     <row r="46" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A46" s="237"/>
+      <c r="A46" s="236"/>
       <c r="B46" s="128"/>
       <c r="C46" s="21"/>
-      <c r="D46" s="215"/>
+      <c r="D46" s="214"/>
       <c r="E46" s="129"/>
       <c r="F46" s="150">
         <f t="shared" si="0"/>
@@ -14864,10 +14876,10 @@
       </c>
     </row>
     <row r="47" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A47" s="237"/>
+      <c r="A47" s="236"/>
       <c r="B47" s="128"/>
       <c r="C47" s="21"/>
-      <c r="D47" s="215"/>
+      <c r="D47" s="214"/>
       <c r="E47" s="129"/>
       <c r="F47" s="150">
         <f t="shared" si="0"/>
@@ -14884,10 +14896,10 @@
       </c>
     </row>
     <row r="48" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A48" s="237"/>
+      <c r="A48" s="236"/>
       <c r="B48" s="128"/>
       <c r="C48" s="21"/>
-      <c r="D48" s="215"/>
+      <c r="D48" s="214"/>
       <c r="E48" s="129"/>
       <c r="F48" s="150">
         <f t="shared" si="0"/>
@@ -14904,10 +14916,10 @@
       </c>
     </row>
     <row r="49" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A49" s="237"/>
+      <c r="A49" s="236"/>
       <c r="B49" s="128"/>
       <c r="C49" s="21"/>
-      <c r="D49" s="215"/>
+      <c r="D49" s="214"/>
       <c r="E49" s="129"/>
       <c r="F49" s="150">
         <f t="shared" si="0"/>
@@ -14924,10 +14936,10 @@
       </c>
     </row>
     <row r="50" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A50" s="237"/>
+      <c r="A50" s="236"/>
       <c r="B50" s="128"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="215"/>
+      <c r="D50" s="214"/>
       <c r="E50" s="129"/>
       <c r="F50" s="150">
         <f t="shared" si="0"/>
@@ -14944,10 +14956,10 @@
       </c>
     </row>
     <row r="51" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A51" s="237"/>
+      <c r="A51" s="236"/>
       <c r="B51" s="128"/>
       <c r="C51" s="21"/>
-      <c r="D51" s="215"/>
+      <c r="D51" s="214"/>
       <c r="E51" s="129"/>
       <c r="F51" s="150">
         <f t="shared" si="0"/>
@@ -14964,10 +14976,10 @@
       </c>
     </row>
     <row r="52" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A52" s="237"/>
+      <c r="A52" s="236"/>
       <c r="B52" s="128"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="215"/>
+      <c r="D52" s="214"/>
       <c r="E52" s="129"/>
       <c r="F52" s="150">
         <f t="shared" si="0"/>
@@ -14984,10 +14996,10 @@
       </c>
     </row>
     <row r="53" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A53" s="237"/>
+      <c r="A53" s="236"/>
       <c r="B53" s="128"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="215"/>
+      <c r="D53" s="214"/>
       <c r="E53" s="129"/>
       <c r="F53" s="150">
         <f t="shared" si="0"/>
@@ -15004,10 +15016,10 @@
       </c>
     </row>
     <row r="54" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A54" s="237"/>
+      <c r="A54" s="236"/>
       <c r="B54" s="128"/>
       <c r="C54" s="21"/>
-      <c r="D54" s="215"/>
+      <c r="D54" s="214"/>
       <c r="E54" s="129"/>
       <c r="F54" s="150">
         <f t="shared" si="0"/>
@@ -15024,10 +15036,10 @@
       </c>
     </row>
     <row r="55" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A55" s="237"/>
+      <c r="A55" s="236"/>
       <c r="B55" s="128"/>
       <c r="C55" s="21"/>
-      <c r="D55" s="215"/>
+      <c r="D55" s="214"/>
       <c r="E55" s="129"/>
       <c r="F55" s="150">
         <f t="shared" si="0"/>
@@ -15044,10 +15056,10 @@
       </c>
     </row>
     <row r="56" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A56" s="237"/>
+      <c r="A56" s="236"/>
       <c r="B56" s="128"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="215"/>
+      <c r="D56" s="214"/>
       <c r="E56" s="129"/>
       <c r="F56" s="150">
         <f t="shared" si="0"/>
@@ -15064,10 +15076,10 @@
       </c>
     </row>
     <row r="57" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A57" s="237"/>
+      <c r="A57" s="236"/>
       <c r="B57" s="128"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="215"/>
+      <c r="D57" s="214"/>
       <c r="E57" s="129"/>
       <c r="F57" s="150">
         <f t="shared" si="0"/>
@@ -15084,10 +15096,10 @@
       </c>
     </row>
     <row r="58" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A58" s="237"/>
+      <c r="A58" s="236"/>
       <c r="B58" s="128"/>
       <c r="C58" s="21"/>
-      <c r="D58" s="215"/>
+      <c r="D58" s="214"/>
       <c r="E58" s="129"/>
       <c r="F58" s="150">
         <f t="shared" si="0"/>
@@ -15104,10 +15116,10 @@
       </c>
     </row>
     <row r="59" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A59" s="237"/>
+      <c r="A59" s="236"/>
       <c r="B59" s="128"/>
       <c r="C59" s="21"/>
-      <c r="D59" s="215"/>
+      <c r="D59" s="214"/>
       <c r="E59" s="129"/>
       <c r="F59" s="150">
         <f t="shared" si="0"/>
@@ -15124,10 +15136,10 @@
       </c>
     </row>
     <row r="60" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A60" s="237"/>
+      <c r="A60" s="236"/>
       <c r="B60" s="128"/>
       <c r="C60" s="21"/>
-      <c r="D60" s="215"/>
+      <c r="D60" s="214"/>
       <c r="E60" s="129"/>
       <c r="F60" s="150">
         <f t="shared" si="0"/>
@@ -15144,10 +15156,10 @@
       </c>
     </row>
     <row r="61" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A61" s="237"/>
+      <c r="A61" s="236"/>
       <c r="B61" s="128"/>
       <c r="C61" s="21"/>
-      <c r="D61" s="215"/>
+      <c r="D61" s="214"/>
       <c r="E61" s="129"/>
       <c r="F61" s="150">
         <f t="shared" si="0"/>
@@ -15164,10 +15176,10 @@
       </c>
     </row>
     <row r="62" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A62" s="237"/>
+      <c r="A62" s="236"/>
       <c r="B62" s="128"/>
       <c r="C62" s="21"/>
-      <c r="D62" s="215"/>
+      <c r="D62" s="214"/>
       <c r="E62" s="129"/>
       <c r="F62" s="150">
         <f t="shared" si="0"/>
@@ -15184,10 +15196,10 @@
       </c>
     </row>
     <row r="63" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A63" s="237"/>
+      <c r="A63" s="236"/>
       <c r="B63" s="128"/>
       <c r="C63" s="21"/>
-      <c r="D63" s="215"/>
+      <c r="D63" s="214"/>
       <c r="E63" s="129"/>
       <c r="F63" s="150">
         <f t="shared" si="0"/>
@@ -15204,10 +15216,10 @@
       </c>
     </row>
     <row r="64" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A64" s="237"/>
+      <c r="A64" s="236"/>
       <c r="B64" s="128"/>
       <c r="C64" s="21"/>
-      <c r="D64" s="215"/>
+      <c r="D64" s="214"/>
       <c r="E64" s="129"/>
       <c r="F64" s="150">
         <f t="shared" si="0"/>
@@ -15224,10 +15236,10 @@
       </c>
     </row>
     <row r="65" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A65" s="237"/>
+      <c r="A65" s="236"/>
       <c r="B65" s="128"/>
       <c r="C65" s="21"/>
-      <c r="D65" s="215"/>
+      <c r="D65" s="214"/>
       <c r="E65" s="129"/>
       <c r="F65" s="150">
         <f t="shared" si="0"/>
@@ -15244,10 +15256,10 @@
       </c>
     </row>
     <row r="66" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A66" s="237"/>
+      <c r="A66" s="236"/>
       <c r="B66" s="128"/>
       <c r="C66" s="21"/>
-      <c r="D66" s="215"/>
+      <c r="D66" s="214"/>
       <c r="E66" s="129"/>
       <c r="F66" s="150">
         <f t="shared" si="0"/>
@@ -15264,10 +15276,10 @@
       </c>
     </row>
     <row r="67" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A67" s="237"/>
+      <c r="A67" s="236"/>
       <c r="B67" s="128"/>
       <c r="C67" s="21"/>
-      <c r="D67" s="215"/>
+      <c r="D67" s="214"/>
       <c r="E67" s="129"/>
       <c r="F67" s="150">
         <f t="shared" si="0"/>
@@ -15284,10 +15296,10 @@
       </c>
     </row>
     <row r="68" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A68" s="237"/>
+      <c r="A68" s="236"/>
       <c r="B68" s="128"/>
       <c r="C68" s="21"/>
-      <c r="D68" s="215"/>
+      <c r="D68" s="214"/>
       <c r="E68" s="129"/>
       <c r="F68" s="150">
         <f t="shared" si="0"/>
@@ -15304,10 +15316,10 @@
       </c>
     </row>
     <row r="69" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A69" s="237"/>
+      <c r="A69" s="236"/>
       <c r="B69" s="128"/>
       <c r="C69" s="21"/>
-      <c r="D69" s="215"/>
+      <c r="D69" s="214"/>
       <c r="E69" s="129"/>
       <c r="F69" s="150">
         <f t="shared" si="0"/>
@@ -15324,10 +15336,10 @@
       </c>
     </row>
     <row r="70" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A70" s="237"/>
+      <c r="A70" s="236"/>
       <c r="B70" s="128"/>
       <c r="C70" s="21"/>
-      <c r="D70" s="215"/>
+      <c r="D70" s="214"/>
       <c r="E70" s="129"/>
       <c r="F70" s="150">
         <f t="shared" si="0"/>
@@ -15344,10 +15356,10 @@
       </c>
     </row>
     <row r="71" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A71" s="237"/>
+      <c r="A71" s="236"/>
       <c r="B71" s="128"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="215"/>
+      <c r="D71" s="214"/>
       <c r="E71" s="129"/>
       <c r="F71" s="150">
         <f t="shared" si="0"/>
@@ -15364,10 +15376,10 @@
       </c>
     </row>
     <row r="72" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A72" s="237"/>
+      <c r="A72" s="236"/>
       <c r="B72" s="128"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="215"/>
+      <c r="D72" s="214"/>
       <c r="E72" s="129"/>
       <c r="F72" s="150">
         <f t="shared" ref="F72:F77" si="3">SUM(G72,H72)</f>
@@ -15384,10 +15396,10 @@
       </c>
     </row>
     <row r="73" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A73" s="237"/>
+      <c r="A73" s="236"/>
       <c r="B73" s="128"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="215"/>
+      <c r="D73" s="214"/>
       <c r="E73" s="129"/>
       <c r="F73" s="150">
         <f t="shared" si="3"/>
@@ -15404,10 +15416,10 @@
       </c>
     </row>
     <row r="74" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A74" s="237"/>
+      <c r="A74" s="236"/>
       <c r="B74" s="128"/>
       <c r="C74" s="21"/>
-      <c r="D74" s="215"/>
+      <c r="D74" s="214"/>
       <c r="E74" s="129"/>
       <c r="F74" s="150">
         <f t="shared" si="3"/>
@@ -15424,10 +15436,10 @@
       </c>
     </row>
     <row r="75" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A75" s="237"/>
+      <c r="A75" s="236"/>
       <c r="B75" s="128"/>
       <c r="C75" s="21"/>
-      <c r="D75" s="215"/>
+      <c r="D75" s="214"/>
       <c r="E75" s="129"/>
       <c r="F75" s="150">
         <f t="shared" si="3"/>
@@ -15444,10 +15456,10 @@
       </c>
     </row>
     <row r="76" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A76" s="237"/>
+      <c r="A76" s="236"/>
       <c r="B76" s="128"/>
       <c r="C76" s="21"/>
-      <c r="D76" s="215"/>
+      <c r="D76" s="214"/>
       <c r="E76" s="129"/>
       <c r="F76" s="150">
         <f t="shared" si="3"/>
@@ -15464,10 +15476,10 @@
       </c>
     </row>
     <row r="77" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A77" s="237"/>
+      <c r="A77" s="236"/>
       <c r="B77" s="128"/>
       <c r="C77" s="21"/>
-      <c r="D77" s="215"/>
+      <c r="D77" s="214"/>
       <c r="E77" s="129"/>
       <c r="F77" s="150">
         <f t="shared" si="3"/>
@@ -15484,10 +15496,10 @@
       </c>
     </row>
     <row r="78" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A78" s="237"/>
+      <c r="A78" s="236"/>
       <c r="B78" s="128"/>
       <c r="C78" s="21"/>
-      <c r="D78" s="215"/>
+      <c r="D78" s="214"/>
       <c r="E78" s="129"/>
       <c r="F78" s="150">
         <f t="shared" ref="F78:F107" si="5">SUM(G78,H78)</f>
@@ -15504,10 +15516,10 @@
       </c>
     </row>
     <row r="79" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A79" s="237"/>
+      <c r="A79" s="236"/>
       <c r="B79" s="128"/>
       <c r="C79" s="21"/>
-      <c r="D79" s="215"/>
+      <c r="D79" s="214"/>
       <c r="E79" s="129"/>
       <c r="F79" s="150">
         <f t="shared" si="5"/>
@@ -15524,10 +15536,10 @@
       </c>
     </row>
     <row r="80" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A80" s="237"/>
+      <c r="A80" s="236"/>
       <c r="B80" s="128"/>
       <c r="C80" s="21"/>
-      <c r="D80" s="215"/>
+      <c r="D80" s="214"/>
       <c r="E80" s="129"/>
       <c r="F80" s="150">
         <f t="shared" si="5"/>
@@ -15544,10 +15556,10 @@
       </c>
     </row>
     <row r="81" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A81" s="237"/>
+      <c r="A81" s="236"/>
       <c r="B81" s="128"/>
       <c r="C81" s="21"/>
-      <c r="D81" s="215"/>
+      <c r="D81" s="214"/>
       <c r="E81" s="129"/>
       <c r="F81" s="150">
         <f t="shared" si="5"/>
@@ -15564,10 +15576,10 @@
       </c>
     </row>
     <row r="82" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A82" s="237"/>
+      <c r="A82" s="236"/>
       <c r="B82" s="128"/>
       <c r="C82" s="21"/>
-      <c r="D82" s="215"/>
+      <c r="D82" s="214"/>
       <c r="E82" s="129"/>
       <c r="F82" s="150">
         <f t="shared" si="5"/>
@@ -15584,10 +15596,10 @@
       </c>
     </row>
     <row r="83" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A83" s="237"/>
+      <c r="A83" s="236"/>
       <c r="B83" s="128"/>
       <c r="C83" s="21"/>
-      <c r="D83" s="215"/>
+      <c r="D83" s="214"/>
       <c r="E83" s="129"/>
       <c r="F83" s="150">
         <f t="shared" si="5"/>
@@ -15604,10 +15616,10 @@
       </c>
     </row>
     <row r="84" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A84" s="237"/>
+      <c r="A84" s="236"/>
       <c r="B84" s="128"/>
       <c r="C84" s="21"/>
-      <c r="D84" s="215"/>
+      <c r="D84" s="214"/>
       <c r="E84" s="129"/>
       <c r="F84" s="150">
         <f t="shared" si="5"/>
@@ -15624,10 +15636,10 @@
       </c>
     </row>
     <row r="85" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A85" s="237"/>
+      <c r="A85" s="236"/>
       <c r="B85" s="128"/>
       <c r="C85" s="21"/>
-      <c r="D85" s="215"/>
+      <c r="D85" s="214"/>
       <c r="E85" s="129"/>
       <c r="F85" s="150">
         <f t="shared" si="5"/>
@@ -15644,10 +15656,10 @@
       </c>
     </row>
     <row r="86" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A86" s="237"/>
+      <c r="A86" s="236"/>
       <c r="B86" s="128"/>
       <c r="C86" s="21"/>
-      <c r="D86" s="215"/>
+      <c r="D86" s="214"/>
       <c r="E86" s="129"/>
       <c r="F86" s="150">
         <f t="shared" si="5"/>
@@ -15664,10 +15676,10 @@
       </c>
     </row>
     <row r="87" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A87" s="237"/>
+      <c r="A87" s="236"/>
       <c r="B87" s="128"/>
       <c r="C87" s="21"/>
-      <c r="D87" s="215"/>
+      <c r="D87" s="214"/>
       <c r="E87" s="129"/>
       <c r="F87" s="150">
         <f t="shared" si="5"/>
@@ -15684,10 +15696,10 @@
       </c>
     </row>
     <row r="88" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A88" s="237"/>
+      <c r="A88" s="236"/>
       <c r="B88" s="128"/>
       <c r="C88" s="21"/>
-      <c r="D88" s="215"/>
+      <c r="D88" s="214"/>
       <c r="E88" s="129"/>
       <c r="F88" s="150">
         <f t="shared" si="5"/>
@@ -15704,10 +15716,10 @@
       </c>
     </row>
     <row r="89" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A89" s="237"/>
+      <c r="A89" s="236"/>
       <c r="B89" s="128"/>
       <c r="C89" s="21"/>
-      <c r="D89" s="215"/>
+      <c r="D89" s="214"/>
       <c r="E89" s="129"/>
       <c r="F89" s="150">
         <f t="shared" si="5"/>
@@ -15724,10 +15736,10 @@
       </c>
     </row>
     <row r="90" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A90" s="237"/>
+      <c r="A90" s="236"/>
       <c r="B90" s="128"/>
       <c r="C90" s="21"/>
-      <c r="D90" s="215"/>
+      <c r="D90" s="214"/>
       <c r="E90" s="129"/>
       <c r="F90" s="150">
         <f t="shared" si="5"/>
@@ -15744,10 +15756,10 @@
       </c>
     </row>
     <row r="91" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A91" s="237"/>
+      <c r="A91" s="236"/>
       <c r="B91" s="128"/>
       <c r="C91" s="21"/>
-      <c r="D91" s="215"/>
+      <c r="D91" s="214"/>
       <c r="E91" s="129"/>
       <c r="F91" s="150">
         <f t="shared" si="5"/>
@@ -15764,10 +15776,10 @@
       </c>
     </row>
     <row r="92" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A92" s="237"/>
+      <c r="A92" s="236"/>
       <c r="B92" s="128"/>
       <c r="C92" s="21"/>
-      <c r="D92" s="215"/>
+      <c r="D92" s="214"/>
       <c r="E92" s="129"/>
       <c r="F92" s="150">
         <f t="shared" si="5"/>
@@ -15784,10 +15796,10 @@
       </c>
     </row>
     <row r="93" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A93" s="237"/>
+      <c r="A93" s="236"/>
       <c r="B93" s="128"/>
       <c r="C93" s="21"/>
-      <c r="D93" s="215"/>
+      <c r="D93" s="214"/>
       <c r="E93" s="129"/>
       <c r="F93" s="150">
         <f t="shared" si="5"/>
@@ -15804,10 +15816,10 @@
       </c>
     </row>
     <row r="94" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A94" s="237"/>
+      <c r="A94" s="236"/>
       <c r="B94" s="128"/>
       <c r="C94" s="21"/>
-      <c r="D94" s="215"/>
+      <c r="D94" s="214"/>
       <c r="E94" s="129"/>
       <c r="F94" s="150">
         <f t="shared" si="5"/>
@@ -15824,10 +15836,10 @@
       </c>
     </row>
     <row r="95" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A95" s="237"/>
+      <c r="A95" s="236"/>
       <c r="B95" s="128"/>
       <c r="C95" s="21"/>
-      <c r="D95" s="215"/>
+      <c r="D95" s="214"/>
       <c r="E95" s="129"/>
       <c r="F95" s="150">
         <f t="shared" si="5"/>
@@ -15844,10 +15856,10 @@
       </c>
     </row>
     <row r="96" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A96" s="237"/>
+      <c r="A96" s="236"/>
       <c r="B96" s="128"/>
       <c r="C96" s="21"/>
-      <c r="D96" s="215"/>
+      <c r="D96" s="214"/>
       <c r="E96" s="129"/>
       <c r="F96" s="150">
         <f t="shared" si="5"/>
@@ -15864,10 +15876,10 @@
       </c>
     </row>
     <row r="97" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A97" s="237"/>
+      <c r="A97" s="236"/>
       <c r="B97" s="128"/>
       <c r="C97" s="21"/>
-      <c r="D97" s="215"/>
+      <c r="D97" s="214"/>
       <c r="E97" s="129"/>
       <c r="F97" s="150">
         <f t="shared" si="5"/>
@@ -15884,10 +15896,10 @@
       </c>
     </row>
     <row r="98" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A98" s="237"/>
+      <c r="A98" s="236"/>
       <c r="B98" s="128"/>
       <c r="C98" s="21"/>
-      <c r="D98" s="215"/>
+      <c r="D98" s="214"/>
       <c r="E98" s="129"/>
       <c r="F98" s="150">
         <f t="shared" si="5"/>
@@ -15904,10 +15916,10 @@
       </c>
     </row>
     <row r="99" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A99" s="237"/>
+      <c r="A99" s="236"/>
       <c r="B99" s="128"/>
       <c r="C99" s="21"/>
-      <c r="D99" s="215"/>
+      <c r="D99" s="214"/>
       <c r="E99" s="129"/>
       <c r="F99" s="150">
         <f t="shared" si="5"/>
@@ -15924,10 +15936,10 @@
       </c>
     </row>
     <row r="100" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A100" s="237"/>
+      <c r="A100" s="236"/>
       <c r="B100" s="128"/>
       <c r="C100" s="21"/>
-      <c r="D100" s="215"/>
+      <c r="D100" s="214"/>
       <c r="E100" s="129"/>
       <c r="F100" s="150">
         <f t="shared" si="5"/>
@@ -15944,10 +15956,10 @@
       </c>
     </row>
     <row r="101" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A101" s="237"/>
+      <c r="A101" s="236"/>
       <c r="B101" s="128"/>
       <c r="C101" s="21"/>
-      <c r="D101" s="215"/>
+      <c r="D101" s="214"/>
       <c r="E101" s="129"/>
       <c r="F101" s="150">
         <f t="shared" si="5"/>
@@ -15964,10 +15976,10 @@
       </c>
     </row>
     <row r="102" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A102" s="237"/>
+      <c r="A102" s="236"/>
       <c r="B102" s="128"/>
       <c r="C102" s="21"/>
-      <c r="D102" s="215"/>
+      <c r="D102" s="214"/>
       <c r="E102" s="129"/>
       <c r="F102" s="150">
         <f t="shared" si="5"/>
@@ -15984,10 +15996,10 @@
       </c>
     </row>
     <row r="103" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A103" s="237"/>
+      <c r="A103" s="236"/>
       <c r="B103" s="128"/>
       <c r="C103" s="21"/>
-      <c r="D103" s="215"/>
+      <c r="D103" s="214"/>
       <c r="E103" s="129"/>
       <c r="F103" s="150">
         <f t="shared" si="5"/>
@@ -16004,10 +16016,10 @@
       </c>
     </row>
     <row r="104" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A104" s="237"/>
+      <c r="A104" s="236"/>
       <c r="B104" s="128"/>
       <c r="C104" s="21"/>
-      <c r="D104" s="215"/>
+      <c r="D104" s="214"/>
       <c r="E104" s="129"/>
       <c r="F104" s="150">
         <f t="shared" si="5"/>
@@ -16024,10 +16036,10 @@
       </c>
     </row>
     <row r="105" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A105" s="237"/>
+      <c r="A105" s="236"/>
       <c r="B105" s="128"/>
       <c r="C105" s="21"/>
-      <c r="D105" s="215"/>
+      <c r="D105" s="214"/>
       <c r="E105" s="129"/>
       <c r="F105" s="150">
         <f t="shared" si="5"/>
@@ -16044,10 +16056,10 @@
       </c>
     </row>
     <row r="106" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A106" s="237"/>
+      <c r="A106" s="236"/>
       <c r="B106" s="128"/>
       <c r="C106" s="21"/>
-      <c r="D106" s="215"/>
+      <c r="D106" s="214"/>
       <c r="E106" s="129"/>
       <c r="F106" s="150">
         <f t="shared" si="5"/>
@@ -16064,10 +16076,10 @@
       </c>
     </row>
     <row r="107" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A107" s="237"/>
+      <c r="A107" s="236"/>
       <c r="B107" s="128"/>
       <c r="C107" s="21"/>
-      <c r="D107" s="215"/>
+      <c r="D107" s="214"/>
       <c r="E107" s="129"/>
       <c r="F107" s="150">
         <f t="shared" si="5"/>
@@ -16084,10 +16096,10 @@
       </c>
     </row>
     <row r="108" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A108" s="237"/>
+      <c r="A108" s="236"/>
       <c r="B108" s="128"/>
       <c r="C108" s="21"/>
-      <c r="D108" s="215"/>
+      <c r="D108" s="214"/>
       <c r="E108" s="129"/>
       <c r="F108" s="150">
         <f t="shared" ref="F108:F139" si="7">SUM(G108,H108)</f>
@@ -16104,10 +16116,10 @@
       </c>
     </row>
     <row r="109" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A109" s="237"/>
+      <c r="A109" s="236"/>
       <c r="B109" s="128"/>
       <c r="C109" s="21"/>
-      <c r="D109" s="215"/>
+      <c r="D109" s="214"/>
       <c r="E109" s="129"/>
       <c r="F109" s="150">
         <f t="shared" si="7"/>
@@ -16124,10 +16136,10 @@
       </c>
     </row>
     <row r="110" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A110" s="237"/>
+      <c r="A110" s="236"/>
       <c r="B110" s="128"/>
       <c r="C110" s="21"/>
-      <c r="D110" s="215"/>
+      <c r="D110" s="214"/>
       <c r="E110" s="129"/>
       <c r="F110" s="150">
         <f t="shared" si="7"/>
@@ -16144,10 +16156,10 @@
       </c>
     </row>
     <row r="111" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A111" s="237"/>
+      <c r="A111" s="236"/>
       <c r="B111" s="128"/>
       <c r="C111" s="21"/>
-      <c r="D111" s="215"/>
+      <c r="D111" s="214"/>
       <c r="E111" s="129"/>
       <c r="F111" s="150">
         <f t="shared" si="7"/>
@@ -16164,10 +16176,10 @@
       </c>
     </row>
     <row r="112" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A112" s="237"/>
+      <c r="A112" s="236"/>
       <c r="B112" s="128"/>
       <c r="C112" s="21"/>
-      <c r="D112" s="215"/>
+      <c r="D112" s="214"/>
       <c r="E112" s="129"/>
       <c r="F112" s="150">
         <f t="shared" si="7"/>
@@ -16184,10 +16196,10 @@
       </c>
     </row>
     <row r="113" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A113" s="237"/>
+      <c r="A113" s="236"/>
       <c r="B113" s="128"/>
       <c r="C113" s="21"/>
-      <c r="D113" s="215"/>
+      <c r="D113" s="214"/>
       <c r="E113" s="129"/>
       <c r="F113" s="150">
         <f t="shared" si="7"/>
@@ -16204,10 +16216,10 @@
       </c>
     </row>
     <row r="114" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A114" s="237"/>
+      <c r="A114" s="236"/>
       <c r="B114" s="128"/>
       <c r="C114" s="21"/>
-      <c r="D114" s="215"/>
+      <c r="D114" s="214"/>
       <c r="E114" s="129"/>
       <c r="F114" s="150">
         <f t="shared" si="7"/>
@@ -16224,10 +16236,10 @@
       </c>
     </row>
     <row r="115" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A115" s="237"/>
+      <c r="A115" s="236"/>
       <c r="B115" s="128"/>
       <c r="C115" s="21"/>
-      <c r="D115" s="215"/>
+      <c r="D115" s="214"/>
       <c r="E115" s="129"/>
       <c r="F115" s="150">
         <f t="shared" si="7"/>
@@ -16244,10 +16256,10 @@
       </c>
     </row>
     <row r="116" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A116" s="237"/>
+      <c r="A116" s="236"/>
       <c r="B116" s="128"/>
       <c r="C116" s="21"/>
-      <c r="D116" s="215"/>
+      <c r="D116" s="214"/>
       <c r="E116" s="129"/>
       <c r="F116" s="150">
         <f t="shared" si="7"/>
@@ -16264,10 +16276,10 @@
       </c>
     </row>
     <row r="117" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A117" s="237"/>
+      <c r="A117" s="236"/>
       <c r="B117" s="128"/>
       <c r="C117" s="21"/>
-      <c r="D117" s="215"/>
+      <c r="D117" s="214"/>
       <c r="E117" s="129"/>
       <c r="F117" s="150">
         <f t="shared" si="7"/>
@@ -16284,10 +16296,10 @@
       </c>
     </row>
     <row r="118" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A118" s="237"/>
+      <c r="A118" s="236"/>
       <c r="B118" s="128"/>
       <c r="C118" s="21"/>
-      <c r="D118" s="215"/>
+      <c r="D118" s="214"/>
       <c r="E118" s="129"/>
       <c r="F118" s="150">
         <f t="shared" si="7"/>
@@ -16304,10 +16316,10 @@
       </c>
     </row>
     <row r="119" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A119" s="237"/>
+      <c r="A119" s="236"/>
       <c r="B119" s="128"/>
       <c r="C119" s="21"/>
-      <c r="D119" s="215"/>
+      <c r="D119" s="214"/>
       <c r="E119" s="129"/>
       <c r="F119" s="150">
         <f t="shared" si="7"/>
@@ -16324,10 +16336,10 @@
       </c>
     </row>
     <row r="120" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A120" s="237"/>
+      <c r="A120" s="236"/>
       <c r="B120" s="128"/>
       <c r="C120" s="21"/>
-      <c r="D120" s="215"/>
+      <c r="D120" s="214"/>
       <c r="E120" s="129"/>
       <c r="F120" s="150">
         <f t="shared" si="7"/>
@@ -16344,10 +16356,10 @@
       </c>
     </row>
     <row r="121" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A121" s="237"/>
+      <c r="A121" s="236"/>
       <c r="B121" s="128"/>
       <c r="C121" s="21"/>
-      <c r="D121" s="215"/>
+      <c r="D121" s="214"/>
       <c r="E121" s="129"/>
       <c r="F121" s="150">
         <f t="shared" si="7"/>
@@ -16364,10 +16376,10 @@
       </c>
     </row>
     <row r="122" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A122" s="237"/>
+      <c r="A122" s="236"/>
       <c r="B122" s="128"/>
       <c r="C122" s="21"/>
-      <c r="D122" s="215"/>
+      <c r="D122" s="214"/>
       <c r="E122" s="129"/>
       <c r="F122" s="150">
         <f t="shared" si="7"/>
@@ -16384,10 +16396,10 @@
       </c>
     </row>
     <row r="123" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A123" s="237"/>
+      <c r="A123" s="236"/>
       <c r="B123" s="128"/>
       <c r="C123" s="21"/>
-      <c r="D123" s="215"/>
+      <c r="D123" s="214"/>
       <c r="E123" s="129"/>
       <c r="F123" s="150">
         <f t="shared" si="7"/>
@@ -16404,10 +16416,10 @@
       </c>
     </row>
     <row r="124" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A124" s="237"/>
+      <c r="A124" s="236"/>
       <c r="B124" s="128"/>
       <c r="C124" s="21"/>
-      <c r="D124" s="215"/>
+      <c r="D124" s="214"/>
       <c r="E124" s="129"/>
       <c r="F124" s="150">
         <f t="shared" si="7"/>
@@ -16424,10 +16436,10 @@
       </c>
     </row>
     <row r="125" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A125" s="237"/>
+      <c r="A125" s="236"/>
       <c r="B125" s="128"/>
       <c r="C125" s="21"/>
-      <c r="D125" s="215"/>
+      <c r="D125" s="214"/>
       <c r="E125" s="129"/>
       <c r="F125" s="150">
         <f t="shared" si="7"/>
@@ -16444,10 +16456,10 @@
       </c>
     </row>
     <row r="126" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A126" s="237"/>
+      <c r="A126" s="236"/>
       <c r="B126" s="128"/>
       <c r="C126" s="21"/>
-      <c r="D126" s="215"/>
+      <c r="D126" s="214"/>
       <c r="E126" s="129"/>
       <c r="F126" s="150">
         <f t="shared" si="7"/>
@@ -16464,10 +16476,10 @@
       </c>
     </row>
     <row r="127" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A127" s="237"/>
+      <c r="A127" s="236"/>
       <c r="B127" s="128"/>
       <c r="C127" s="21"/>
-      <c r="D127" s="215"/>
+      <c r="D127" s="214"/>
       <c r="E127" s="129"/>
       <c r="F127" s="150">
         <f t="shared" si="7"/>
@@ -16484,10 +16496,10 @@
       </c>
     </row>
     <row r="128" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A128" s="237"/>
+      <c r="A128" s="236"/>
       <c r="B128" s="128"/>
       <c r="C128" s="21"/>
-      <c r="D128" s="215"/>
+      <c r="D128" s="214"/>
       <c r="E128" s="129"/>
       <c r="F128" s="150">
         <f t="shared" si="7"/>
@@ -16504,10 +16516,10 @@
       </c>
     </row>
     <row r="129" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A129" s="237"/>
+      <c r="A129" s="236"/>
       <c r="B129" s="128"/>
       <c r="C129" s="21"/>
-      <c r="D129" s="215"/>
+      <c r="D129" s="214"/>
       <c r="E129" s="129"/>
       <c r="F129" s="150">
         <f t="shared" si="7"/>
@@ -16524,10 +16536,10 @@
       </c>
     </row>
     <row r="130" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A130" s="237"/>
+      <c r="A130" s="236"/>
       <c r="B130" s="128"/>
       <c r="C130" s="21"/>
-      <c r="D130" s="215"/>
+      <c r="D130" s="214"/>
       <c r="E130" s="129"/>
       <c r="F130" s="150">
         <f t="shared" si="7"/>
@@ -16544,10 +16556,10 @@
       </c>
     </row>
     <row r="131" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A131" s="237"/>
+      <c r="A131" s="236"/>
       <c r="B131" s="128"/>
       <c r="C131" s="21"/>
-      <c r="D131" s="215"/>
+      <c r="D131" s="214"/>
       <c r="E131" s="129"/>
       <c r="F131" s="150">
         <f t="shared" si="7"/>
@@ -16564,10 +16576,10 @@
       </c>
     </row>
     <row r="132" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A132" s="237"/>
+      <c r="A132" s="236"/>
       <c r="B132" s="128"/>
       <c r="C132" s="21"/>
-      <c r="D132" s="215"/>
+      <c r="D132" s="214"/>
       <c r="E132" s="129"/>
       <c r="F132" s="150">
         <f t="shared" si="7"/>
@@ -16584,10 +16596,10 @@
       </c>
     </row>
     <row r="133" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A133" s="237"/>
+      <c r="A133" s="236"/>
       <c r="B133" s="128"/>
       <c r="C133" s="21"/>
-      <c r="D133" s="215"/>
+      <c r="D133" s="214"/>
       <c r="E133" s="129"/>
       <c r="F133" s="150">
         <f t="shared" si="7"/>
@@ -16604,10 +16616,10 @@
       </c>
     </row>
     <row r="134" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A134" s="237"/>
+      <c r="A134" s="236"/>
       <c r="B134" s="128"/>
       <c r="C134" s="21"/>
-      <c r="D134" s="215"/>
+      <c r="D134" s="214"/>
       <c r="E134" s="129"/>
       <c r="F134" s="150">
         <f t="shared" si="7"/>
@@ -16624,10 +16636,10 @@
       </c>
     </row>
     <row r="135" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A135" s="237"/>
+      <c r="A135" s="236"/>
       <c r="B135" s="128"/>
       <c r="C135" s="21"/>
-      <c r="D135" s="215"/>
+      <c r="D135" s="214"/>
       <c r="E135" s="129"/>
       <c r="F135" s="150">
         <f t="shared" si="7"/>
@@ -16644,10 +16656,10 @@
       </c>
     </row>
     <row r="136" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A136" s="237"/>
+      <c r="A136" s="236"/>
       <c r="B136" s="128"/>
       <c r="C136" s="21"/>
-      <c r="D136" s="215"/>
+      <c r="D136" s="214"/>
       <c r="E136" s="129"/>
       <c r="F136" s="150">
         <f t="shared" si="7"/>
@@ -16664,10 +16676,10 @@
       </c>
     </row>
     <row r="137" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A137" s="237"/>
+      <c r="A137" s="236"/>
       <c r="B137" s="128"/>
       <c r="C137" s="21"/>
-      <c r="D137" s="215"/>
+      <c r="D137" s="214"/>
       <c r="E137" s="129"/>
       <c r="F137" s="150">
         <f t="shared" si="7"/>
@@ -16684,10 +16696,10 @@
       </c>
     </row>
     <row r="138" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A138" s="237"/>
+      <c r="A138" s="236"/>
       <c r="B138" s="128"/>
       <c r="C138" s="21"/>
-      <c r="D138" s="215"/>
+      <c r="D138" s="214"/>
       <c r="E138" s="129"/>
       <c r="F138" s="150">
         <f t="shared" si="7"/>
@@ -16704,10 +16716,10 @@
       </c>
     </row>
     <row r="139" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A139" s="237"/>
+      <c r="A139" s="236"/>
       <c r="B139" s="128"/>
       <c r="C139" s="21"/>
-      <c r="D139" s="215"/>
+      <c r="D139" s="214"/>
       <c r="E139" s="129"/>
       <c r="F139" s="150">
         <f t="shared" si="7"/>
@@ -16724,10 +16736,10 @@
       </c>
     </row>
     <row r="140" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A140" s="237"/>
+      <c r="A140" s="236"/>
       <c r="B140" s="128"/>
       <c r="C140" s="21"/>
-      <c r="D140" s="215"/>
+      <c r="D140" s="214"/>
       <c r="E140" s="129"/>
       <c r="F140" s="150">
         <f t="shared" ref="F140:F171" si="9">SUM(G140,H140)</f>
@@ -16744,10 +16756,10 @@
       </c>
     </row>
     <row r="141" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A141" s="237"/>
+      <c r="A141" s="236"/>
       <c r="B141" s="128"/>
       <c r="C141" s="21"/>
-      <c r="D141" s="215"/>
+      <c r="D141" s="214"/>
       <c r="E141" s="129"/>
       <c r="F141" s="150">
         <f t="shared" si="9"/>
@@ -16764,10 +16776,10 @@
       </c>
     </row>
     <row r="142" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A142" s="237"/>
+      <c r="A142" s="236"/>
       <c r="B142" s="128"/>
       <c r="C142" s="21"/>
-      <c r="D142" s="215"/>
+      <c r="D142" s="214"/>
       <c r="E142" s="129"/>
       <c r="F142" s="150">
         <f t="shared" si="9"/>
@@ -16784,10 +16796,10 @@
       </c>
     </row>
     <row r="143" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A143" s="237"/>
+      <c r="A143" s="236"/>
       <c r="B143" s="128"/>
       <c r="C143" s="21"/>
-      <c r="D143" s="215"/>
+      <c r="D143" s="214"/>
       <c r="E143" s="129"/>
       <c r="F143" s="150">
         <f t="shared" si="9"/>
@@ -16804,10 +16816,10 @@
       </c>
     </row>
     <row r="144" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A144" s="237"/>
+      <c r="A144" s="236"/>
       <c r="B144" s="128"/>
       <c r="C144" s="21"/>
-      <c r="D144" s="215"/>
+      <c r="D144" s="214"/>
       <c r="E144" s="129"/>
       <c r="F144" s="150">
         <f t="shared" si="9"/>
@@ -16824,10 +16836,10 @@
       </c>
     </row>
     <row r="145" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A145" s="237"/>
+      <c r="A145" s="236"/>
       <c r="B145" s="128"/>
       <c r="C145" s="21"/>
-      <c r="D145" s="215"/>
+      <c r="D145" s="214"/>
       <c r="E145" s="129"/>
       <c r="F145" s="150">
         <f t="shared" si="9"/>
@@ -16844,10 +16856,10 @@
       </c>
     </row>
     <row r="146" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A146" s="237"/>
+      <c r="A146" s="236"/>
       <c r="B146" s="128"/>
       <c r="C146" s="21"/>
-      <c r="D146" s="215"/>
+      <c r="D146" s="214"/>
       <c r="E146" s="129"/>
       <c r="F146" s="150">
         <f t="shared" si="9"/>
@@ -16864,10 +16876,10 @@
       </c>
     </row>
     <row r="147" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A147" s="237"/>
+      <c r="A147" s="236"/>
       <c r="B147" s="128"/>
       <c r="C147" s="21"/>
-      <c r="D147" s="215"/>
+      <c r="D147" s="214"/>
       <c r="E147" s="129"/>
       <c r="F147" s="150">
         <f t="shared" si="9"/>
@@ -16884,10 +16896,10 @@
       </c>
     </row>
     <row r="148" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A148" s="237"/>
+      <c r="A148" s="236"/>
       <c r="B148" s="128"/>
       <c r="C148" s="21"/>
-      <c r="D148" s="215"/>
+      <c r="D148" s="214"/>
       <c r="E148" s="129"/>
       <c r="F148" s="150">
         <f t="shared" si="9"/>
@@ -16904,10 +16916,10 @@
       </c>
     </row>
     <row r="149" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A149" s="237"/>
+      <c r="A149" s="236"/>
       <c r="B149" s="128"/>
       <c r="C149" s="21"/>
-      <c r="D149" s="215"/>
+      <c r="D149" s="214"/>
       <c r="E149" s="129"/>
       <c r="F149" s="150">
         <f t="shared" si="9"/>
@@ -16924,10 +16936,10 @@
       </c>
     </row>
     <row r="150" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A150" s="237"/>
+      <c r="A150" s="236"/>
       <c r="B150" s="128"/>
       <c r="C150" s="21"/>
-      <c r="D150" s="215"/>
+      <c r="D150" s="214"/>
       <c r="E150" s="129"/>
       <c r="F150" s="150">
         <f t="shared" si="9"/>
@@ -16944,10 +16956,10 @@
       </c>
     </row>
     <row r="151" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A151" s="237"/>
+      <c r="A151" s="236"/>
       <c r="B151" s="128"/>
       <c r="C151" s="21"/>
-      <c r="D151" s="215"/>
+      <c r="D151" s="214"/>
       <c r="E151" s="129"/>
       <c r="F151" s="150">
         <f t="shared" si="9"/>
@@ -16964,10 +16976,10 @@
       </c>
     </row>
     <row r="152" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A152" s="237"/>
+      <c r="A152" s="236"/>
       <c r="B152" s="128"/>
       <c r="C152" s="21"/>
-      <c r="D152" s="215"/>
+      <c r="D152" s="214"/>
       <c r="E152" s="129"/>
       <c r="F152" s="150">
         <f t="shared" si="9"/>
@@ -16984,10 +16996,10 @@
       </c>
     </row>
     <row r="153" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A153" s="237"/>
+      <c r="A153" s="236"/>
       <c r="B153" s="128"/>
       <c r="C153" s="21"/>
-      <c r="D153" s="215"/>
+      <c r="D153" s="214"/>
       <c r="E153" s="129"/>
       <c r="F153" s="150">
         <f t="shared" si="9"/>
@@ -17004,10 +17016,10 @@
       </c>
     </row>
     <row r="154" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A154" s="237"/>
+      <c r="A154" s="236"/>
       <c r="B154" s="128"/>
       <c r="C154" s="21"/>
-      <c r="D154" s="215"/>
+      <c r="D154" s="214"/>
       <c r="E154" s="129"/>
       <c r="F154" s="150">
         <f t="shared" si="9"/>
@@ -17024,10 +17036,10 @@
       </c>
     </row>
     <row r="155" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A155" s="237"/>
+      <c r="A155" s="236"/>
       <c r="B155" s="128"/>
       <c r="C155" s="21"/>
-      <c r="D155" s="215"/>
+      <c r="D155" s="214"/>
       <c r="E155" s="129"/>
       <c r="F155" s="150">
         <f t="shared" si="9"/>
@@ -17044,10 +17056,10 @@
       </c>
     </row>
     <row r="156" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A156" s="237"/>
+      <c r="A156" s="236"/>
       <c r="B156" s="128"/>
       <c r="C156" s="21"/>
-      <c r="D156" s="215"/>
+      <c r="D156" s="214"/>
       <c r="E156" s="129"/>
       <c r="F156" s="150">
         <f t="shared" si="9"/>
@@ -17064,10 +17076,10 @@
       </c>
     </row>
     <row r="157" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A157" s="237"/>
+      <c r="A157" s="236"/>
       <c r="B157" s="128"/>
       <c r="C157" s="21"/>
-      <c r="D157" s="215"/>
+      <c r="D157" s="214"/>
       <c r="E157" s="129"/>
       <c r="F157" s="150">
         <f t="shared" si="9"/>
@@ -17084,10 +17096,10 @@
       </c>
     </row>
     <row r="158" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A158" s="237"/>
+      <c r="A158" s="236"/>
       <c r="B158" s="128"/>
       <c r="C158" s="21"/>
-      <c r="D158" s="215"/>
+      <c r="D158" s="214"/>
       <c r="E158" s="129"/>
       <c r="F158" s="150">
         <f t="shared" si="9"/>
@@ -17104,10 +17116,10 @@
       </c>
     </row>
     <row r="159" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A159" s="237"/>
+      <c r="A159" s="236"/>
       <c r="B159" s="128"/>
       <c r="C159" s="21"/>
-      <c r="D159" s="215"/>
+      <c r="D159" s="214"/>
       <c r="E159" s="129"/>
       <c r="F159" s="150">
         <f t="shared" si="9"/>
@@ -17124,10 +17136,10 @@
       </c>
     </row>
     <row r="160" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A160" s="237"/>
+      <c r="A160" s="236"/>
       <c r="B160" s="128"/>
       <c r="C160" s="21"/>
-      <c r="D160" s="215"/>
+      <c r="D160" s="214"/>
       <c r="E160" s="129"/>
       <c r="F160" s="150">
         <f t="shared" si="9"/>
@@ -17144,10 +17156,10 @@
       </c>
     </row>
     <row r="161" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A161" s="237"/>
+      <c r="A161" s="236"/>
       <c r="B161" s="128"/>
       <c r="C161" s="21"/>
-      <c r="D161" s="215"/>
+      <c r="D161" s="214"/>
       <c r="E161" s="129"/>
       <c r="F161" s="150">
         <f t="shared" si="9"/>
@@ -17164,10 +17176,10 @@
       </c>
     </row>
     <row r="162" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A162" s="237"/>
+      <c r="A162" s="236"/>
       <c r="B162" s="128"/>
       <c r="C162" s="21"/>
-      <c r="D162" s="215"/>
+      <c r="D162" s="214"/>
       <c r="E162" s="129"/>
       <c r="F162" s="150">
         <f t="shared" si="9"/>
@@ -17184,10 +17196,10 @@
       </c>
     </row>
     <row r="163" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A163" s="237"/>
+      <c r="A163" s="236"/>
       <c r="B163" s="128"/>
       <c r="C163" s="21"/>
-      <c r="D163" s="215"/>
+      <c r="D163" s="214"/>
       <c r="E163" s="129"/>
       <c r="F163" s="150">
         <f t="shared" si="9"/>
@@ -17204,10 +17216,10 @@
       </c>
     </row>
     <row r="164" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A164" s="237"/>
+      <c r="A164" s="236"/>
       <c r="B164" s="128"/>
       <c r="C164" s="21"/>
-      <c r="D164" s="215"/>
+      <c r="D164" s="214"/>
       <c r="E164" s="129"/>
       <c r="F164" s="150">
         <f t="shared" si="9"/>
@@ -17224,10 +17236,10 @@
       </c>
     </row>
     <row r="165" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A165" s="237"/>
+      <c r="A165" s="236"/>
       <c r="B165" s="128"/>
       <c r="C165" s="21"/>
-      <c r="D165" s="215"/>
+      <c r="D165" s="214"/>
       <c r="E165" s="129"/>
       <c r="F165" s="150">
         <f t="shared" si="9"/>
@@ -17244,10 +17256,10 @@
       </c>
     </row>
     <row r="166" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A166" s="237"/>
+      <c r="A166" s="236"/>
       <c r="B166" s="128"/>
       <c r="C166" s="21"/>
-      <c r="D166" s="215"/>
+      <c r="D166" s="214"/>
       <c r="E166" s="129"/>
       <c r="F166" s="150">
         <f t="shared" si="9"/>
@@ -17264,10 +17276,10 @@
       </c>
     </row>
     <row r="167" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A167" s="237"/>
+      <c r="A167" s="236"/>
       <c r="B167" s="128"/>
       <c r="C167" s="21"/>
-      <c r="D167" s="215"/>
+      <c r="D167" s="214"/>
       <c r="E167" s="129"/>
       <c r="F167" s="150">
         <f t="shared" si="9"/>
@@ -17284,10 +17296,10 @@
       </c>
     </row>
     <row r="168" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A168" s="237"/>
+      <c r="A168" s="236"/>
       <c r="B168" s="128"/>
       <c r="C168" s="21"/>
-      <c r="D168" s="215"/>
+      <c r="D168" s="214"/>
       <c r="E168" s="129"/>
       <c r="F168" s="150">
         <f t="shared" si="9"/>
@@ -17304,10 +17316,10 @@
       </c>
     </row>
     <row r="169" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A169" s="237"/>
+      <c r="A169" s="236"/>
       <c r="B169" s="128"/>
       <c r="C169" s="21"/>
-      <c r="D169" s="215"/>
+      <c r="D169" s="214"/>
       <c r="E169" s="129"/>
       <c r="F169" s="150">
         <f t="shared" si="9"/>
@@ -17324,10 +17336,10 @@
       </c>
     </row>
     <row r="170" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A170" s="237"/>
+      <c r="A170" s="236"/>
       <c r="B170" s="128"/>
       <c r="C170" s="21"/>
-      <c r="D170" s="215"/>
+      <c r="D170" s="214"/>
       <c r="E170" s="129"/>
       <c r="F170" s="150">
         <f t="shared" si="9"/>
@@ -17345,10 +17357,10 @@
       <c r="N170" s="60"/>
     </row>
     <row r="171" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A171" s="237"/>
+      <c r="A171" s="236"/>
       <c r="B171" s="128"/>
       <c r="C171" s="21"/>
-      <c r="D171" s="215"/>
+      <c r="D171" s="214"/>
       <c r="E171" s="129"/>
       <c r="F171" s="150">
         <f t="shared" si="9"/>
@@ -17365,10 +17377,10 @@
       </c>
     </row>
     <row r="172" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A172" s="237"/>
+      <c r="A172" s="236"/>
       <c r="B172" s="128"/>
       <c r="C172" s="21"/>
-      <c r="D172" s="215"/>
+      <c r="D172" s="214"/>
       <c r="E172" s="129"/>
       <c r="F172" s="150">
         <f t="shared" ref="F172:F179" si="11">SUM(G172,H172)</f>
@@ -17385,10 +17397,10 @@
       </c>
     </row>
     <row r="173" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A173" s="237"/>
+      <c r="A173" s="236"/>
       <c r="B173" s="128"/>
       <c r="C173" s="21"/>
-      <c r="D173" s="215"/>
+      <c r="D173" s="214"/>
       <c r="E173" s="129"/>
       <c r="F173" s="150">
         <f t="shared" si="11"/>
@@ -17405,10 +17417,10 @@
       </c>
     </row>
     <row r="174" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A174" s="237"/>
+      <c r="A174" s="236"/>
       <c r="B174" s="128"/>
       <c r="C174" s="21"/>
-      <c r="D174" s="215"/>
+      <c r="D174" s="214"/>
       <c r="E174" s="129"/>
       <c r="F174" s="150">
         <f t="shared" si="11"/>
@@ -17425,10 +17437,10 @@
       </c>
     </row>
     <row r="175" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A175" s="237"/>
+      <c r="A175" s="236"/>
       <c r="B175" s="128"/>
       <c r="C175" s="21"/>
-      <c r="D175" s="215"/>
+      <c r="D175" s="214"/>
       <c r="E175" s="129"/>
       <c r="F175" s="150">
         <f t="shared" si="11"/>
@@ -17445,10 +17457,10 @@
       </c>
     </row>
     <row r="176" spans="1:14" s="20" customFormat="1" ht="13.15" customHeight="1">
-      <c r="A176" s="237"/>
+      <c r="A176" s="236"/>
       <c r="B176" s="128"/>
       <c r="C176" s="21"/>
-      <c r="D176" s="215"/>
+      <c r="D176" s="214"/>
       <c r="E176" s="129"/>
       <c r="F176" s="150">
         <f t="shared" si="11"/>
@@ -17466,10 +17478,10 @@
       <c r="N176" s="60"/>
     </row>
     <row r="177" spans="1:14" s="20" customFormat="1" ht="13.15" customHeight="1">
-      <c r="A177" s="237"/>
+      <c r="A177" s="236"/>
       <c r="B177" s="128"/>
       <c r="C177" s="21"/>
-      <c r="D177" s="215"/>
+      <c r="D177" s="214"/>
       <c r="E177" s="129"/>
       <c r="F177" s="150">
         <f t="shared" si="11"/>
@@ -17487,10 +17499,10 @@
       <c r="N177" s="60"/>
     </row>
     <row r="178" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A178" s="237"/>
+      <c r="A178" s="236"/>
       <c r="B178" s="128"/>
       <c r="C178" s="21"/>
-      <c r="D178" s="215"/>
+      <c r="D178" s="214"/>
       <c r="E178" s="129"/>
       <c r="F178" s="150">
         <f t="shared" si="11"/>
@@ -17508,32 +17520,32 @@
       <c r="N178" s="60"/>
     </row>
     <row r="179" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A179" s="238"/>
-      <c r="B179" s="216"/>
-      <c r="C179" s="212"/>
-      <c r="D179" s="217"/>
-      <c r="E179" s="218"/>
-      <c r="F179" s="219">
+      <c r="A179" s="237"/>
+      <c r="B179" s="215"/>
+      <c r="C179" s="211"/>
+      <c r="D179" s="216"/>
+      <c r="E179" s="217"/>
+      <c r="F179" s="218">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G179" s="220"/>
-      <c r="H179" s="220"/>
-      <c r="I179" s="221"/>
-      <c r="J179" s="221"/>
-      <c r="K179" s="221"/>
-      <c r="L179" s="222">
+      <c r="G179" s="219"/>
+      <c r="H179" s="219"/>
+      <c r="I179" s="220"/>
+      <c r="J179" s="220"/>
+      <c r="K179" s="220"/>
+      <c r="L179" s="221">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A180" s="281" t="s">
+      <c r="A180" s="272" t="s">
         <v>386</v>
       </c>
-      <c r="B180" s="278"/>
-      <c r="C180" s="278"/>
-      <c r="D180" s="279"/>
+      <c r="B180" s="273"/>
+      <c r="C180" s="273"/>
+      <c r="D180" s="274"/>
       <c r="E180" s="80"/>
       <c r="F180" s="165">
         <f>SUM(F8:F179)</f>
@@ -17559,7 +17571,7 @@
       </c>
     </row>
     <row r="181" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A181" s="233"/>
+      <c r="A181" s="232"/>
       <c r="B181" s="23"/>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
@@ -17572,24 +17584,24 @@
       <c r="K181" s="24"/>
       <c r="L181" s="83"/>
     </row>
-    <row r="182" spans="1:14" s="197" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A182" s="271" t="s">
+    <row r="182" spans="1:14" s="196" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A182" s="281" t="s">
         <v>387</v>
       </c>
-      <c r="B182" s="265"/>
-      <c r="C182" s="265"/>
-      <c r="D182" s="265"/>
-      <c r="E182" s="265"/>
-      <c r="F182" s="265"/>
-      <c r="G182" s="265"/>
-      <c r="H182" s="265"/>
-      <c r="I182" s="265"/>
-      <c r="J182" s="265"/>
-      <c r="K182" s="265"/>
-      <c r="L182" s="265"/>
+      <c r="B182" s="276"/>
+      <c r="C182" s="276"/>
+      <c r="D182" s="276"/>
+      <c r="E182" s="276"/>
+      <c r="F182" s="276"/>
+      <c r="G182" s="276"/>
+      <c r="H182" s="276"/>
+      <c r="I182" s="276"/>
+      <c r="J182" s="276"/>
+      <c r="K182" s="276"/>
+      <c r="L182" s="276"/>
     </row>
     <row r="183" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A183" s="233"/>
+      <c r="A183" s="232"/>
       <c r="B183" s="23"/>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -17603,7 +17615,7 @@
       <c r="L183" s="83"/>
     </row>
     <row r="184" spans="1:14" s="19" customFormat="1" ht="42" customHeight="1">
-      <c r="A184" s="240" t="s">
+      <c r="A184" s="239" t="s">
         <v>388</v>
       </c>
       <c r="B184" s="144" t="s">
@@ -17630,19 +17642,19 @@
       <c r="I184" s="144" t="s">
         <v>395</v>
       </c>
-      <c r="J184" s="272" t="s">
+      <c r="J184" s="282" t="s">
         <v>396</v>
       </c>
-      <c r="K184" s="273"/>
-      <c r="L184" s="274"/>
+      <c r="K184" s="283"/>
+      <c r="L184" s="284"/>
     </row>
     <row r="185" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A185" s="227">
+      <c r="A185" s="226">
         <v>1</v>
       </c>
       <c r="B185" s="88"/>
       <c r="C185" s="88"/>
-      <c r="D185" s="180"/>
+      <c r="D185" s="320"/>
       <c r="E185" s="154">
         <f t="array" ref="E185">MIN(IF(($B$8:$B$180=B185)*($D$8:$D$180=D185), $E$8:$E$180))</f>
         <v>0</v>
@@ -17660,17 +17672,17 @@
         <v>0</v>
       </c>
       <c r="I185" s="176"/>
-      <c r="J185" s="268"/>
-      <c r="K185" s="269"/>
-      <c r="L185" s="269"/>
+      <c r="J185" s="270"/>
+      <c r="K185" s="271"/>
+      <c r="L185" s="271"/>
     </row>
     <row r="186" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A186" s="227">
+      <c r="A186" s="226">
         <v>1</v>
       </c>
       <c r="B186" s="88"/>
       <c r="C186" s="88"/>
-      <c r="D186" s="88"/>
+      <c r="D186" s="318"/>
       <c r="E186" s="154">
         <f t="array" ref="E186">MIN(IF(($B$8:$B$180=B186)*($D$8:$D$180=D186), $E$8:$E$180))</f>
         <v>0</v>
@@ -17688,20 +17700,20 @@
         <v>0</v>
       </c>
       <c r="I186" s="155">
-        <f t="shared" ref="I185:I202" si="15">SUMIFS($L$8:$L$180, $B$8:$B$180,B186,$D$8:$D$180,D186)</f>
-        <v>0</v>
-      </c>
-      <c r="J186" s="268"/>
-      <c r="K186" s="269"/>
-      <c r="L186" s="269"/>
+        <f t="shared" ref="I186:I202" si="15">SUMIFS($L$8:$L$180, $B$8:$B$180,B186,$D$8:$D$180,D186)</f>
+        <v>0</v>
+      </c>
+      <c r="J186" s="270"/>
+      <c r="K186" s="271"/>
+      <c r="L186" s="271"/>
     </row>
     <row r="187" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A187" s="227">
+      <c r="A187" s="226">
         <v>2</v>
       </c>
       <c r="B187" s="88"/>
       <c r="C187" s="88"/>
-      <c r="D187" s="88"/>
+      <c r="D187" s="318"/>
       <c r="E187" s="154">
         <f t="array" ref="E187">MIN(IF(($B$8:$B$180=B187)*($D$8:$D$180=D187), $E$8:$E$180))</f>
         <v>0</v>
@@ -17722,17 +17734,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J187" s="268"/>
-      <c r="K187" s="269"/>
-      <c r="L187" s="269"/>
+      <c r="J187" s="270"/>
+      <c r="K187" s="271"/>
+      <c r="L187" s="271"/>
     </row>
     <row r="188" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A188" s="227">
+      <c r="A188" s="226">
         <v>3</v>
       </c>
       <c r="B188" s="88"/>
       <c r="C188" s="88"/>
-      <c r="D188" s="88"/>
+      <c r="D188" s="318"/>
       <c r="E188" s="154">
         <f t="array" ref="E188">MIN(IF(($B$8:$B$180=B188)*($D$8:$D$180=D188), $E$8:$E$180))</f>
         <v>0</v>
@@ -17753,17 +17765,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J188" s="268"/>
-      <c r="K188" s="269"/>
-      <c r="L188" s="269"/>
+      <c r="J188" s="270"/>
+      <c r="K188" s="271"/>
+      <c r="L188" s="271"/>
     </row>
     <row r="189" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A189" s="227">
+      <c r="A189" s="226">
         <v>4</v>
       </c>
       <c r="B189" s="88"/>
       <c r="C189" s="88"/>
-      <c r="D189" s="88"/>
+      <c r="D189" s="318"/>
       <c r="E189" s="154">
         <f t="array" ref="E189">MIN(IF(($B$8:$B$180=B189)*($D$8:$D$180=D189), $E$8:$E$180))</f>
         <v>0</v>
@@ -17784,17 +17796,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J189" s="268"/>
-      <c r="K189" s="269"/>
-      <c r="L189" s="269"/>
+      <c r="J189" s="270"/>
+      <c r="K189" s="271"/>
+      <c r="L189" s="271"/>
     </row>
     <row r="190" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A190" s="227">
+      <c r="A190" s="226">
         <v>5</v>
       </c>
       <c r="B190" s="88"/>
       <c r="C190" s="88"/>
-      <c r="D190" s="88"/>
+      <c r="D190" s="318"/>
       <c r="E190" s="154">
         <f t="array" ref="E190">MIN(IF(($B$8:$B$180=B190)*($D$8:$D$180=D190), $E$8:$E$180))</f>
         <v>0</v>
@@ -17815,17 +17827,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J190" s="268"/>
-      <c r="K190" s="269"/>
-      <c r="L190" s="269"/>
+      <c r="J190" s="270"/>
+      <c r="K190" s="271"/>
+      <c r="L190" s="271"/>
     </row>
     <row r="191" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A191" s="227">
+      <c r="A191" s="226">
         <v>6</v>
       </c>
       <c r="B191" s="88"/>
       <c r="C191" s="88"/>
-      <c r="D191" s="88"/>
+      <c r="D191" s="318"/>
       <c r="E191" s="154">
         <f t="array" ref="E191">MIN(IF(($B$8:$B$180=B191)*($D$8:$D$180=D191), $E$8:$E$180))</f>
         <v>0</v>
@@ -17846,17 +17858,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J191" s="268"/>
-      <c r="K191" s="269"/>
-      <c r="L191" s="269"/>
+      <c r="J191" s="270"/>
+      <c r="K191" s="271"/>
+      <c r="L191" s="271"/>
     </row>
     <row r="192" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A192" s="227">
+      <c r="A192" s="226">
         <v>7</v>
       </c>
       <c r="B192" s="88"/>
       <c r="C192" s="88"/>
-      <c r="D192" s="88"/>
+      <c r="D192" s="318"/>
       <c r="E192" s="154">
         <f t="array" ref="E192">MIN(IF(($B$8:$B$180=B192)*($D$8:$D$180=D192), $E$8:$E$180))</f>
         <v>0</v>
@@ -17877,17 +17889,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J192" s="268"/>
-      <c r="K192" s="269"/>
-      <c r="L192" s="269"/>
+      <c r="J192" s="270"/>
+      <c r="K192" s="271"/>
+      <c r="L192" s="271"/>
     </row>
     <row r="193" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A193" s="227">
+      <c r="A193" s="226">
         <v>8</v>
       </c>
       <c r="B193" s="88"/>
       <c r="C193" s="88"/>
-      <c r="D193" s="88"/>
+      <c r="D193" s="318"/>
       <c r="E193" s="154">
         <f t="array" ref="E193">MIN(IF(($B$8:$B$180=B193)*($D$8:$D$180=D193), $E$8:$E$180))</f>
         <v>0</v>
@@ -17908,17 +17920,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J193" s="268"/>
-      <c r="K193" s="269"/>
-      <c r="L193" s="269"/>
+      <c r="J193" s="270"/>
+      <c r="K193" s="271"/>
+      <c r="L193" s="271"/>
     </row>
     <row r="194" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A194" s="227">
+      <c r="A194" s="226">
         <v>9</v>
       </c>
       <c r="B194" s="88"/>
       <c r="C194" s="88"/>
-      <c r="D194" s="88"/>
+      <c r="D194" s="318"/>
       <c r="E194" s="154">
         <f t="array" ref="E194">MIN(IF(($B$8:$B$180=B194)*($D$8:$D$180=D194), $E$8:$E$180))</f>
         <v>0</v>
@@ -17939,17 +17951,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J194" s="268"/>
-      <c r="K194" s="269"/>
-      <c r="L194" s="269"/>
+      <c r="J194" s="270"/>
+      <c r="K194" s="271"/>
+      <c r="L194" s="271"/>
     </row>
     <row r="195" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A195" s="227">
+      <c r="A195" s="226">
         <v>10</v>
       </c>
       <c r="B195" s="88"/>
       <c r="C195" s="88"/>
-      <c r="D195" s="88"/>
+      <c r="D195" s="318"/>
       <c r="E195" s="154">
         <f t="array" ref="E195">MIN(IF(($B$8:$B$180=B195)*($D$8:$D$180=D195), $E$8:$E$180))</f>
         <v>0</v>
@@ -17970,17 +17982,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J195" s="268"/>
-      <c r="K195" s="269"/>
-      <c r="L195" s="269"/>
+      <c r="J195" s="270"/>
+      <c r="K195" s="271"/>
+      <c r="L195" s="271"/>
     </row>
     <row r="196" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A196" s="227">
+      <c r="A196" s="226">
         <v>11</v>
       </c>
       <c r="B196" s="88"/>
       <c r="C196" s="88"/>
-      <c r="D196" s="88"/>
+      <c r="D196" s="318"/>
       <c r="E196" s="154">
         <f t="array" ref="E196">MIN(IF(($B$8:$B$180=B196)*($D$8:$D$180=D196), $E$8:$E$180))</f>
         <v>0</v>
@@ -18001,17 +18013,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J196" s="268"/>
-      <c r="K196" s="269"/>
-      <c r="L196" s="269"/>
+      <c r="J196" s="270"/>
+      <c r="K196" s="271"/>
+      <c r="L196" s="271"/>
     </row>
     <row r="197" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A197" s="227">
+      <c r="A197" s="226">
         <v>12</v>
       </c>
       <c r="B197" s="88"/>
       <c r="C197" s="88"/>
-      <c r="D197" s="88"/>
+      <c r="D197" s="318"/>
       <c r="E197" s="154">
         <f t="array" ref="E197">MIN(IF(($B$8:$B$180=B197)*($D$8:$D$180=D197), $E$8:$E$180))</f>
         <v>0</v>
@@ -18032,17 +18044,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J197" s="268"/>
-      <c r="K197" s="269"/>
-      <c r="L197" s="269"/>
+      <c r="J197" s="270"/>
+      <c r="K197" s="271"/>
+      <c r="L197" s="271"/>
     </row>
     <row r="198" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A198" s="227">
+      <c r="A198" s="226">
         <v>13</v>
       </c>
       <c r="B198" s="88"/>
       <c r="C198" s="88"/>
-      <c r="D198" s="88"/>
+      <c r="D198" s="318"/>
       <c r="E198" s="154">
         <f t="array" ref="E198">MIN(IF(($B$8:$B$180=B198)*($D$8:$D$180=D198), $E$8:$E$180))</f>
         <v>0</v>
@@ -18063,17 +18075,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J198" s="268"/>
-      <c r="K198" s="269"/>
-      <c r="L198" s="269"/>
+      <c r="J198" s="270"/>
+      <c r="K198" s="271"/>
+      <c r="L198" s="271"/>
     </row>
     <row r="199" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A199" s="227">
+      <c r="A199" s="226">
         <v>14</v>
       </c>
       <c r="B199" s="88"/>
       <c r="C199" s="88"/>
-      <c r="D199" s="88"/>
+      <c r="D199" s="318"/>
       <c r="E199" s="154">
         <f t="array" ref="E199">MIN(IF(($B$8:$B$180=B199)*($D$8:$D$180=D199), $E$8:$E$180))</f>
         <v>0</v>
@@ -18094,17 +18106,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J199" s="268"/>
-      <c r="K199" s="269"/>
-      <c r="L199" s="269"/>
+      <c r="J199" s="270"/>
+      <c r="K199" s="271"/>
+      <c r="L199" s="271"/>
     </row>
     <row r="200" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A200" s="227">
+      <c r="A200" s="226">
         <v>15</v>
       </c>
       <c r="B200" s="88"/>
       <c r="C200" s="88"/>
-      <c r="D200" s="88"/>
+      <c r="D200" s="318"/>
       <c r="E200" s="154">
         <f t="array" ref="E200">MIN(IF(($B$8:$B$180=B200)*($D$8:$D$180=D200), $E$8:$E$180))</f>
         <v>0</v>
@@ -18125,17 +18137,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J200" s="268"/>
-      <c r="K200" s="269"/>
-      <c r="L200" s="269"/>
+      <c r="J200" s="270"/>
+      <c r="K200" s="271"/>
+      <c r="L200" s="271"/>
     </row>
     <row r="201" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A201" s="227">
+      <c r="A201" s="226">
         <v>16</v>
       </c>
       <c r="B201" s="88"/>
       <c r="C201" s="88"/>
-      <c r="D201" s="88"/>
+      <c r="D201" s="318"/>
       <c r="E201" s="154">
         <f t="array" ref="E201">MIN(IF(($B$8:$B$180=B201)*($D$8:$D$180=D201), $E$8:$E$180))</f>
         <v>0</v>
@@ -18156,48 +18168,48 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J201" s="268"/>
-      <c r="K201" s="269"/>
-      <c r="L201" s="269"/>
+      <c r="J201" s="270"/>
+      <c r="K201" s="271"/>
+      <c r="L201" s="271"/>
     </row>
     <row r="202" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A202" s="228">
+      <c r="A202" s="227">
         <v>17</v>
       </c>
       <c r="B202" s="147"/>
       <c r="C202" s="147"/>
-      <c r="D202" s="147"/>
-      <c r="E202" s="223">
+      <c r="D202" s="319"/>
+      <c r="E202" s="222">
         <f t="array" ref="E202">MIN(IF(($B$8:$B$180=B202)*($D$8:$D$180=D202), $E$8:$E$180))</f>
         <v>0</v>
       </c>
-      <c r="F202" s="224">
+      <c r="F202" s="223">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G202" s="224">
+      <c r="G202" s="223">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H202" s="224">
+      <c r="H202" s="223">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I202" s="224">
+      <c r="I202" s="223">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J202" s="266"/>
-      <c r="K202" s="267"/>
-      <c r="L202" s="267"/>
+      <c r="J202" s="278"/>
+      <c r="K202" s="279"/>
+      <c r="L202" s="279"/>
     </row>
     <row r="203" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A203" s="280" t="s">
+      <c r="A203" s="288" t="s">
         <v>397</v>
       </c>
-      <c r="B203" s="278"/>
-      <c r="C203" s="278"/>
-      <c r="D203" s="279"/>
+      <c r="B203" s="273"/>
+      <c r="C203" s="273"/>
+      <c r="D203" s="274"/>
       <c r="E203" s="172"/>
       <c r="F203" s="159">
         <f>SUM(F185:F202)</f>
@@ -18211,16 +18223,16 @@
         <f>SUM(H185:H202)</f>
         <v>0</v>
       </c>
-      <c r="I203" s="298">
+      <c r="I203" s="243">
         <f>SUM(I185:I202)</f>
         <v>0</v>
       </c>
-      <c r="J203" s="277"/>
-      <c r="K203" s="278"/>
-      <c r="L203" s="279"/>
+      <c r="J203" s="287"/>
+      <c r="K203" s="273"/>
+      <c r="L203" s="274"/>
     </row>
     <row r="204" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A204" s="233"/>
+      <c r="A204" s="232"/>
       <c r="B204" s="23"/>
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
@@ -18234,22 +18246,22 @@
       <c r="L204" s="83"/>
     </row>
     <row r="205" spans="1:14" s="57" customFormat="1" ht="39" customHeight="1">
-      <c r="A205" s="241" t="s">
+      <c r="A205" s="240" t="s">
         <v>398</v>
       </c>
-      <c r="B205" s="275" t="s">
+      <c r="B205" s="285" t="s">
         <v>399</v>
       </c>
-      <c r="C205" s="276"/>
-      <c r="D205" s="276"/>
-      <c r="E205" s="276"/>
-      <c r="F205" s="276"/>
-      <c r="G205" s="276"/>
-      <c r="H205" s="276"/>
-      <c r="I205" s="276"/>
-      <c r="J205" s="276"/>
-      <c r="K205" s="276"/>
-      <c r="L205" s="276"/>
+      <c r="C205" s="286"/>
+      <c r="D205" s="286"/>
+      <c r="E205" s="286"/>
+      <c r="F205" s="286"/>
+      <c r="G205" s="286"/>
+      <c r="H205" s="286"/>
+      <c r="I205" s="286"/>
+      <c r="J205" s="286"/>
+      <c r="K205" s="286"/>
+      <c r="L205" s="286"/>
       <c r="N205" s="58"/>
     </row>
     <row r="206" spans="1:14" ht="15" customHeight="1">
@@ -18258,7 +18270,7 @@
       </c>
     </row>
     <row r="207" spans="1:14" s="25" customFormat="1" ht="15" customHeight="1">
-      <c r="A207" s="235"/>
+      <c r="A207" s="234"/>
       <c r="B207" s="26" t="s">
         <v>401</v>
       </c>
@@ -18287,23 +18299,12 @@
     <row r="211" spans="4:12" ht="15" customHeight="1">
       <c r="D211" s="27"/>
       <c r="E211" s="81"/>
-      <c r="J211" s="264"/>
-      <c r="K211" s="265"/>
-      <c r="L211" s="265"/>
+      <c r="J211" s="277"/>
+      <c r="K211" s="276"/>
+      <c r="L211" s="276"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="J201:L201"/>
-    <mergeCell ref="J192:L192"/>
-    <mergeCell ref="J198:L198"/>
-    <mergeCell ref="J189:L189"/>
-    <mergeCell ref="J185:L185"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J191:L191"/>
-    <mergeCell ref="J187:L187"/>
-    <mergeCell ref="J196:L196"/>
-    <mergeCell ref="J193:L193"/>
     <mergeCell ref="J211:L211"/>
     <mergeCell ref="J202:L202"/>
     <mergeCell ref="J195:L195"/>
@@ -18320,6 +18321,17 @@
     <mergeCell ref="J200:L200"/>
     <mergeCell ref="A203:D203"/>
     <mergeCell ref="J197:L197"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J191:L191"/>
+    <mergeCell ref="J187:L187"/>
+    <mergeCell ref="J196:L196"/>
+    <mergeCell ref="J193:L193"/>
+    <mergeCell ref="J201:L201"/>
+    <mergeCell ref="J192:L192"/>
+    <mergeCell ref="J198:L198"/>
+    <mergeCell ref="J189:L189"/>
+    <mergeCell ref="J185:L185"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -18341,13 +18353,13 @@
   </sheetPr>
   <dimension ref="A1:M244"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A204" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D211" sqref="D211:K211"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A168" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185:D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="235" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="234" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="10" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="10" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" style="65" customWidth="1"/>
@@ -18366,21 +18378,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.600000000000001" customHeight="1">
       <c r="B1" s="9"/>
-      <c r="D1" s="270" t="s">
+      <c r="D1" s="280" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="276"/>
+      <c r="K1" s="276"/>
+      <c r="L1" s="276"/>
     </row>
     <row r="2" spans="1:12">
       <c r="B2" s="11"/>
-      <c r="D2" s="312" t="s">
+      <c r="D2" s="244" t="s">
         <v>365</v>
       </c>
       <c r="E2" s="72">
@@ -18399,7 +18411,7 @@
       <c r="B4" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="207" t="s">
         <v>367</v>
       </c>
       <c r="D4" s="12"/>
@@ -18411,15 +18423,15 @@
         <v>369</v>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="265"/>
-      <c r="L4" s="265"/>
+      <c r="J4" s="275"/>
+      <c r="K4" s="276"/>
+      <c r="L4" s="276"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="B5" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C5" s="196" t="s">
+      <c r="C5" s="195" t="s">
         <v>371</v>
       </c>
       <c r="D5" s="14"/>
@@ -18436,7 +18448,7 @@
       <c r="L5" s="85"/>
     </row>
     <row r="6" spans="1:12" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="239"/>
+      <c r="A6" s="238"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="66"/>
@@ -18450,7 +18462,7 @@
       <c r="L6" s="86"/>
     </row>
     <row r="7" spans="1:12" s="19" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A7" s="229" t="s">
+      <c r="A7" s="228" t="s">
         <v>374</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -18488,10 +18500,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A8" s="237"/>
+      <c r="A8" s="236"/>
       <c r="B8" s="128"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="213"/>
+      <c r="D8" s="212"/>
       <c r="E8" s="129"/>
       <c r="F8" s="150">
         <f t="shared" ref="F8:F72" si="0">SUM(G8,H8)</f>
@@ -18508,10 +18520,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A9" s="237"/>
+      <c r="A9" s="236"/>
       <c r="B9" s="128"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="213"/>
+      <c r="D9" s="212"/>
       <c r="E9" s="129"/>
       <c r="F9" s="150">
         <f t="shared" si="0"/>
@@ -18528,10 +18540,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A10" s="230"/>
+      <c r="A10" s="229"/>
       <c r="B10" s="128"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="213"/>
+      <c r="D10" s="212"/>
       <c r="E10" s="129"/>
       <c r="F10" s="150">
         <f t="shared" si="0"/>
@@ -18548,10 +18560,10 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A11" s="230"/>
+      <c r="A11" s="229"/>
       <c r="B11" s="128"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="213"/>
+      <c r="D11" s="212"/>
       <c r="E11" s="129"/>
       <c r="F11" s="150">
         <f t="shared" si="0"/>
@@ -18568,10 +18580,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A12" s="230"/>
+      <c r="A12" s="229"/>
       <c r="B12" s="128"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="213"/>
+      <c r="D12" s="212"/>
       <c r="E12" s="129"/>
       <c r="F12" s="150">
         <f t="shared" si="0"/>
@@ -18588,10 +18600,10 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A13" s="237"/>
+      <c r="A13" s="236"/>
       <c r="B13" s="128"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="213"/>
+      <c r="D13" s="212"/>
       <c r="E13" s="129"/>
       <c r="F13" s="150">
         <f t="shared" si="0"/>
@@ -18608,10 +18620,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A14" s="237"/>
+      <c r="A14" s="236"/>
       <c r="B14" s="128"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="213"/>
+      <c r="D14" s="212"/>
       <c r="E14" s="129"/>
       <c r="F14" s="150">
         <f t="shared" si="0"/>
@@ -18628,10 +18640,10 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A15" s="230"/>
+      <c r="A15" s="229"/>
       <c r="B15" s="128"/>
       <c r="C15" s="21"/>
-      <c r="D15" s="213"/>
+      <c r="D15" s="212"/>
       <c r="E15" s="129"/>
       <c r="F15" s="150">
         <f t="shared" si="0"/>
@@ -18648,10 +18660,10 @@
       </c>
     </row>
     <row r="16" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A16" s="230"/>
+      <c r="A16" s="229"/>
       <c r="B16" s="128"/>
       <c r="C16" s="21"/>
-      <c r="D16" s="213"/>
+      <c r="D16" s="212"/>
       <c r="E16" s="129"/>
       <c r="F16" s="150">
         <f t="shared" si="0"/>
@@ -18668,10 +18680,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A17" s="230"/>
+      <c r="A17" s="229"/>
       <c r="B17" s="128"/>
       <c r="C17" s="21"/>
-      <c r="D17" s="213"/>
+      <c r="D17" s="212"/>
       <c r="E17" s="129"/>
       <c r="F17" s="150">
         <f t="shared" si="0"/>
@@ -18688,10 +18700,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A18" s="237"/>
+      <c r="A18" s="236"/>
       <c r="B18" s="128"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="213"/>
+      <c r="D18" s="212"/>
       <c r="E18" s="129"/>
       <c r="F18" s="150">
         <f t="shared" si="0"/>
@@ -18708,10 +18720,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A19" s="237"/>
+      <c r="A19" s="236"/>
       <c r="B19" s="128"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="213"/>
+      <c r="D19" s="212"/>
       <c r="E19" s="129"/>
       <c r="F19" s="150">
         <f t="shared" si="0"/>
@@ -18728,10 +18740,10 @@
       </c>
     </row>
     <row r="20" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A20" s="237"/>
+      <c r="A20" s="236"/>
       <c r="B20" s="128"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="213"/>
+      <c r="D20" s="212"/>
       <c r="E20" s="129"/>
       <c r="F20" s="150">
         <f t="shared" si="0"/>
@@ -18748,10 +18760,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A21" s="237"/>
+      <c r="A21" s="236"/>
       <c r="B21" s="128"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="213"/>
+      <c r="D21" s="212"/>
       <c r="E21" s="129"/>
       <c r="F21" s="150">
         <f t="shared" si="0"/>
@@ -18768,10 +18780,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A22" s="237"/>
+      <c r="A22" s="236"/>
       <c r="B22" s="128"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="213"/>
+      <c r="D22" s="212"/>
       <c r="E22" s="129"/>
       <c r="F22" s="150">
         <f t="shared" si="0"/>
@@ -18788,10 +18800,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A23" s="237"/>
+      <c r="A23" s="236"/>
       <c r="B23" s="128"/>
       <c r="C23" s="21"/>
-      <c r="D23" s="213"/>
+      <c r="D23" s="212"/>
       <c r="E23" s="129"/>
       <c r="F23" s="150">
         <f t="shared" si="0"/>
@@ -18808,10 +18820,10 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A24" s="237"/>
+      <c r="A24" s="236"/>
       <c r="B24" s="128"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="213"/>
+      <c r="D24" s="212"/>
       <c r="E24" s="129"/>
       <c r="F24" s="150">
         <f t="shared" si="0"/>
@@ -18828,10 +18840,10 @@
       </c>
     </row>
     <row r="25" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A25" s="237"/>
+      <c r="A25" s="236"/>
       <c r="B25" s="128"/>
       <c r="C25" s="21"/>
-      <c r="D25" s="213"/>
+      <c r="D25" s="212"/>
       <c r="E25" s="129"/>
       <c r="F25" s="150">
         <f t="shared" si="0"/>
@@ -18848,10 +18860,10 @@
       </c>
     </row>
     <row r="26" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A26" s="237"/>
+      <c r="A26" s="236"/>
       <c r="B26" s="128"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="213"/>
+      <c r="D26" s="212"/>
       <c r="E26" s="129"/>
       <c r="F26" s="150">
         <f t="shared" si="0"/>
@@ -18868,10 +18880,10 @@
       </c>
     </row>
     <row r="27" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A27" s="237"/>
+      <c r="A27" s="236"/>
       <c r="B27" s="128"/>
       <c r="C27" s="21"/>
-      <c r="D27" s="213"/>
+      <c r="D27" s="212"/>
       <c r="E27" s="129"/>
       <c r="F27" s="150">
         <f t="shared" si="0"/>
@@ -18888,10 +18900,10 @@
       </c>
     </row>
     <row r="28" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A28" s="230"/>
+      <c r="A28" s="229"/>
       <c r="B28" s="128"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="213"/>
+      <c r="D28" s="212"/>
       <c r="E28" s="129"/>
       <c r="F28" s="150">
         <f t="shared" si="0"/>
@@ -18908,10 +18920,10 @@
       </c>
     </row>
     <row r="29" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A29" s="230"/>
+      <c r="A29" s="229"/>
       <c r="B29" s="128"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="213"/>
+      <c r="D29" s="212"/>
       <c r="E29" s="129"/>
       <c r="F29" s="150">
         <f t="shared" si="0"/>
@@ -18928,10 +18940,10 @@
       </c>
     </row>
     <row r="30" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A30" s="231"/>
+      <c r="A30" s="230"/>
       <c r="B30" s="128"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="213"/>
+      <c r="D30" s="212"/>
       <c r="E30" s="129"/>
       <c r="F30" s="150">
         <f t="shared" si="0"/>
@@ -18948,10 +18960,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A31" s="230"/>
+      <c r="A31" s="229"/>
       <c r="B31" s="128"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="213"/>
+      <c r="D31" s="212"/>
       <c r="E31" s="129"/>
       <c r="F31" s="150">
         <f t="shared" si="0"/>
@@ -18968,10 +18980,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A32" s="230"/>
+      <c r="A32" s="229"/>
       <c r="B32" s="128"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="213"/>
+      <c r="D32" s="212"/>
       <c r="E32" s="129"/>
       <c r="F32" s="150">
         <f t="shared" si="0"/>
@@ -18988,10 +19000,10 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A33" s="237"/>
+      <c r="A33" s="236"/>
       <c r="B33" s="128"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="213"/>
+      <c r="D33" s="212"/>
       <c r="E33" s="129"/>
       <c r="F33" s="150">
         <f t="shared" si="0"/>
@@ -19008,10 +19020,10 @@
       </c>
     </row>
     <row r="34" spans="1:12" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A34" s="237"/>
+      <c r="A34" s="236"/>
       <c r="B34" s="128"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="213"/>
+      <c r="D34" s="212"/>
       <c r="E34" s="129"/>
       <c r="F34" s="150">
         <f t="shared" si="0"/>
@@ -19028,10 +19040,10 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A35" s="237"/>
+      <c r="A35" s="236"/>
       <c r="B35" s="128"/>
       <c r="C35" s="21"/>
-      <c r="D35" s="213"/>
+      <c r="D35" s="212"/>
       <c r="E35" s="129"/>
       <c r="F35" s="150">
         <f t="shared" si="0"/>
@@ -19048,10 +19060,10 @@
       </c>
     </row>
     <row r="36" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A36" s="230"/>
+      <c r="A36" s="229"/>
       <c r="B36" s="128"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="213"/>
+      <c r="D36" s="212"/>
       <c r="E36" s="129"/>
       <c r="F36" s="150">
         <f t="shared" si="0"/>
@@ -19068,10 +19080,10 @@
       </c>
     </row>
     <row r="37" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A37" s="230"/>
+      <c r="A37" s="229"/>
       <c r="B37" s="128"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="213"/>
+      <c r="D37" s="212"/>
       <c r="E37" s="129"/>
       <c r="F37" s="150">
         <f t="shared" si="0"/>
@@ -19088,10 +19100,10 @@
       </c>
     </row>
     <row r="38" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A38" s="230"/>
+      <c r="A38" s="229"/>
       <c r="B38" s="128"/>
       <c r="C38" s="21"/>
-      <c r="D38" s="213"/>
+      <c r="D38" s="212"/>
       <c r="E38" s="129"/>
       <c r="F38" s="150">
         <f t="shared" si="0"/>
@@ -19108,10 +19120,10 @@
       </c>
     </row>
     <row r="39" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A39" s="230"/>
+      <c r="A39" s="229"/>
       <c r="B39" s="128"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="213"/>
+      <c r="D39" s="212"/>
       <c r="E39" s="129"/>
       <c r="F39" s="150">
         <f t="shared" si="0"/>
@@ -19128,10 +19140,10 @@
       </c>
     </row>
     <row r="40" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A40" s="231"/>
+      <c r="A40" s="230"/>
       <c r="B40" s="128"/>
       <c r="C40" s="21"/>
-      <c r="D40" s="213"/>
+      <c r="D40" s="212"/>
       <c r="E40" s="129"/>
       <c r="F40" s="150">
         <f t="shared" si="0"/>
@@ -19148,10 +19160,10 @@
       </c>
     </row>
     <row r="41" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A41" s="230"/>
+      <c r="A41" s="229"/>
       <c r="B41" s="128"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="213"/>
+      <c r="D41" s="212"/>
       <c r="E41" s="129"/>
       <c r="F41" s="150">
         <f t="shared" si="0"/>
@@ -19168,10 +19180,10 @@
       </c>
     </row>
     <row r="42" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A42" s="230"/>
+      <c r="A42" s="229"/>
       <c r="B42" s="128"/>
       <c r="C42" s="21"/>
-      <c r="D42" s="213"/>
+      <c r="D42" s="212"/>
       <c r="E42" s="129"/>
       <c r="F42" s="150">
         <f t="shared" si="0"/>
@@ -19188,10 +19200,10 @@
       </c>
     </row>
     <row r="43" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A43" s="230"/>
+      <c r="A43" s="229"/>
       <c r="B43" s="128"/>
       <c r="C43" s="21"/>
-      <c r="D43" s="213"/>
+      <c r="D43" s="212"/>
       <c r="E43" s="129"/>
       <c r="F43" s="150">
         <f t="shared" si="0"/>
@@ -19208,10 +19220,10 @@
       </c>
     </row>
     <row r="44" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A44" s="230"/>
+      <c r="A44" s="229"/>
       <c r="B44" s="128"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="213"/>
+      <c r="D44" s="212"/>
       <c r="E44" s="129"/>
       <c r="F44" s="150">
         <f t="shared" si="0"/>
@@ -19228,10 +19240,10 @@
       </c>
     </row>
     <row r="45" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A45" s="230"/>
+      <c r="A45" s="229"/>
       <c r="B45" s="128"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="213"/>
+      <c r="D45" s="212"/>
       <c r="E45" s="129"/>
       <c r="F45" s="150">
         <f t="shared" si="0"/>
@@ -19248,10 +19260,10 @@
       </c>
     </row>
     <row r="46" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A46" s="230"/>
+      <c r="A46" s="229"/>
       <c r="B46" s="128"/>
       <c r="C46" s="21"/>
-      <c r="D46" s="213"/>
+      <c r="D46" s="212"/>
       <c r="E46" s="129"/>
       <c r="F46" s="150">
         <f t="shared" si="0"/>
@@ -19268,10 +19280,10 @@
       </c>
     </row>
     <row r="47" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A47" s="230"/>
+      <c r="A47" s="229"/>
       <c r="B47" s="128"/>
       <c r="C47" s="21"/>
-      <c r="D47" s="213"/>
+      <c r="D47" s="212"/>
       <c r="E47" s="129"/>
       <c r="F47" s="150">
         <f t="shared" si="0"/>
@@ -19288,10 +19300,10 @@
       </c>
     </row>
     <row r="48" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A48" s="230"/>
+      <c r="A48" s="229"/>
       <c r="B48" s="128"/>
       <c r="C48" s="21"/>
-      <c r="D48" s="213"/>
+      <c r="D48" s="212"/>
       <c r="E48" s="129"/>
       <c r="F48" s="150">
         <f t="shared" si="0"/>
@@ -19308,10 +19320,10 @@
       </c>
     </row>
     <row r="49" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A49" s="230"/>
+      <c r="A49" s="229"/>
       <c r="B49" s="128"/>
       <c r="C49" s="21"/>
-      <c r="D49" s="213"/>
+      <c r="D49" s="212"/>
       <c r="E49" s="129"/>
       <c r="F49" s="150">
         <f t="shared" si="0"/>
@@ -19328,10 +19340,10 @@
       </c>
     </row>
     <row r="50" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A50" s="230"/>
+      <c r="A50" s="229"/>
       <c r="B50" s="128"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="213"/>
+      <c r="D50" s="212"/>
       <c r="E50" s="129"/>
       <c r="F50" s="150">
         <f t="shared" si="0"/>
@@ -19348,10 +19360,10 @@
       </c>
     </row>
     <row r="51" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A51" s="231"/>
+      <c r="A51" s="230"/>
       <c r="B51" s="128"/>
       <c r="C51" s="21"/>
-      <c r="D51" s="213"/>
+      <c r="D51" s="212"/>
       <c r="E51" s="129"/>
       <c r="F51" s="150">
         <f t="shared" si="0"/>
@@ -19368,10 +19380,10 @@
       </c>
     </row>
     <row r="52" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A52" s="231"/>
+      <c r="A52" s="230"/>
       <c r="B52" s="128"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="213"/>
+      <c r="D52" s="212"/>
       <c r="E52" s="129"/>
       <c r="F52" s="150">
         <f t="shared" si="0"/>
@@ -19388,10 +19400,10 @@
       </c>
     </row>
     <row r="53" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A53" s="230"/>
+      <c r="A53" s="229"/>
       <c r="B53" s="128"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="213"/>
+      <c r="D53" s="212"/>
       <c r="E53" s="129"/>
       <c r="F53" s="150">
         <f t="shared" si="0"/>
@@ -19408,10 +19420,10 @@
       </c>
     </row>
     <row r="54" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A54" s="230"/>
+      <c r="A54" s="229"/>
       <c r="B54" s="128"/>
       <c r="C54" s="21"/>
-      <c r="D54" s="213"/>
+      <c r="D54" s="212"/>
       <c r="E54" s="129"/>
       <c r="F54" s="150">
         <f t="shared" si="0"/>
@@ -19428,10 +19440,10 @@
       </c>
     </row>
     <row r="55" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A55" s="230"/>
+      <c r="A55" s="229"/>
       <c r="B55" s="128"/>
       <c r="C55" s="21"/>
-      <c r="D55" s="213"/>
+      <c r="D55" s="212"/>
       <c r="E55" s="129"/>
       <c r="F55" s="150">
         <f t="shared" si="0"/>
@@ -19448,10 +19460,10 @@
       </c>
     </row>
     <row r="56" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A56" s="230"/>
+      <c r="A56" s="229"/>
       <c r="B56" s="128"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="213"/>
+      <c r="D56" s="212"/>
       <c r="E56" s="129"/>
       <c r="F56" s="150">
         <f t="shared" si="0"/>
@@ -19468,10 +19480,10 @@
       </c>
     </row>
     <row r="57" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A57" s="230"/>
+      <c r="A57" s="229"/>
       <c r="B57" s="128"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="213"/>
+      <c r="D57" s="212"/>
       <c r="E57" s="129"/>
       <c r="F57" s="150">
         <f t="shared" si="0"/>
@@ -19488,10 +19500,10 @@
       </c>
     </row>
     <row r="58" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A58" s="237"/>
+      <c r="A58" s="236"/>
       <c r="B58" s="128"/>
       <c r="C58" s="21"/>
-      <c r="D58" s="213"/>
+      <c r="D58" s="212"/>
       <c r="E58" s="129"/>
       <c r="F58" s="150">
         <f t="shared" si="0"/>
@@ -19508,10 +19520,10 @@
       </c>
     </row>
     <row r="59" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A59" s="237"/>
+      <c r="A59" s="236"/>
       <c r="B59" s="128"/>
       <c r="C59" s="21"/>
-      <c r="D59" s="213"/>
+      <c r="D59" s="212"/>
       <c r="E59" s="129"/>
       <c r="F59" s="150">
         <f t="shared" si="0"/>
@@ -19528,10 +19540,10 @@
       </c>
     </row>
     <row r="60" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A60" s="237"/>
+      <c r="A60" s="236"/>
       <c r="B60" s="128"/>
       <c r="C60" s="21"/>
-      <c r="D60" s="213"/>
+      <c r="D60" s="212"/>
       <c r="E60" s="129"/>
       <c r="F60" s="150">
         <f t="shared" si="0"/>
@@ -19548,10 +19560,10 @@
       </c>
     </row>
     <row r="61" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A61" s="230"/>
+      <c r="A61" s="229"/>
       <c r="B61" s="128"/>
       <c r="C61" s="21"/>
-      <c r="D61" s="213"/>
+      <c r="D61" s="212"/>
       <c r="E61" s="129"/>
       <c r="F61" s="150">
         <f t="shared" si="0"/>
@@ -19568,10 +19580,10 @@
       </c>
     </row>
     <row r="62" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A62" s="230"/>
+      <c r="A62" s="229"/>
       <c r="B62" s="128"/>
       <c r="C62" s="21"/>
-      <c r="D62" s="213"/>
+      <c r="D62" s="212"/>
       <c r="E62" s="129"/>
       <c r="F62" s="150">
         <f t="shared" si="0"/>
@@ -19588,10 +19600,10 @@
       </c>
     </row>
     <row r="63" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A63" s="230"/>
+      <c r="A63" s="229"/>
       <c r="B63" s="128"/>
       <c r="C63" s="21"/>
-      <c r="D63" s="213"/>
+      <c r="D63" s="212"/>
       <c r="E63" s="129"/>
       <c r="F63" s="150">
         <f t="shared" si="0"/>
@@ -19608,10 +19620,10 @@
       </c>
     </row>
     <row r="64" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A64" s="230"/>
+      <c r="A64" s="229"/>
       <c r="B64" s="128"/>
       <c r="C64" s="21"/>
-      <c r="D64" s="213"/>
+      <c r="D64" s="212"/>
       <c r="E64" s="129"/>
       <c r="F64" s="150">
         <f t="shared" si="0"/>
@@ -19628,10 +19640,10 @@
       </c>
     </row>
     <row r="65" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A65" s="230"/>
+      <c r="A65" s="229"/>
       <c r="B65" s="128"/>
       <c r="C65" s="21"/>
-      <c r="D65" s="213"/>
+      <c r="D65" s="212"/>
       <c r="E65" s="129"/>
       <c r="F65" s="150">
         <f t="shared" si="0"/>
@@ -19648,10 +19660,10 @@
       </c>
     </row>
     <row r="66" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A66" s="230"/>
+      <c r="A66" s="229"/>
       <c r="B66" s="128"/>
       <c r="C66" s="21"/>
-      <c r="D66" s="213"/>
+      <c r="D66" s="212"/>
       <c r="E66" s="129"/>
       <c r="F66" s="150">
         <f t="shared" si="0"/>
@@ -19668,10 +19680,10 @@
       </c>
     </row>
     <row r="67" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A67" s="230"/>
+      <c r="A67" s="229"/>
       <c r="B67" s="128"/>
       <c r="C67" s="21"/>
-      <c r="D67" s="213"/>
+      <c r="D67" s="212"/>
       <c r="E67" s="129"/>
       <c r="F67" s="150">
         <f t="shared" si="0"/>
@@ -19688,10 +19700,10 @@
       </c>
     </row>
     <row r="68" spans="1:12" s="20" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A68" s="230"/>
+      <c r="A68" s="229"/>
       <c r="B68" s="128"/>
       <c r="C68" s="21"/>
-      <c r="D68" s="213"/>
+      <c r="D68" s="212"/>
       <c r="E68" s="129"/>
       <c r="F68" s="150">
         <f t="shared" si="0"/>
@@ -19708,10 +19720,10 @@
       </c>
     </row>
     <row r="69" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A69" s="242"/>
+      <c r="A69" s="241"/>
       <c r="B69" s="128"/>
       <c r="C69" s="21"/>
-      <c r="D69" s="213"/>
+      <c r="D69" s="212"/>
       <c r="E69" s="129"/>
       <c r="F69" s="150">
         <f t="shared" si="0"/>
@@ -19728,10 +19740,10 @@
       </c>
     </row>
     <row r="70" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A70" s="242"/>
+      <c r="A70" s="241"/>
       <c r="B70" s="128"/>
       <c r="C70" s="21"/>
-      <c r="D70" s="213"/>
+      <c r="D70" s="212"/>
       <c r="E70" s="129"/>
       <c r="F70" s="150">
         <f t="shared" si="0"/>
@@ -19748,10 +19760,10 @@
       </c>
     </row>
     <row r="71" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A71" s="242"/>
+      <c r="A71" s="241"/>
       <c r="B71" s="128"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="213"/>
+      <c r="D71" s="212"/>
       <c r="E71" s="129"/>
       <c r="F71" s="150">
         <f t="shared" si="0"/>
@@ -19768,10 +19780,10 @@
       </c>
     </row>
     <row r="72" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A72" s="230"/>
+      <c r="A72" s="229"/>
       <c r="B72" s="128"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="213"/>
+      <c r="D72" s="212"/>
       <c r="E72" s="129"/>
       <c r="F72" s="150">
         <f t="shared" si="0"/>
@@ -19788,10 +19800,10 @@
       </c>
     </row>
     <row r="73" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A73" s="230"/>
+      <c r="A73" s="229"/>
       <c r="B73" s="128"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="213"/>
+      <c r="D73" s="212"/>
       <c r="E73" s="129"/>
       <c r="F73" s="150">
         <f t="shared" ref="F73:F136" si="2">SUM(G73,H73)</f>
@@ -19808,10 +19820,10 @@
       </c>
     </row>
     <row r="74" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A74" s="230"/>
+      <c r="A74" s="229"/>
       <c r="B74" s="128"/>
       <c r="C74" s="21"/>
-      <c r="D74" s="213"/>
+      <c r="D74" s="212"/>
       <c r="E74" s="129"/>
       <c r="F74" s="150">
         <f t="shared" si="2"/>
@@ -19828,10 +19840,10 @@
       </c>
     </row>
     <row r="75" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A75" s="230"/>
+      <c r="A75" s="229"/>
       <c r="B75" s="128"/>
       <c r="C75" s="21"/>
-      <c r="D75" s="213"/>
+      <c r="D75" s="212"/>
       <c r="E75" s="129"/>
       <c r="F75" s="150">
         <f t="shared" si="2"/>
@@ -19848,10 +19860,10 @@
       </c>
     </row>
     <row r="76" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A76" s="230"/>
+      <c r="A76" s="229"/>
       <c r="B76" s="128"/>
       <c r="C76" s="21"/>
-      <c r="D76" s="213"/>
+      <c r="D76" s="212"/>
       <c r="E76" s="129"/>
       <c r="F76" s="150">
         <f t="shared" si="2"/>
@@ -19868,10 +19880,10 @@
       </c>
     </row>
     <row r="77" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A77" s="230"/>
+      <c r="A77" s="229"/>
       <c r="B77" s="128"/>
       <c r="C77" s="21"/>
-      <c r="D77" s="213"/>
+      <c r="D77" s="212"/>
       <c r="E77" s="129"/>
       <c r="F77" s="150">
         <f t="shared" si="2"/>
@@ -19888,10 +19900,10 @@
       </c>
     </row>
     <row r="78" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A78" s="230"/>
+      <c r="A78" s="229"/>
       <c r="B78" s="128"/>
       <c r="C78" s="21"/>
-      <c r="D78" s="213"/>
+      <c r="D78" s="212"/>
       <c r="E78" s="129"/>
       <c r="F78" s="150">
         <f t="shared" si="2"/>
@@ -19908,10 +19920,10 @@
       </c>
     </row>
     <row r="79" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A79" s="230"/>
+      <c r="A79" s="229"/>
       <c r="B79" s="128"/>
       <c r="C79" s="21"/>
-      <c r="D79" s="213"/>
+      <c r="D79" s="212"/>
       <c r="E79" s="129"/>
       <c r="F79" s="150">
         <f t="shared" si="2"/>
@@ -19928,10 +19940,10 @@
       </c>
     </row>
     <row r="80" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A80" s="230"/>
+      <c r="A80" s="229"/>
       <c r="B80" s="128"/>
       <c r="C80" s="21"/>
-      <c r="D80" s="213"/>
+      <c r="D80" s="212"/>
       <c r="E80" s="129"/>
       <c r="F80" s="150">
         <f t="shared" si="2"/>
@@ -19948,10 +19960,10 @@
       </c>
     </row>
     <row r="81" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A81" s="230"/>
+      <c r="A81" s="229"/>
       <c r="B81" s="128"/>
       <c r="C81" s="21"/>
-      <c r="D81" s="213"/>
+      <c r="D81" s="212"/>
       <c r="E81" s="129"/>
       <c r="F81" s="150">
         <f t="shared" si="2"/>
@@ -19968,10 +19980,10 @@
       </c>
     </row>
     <row r="82" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A82" s="230"/>
+      <c r="A82" s="229"/>
       <c r="B82" s="128"/>
       <c r="C82" s="21"/>
-      <c r="D82" s="213"/>
+      <c r="D82" s="212"/>
       <c r="E82" s="129"/>
       <c r="F82" s="150">
         <f t="shared" si="2"/>
@@ -19988,10 +20000,10 @@
       </c>
     </row>
     <row r="83" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A83" s="230"/>
+      <c r="A83" s="229"/>
       <c r="B83" s="128"/>
       <c r="C83" s="21"/>
-      <c r="D83" s="213"/>
+      <c r="D83" s="212"/>
       <c r="E83" s="129"/>
       <c r="F83" s="150">
         <f t="shared" si="2"/>
@@ -20008,10 +20020,10 @@
       </c>
     </row>
     <row r="84" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A84" s="230"/>
+      <c r="A84" s="229"/>
       <c r="B84" s="128"/>
       <c r="C84" s="21"/>
-      <c r="D84" s="213"/>
+      <c r="D84" s="212"/>
       <c r="E84" s="129"/>
       <c r="F84" s="150">
         <f t="shared" si="2"/>
@@ -20028,10 +20040,10 @@
       </c>
     </row>
     <row r="85" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A85" s="230"/>
+      <c r="A85" s="229"/>
       <c r="B85" s="128"/>
       <c r="C85" s="21"/>
-      <c r="D85" s="213"/>
+      <c r="D85" s="212"/>
       <c r="E85" s="129"/>
       <c r="F85" s="150">
         <f t="shared" si="2"/>
@@ -20048,10 +20060,10 @@
       </c>
     </row>
     <row r="86" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A86" s="230"/>
+      <c r="A86" s="229"/>
       <c r="B86" s="128"/>
       <c r="C86" s="21"/>
-      <c r="D86" s="213"/>
+      <c r="D86" s="212"/>
       <c r="E86" s="129"/>
       <c r="F86" s="150">
         <f t="shared" si="2"/>
@@ -20068,10 +20080,10 @@
       </c>
     </row>
     <row r="87" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A87" s="230"/>
+      <c r="A87" s="229"/>
       <c r="B87" s="128"/>
       <c r="C87" s="21"/>
-      <c r="D87" s="213"/>
+      <c r="D87" s="212"/>
       <c r="E87" s="129"/>
       <c r="F87" s="150">
         <f t="shared" si="2"/>
@@ -20088,10 +20100,10 @@
       </c>
     </row>
     <row r="88" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A88" s="230"/>
+      <c r="A88" s="229"/>
       <c r="B88" s="128"/>
       <c r="C88" s="21"/>
-      <c r="D88" s="213"/>
+      <c r="D88" s="212"/>
       <c r="E88" s="129"/>
       <c r="F88" s="150">
         <f t="shared" si="2"/>
@@ -20108,10 +20120,10 @@
       </c>
     </row>
     <row r="89" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A89" s="230"/>
+      <c r="A89" s="229"/>
       <c r="B89" s="128"/>
       <c r="C89" s="21"/>
-      <c r="D89" s="213"/>
+      <c r="D89" s="212"/>
       <c r="E89" s="129"/>
       <c r="F89" s="150">
         <f t="shared" si="2"/>
@@ -20128,10 +20140,10 @@
       </c>
     </row>
     <row r="90" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A90" s="230"/>
+      <c r="A90" s="229"/>
       <c r="B90" s="128"/>
       <c r="C90" s="21"/>
-      <c r="D90" s="213"/>
+      <c r="D90" s="212"/>
       <c r="E90" s="129"/>
       <c r="F90" s="150">
         <f t="shared" si="2"/>
@@ -20148,10 +20160,10 @@
       </c>
     </row>
     <row r="91" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A91" s="230"/>
+      <c r="A91" s="229"/>
       <c r="B91" s="128"/>
       <c r="C91" s="21"/>
-      <c r="D91" s="213"/>
+      <c r="D91" s="212"/>
       <c r="E91" s="129"/>
       <c r="F91" s="150">
         <f t="shared" si="2"/>
@@ -20168,10 +20180,10 @@
       </c>
     </row>
     <row r="92" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A92" s="230"/>
+      <c r="A92" s="229"/>
       <c r="B92" s="128"/>
       <c r="C92" s="21"/>
-      <c r="D92" s="213"/>
+      <c r="D92" s="212"/>
       <c r="E92" s="129"/>
       <c r="F92" s="150">
         <f t="shared" si="2"/>
@@ -20188,10 +20200,10 @@
       </c>
     </row>
     <row r="93" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A93" s="230"/>
+      <c r="A93" s="229"/>
       <c r="B93" s="128"/>
       <c r="C93" s="21"/>
-      <c r="D93" s="213"/>
+      <c r="D93" s="212"/>
       <c r="E93" s="129"/>
       <c r="F93" s="150">
         <f t="shared" si="2"/>
@@ -20208,10 +20220,10 @@
       </c>
     </row>
     <row r="94" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A94" s="230"/>
+      <c r="A94" s="229"/>
       <c r="B94" s="128"/>
       <c r="C94" s="21"/>
-      <c r="D94" s="213"/>
+      <c r="D94" s="212"/>
       <c r="E94" s="129"/>
       <c r="F94" s="150">
         <f t="shared" si="2"/>
@@ -20228,10 +20240,10 @@
       </c>
     </row>
     <row r="95" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A95" s="230"/>
+      <c r="A95" s="229"/>
       <c r="B95" s="128"/>
       <c r="C95" s="21"/>
-      <c r="D95" s="213"/>
+      <c r="D95" s="212"/>
       <c r="E95" s="129"/>
       <c r="F95" s="150">
         <f t="shared" si="2"/>
@@ -20248,10 +20260,10 @@
       </c>
     </row>
     <row r="96" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A96" s="230"/>
+      <c r="A96" s="229"/>
       <c r="B96" s="128"/>
       <c r="C96" s="21"/>
-      <c r="D96" s="213"/>
+      <c r="D96" s="212"/>
       <c r="E96" s="129"/>
       <c r="F96" s="150">
         <f t="shared" si="2"/>
@@ -20268,10 +20280,10 @@
       </c>
     </row>
     <row r="97" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A97" s="230"/>
+      <c r="A97" s="229"/>
       <c r="B97" s="128"/>
       <c r="C97" s="21"/>
-      <c r="D97" s="213"/>
+      <c r="D97" s="212"/>
       <c r="E97" s="129"/>
       <c r="F97" s="150">
         <f t="shared" si="2"/>
@@ -20288,10 +20300,10 @@
       </c>
     </row>
     <row r="98" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A98" s="230"/>
+      <c r="A98" s="229"/>
       <c r="B98" s="128"/>
       <c r="C98" s="21"/>
-      <c r="D98" s="213"/>
+      <c r="D98" s="212"/>
       <c r="E98" s="129"/>
       <c r="F98" s="150">
         <f t="shared" si="2"/>
@@ -20308,10 +20320,10 @@
       </c>
     </row>
     <row r="99" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A99" s="230"/>
+      <c r="A99" s="229"/>
       <c r="B99" s="128"/>
       <c r="C99" s="21"/>
-      <c r="D99" s="213"/>
+      <c r="D99" s="212"/>
       <c r="E99" s="129"/>
       <c r="F99" s="150">
         <f t="shared" si="2"/>
@@ -20328,10 +20340,10 @@
       </c>
     </row>
     <row r="100" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A100" s="230"/>
+      <c r="A100" s="229"/>
       <c r="B100" s="128"/>
       <c r="C100" s="21"/>
-      <c r="D100" s="213"/>
+      <c r="D100" s="212"/>
       <c r="E100" s="129"/>
       <c r="F100" s="150">
         <f t="shared" si="2"/>
@@ -20348,10 +20360,10 @@
       </c>
     </row>
     <row r="101" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A101" s="230"/>
+      <c r="A101" s="229"/>
       <c r="B101" s="128"/>
       <c r="C101" s="21"/>
-      <c r="D101" s="213"/>
+      <c r="D101" s="212"/>
       <c r="E101" s="129"/>
       <c r="F101" s="150">
         <f t="shared" si="2"/>
@@ -20368,10 +20380,10 @@
       </c>
     </row>
     <row r="102" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A102" s="230"/>
+      <c r="A102" s="229"/>
       <c r="B102" s="128"/>
       <c r="C102" s="21"/>
-      <c r="D102" s="213"/>
+      <c r="D102" s="212"/>
       <c r="E102" s="129"/>
       <c r="F102" s="150">
         <f t="shared" si="2"/>
@@ -20388,10 +20400,10 @@
       </c>
     </row>
     <row r="103" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A103" s="230"/>
+      <c r="A103" s="229"/>
       <c r="B103" s="128"/>
       <c r="C103" s="21"/>
-      <c r="D103" s="213"/>
+      <c r="D103" s="212"/>
       <c r="E103" s="129"/>
       <c r="F103" s="150">
         <f t="shared" si="2"/>
@@ -20408,10 +20420,10 @@
       </c>
     </row>
     <row r="104" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A104" s="230"/>
+      <c r="A104" s="229"/>
       <c r="B104" s="128"/>
       <c r="C104" s="21"/>
-      <c r="D104" s="213"/>
+      <c r="D104" s="212"/>
       <c r="E104" s="129"/>
       <c r="F104" s="150">
         <f t="shared" si="2"/>
@@ -20428,10 +20440,10 @@
       </c>
     </row>
     <row r="105" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A105" s="230"/>
+      <c r="A105" s="229"/>
       <c r="B105" s="128"/>
       <c r="C105" s="21"/>
-      <c r="D105" s="213"/>
+      <c r="D105" s="212"/>
       <c r="E105" s="129"/>
       <c r="F105" s="150">
         <f t="shared" si="2"/>
@@ -20448,10 +20460,10 @@
       </c>
     </row>
     <row r="106" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A106" s="230"/>
+      <c r="A106" s="229"/>
       <c r="B106" s="128"/>
       <c r="C106" s="21"/>
-      <c r="D106" s="213"/>
+      <c r="D106" s="212"/>
       <c r="E106" s="129"/>
       <c r="F106" s="150">
         <f t="shared" si="2"/>
@@ -20468,10 +20480,10 @@
       </c>
     </row>
     <row r="107" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A107" s="230"/>
+      <c r="A107" s="229"/>
       <c r="B107" s="128"/>
       <c r="C107" s="21"/>
-      <c r="D107" s="213"/>
+      <c r="D107" s="212"/>
       <c r="E107" s="129"/>
       <c r="F107" s="150">
         <f t="shared" si="2"/>
@@ -20488,10 +20500,10 @@
       </c>
     </row>
     <row r="108" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A108" s="230"/>
+      <c r="A108" s="229"/>
       <c r="B108" s="128"/>
       <c r="C108" s="21"/>
-      <c r="D108" s="213"/>
+      <c r="D108" s="212"/>
       <c r="E108" s="129"/>
       <c r="F108" s="150">
         <f t="shared" si="2"/>
@@ -20508,10 +20520,10 @@
       </c>
     </row>
     <row r="109" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A109" s="230"/>
+      <c r="A109" s="229"/>
       <c r="B109" s="128"/>
       <c r="C109" s="21"/>
-      <c r="D109" s="213"/>
+      <c r="D109" s="212"/>
       <c r="E109" s="129"/>
       <c r="F109" s="150">
         <f t="shared" si="2"/>
@@ -20528,10 +20540,10 @@
       </c>
     </row>
     <row r="110" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A110" s="230"/>
+      <c r="A110" s="229"/>
       <c r="B110" s="128"/>
       <c r="C110" s="21"/>
-      <c r="D110" s="213"/>
+      <c r="D110" s="212"/>
       <c r="E110" s="129"/>
       <c r="F110" s="150">
         <f t="shared" si="2"/>
@@ -20548,10 +20560,10 @@
       </c>
     </row>
     <row r="111" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A111" s="230"/>
+      <c r="A111" s="229"/>
       <c r="B111" s="128"/>
       <c r="C111" s="21"/>
-      <c r="D111" s="213"/>
+      <c r="D111" s="212"/>
       <c r="E111" s="129"/>
       <c r="F111" s="150">
         <f t="shared" si="2"/>
@@ -20568,10 +20580,10 @@
       </c>
     </row>
     <row r="112" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A112" s="230"/>
+      <c r="A112" s="229"/>
       <c r="B112" s="128"/>
       <c r="C112" s="21"/>
-      <c r="D112" s="213"/>
+      <c r="D112" s="212"/>
       <c r="E112" s="129"/>
       <c r="F112" s="150">
         <f t="shared" si="2"/>
@@ -20588,10 +20600,10 @@
       </c>
     </row>
     <row r="113" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A113" s="230"/>
+      <c r="A113" s="229"/>
       <c r="B113" s="128"/>
       <c r="C113" s="21"/>
-      <c r="D113" s="213"/>
+      <c r="D113" s="212"/>
       <c r="E113" s="129"/>
       <c r="F113" s="150">
         <f t="shared" si="2"/>
@@ -20608,10 +20620,10 @@
       </c>
     </row>
     <row r="114" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A114" s="230"/>
+      <c r="A114" s="229"/>
       <c r="B114" s="128"/>
       <c r="C114" s="21"/>
-      <c r="D114" s="213"/>
+      <c r="D114" s="212"/>
       <c r="E114" s="129"/>
       <c r="F114" s="150">
         <f t="shared" si="2"/>
@@ -20628,10 +20640,10 @@
       </c>
     </row>
     <row r="115" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A115" s="231"/>
+      <c r="A115" s="230"/>
       <c r="B115" s="128"/>
       <c r="C115" s="21"/>
-      <c r="D115" s="213"/>
+      <c r="D115" s="212"/>
       <c r="E115" s="129"/>
       <c r="F115" s="150">
         <f t="shared" si="2"/>
@@ -20648,10 +20660,10 @@
       </c>
     </row>
     <row r="116" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A116" s="231"/>
+      <c r="A116" s="230"/>
       <c r="B116" s="128"/>
       <c r="C116" s="21"/>
-      <c r="D116" s="213"/>
+      <c r="D116" s="212"/>
       <c r="E116" s="129"/>
       <c r="F116" s="150">
         <f t="shared" si="2"/>
@@ -20668,10 +20680,10 @@
       </c>
     </row>
     <row r="117" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A117" s="230"/>
+      <c r="A117" s="229"/>
       <c r="B117" s="128"/>
       <c r="C117" s="21"/>
-      <c r="D117" s="213"/>
+      <c r="D117" s="212"/>
       <c r="E117" s="129"/>
       <c r="F117" s="150">
         <f t="shared" si="2"/>
@@ -20688,10 +20700,10 @@
       </c>
     </row>
     <row r="118" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A118" s="230"/>
+      <c r="A118" s="229"/>
       <c r="B118" s="128"/>
       <c r="C118" s="21"/>
-      <c r="D118" s="213"/>
+      <c r="D118" s="212"/>
       <c r="E118" s="129"/>
       <c r="F118" s="150">
         <f t="shared" si="2"/>
@@ -20708,10 +20720,10 @@
       </c>
     </row>
     <row r="119" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A119" s="230"/>
+      <c r="A119" s="229"/>
       <c r="B119" s="128"/>
       <c r="C119" s="21"/>
-      <c r="D119" s="213"/>
+      <c r="D119" s="212"/>
       <c r="E119" s="129"/>
       <c r="F119" s="150">
         <f t="shared" si="2"/>
@@ -20728,10 +20740,10 @@
       </c>
     </row>
     <row r="120" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A120" s="230"/>
+      <c r="A120" s="229"/>
       <c r="B120" s="128"/>
       <c r="C120" s="21"/>
-      <c r="D120" s="213"/>
+      <c r="D120" s="212"/>
       <c r="E120" s="129"/>
       <c r="F120" s="150">
         <f t="shared" si="2"/>
@@ -20748,10 +20760,10 @@
       </c>
     </row>
     <row r="121" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A121" s="230"/>
+      <c r="A121" s="229"/>
       <c r="B121" s="128"/>
       <c r="C121" s="21"/>
-      <c r="D121" s="213"/>
+      <c r="D121" s="212"/>
       <c r="E121" s="129"/>
       <c r="F121" s="150">
         <f t="shared" si="2"/>
@@ -20768,10 +20780,10 @@
       </c>
     </row>
     <row r="122" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A122" s="230"/>
+      <c r="A122" s="229"/>
       <c r="B122" s="128"/>
       <c r="C122" s="21"/>
-      <c r="D122" s="213"/>
+      <c r="D122" s="212"/>
       <c r="E122" s="129"/>
       <c r="F122" s="150">
         <f t="shared" si="2"/>
@@ -20788,10 +20800,10 @@
       </c>
     </row>
     <row r="123" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A123" s="230"/>
+      <c r="A123" s="229"/>
       <c r="B123" s="128"/>
       <c r="C123" s="21"/>
-      <c r="D123" s="213"/>
+      <c r="D123" s="212"/>
       <c r="E123" s="129"/>
       <c r="F123" s="150">
         <f t="shared" si="2"/>
@@ -20808,10 +20820,10 @@
       </c>
     </row>
     <row r="124" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A124" s="230"/>
+      <c r="A124" s="229"/>
       <c r="B124" s="128"/>
       <c r="C124" s="21"/>
-      <c r="D124" s="213"/>
+      <c r="D124" s="212"/>
       <c r="E124" s="129"/>
       <c r="F124" s="150">
         <f t="shared" si="2"/>
@@ -20828,10 +20840,10 @@
       </c>
     </row>
     <row r="125" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A125" s="230"/>
+      <c r="A125" s="229"/>
       <c r="B125" s="128"/>
       <c r="C125" s="21"/>
-      <c r="D125" s="213"/>
+      <c r="D125" s="212"/>
       <c r="E125" s="129"/>
       <c r="F125" s="150">
         <f t="shared" si="2"/>
@@ -20848,10 +20860,10 @@
       </c>
     </row>
     <row r="126" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A126" s="230"/>
+      <c r="A126" s="229"/>
       <c r="B126" s="128"/>
       <c r="C126" s="21"/>
-      <c r="D126" s="213"/>
+      <c r="D126" s="212"/>
       <c r="E126" s="129"/>
       <c r="F126" s="150">
         <f t="shared" si="2"/>
@@ -20868,10 +20880,10 @@
       </c>
     </row>
     <row r="127" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A127" s="230"/>
+      <c r="A127" s="229"/>
       <c r="B127" s="128"/>
       <c r="C127" s="21"/>
-      <c r="D127" s="213"/>
+      <c r="D127" s="212"/>
       <c r="E127" s="129"/>
       <c r="F127" s="150">
         <f t="shared" si="2"/>
@@ -20888,10 +20900,10 @@
       </c>
     </row>
     <row r="128" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A128" s="230"/>
+      <c r="A128" s="229"/>
       <c r="B128" s="128"/>
       <c r="C128" s="21"/>
-      <c r="D128" s="213"/>
+      <c r="D128" s="212"/>
       <c r="E128" s="129"/>
       <c r="F128" s="150">
         <f t="shared" si="2"/>
@@ -20908,10 +20920,10 @@
       </c>
     </row>
     <row r="129" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A129" s="230"/>
+      <c r="A129" s="229"/>
       <c r="B129" s="128"/>
       <c r="C129" s="21"/>
-      <c r="D129" s="213"/>
+      <c r="D129" s="212"/>
       <c r="E129" s="129"/>
       <c r="F129" s="150">
         <f t="shared" si="2"/>
@@ -20928,10 +20940,10 @@
       </c>
     </row>
     <row r="130" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A130" s="230"/>
+      <c r="A130" s="229"/>
       <c r="B130" s="128"/>
       <c r="C130" s="21"/>
-      <c r="D130" s="213"/>
+      <c r="D130" s="212"/>
       <c r="E130" s="129"/>
       <c r="F130" s="150">
         <f t="shared" si="2"/>
@@ -20948,10 +20960,10 @@
       </c>
     </row>
     <row r="131" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A131" s="230"/>
+      <c r="A131" s="229"/>
       <c r="B131" s="128"/>
       <c r="C131" s="21"/>
-      <c r="D131" s="213"/>
+      <c r="D131" s="212"/>
       <c r="E131" s="129"/>
       <c r="F131" s="150">
         <f t="shared" si="2"/>
@@ -20968,10 +20980,10 @@
       </c>
     </row>
     <row r="132" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A132" s="230"/>
+      <c r="A132" s="229"/>
       <c r="B132" s="128"/>
       <c r="C132" s="21"/>
-      <c r="D132" s="213"/>
+      <c r="D132" s="212"/>
       <c r="E132" s="129"/>
       <c r="F132" s="150">
         <f t="shared" si="2"/>
@@ -20988,10 +21000,10 @@
       </c>
     </row>
     <row r="133" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A133" s="230"/>
+      <c r="A133" s="229"/>
       <c r="B133" s="128"/>
       <c r="C133" s="21"/>
-      <c r="D133" s="213"/>
+      <c r="D133" s="212"/>
       <c r="E133" s="129"/>
       <c r="F133" s="150">
         <f t="shared" si="2"/>
@@ -21008,10 +21020,10 @@
       </c>
     </row>
     <row r="134" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A134" s="230"/>
+      <c r="A134" s="229"/>
       <c r="B134" s="128"/>
       <c r="C134" s="21"/>
-      <c r="D134" s="213"/>
+      <c r="D134" s="212"/>
       <c r="E134" s="129"/>
       <c r="F134" s="150">
         <f t="shared" si="2"/>
@@ -21028,10 +21040,10 @@
       </c>
     </row>
     <row r="135" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A135" s="230"/>
+      <c r="A135" s="229"/>
       <c r="B135" s="128"/>
       <c r="C135" s="21"/>
-      <c r="D135" s="213"/>
+      <c r="D135" s="212"/>
       <c r="E135" s="129"/>
       <c r="F135" s="150">
         <f t="shared" si="2"/>
@@ -21048,10 +21060,10 @@
       </c>
     </row>
     <row r="136" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A136" s="230"/>
+      <c r="A136" s="229"/>
       <c r="B136" s="128"/>
       <c r="C136" s="21"/>
-      <c r="D136" s="213"/>
+      <c r="D136" s="212"/>
       <c r="E136" s="129"/>
       <c r="F136" s="150">
         <f t="shared" si="2"/>
@@ -21068,10 +21080,10 @@
       </c>
     </row>
     <row r="137" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A137" s="230"/>
+      <c r="A137" s="229"/>
       <c r="B137" s="128"/>
       <c r="C137" s="21"/>
-      <c r="D137" s="213"/>
+      <c r="D137" s="212"/>
       <c r="E137" s="129"/>
       <c r="F137" s="150">
         <f t="shared" ref="F137:F179" si="4">SUM(G137,H137)</f>
@@ -21088,10 +21100,10 @@
       </c>
     </row>
     <row r="138" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A138" s="230"/>
+      <c r="A138" s="229"/>
       <c r="B138" s="128"/>
       <c r="C138" s="21"/>
-      <c r="D138" s="213"/>
+      <c r="D138" s="212"/>
       <c r="E138" s="129"/>
       <c r="F138" s="150">
         <f t="shared" si="4"/>
@@ -21108,10 +21120,10 @@
       </c>
     </row>
     <row r="139" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A139" s="230"/>
+      <c r="A139" s="229"/>
       <c r="B139" s="128"/>
       <c r="C139" s="21"/>
-      <c r="D139" s="213"/>
+      <c r="D139" s="212"/>
       <c r="E139" s="129"/>
       <c r="F139" s="150">
         <f t="shared" si="4"/>
@@ -21128,10 +21140,10 @@
       </c>
     </row>
     <row r="140" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A140" s="230"/>
+      <c r="A140" s="229"/>
       <c r="B140" s="128"/>
       <c r="C140" s="21"/>
-      <c r="D140" s="213"/>
+      <c r="D140" s="212"/>
       <c r="E140" s="129"/>
       <c r="F140" s="150">
         <f t="shared" si="4"/>
@@ -21148,10 +21160,10 @@
       </c>
     </row>
     <row r="141" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A141" s="231"/>
+      <c r="A141" s="230"/>
       <c r="B141" s="128"/>
       <c r="C141" s="21"/>
-      <c r="D141" s="213"/>
+      <c r="D141" s="212"/>
       <c r="E141" s="129"/>
       <c r="F141" s="150">
         <f t="shared" si="4"/>
@@ -21168,10 +21180,10 @@
       </c>
     </row>
     <row r="142" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A142" s="231"/>
+      <c r="A142" s="230"/>
       <c r="B142" s="128"/>
       <c r="C142" s="21"/>
-      <c r="D142" s="213"/>
+      <c r="D142" s="212"/>
       <c r="E142" s="129"/>
       <c r="F142" s="150">
         <f t="shared" si="4"/>
@@ -21188,10 +21200,10 @@
       </c>
     </row>
     <row r="143" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A143" s="230"/>
+      <c r="A143" s="229"/>
       <c r="B143" s="128"/>
       <c r="C143" s="21"/>
-      <c r="D143" s="213"/>
+      <c r="D143" s="212"/>
       <c r="E143" s="129"/>
       <c r="F143" s="150">
         <f t="shared" si="4"/>
@@ -21208,10 +21220,10 @@
       </c>
     </row>
     <row r="144" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A144" s="230"/>
+      <c r="A144" s="229"/>
       <c r="B144" s="128"/>
       <c r="C144" s="21"/>
-      <c r="D144" s="213"/>
+      <c r="D144" s="212"/>
       <c r="E144" s="129"/>
       <c r="F144" s="150">
         <f t="shared" si="4"/>
@@ -21228,10 +21240,10 @@
       </c>
     </row>
     <row r="145" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A145" s="230"/>
+      <c r="A145" s="229"/>
       <c r="B145" s="128"/>
       <c r="C145" s="21"/>
-      <c r="D145" s="213"/>
+      <c r="D145" s="212"/>
       <c r="E145" s="129"/>
       <c r="F145" s="150">
         <f t="shared" si="4"/>
@@ -21248,10 +21260,10 @@
       </c>
     </row>
     <row r="146" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A146" s="230"/>
+      <c r="A146" s="229"/>
       <c r="B146" s="128"/>
       <c r="C146" s="21"/>
-      <c r="D146" s="213"/>
+      <c r="D146" s="212"/>
       <c r="E146" s="129"/>
       <c r="F146" s="150">
         <f t="shared" si="4"/>
@@ -21268,10 +21280,10 @@
       </c>
     </row>
     <row r="147" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A147" s="230"/>
+      <c r="A147" s="229"/>
       <c r="B147" s="128"/>
       <c r="C147" s="21"/>
-      <c r="D147" s="213"/>
+      <c r="D147" s="212"/>
       <c r="E147" s="129"/>
       <c r="F147" s="150">
         <f t="shared" si="4"/>
@@ -21288,10 +21300,10 @@
       </c>
     </row>
     <row r="148" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A148" s="230"/>
+      <c r="A148" s="229"/>
       <c r="B148" s="128"/>
       <c r="C148" s="21"/>
-      <c r="D148" s="213"/>
+      <c r="D148" s="212"/>
       <c r="E148" s="129"/>
       <c r="F148" s="150">
         <f t="shared" si="4"/>
@@ -21308,10 +21320,10 @@
       </c>
     </row>
     <row r="149" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A149" s="230"/>
+      <c r="A149" s="229"/>
       <c r="B149" s="128"/>
       <c r="C149" s="21"/>
-      <c r="D149" s="213"/>
+      <c r="D149" s="212"/>
       <c r="E149" s="129"/>
       <c r="F149" s="150">
         <f t="shared" si="4"/>
@@ -21328,10 +21340,10 @@
       </c>
     </row>
     <row r="150" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A150" s="230"/>
+      <c r="A150" s="229"/>
       <c r="B150" s="128"/>
       <c r="C150" s="21"/>
-      <c r="D150" s="213"/>
+      <c r="D150" s="212"/>
       <c r="E150" s="129"/>
       <c r="F150" s="150">
         <f t="shared" si="4"/>
@@ -21348,10 +21360,10 @@
       </c>
     </row>
     <row r="151" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A151" s="230"/>
+      <c r="A151" s="229"/>
       <c r="B151" s="128"/>
       <c r="C151" s="21"/>
-      <c r="D151" s="213"/>
+      <c r="D151" s="212"/>
       <c r="E151" s="129"/>
       <c r="F151" s="150">
         <f t="shared" si="4"/>
@@ -21368,10 +21380,10 @@
       </c>
     </row>
     <row r="152" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A152" s="230"/>
+      <c r="A152" s="229"/>
       <c r="B152" s="128"/>
       <c r="C152" s="21"/>
-      <c r="D152" s="213"/>
+      <c r="D152" s="212"/>
       <c r="E152" s="129"/>
       <c r="F152" s="150">
         <f t="shared" si="4"/>
@@ -21388,10 +21400,10 @@
       </c>
     </row>
     <row r="153" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A153" s="230"/>
+      <c r="A153" s="229"/>
       <c r="B153" s="128"/>
       <c r="C153" s="21"/>
-      <c r="D153" s="213"/>
+      <c r="D153" s="212"/>
       <c r="E153" s="129"/>
       <c r="F153" s="150">
         <f t="shared" si="4"/>
@@ -21408,10 +21420,10 @@
       </c>
     </row>
     <row r="154" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A154" s="230"/>
+      <c r="A154" s="229"/>
       <c r="B154" s="128"/>
       <c r="C154" s="21"/>
-      <c r="D154" s="213"/>
+      <c r="D154" s="212"/>
       <c r="E154" s="129"/>
       <c r="F154" s="150">
         <f t="shared" si="4"/>
@@ -21428,10 +21440,10 @@
       </c>
     </row>
     <row r="155" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A155" s="230"/>
+      <c r="A155" s="229"/>
       <c r="B155" s="128"/>
       <c r="C155" s="21"/>
-      <c r="D155" s="213"/>
+      <c r="D155" s="212"/>
       <c r="E155" s="129"/>
       <c r="F155" s="150">
         <f t="shared" si="4"/>
@@ -21448,10 +21460,10 @@
       </c>
     </row>
     <row r="156" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A156" s="230"/>
+      <c r="A156" s="229"/>
       <c r="B156" s="128"/>
       <c r="C156" s="21"/>
-      <c r="D156" s="213"/>
+      <c r="D156" s="212"/>
       <c r="E156" s="129"/>
       <c r="F156" s="150">
         <f t="shared" si="4"/>
@@ -21468,10 +21480,10 @@
       </c>
     </row>
     <row r="157" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A157" s="230"/>
+      <c r="A157" s="229"/>
       <c r="B157" s="128"/>
       <c r="C157" s="21"/>
-      <c r="D157" s="213"/>
+      <c r="D157" s="212"/>
       <c r="E157" s="129"/>
       <c r="F157" s="150">
         <f t="shared" si="4"/>
@@ -21488,10 +21500,10 @@
       </c>
     </row>
     <row r="158" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A158" s="230"/>
+      <c r="A158" s="229"/>
       <c r="B158" s="128"/>
       <c r="C158" s="21"/>
-      <c r="D158" s="213"/>
+      <c r="D158" s="212"/>
       <c r="E158" s="129"/>
       <c r="F158" s="150">
         <f t="shared" si="4"/>
@@ -21508,10 +21520,10 @@
       </c>
     </row>
     <row r="159" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A159" s="230"/>
+      <c r="A159" s="229"/>
       <c r="B159" s="128"/>
       <c r="C159" s="21"/>
-      <c r="D159" s="213"/>
+      <c r="D159" s="212"/>
       <c r="E159" s="129"/>
       <c r="F159" s="150">
         <f t="shared" si="4"/>
@@ -21528,10 +21540,10 @@
       </c>
     </row>
     <row r="160" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A160" s="230"/>
+      <c r="A160" s="229"/>
       <c r="B160" s="128"/>
       <c r="C160" s="21"/>
-      <c r="D160" s="213"/>
+      <c r="D160" s="212"/>
       <c r="E160" s="129"/>
       <c r="F160" s="150">
         <f t="shared" si="4"/>
@@ -21548,10 +21560,10 @@
       </c>
     </row>
     <row r="161" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A161" s="230"/>
+      <c r="A161" s="229"/>
       <c r="B161" s="128"/>
       <c r="C161" s="21"/>
-      <c r="D161" s="213"/>
+      <c r="D161" s="212"/>
       <c r="E161" s="129"/>
       <c r="F161" s="150">
         <f t="shared" si="4"/>
@@ -21568,10 +21580,10 @@
       </c>
     </row>
     <row r="162" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A162" s="230"/>
+      <c r="A162" s="229"/>
       <c r="B162" s="128"/>
       <c r="C162" s="21"/>
-      <c r="D162" s="213"/>
+      <c r="D162" s="212"/>
       <c r="E162" s="129"/>
       <c r="F162" s="150">
         <f t="shared" si="4"/>
@@ -21588,10 +21600,10 @@
       </c>
     </row>
     <row r="163" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A163" s="230"/>
+      <c r="A163" s="229"/>
       <c r="B163" s="128"/>
       <c r="C163" s="21"/>
-      <c r="D163" s="213"/>
+      <c r="D163" s="212"/>
       <c r="E163" s="129"/>
       <c r="F163" s="150">
         <f t="shared" si="4"/>
@@ -21608,10 +21620,10 @@
       </c>
     </row>
     <row r="164" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A164" s="230"/>
+      <c r="A164" s="229"/>
       <c r="B164" s="128"/>
       <c r="C164" s="21"/>
-      <c r="D164" s="213"/>
+      <c r="D164" s="212"/>
       <c r="E164" s="129"/>
       <c r="F164" s="150">
         <f t="shared" si="4"/>
@@ -21628,10 +21640,10 @@
       </c>
     </row>
     <row r="165" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A165" s="230"/>
+      <c r="A165" s="229"/>
       <c r="B165" s="128"/>
       <c r="C165" s="21"/>
-      <c r="D165" s="213"/>
+      <c r="D165" s="212"/>
       <c r="E165" s="129"/>
       <c r="F165" s="150">
         <f t="shared" si="4"/>
@@ -21648,10 +21660,10 @@
       </c>
     </row>
     <row r="166" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A166" s="230"/>
+      <c r="A166" s="229"/>
       <c r="B166" s="128"/>
       <c r="C166" s="21"/>
-      <c r="D166" s="213"/>
+      <c r="D166" s="212"/>
       <c r="E166" s="129"/>
       <c r="F166" s="150">
         <f t="shared" si="4"/>
@@ -21668,10 +21680,10 @@
       </c>
     </row>
     <row r="167" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A167" s="230"/>
+      <c r="A167" s="229"/>
       <c r="B167" s="128"/>
       <c r="C167" s="21"/>
-      <c r="D167" s="213"/>
+      <c r="D167" s="212"/>
       <c r="E167" s="129"/>
       <c r="F167" s="150">
         <f t="shared" si="4"/>
@@ -21688,10 +21700,10 @@
       </c>
     </row>
     <row r="168" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A168" s="230"/>
+      <c r="A168" s="229"/>
       <c r="B168" s="128"/>
       <c r="C168" s="21"/>
-      <c r="D168" s="213"/>
+      <c r="D168" s="212"/>
       <c r="E168" s="129"/>
       <c r="F168" s="150">
         <f t="shared" si="4"/>
@@ -21708,10 +21720,10 @@
       </c>
     </row>
     <row r="169" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A169" s="230"/>
+      <c r="A169" s="229"/>
       <c r="B169" s="128"/>
       <c r="C169" s="21"/>
-      <c r="D169" s="213"/>
+      <c r="D169" s="212"/>
       <c r="E169" s="129"/>
       <c r="F169" s="150">
         <f t="shared" si="4"/>
@@ -21728,10 +21740,10 @@
       </c>
     </row>
     <row r="170" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A170" s="230"/>
+      <c r="A170" s="229"/>
       <c r="B170" s="128"/>
       <c r="C170" s="21"/>
-      <c r="D170" s="213"/>
+      <c r="D170" s="212"/>
       <c r="E170" s="129"/>
       <c r="F170" s="150">
         <f t="shared" si="4"/>
@@ -21748,10 +21760,10 @@
       </c>
     </row>
     <row r="171" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A171" s="230"/>
+      <c r="A171" s="229"/>
       <c r="B171" s="128"/>
       <c r="C171" s="21"/>
-      <c r="D171" s="213"/>
+      <c r="D171" s="212"/>
       <c r="E171" s="129"/>
       <c r="F171" s="150">
         <f t="shared" si="4"/>
@@ -21768,10 +21780,10 @@
       </c>
     </row>
     <row r="172" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A172" s="230"/>
+      <c r="A172" s="229"/>
       <c r="B172" s="128"/>
       <c r="C172" s="21"/>
-      <c r="D172" s="213"/>
+      <c r="D172" s="212"/>
       <c r="E172" s="129"/>
       <c r="F172" s="150">
         <f t="shared" si="4"/>
@@ -21788,10 +21800,10 @@
       </c>
     </row>
     <row r="173" spans="1:12" s="20" customFormat="1" ht="13.15" customHeight="1">
-      <c r="A173" s="230"/>
+      <c r="A173" s="229"/>
       <c r="B173" s="128"/>
       <c r="C173" s="21"/>
-      <c r="D173" s="213"/>
+      <c r="D173" s="212"/>
       <c r="E173" s="129"/>
       <c r="F173" s="150">
         <f t="shared" si="4"/>
@@ -21808,10 +21820,10 @@
       </c>
     </row>
     <row r="174" spans="1:12" s="20" customFormat="1" ht="13.15" customHeight="1">
-      <c r="A174" s="230"/>
+      <c r="A174" s="229"/>
       <c r="B174" s="128"/>
       <c r="C174" s="21"/>
-      <c r="D174" s="213"/>
+      <c r="D174" s="212"/>
       <c r="E174" s="129"/>
       <c r="F174" s="150">
         <f t="shared" si="4"/>
@@ -21828,10 +21840,10 @@
       </c>
     </row>
     <row r="175" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A175" s="230"/>
+      <c r="A175" s="229"/>
       <c r="B175" s="128"/>
       <c r="C175" s="21"/>
-      <c r="D175" s="213"/>
+      <c r="D175" s="212"/>
       <c r="E175" s="129"/>
       <c r="F175" s="150">
         <f t="shared" si="4"/>
@@ -21848,10 +21860,10 @@
       </c>
     </row>
     <row r="176" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A176" s="230"/>
+      <c r="A176" s="229"/>
       <c r="B176" s="128"/>
       <c r="C176" s="21"/>
-      <c r="D176" s="213"/>
+      <c r="D176" s="212"/>
       <c r="E176" s="129"/>
       <c r="F176" s="150">
         <f t="shared" si="4"/>
@@ -21868,10 +21880,10 @@
       </c>
     </row>
     <row r="177" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A177" s="230"/>
+      <c r="A177" s="229"/>
       <c r="B177" s="128"/>
       <c r="C177" s="21"/>
-      <c r="D177" s="213"/>
+      <c r="D177" s="212"/>
       <c r="E177" s="129"/>
       <c r="F177" s="150">
         <f t="shared" si="4"/>
@@ -21888,10 +21900,10 @@
       </c>
     </row>
     <row r="178" spans="1:12" s="20" customFormat="1" ht="12" customHeight="1">
-      <c r="A178" s="230"/>
+      <c r="A178" s="229"/>
       <c r="B178" s="128"/>
       <c r="C178" s="21"/>
-      <c r="D178" s="213"/>
+      <c r="D178" s="212"/>
       <c r="E178" s="129"/>
       <c r="F178" s="150">
         <f t="shared" si="4"/>
@@ -21908,32 +21920,32 @@
       </c>
     </row>
     <row r="179" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A179" s="232"/>
-      <c r="B179" s="212"/>
-      <c r="C179" s="212"/>
-      <c r="D179" s="225"/>
-      <c r="E179" s="218"/>
+      <c r="A179" s="231"/>
+      <c r="B179" s="211"/>
+      <c r="C179" s="211"/>
+      <c r="D179" s="224"/>
+      <c r="E179" s="217"/>
       <c r="F179" s="150">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G179" s="220"/>
-      <c r="H179" s="220"/>
-      <c r="I179" s="221"/>
-      <c r="J179" s="221"/>
-      <c r="K179" s="221"/>
+      <c r="G179" s="219"/>
+      <c r="H179" s="219"/>
+      <c r="I179" s="220"/>
+      <c r="J179" s="220"/>
+      <c r="K179" s="220"/>
       <c r="L179" s="151">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A180" s="291" t="s">
+      <c r="A180" s="300" t="s">
         <v>386</v>
       </c>
-      <c r="B180" s="278"/>
-      <c r="C180" s="278"/>
-      <c r="D180" s="279"/>
+      <c r="B180" s="273"/>
+      <c r="C180" s="273"/>
+      <c r="D180" s="274"/>
       <c r="E180" s="149"/>
       <c r="F180" s="164">
         <f>SUM(F8:F179)</f>
@@ -21959,7 +21971,7 @@
       </c>
     </row>
     <row r="181" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A181" s="233"/>
+      <c r="A181" s="232"/>
       <c r="B181" s="23"/>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
@@ -21972,24 +21984,24 @@
       <c r="K181" s="24"/>
       <c r="L181" s="83"/>
     </row>
-    <row r="182" spans="1:12" s="197" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A182" s="271" t="s">
+    <row r="182" spans="1:12" s="196" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A182" s="281" t="s">
         <v>405</v>
       </c>
-      <c r="B182" s="265"/>
-      <c r="C182" s="265"/>
-      <c r="D182" s="265"/>
-      <c r="E182" s="265"/>
-      <c r="F182" s="265"/>
-      <c r="G182" s="265"/>
-      <c r="H182" s="265"/>
-      <c r="I182" s="265"/>
-      <c r="J182" s="265"/>
-      <c r="K182" s="265"/>
-      <c r="L182" s="265"/>
+      <c r="B182" s="276"/>
+      <c r="C182" s="276"/>
+      <c r="D182" s="276"/>
+      <c r="E182" s="276"/>
+      <c r="F182" s="276"/>
+      <c r="G182" s="276"/>
+      <c r="H182" s="276"/>
+      <c r="I182" s="276"/>
+      <c r="J182" s="276"/>
+      <c r="K182" s="276"/>
+      <c r="L182" s="276"/>
     </row>
     <row r="183" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A183" s="233"/>
+      <c r="A183" s="232"/>
       <c r="B183" s="23"/>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
@@ -22003,7 +22015,7 @@
       <c r="L183" s="83"/>
     </row>
     <row r="184" spans="1:12" s="19" customFormat="1" ht="42" customHeight="1">
-      <c r="A184" s="234" t="s">
+      <c r="A184" s="233" t="s">
         <v>388</v>
       </c>
       <c r="B184" s="177" t="s">
@@ -22030,19 +22042,19 @@
       <c r="I184" s="177" t="s">
         <v>395</v>
       </c>
-      <c r="J184" s="288" t="s">
+      <c r="J184" s="313" t="s">
         <v>396</v>
       </c>
-      <c r="K184" s="278"/>
-      <c r="L184" s="279"/>
+      <c r="K184" s="273"/>
+      <c r="L184" s="274"/>
     </row>
     <row r="185" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A185" s="226">
+      <c r="A185" s="225">
         <v>1</v>
       </c>
       <c r="B185" s="174"/>
       <c r="C185" s="174"/>
-      <c r="D185" s="174"/>
+      <c r="D185" s="317"/>
       <c r="E185" s="175">
         <f t="array" ref="E185">MIN(IF(($B$8:$B$180=B185)*($D$8:$D$180=D185), $E$8:$E$180))</f>
         <v>0</v>
@@ -22060,17 +22072,17 @@
         <v>0</v>
       </c>
       <c r="I185" s="176"/>
-      <c r="J185" s="293"/>
-      <c r="K185" s="294"/>
-      <c r="L185" s="295"/>
+      <c r="J185" s="309"/>
+      <c r="K185" s="310"/>
+      <c r="L185" s="311"/>
     </row>
     <row r="186" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A186" s="227">
+      <c r="A186" s="226">
         <v>2</v>
       </c>
       <c r="B186" s="88"/>
       <c r="C186" s="88"/>
-      <c r="D186" s="88"/>
+      <c r="D186" s="318"/>
       <c r="E186" s="154">
         <f t="array" ref="E186">MIN(IF(($B$8:$B$180=B186)*($D$8:$D$180=D186), $E$8:$E$180))</f>
         <v>0</v>
@@ -22088,20 +22100,20 @@
         <v>0</v>
       </c>
       <c r="I186" s="155">
-        <f t="shared" ref="I185:I198" si="9">SUMIFS($L$8:$L$180, $B$8:$B$180,B186,$D$8:$D$180,D186)</f>
-        <v>0</v>
-      </c>
-      <c r="J186" s="268"/>
-      <c r="K186" s="283"/>
-      <c r="L186" s="284"/>
+        <f t="shared" ref="I186:I198" si="9">SUMIFS($L$8:$L$180, $B$8:$B$180,B186,$D$8:$D$180,D186)</f>
+        <v>0</v>
+      </c>
+      <c r="J186" s="270"/>
+      <c r="K186" s="301"/>
+      <c r="L186" s="302"/>
     </row>
     <row r="187" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A187" s="227">
+      <c r="A187" s="226">
         <v>3</v>
       </c>
       <c r="B187" s="88"/>
       <c r="C187" s="88"/>
-      <c r="D187" s="88"/>
+      <c r="D187" s="318"/>
       <c r="E187" s="154">
         <f t="array" ref="E187">MIN(IF(($B$8:$B$180=B187)*($D$8:$D$180=D187), $E$8:$E$180))</f>
         <v>0</v>
@@ -22122,17 +22134,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J187" s="268"/>
-      <c r="K187" s="283"/>
-      <c r="L187" s="284"/>
+      <c r="J187" s="270"/>
+      <c r="K187" s="301"/>
+      <c r="L187" s="302"/>
     </row>
     <row r="188" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A188" s="227">
+      <c r="A188" s="226">
         <v>4</v>
       </c>
       <c r="B188" s="88"/>
       <c r="C188" s="88"/>
-      <c r="D188" s="88"/>
+      <c r="D188" s="318"/>
       <c r="E188" s="154">
         <f t="array" ref="E188">MIN(IF(($B$8:$B$180=B188)*($D$8:$D$180=D188), $E$8:$E$180))</f>
         <v>0</v>
@@ -22153,17 +22165,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J188" s="268"/>
-      <c r="K188" s="283"/>
-      <c r="L188" s="284"/>
+      <c r="J188" s="270"/>
+      <c r="K188" s="301"/>
+      <c r="L188" s="302"/>
     </row>
     <row r="189" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A189" s="227">
+      <c r="A189" s="226">
         <v>5</v>
       </c>
       <c r="B189" s="88"/>
       <c r="C189" s="88"/>
-      <c r="D189" s="88"/>
+      <c r="D189" s="318"/>
       <c r="E189" s="154">
         <f t="array" ref="E189">MIN(IF(($B$8:$B$180=B189)*($D$8:$D$180=D189), $E$8:$E$180))</f>
         <v>0</v>
@@ -22184,17 +22196,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J189" s="268"/>
-      <c r="K189" s="283"/>
-      <c r="L189" s="284"/>
+      <c r="J189" s="270"/>
+      <c r="K189" s="301"/>
+      <c r="L189" s="302"/>
     </row>
     <row r="190" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A190" s="227">
+      <c r="A190" s="226">
         <v>6</v>
       </c>
       <c r="B190" s="88"/>
       <c r="C190" s="88"/>
-      <c r="D190" s="88"/>
+      <c r="D190" s="318"/>
       <c r="E190" s="154">
         <f t="array" ref="E190">MIN(IF(($B$8:$B$180=B190)*($D$8:$D$180=D190), $E$8:$E$180))</f>
         <v>0</v>
@@ -22215,17 +22227,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J190" s="268"/>
-      <c r="K190" s="283"/>
-      <c r="L190" s="284"/>
+      <c r="J190" s="270"/>
+      <c r="K190" s="301"/>
+      <c r="L190" s="302"/>
     </row>
     <row r="191" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A191" s="227">
+      <c r="A191" s="226">
         <v>7</v>
       </c>
       <c r="B191" s="88"/>
       <c r="C191" s="88"/>
-      <c r="D191" s="88"/>
+      <c r="D191" s="318"/>
       <c r="E191" s="154">
         <f t="array" ref="E191">MIN(IF(($B$8:$B$180=B191)*($D$8:$D$180=D191), $E$8:$E$180))</f>
         <v>0</v>
@@ -22246,17 +22258,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J191" s="268"/>
-      <c r="K191" s="283"/>
-      <c r="L191" s="284"/>
+      <c r="J191" s="270"/>
+      <c r="K191" s="301"/>
+      <c r="L191" s="302"/>
     </row>
     <row r="192" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A192" s="227">
+      <c r="A192" s="226">
         <v>8</v>
       </c>
       <c r="B192" s="88"/>
       <c r="C192" s="88"/>
-      <c r="D192" s="88"/>
+      <c r="D192" s="318"/>
       <c r="E192" s="154">
         <f t="array" ref="E192">MIN(IF(($B$8:$B$180=B192)*($D$8:$D$180=D192), $E$8:$E$180))</f>
         <v>0</v>
@@ -22277,17 +22289,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J192" s="268"/>
-      <c r="K192" s="283"/>
-      <c r="L192" s="284"/>
+      <c r="J192" s="270"/>
+      <c r="K192" s="301"/>
+      <c r="L192" s="302"/>
     </row>
     <row r="193" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A193" s="227">
+      <c r="A193" s="226">
         <v>9</v>
       </c>
       <c r="B193" s="88"/>
       <c r="C193" s="88"/>
-      <c r="D193" s="88"/>
+      <c r="D193" s="318"/>
       <c r="E193" s="154">
         <f t="array" ref="E193">MIN(IF(($B$8:$B$180=B193)*($D$8:$D$180=D193), $E$8:$E$180))</f>
         <v>0</v>
@@ -22308,17 +22320,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J193" s="268"/>
-      <c r="K193" s="283"/>
-      <c r="L193" s="284"/>
+      <c r="J193" s="270"/>
+      <c r="K193" s="301"/>
+      <c r="L193" s="302"/>
     </row>
     <row r="194" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A194" s="227">
+      <c r="A194" s="226">
         <v>10</v>
       </c>
       <c r="B194" s="88"/>
       <c r="C194" s="88"/>
-      <c r="D194" s="88"/>
+      <c r="D194" s="318"/>
       <c r="E194" s="154">
         <f t="array" ref="E194">MIN(IF(($B$8:$B$180=B194)*($D$8:$D$180=D194), $E$8:$E$180))</f>
         <v>0</v>
@@ -22339,17 +22351,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J194" s="268"/>
-      <c r="K194" s="283"/>
-      <c r="L194" s="284"/>
+      <c r="J194" s="270"/>
+      <c r="K194" s="301"/>
+      <c r="L194" s="302"/>
     </row>
     <row r="195" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A195" s="227">
+      <c r="A195" s="226">
         <v>11</v>
       </c>
       <c r="B195" s="88"/>
       <c r="C195" s="88"/>
-      <c r="D195" s="88"/>
+      <c r="D195" s="318"/>
       <c r="E195" s="154">
         <f t="array" ref="E195">MIN(IF(($B$8:$B$180=B195)*($D$8:$D$180=D195), $E$8:$E$180))</f>
         <v>0</v>
@@ -22370,17 +22382,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J195" s="268"/>
-      <c r="K195" s="283"/>
-      <c r="L195" s="284"/>
+      <c r="J195" s="270"/>
+      <c r="K195" s="301"/>
+      <c r="L195" s="302"/>
     </row>
     <row r="196" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A196" s="227">
+      <c r="A196" s="226">
         <v>12</v>
       </c>
       <c r="B196" s="88"/>
       <c r="C196" s="88"/>
-      <c r="D196" s="88"/>
+      <c r="D196" s="318"/>
       <c r="E196" s="154">
         <f t="array" ref="E196">MIN(IF(($B$8:$B$180=B196)*($D$8:$D$180=D196), $E$8:$E$180))</f>
         <v>0</v>
@@ -22401,17 +22413,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J196" s="268"/>
-      <c r="K196" s="283"/>
-      <c r="L196" s="284"/>
+      <c r="J196" s="270"/>
+      <c r="K196" s="301"/>
+      <c r="L196" s="302"/>
     </row>
     <row r="197" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A197" s="227">
+      <c r="A197" s="226">
         <v>13</v>
       </c>
       <c r="B197" s="88"/>
       <c r="C197" s="88"/>
-      <c r="D197" s="88"/>
+      <c r="D197" s="318"/>
       <c r="E197" s="154">
         <f t="array" ref="E197">MIN(IF(($B$8:$B$180=B197)*($D$8:$D$180=D197), $E$8:$E$180))</f>
         <v>0</v>
@@ -22432,17 +22444,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J197" s="268"/>
-      <c r="K197" s="283"/>
-      <c r="L197" s="284"/>
+      <c r="J197" s="270"/>
+      <c r="K197" s="301"/>
+      <c r="L197" s="302"/>
     </row>
     <row r="198" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A198" s="228">
+      <c r="A198" s="227">
         <v>14</v>
       </c>
       <c r="B198" s="147"/>
       <c r="C198" s="147"/>
-      <c r="D198" s="147"/>
+      <c r="D198" s="319"/>
       <c r="E198" s="154">
         <f t="array" ref="E198">MIN(IF(($B$8:$B$180=B198)*($D$8:$D$180=D198), $E$8:$E$180))</f>
         <v>0</v>
@@ -22463,17 +22475,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J198" s="266"/>
-      <c r="K198" s="290"/>
-      <c r="L198" s="286"/>
+      <c r="J198" s="278"/>
+      <c r="K198" s="305"/>
+      <c r="L198" s="306"/>
     </row>
     <row r="199" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A199" s="280" t="s">
+      <c r="A199" s="288" t="s">
         <v>397</v>
       </c>
-      <c r="B199" s="278"/>
-      <c r="C199" s="278"/>
-      <c r="D199" s="279"/>
+      <c r="B199" s="273"/>
+      <c r="C199" s="273"/>
+      <c r="D199" s="274"/>
       <c r="E199" s="168"/>
       <c r="F199" s="159">
         <f>SUM(F185:F198)</f>
@@ -22487,16 +22499,16 @@
         <f>SUM(H185:H198)</f>
         <v>0</v>
       </c>
-      <c r="I199" s="298">
+      <c r="I199" s="243">
         <f>SUM(I185:I198)</f>
         <v>0</v>
       </c>
-      <c r="J199" s="285"/>
-      <c r="K199" s="278"/>
-      <c r="L199" s="279"/>
+      <c r="J199" s="314"/>
+      <c r="K199" s="273"/>
+      <c r="L199" s="274"/>
     </row>
     <row r="200" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A200" s="233"/>
+      <c r="A200" s="232"/>
       <c r="B200" s="23"/>
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
@@ -22510,20 +22522,20 @@
       <c r="L200" s="83"/>
     </row>
     <row r="201" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A201" s="289" t="s">
+      <c r="A201" s="312" t="s">
         <v>406</v>
       </c>
-      <c r="B201" s="265"/>
-      <c r="C201" s="265"/>
-      <c r="D201" s="265"/>
-      <c r="E201" s="265"/>
-      <c r="F201" s="265"/>
-      <c r="G201" s="265"/>
-      <c r="H201" s="265"/>
-      <c r="I201" s="265"/>
-      <c r="J201" s="265"/>
-      <c r="K201" s="265"/>
-      <c r="L201" s="265"/>
+      <c r="B201" s="276"/>
+      <c r="C201" s="276"/>
+      <c r="D201" s="276"/>
+      <c r="E201" s="276"/>
+      <c r="F201" s="276"/>
+      <c r="G201" s="276"/>
+      <c r="H201" s="276"/>
+      <c r="I201" s="276"/>
+      <c r="J201" s="276"/>
+      <c r="K201" s="276"/>
+      <c r="L201" s="276"/>
     </row>
     <row r="202" spans="1:12" ht="12.95" customHeight="1">
       <c r="B202" s="30"/>
@@ -22539,221 +22551,221 @@
       <c r="L202" s="26"/>
     </row>
     <row r="203" spans="1:12" s="20" customFormat="1" ht="22.9" customHeight="1">
-      <c r="A203" s="234" t="s">
+      <c r="A203" s="233" t="s">
         <v>388</v>
       </c>
-      <c r="B203" s="288" t="s">
+      <c r="B203" s="313" t="s">
         <v>407</v>
       </c>
-      <c r="C203" s="279"/>
-      <c r="D203" s="292" t="s">
+      <c r="C203" s="274"/>
+      <c r="D203" s="293" t="s">
         <v>408</v>
       </c>
-      <c r="E203" s="278"/>
-      <c r="F203" s="278"/>
-      <c r="G203" s="278"/>
-      <c r="H203" s="278"/>
-      <c r="I203" s="278"/>
-      <c r="J203" s="278"/>
-      <c r="K203" s="279"/>
+      <c r="E203" s="273"/>
+      <c r="F203" s="273"/>
+      <c r="G203" s="273"/>
+      <c r="H203" s="273"/>
+      <c r="I203" s="273"/>
+      <c r="J203" s="273"/>
+      <c r="K203" s="274"/>
       <c r="L203" s="18" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="204" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A204" s="243">
+      <c r="A204" s="242">
         <v>1</v>
       </c>
-      <c r="B204" s="310"/>
-      <c r="C204" s="311"/>
-      <c r="D204" s="299"/>
-      <c r="E204" s="300"/>
-      <c r="F204" s="300"/>
-      <c r="G204" s="300"/>
-      <c r="H204" s="300"/>
-      <c r="I204" s="300"/>
-      <c r="J204" s="300"/>
-      <c r="K204" s="301"/>
+      <c r="B204" s="307"/>
+      <c r="C204" s="308"/>
+      <c r="D204" s="303"/>
+      <c r="E204" s="292"/>
+      <c r="F204" s="292"/>
+      <c r="G204" s="292"/>
+      <c r="H204" s="292"/>
+      <c r="I204" s="292"/>
+      <c r="J204" s="292"/>
+      <c r="K204" s="290"/>
       <c r="L204" s="119"/>
     </row>
     <row r="205" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A205" s="227">
+      <c r="A205" s="226">
         <v>2</v>
       </c>
-      <c r="B205" s="310"/>
-      <c r="C205" s="311"/>
-      <c r="D205" s="302"/>
-      <c r="E205" s="303"/>
-      <c r="F205" s="303"/>
-      <c r="G205" s="303"/>
-      <c r="H205" s="303"/>
-      <c r="I205" s="303"/>
-      <c r="J205" s="303"/>
-      <c r="K205" s="304"/>
+      <c r="B205" s="307"/>
+      <c r="C205" s="308"/>
+      <c r="D205" s="297"/>
+      <c r="E205" s="298"/>
+      <c r="F205" s="298"/>
+      <c r="G205" s="298"/>
+      <c r="H205" s="298"/>
+      <c r="I205" s="298"/>
+      <c r="J205" s="298"/>
+      <c r="K205" s="299"/>
       <c r="L205" s="120"/>
     </row>
     <row r="206" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A206" s="227">
+      <c r="A206" s="226">
         <v>3</v>
       </c>
-      <c r="B206" s="310"/>
-      <c r="C206" s="311"/>
-      <c r="D206" s="305"/>
-      <c r="E206" s="303"/>
-      <c r="F206" s="303"/>
-      <c r="G206" s="303"/>
-      <c r="H206" s="303"/>
-      <c r="I206" s="303"/>
-      <c r="J206" s="303"/>
-      <c r="K206" s="304"/>
+      <c r="B206" s="307"/>
+      <c r="C206" s="308"/>
+      <c r="D206" s="304"/>
+      <c r="E206" s="298"/>
+      <c r="F206" s="298"/>
+      <c r="G206" s="298"/>
+      <c r="H206" s="298"/>
+      <c r="I206" s="298"/>
+      <c r="J206" s="298"/>
+      <c r="K206" s="299"/>
       <c r="L206" s="121"/>
     </row>
     <row r="207" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A207" s="227">
+      <c r="A207" s="226">
         <v>4</v>
       </c>
-      <c r="B207" s="310"/>
-      <c r="C207" s="311"/>
-      <c r="D207" s="302"/>
-      <c r="E207" s="303"/>
-      <c r="F207" s="303"/>
-      <c r="G207" s="303"/>
-      <c r="H207" s="303"/>
-      <c r="I207" s="303"/>
-      <c r="J207" s="303"/>
-      <c r="K207" s="304"/>
+      <c r="B207" s="307"/>
+      <c r="C207" s="308"/>
+      <c r="D207" s="297"/>
+      <c r="E207" s="298"/>
+      <c r="F207" s="298"/>
+      <c r="G207" s="298"/>
+      <c r="H207" s="298"/>
+      <c r="I207" s="298"/>
+      <c r="J207" s="298"/>
+      <c r="K207" s="299"/>
       <c r="L207" s="120"/>
     </row>
     <row r="208" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A208" s="227">
+      <c r="A208" s="226">
         <v>5</v>
       </c>
-      <c r="B208" s="310"/>
-      <c r="C208" s="311"/>
-      <c r="D208" s="302"/>
-      <c r="E208" s="303"/>
-      <c r="F208" s="303"/>
-      <c r="G208" s="303"/>
-      <c r="H208" s="303"/>
-      <c r="I208" s="303"/>
-      <c r="J208" s="303"/>
-      <c r="K208" s="304"/>
+      <c r="B208" s="307"/>
+      <c r="C208" s="308"/>
+      <c r="D208" s="297"/>
+      <c r="E208" s="298"/>
+      <c r="F208" s="298"/>
+      <c r="G208" s="298"/>
+      <c r="H208" s="298"/>
+      <c r="I208" s="298"/>
+      <c r="J208" s="298"/>
+      <c r="K208" s="299"/>
       <c r="L208" s="120"/>
     </row>
     <row r="209" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A209" s="227">
+      <c r="A209" s="226">
         <v>6</v>
       </c>
-      <c r="B209" s="310"/>
-      <c r="C209" s="311"/>
-      <c r="D209" s="302"/>
-      <c r="E209" s="303"/>
-      <c r="F209" s="303"/>
-      <c r="G209" s="303"/>
-      <c r="H209" s="303"/>
-      <c r="I209" s="303"/>
-      <c r="J209" s="303"/>
-      <c r="K209" s="304"/>
+      <c r="B209" s="307"/>
+      <c r="C209" s="308"/>
+      <c r="D209" s="297"/>
+      <c r="E209" s="298"/>
+      <c r="F209" s="298"/>
+      <c r="G209" s="298"/>
+      <c r="H209" s="298"/>
+      <c r="I209" s="298"/>
+      <c r="J209" s="298"/>
+      <c r="K209" s="299"/>
       <c r="L209" s="120"/>
     </row>
     <row r="210" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A210" s="227">
+      <c r="A210" s="226">
         <v>7</v>
       </c>
-      <c r="B210" s="310"/>
-      <c r="C210" s="311"/>
-      <c r="D210" s="302"/>
-      <c r="E210" s="303"/>
-      <c r="F210" s="303"/>
-      <c r="G210" s="303"/>
-      <c r="H210" s="303"/>
-      <c r="I210" s="303"/>
-      <c r="J210" s="303"/>
-      <c r="K210" s="304"/>
+      <c r="B210" s="307"/>
+      <c r="C210" s="308"/>
+      <c r="D210" s="297"/>
+      <c r="E210" s="298"/>
+      <c r="F210" s="298"/>
+      <c r="G210" s="298"/>
+      <c r="H210" s="298"/>
+      <c r="I210" s="298"/>
+      <c r="J210" s="298"/>
+      <c r="K210" s="299"/>
       <c r="L210" s="120"/>
     </row>
     <row r="211" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A211" s="227">
+      <c r="A211" s="226">
         <v>8</v>
       </c>
-      <c r="B211" s="310"/>
-      <c r="C211" s="311"/>
-      <c r="D211" s="302"/>
-      <c r="E211" s="303"/>
-      <c r="F211" s="303"/>
-      <c r="G211" s="303"/>
-      <c r="H211" s="303"/>
-      <c r="I211" s="303"/>
-      <c r="J211" s="303"/>
-      <c r="K211" s="304"/>
+      <c r="B211" s="307"/>
+      <c r="C211" s="308"/>
+      <c r="D211" s="297"/>
+      <c r="E211" s="298"/>
+      <c r="F211" s="298"/>
+      <c r="G211" s="298"/>
+      <c r="H211" s="298"/>
+      <c r="I211" s="298"/>
+      <c r="J211" s="298"/>
+      <c r="K211" s="299"/>
       <c r="L211" s="120"/>
     </row>
     <row r="212" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A212" s="227">
+      <c r="A212" s="226">
         <v>9</v>
       </c>
-      <c r="B212" s="310"/>
-      <c r="C212" s="311"/>
-      <c r="D212" s="302"/>
-      <c r="E212" s="303"/>
-      <c r="F212" s="303"/>
-      <c r="G212" s="303"/>
-      <c r="H212" s="303"/>
-      <c r="I212" s="303"/>
-      <c r="J212" s="303"/>
-      <c r="K212" s="304"/>
+      <c r="B212" s="307"/>
+      <c r="C212" s="308"/>
+      <c r="D212" s="297"/>
+      <c r="E212" s="298"/>
+      <c r="F212" s="298"/>
+      <c r="G212" s="298"/>
+      <c r="H212" s="298"/>
+      <c r="I212" s="298"/>
+      <c r="J212" s="298"/>
+      <c r="K212" s="299"/>
       <c r="L212" s="120"/>
     </row>
     <row r="213" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A213" s="228">
+      <c r="A213" s="227">
         <v>10</v>
       </c>
-      <c r="B213" s="310"/>
-      <c r="C213" s="311"/>
-      <c r="D213" s="306"/>
-      <c r="E213" s="307"/>
-      <c r="F213" s="307"/>
-      <c r="G213" s="307"/>
-      <c r="H213" s="307"/>
-      <c r="I213" s="307"/>
-      <c r="J213" s="307"/>
-      <c r="K213" s="308"/>
+      <c r="B213" s="307"/>
+      <c r="C213" s="308"/>
+      <c r="D213" s="294"/>
+      <c r="E213" s="295"/>
+      <c r="F213" s="295"/>
+      <c r="G213" s="295"/>
+      <c r="H213" s="295"/>
+      <c r="I213" s="295"/>
+      <c r="J213" s="295"/>
+      <c r="K213" s="296"/>
       <c r="L213" s="122"/>
     </row>
     <row r="214" spans="1:12" ht="15" customHeight="1">
-      <c r="A214" s="281" t="s">
+      <c r="A214" s="272" t="s">
         <v>386</v>
       </c>
-      <c r="B214" s="278"/>
-      <c r="C214" s="278"/>
-      <c r="D214" s="278"/>
-      <c r="E214" s="278"/>
-      <c r="F214" s="278"/>
-      <c r="G214" s="278"/>
-      <c r="H214" s="278"/>
-      <c r="I214" s="278"/>
-      <c r="J214" s="278"/>
-      <c r="K214" s="279"/>
+      <c r="B214" s="273"/>
+      <c r="C214" s="273"/>
+      <c r="D214" s="273"/>
+      <c r="E214" s="273"/>
+      <c r="F214" s="273"/>
+      <c r="G214" s="273"/>
+      <c r="H214" s="273"/>
+      <c r="I214" s="273"/>
+      <c r="J214" s="273"/>
+      <c r="K214" s="274"/>
       <c r="L214" s="163">
         <f>SUM(L204:L213)</f>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A215" s="289" t="s">
+      <c r="A215" s="312" t="s">
         <v>410</v>
       </c>
-      <c r="B215" s="265"/>
-      <c r="C215" s="265"/>
-      <c r="D215" s="265"/>
-      <c r="E215" s="265"/>
-      <c r="F215" s="265"/>
-      <c r="G215" s="265"/>
-      <c r="H215" s="265"/>
-      <c r="I215" s="265"/>
-      <c r="J215" s="265"/>
-      <c r="K215" s="265"/>
-      <c r="L215" s="265"/>
+      <c r="B215" s="276"/>
+      <c r="C215" s="276"/>
+      <c r="D215" s="276"/>
+      <c r="E215" s="276"/>
+      <c r="F215" s="276"/>
+      <c r="G215" s="276"/>
+      <c r="H215" s="276"/>
+      <c r="I215" s="276"/>
+      <c r="J215" s="276"/>
+      <c r="K215" s="276"/>
+      <c r="L215" s="276"/>
     </row>
     <row r="216" spans="1:12" ht="9" customHeight="1">
       <c r="B216" s="30"/>
@@ -22769,201 +22781,201 @@
       <c r="L216" s="26"/>
     </row>
     <row r="217" spans="1:12" s="20" customFormat="1" ht="22.9" customHeight="1">
-      <c r="A217" s="234" t="s">
+      <c r="A217" s="233" t="s">
         <v>388</v>
       </c>
-      <c r="B217" s="288" t="s">
+      <c r="B217" s="313" t="s">
         <v>407</v>
       </c>
-      <c r="C217" s="279"/>
-      <c r="D217" s="292" t="s">
+      <c r="C217" s="274"/>
+      <c r="D217" s="293" t="s">
         <v>408</v>
       </c>
-      <c r="E217" s="278"/>
-      <c r="F217" s="278"/>
-      <c r="G217" s="278"/>
-      <c r="H217" s="278"/>
-      <c r="I217" s="278"/>
-      <c r="J217" s="278"/>
-      <c r="K217" s="279"/>
+      <c r="E217" s="273"/>
+      <c r="F217" s="273"/>
+      <c r="G217" s="273"/>
+      <c r="H217" s="273"/>
+      <c r="I217" s="273"/>
+      <c r="J217" s="273"/>
+      <c r="K217" s="274"/>
       <c r="L217" s="18" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="218" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A218" s="243">
+      <c r="A218" s="242">
         <v>1</v>
       </c>
-      <c r="B218" s="287"/>
-      <c r="C218" s="301"/>
-      <c r="D218" s="309"/>
-      <c r="E218" s="300"/>
-      <c r="F218" s="300"/>
-      <c r="G218" s="300"/>
-      <c r="H218" s="300"/>
-      <c r="I218" s="300"/>
-      <c r="J218" s="300"/>
-      <c r="K218" s="301"/>
+      <c r="B218" s="289"/>
+      <c r="C218" s="290"/>
+      <c r="D218" s="291"/>
+      <c r="E218" s="292"/>
+      <c r="F218" s="292"/>
+      <c r="G218" s="292"/>
+      <c r="H218" s="292"/>
+      <c r="I218" s="292"/>
+      <c r="J218" s="292"/>
+      <c r="K218" s="290"/>
       <c r="L218" s="119"/>
     </row>
     <row r="219" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A219" s="227">
+      <c r="A219" s="226">
         <v>2</v>
       </c>
-      <c r="B219" s="287"/>
-      <c r="C219" s="301"/>
-      <c r="D219" s="302"/>
-      <c r="E219" s="303"/>
-      <c r="F219" s="303"/>
-      <c r="G219" s="303"/>
-      <c r="H219" s="303"/>
-      <c r="I219" s="303"/>
-      <c r="J219" s="303"/>
-      <c r="K219" s="304"/>
+      <c r="B219" s="289"/>
+      <c r="C219" s="290"/>
+      <c r="D219" s="297"/>
+      <c r="E219" s="298"/>
+      <c r="F219" s="298"/>
+      <c r="G219" s="298"/>
+      <c r="H219" s="298"/>
+      <c r="I219" s="298"/>
+      <c r="J219" s="298"/>
+      <c r="K219" s="299"/>
       <c r="L219" s="120"/>
     </row>
     <row r="220" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A220" s="227">
+      <c r="A220" s="226">
         <v>3</v>
       </c>
-      <c r="B220" s="287"/>
-      <c r="C220" s="301"/>
-      <c r="D220" s="305"/>
-      <c r="E220" s="303"/>
-      <c r="F220" s="303"/>
-      <c r="G220" s="303"/>
-      <c r="H220" s="303"/>
-      <c r="I220" s="303"/>
-      <c r="J220" s="303"/>
-      <c r="K220" s="304"/>
+      <c r="B220" s="289"/>
+      <c r="C220" s="290"/>
+      <c r="D220" s="304"/>
+      <c r="E220" s="298"/>
+      <c r="F220" s="298"/>
+      <c r="G220" s="298"/>
+      <c r="H220" s="298"/>
+      <c r="I220" s="298"/>
+      <c r="J220" s="298"/>
+      <c r="K220" s="299"/>
       <c r="L220" s="121"/>
     </row>
     <row r="221" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A221" s="227">
+      <c r="A221" s="226">
         <v>4</v>
       </c>
-      <c r="B221" s="287"/>
-      <c r="C221" s="301"/>
-      <c r="D221" s="302"/>
-      <c r="E221" s="303"/>
-      <c r="F221" s="303"/>
-      <c r="G221" s="303"/>
-      <c r="H221" s="303"/>
-      <c r="I221" s="303"/>
-      <c r="J221" s="303"/>
-      <c r="K221" s="304"/>
+      <c r="B221" s="289"/>
+      <c r="C221" s="290"/>
+      <c r="D221" s="297"/>
+      <c r="E221" s="298"/>
+      <c r="F221" s="298"/>
+      <c r="G221" s="298"/>
+      <c r="H221" s="298"/>
+      <c r="I221" s="298"/>
+      <c r="J221" s="298"/>
+      <c r="K221" s="299"/>
       <c r="L221" s="120"/>
     </row>
     <row r="222" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A222" s="227">
+      <c r="A222" s="226">
         <v>5</v>
       </c>
-      <c r="B222" s="287"/>
-      <c r="C222" s="301"/>
-      <c r="D222" s="302"/>
-      <c r="E222" s="303"/>
-      <c r="F222" s="303"/>
-      <c r="G222" s="303"/>
-      <c r="H222" s="303"/>
-      <c r="I222" s="303"/>
-      <c r="J222" s="303"/>
-      <c r="K222" s="304"/>
+      <c r="B222" s="289"/>
+      <c r="C222" s="290"/>
+      <c r="D222" s="297"/>
+      <c r="E222" s="298"/>
+      <c r="F222" s="298"/>
+      <c r="G222" s="298"/>
+      <c r="H222" s="298"/>
+      <c r="I222" s="298"/>
+      <c r="J222" s="298"/>
+      <c r="K222" s="299"/>
       <c r="L222" s="120"/>
     </row>
     <row r="223" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A223" s="227">
+      <c r="A223" s="226">
         <v>6</v>
       </c>
-      <c r="B223" s="287"/>
-      <c r="C223" s="301"/>
-      <c r="D223" s="302"/>
-      <c r="E223" s="303"/>
-      <c r="F223" s="303"/>
-      <c r="G223" s="303"/>
-      <c r="H223" s="303"/>
-      <c r="I223" s="303"/>
-      <c r="J223" s="303"/>
-      <c r="K223" s="304"/>
+      <c r="B223" s="289"/>
+      <c r="C223" s="290"/>
+      <c r="D223" s="297"/>
+      <c r="E223" s="298"/>
+      <c r="F223" s="298"/>
+      <c r="G223" s="298"/>
+      <c r="H223" s="298"/>
+      <c r="I223" s="298"/>
+      <c r="J223" s="298"/>
+      <c r="K223" s="299"/>
       <c r="L223" s="120"/>
     </row>
     <row r="224" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A224" s="227">
+      <c r="A224" s="226">
         <v>7</v>
       </c>
-      <c r="B224" s="287"/>
-      <c r="C224" s="301"/>
-      <c r="D224" s="302"/>
-      <c r="E224" s="303"/>
-      <c r="F224" s="303"/>
-      <c r="G224" s="303"/>
-      <c r="H224" s="303"/>
-      <c r="I224" s="303"/>
-      <c r="J224" s="303"/>
-      <c r="K224" s="304"/>
+      <c r="B224" s="289"/>
+      <c r="C224" s="290"/>
+      <c r="D224" s="297"/>
+      <c r="E224" s="298"/>
+      <c r="F224" s="298"/>
+      <c r="G224" s="298"/>
+      <c r="H224" s="298"/>
+      <c r="I224" s="298"/>
+      <c r="J224" s="298"/>
+      <c r="K224" s="299"/>
       <c r="L224" s="120"/>
     </row>
     <row r="225" spans="1:13" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A225" s="227">
+      <c r="A225" s="226">
         <v>8</v>
       </c>
-      <c r="B225" s="287"/>
-      <c r="C225" s="301"/>
-      <c r="D225" s="302"/>
-      <c r="E225" s="303"/>
-      <c r="F225" s="303"/>
-      <c r="G225" s="303"/>
-      <c r="H225" s="303"/>
-      <c r="I225" s="303"/>
-      <c r="J225" s="303"/>
-      <c r="K225" s="304"/>
+      <c r="B225" s="289"/>
+      <c r="C225" s="290"/>
+      <c r="D225" s="297"/>
+      <c r="E225" s="298"/>
+      <c r="F225" s="298"/>
+      <c r="G225" s="298"/>
+      <c r="H225" s="298"/>
+      <c r="I225" s="298"/>
+      <c r="J225" s="298"/>
+      <c r="K225" s="299"/>
       <c r="L225" s="120"/>
     </row>
     <row r="226" spans="1:13" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A226" s="227">
+      <c r="A226" s="226">
         <v>9</v>
       </c>
-      <c r="B226" s="287"/>
-      <c r="C226" s="301"/>
-      <c r="D226" s="302"/>
-      <c r="E226" s="303"/>
-      <c r="F226" s="303"/>
-      <c r="G226" s="303"/>
-      <c r="H226" s="303"/>
-      <c r="I226" s="303"/>
-      <c r="J226" s="303"/>
-      <c r="K226" s="304"/>
+      <c r="B226" s="289"/>
+      <c r="C226" s="290"/>
+      <c r="D226" s="297"/>
+      <c r="E226" s="298"/>
+      <c r="F226" s="298"/>
+      <c r="G226" s="298"/>
+      <c r="H226" s="298"/>
+      <c r="I226" s="298"/>
+      <c r="J226" s="298"/>
+      <c r="K226" s="299"/>
       <c r="L226" s="120"/>
     </row>
     <row r="227" spans="1:13" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A227" s="228">
+      <c r="A227" s="227">
         <v>10</v>
       </c>
-      <c r="B227" s="287"/>
-      <c r="C227" s="301"/>
-      <c r="D227" s="306"/>
-      <c r="E227" s="307"/>
-      <c r="F227" s="307"/>
-      <c r="G227" s="307"/>
-      <c r="H227" s="307"/>
-      <c r="I227" s="307"/>
-      <c r="J227" s="307"/>
-      <c r="K227" s="308"/>
+      <c r="B227" s="289"/>
+      <c r="C227" s="290"/>
+      <c r="D227" s="294"/>
+      <c r="E227" s="295"/>
+      <c r="F227" s="295"/>
+      <c r="G227" s="295"/>
+      <c r="H227" s="295"/>
+      <c r="I227" s="295"/>
+      <c r="J227" s="295"/>
+      <c r="K227" s="296"/>
       <c r="L227" s="122"/>
     </row>
     <row r="228" spans="1:13" ht="15" customHeight="1">
-      <c r="A228" s="281" t="s">
+      <c r="A228" s="272" t="s">
         <v>386</v>
       </c>
-      <c r="B228" s="278"/>
-      <c r="C228" s="278"/>
-      <c r="D228" s="278"/>
-      <c r="E228" s="278"/>
-      <c r="F228" s="278"/>
-      <c r="G228" s="278"/>
-      <c r="H228" s="278"/>
-      <c r="I228" s="278"/>
-      <c r="J228" s="278"/>
-      <c r="K228" s="279"/>
+      <c r="B228" s="273"/>
+      <c r="C228" s="273"/>
+      <c r="D228" s="273"/>
+      <c r="E228" s="273"/>
+      <c r="F228" s="273"/>
+      <c r="G228" s="273"/>
+      <c r="H228" s="273"/>
+      <c r="I228" s="273"/>
+      <c r="J228" s="273"/>
+      <c r="K228" s="274"/>
       <c r="L228" s="163">
         <f>SUM(L218:L227)</f>
         <v>0</v>
@@ -22997,176 +23009,176 @@
       <c r="K230" s="123"/>
       <c r="L230" s="23"/>
     </row>
-    <row r="231" spans="1:13" s="199" customFormat="1" ht="21" customHeight="1">
-      <c r="A231" s="235" t="s">
+    <row r="231" spans="1:13" s="198" customFormat="1" ht="21" customHeight="1">
+      <c r="A231" s="234" t="s">
         <v>411</v>
       </c>
-      <c r="B231" s="198" t="s">
+      <c r="B231" s="197" t="s">
         <v>412</v>
       </c>
       <c r="D231" s="169">
         <v>594</v>
       </c>
-      <c r="E231" s="313" t="s">
+      <c r="E231" s="245" t="s">
         <v>413</v>
       </c>
-      <c r="F231" s="314"/>
-      <c r="G231" s="315"/>
-      <c r="H231" s="315"/>
-      <c r="I231" s="315"/>
-      <c r="J231" s="315"/>
-      <c r="K231" s="315"/>
-      <c r="L231" s="316"/>
-      <c r="M231" s="200"/>
-    </row>
-    <row r="232" spans="1:13" s="199" customFormat="1" ht="21" customHeight="1">
-      <c r="A232" s="235" t="s">
+      <c r="F231" s="246"/>
+      <c r="G231" s="247"/>
+      <c r="H231" s="247"/>
+      <c r="I231" s="247"/>
+      <c r="J231" s="247"/>
+      <c r="K231" s="247"/>
+      <c r="L231" s="248"/>
+      <c r="M231" s="199"/>
+    </row>
+    <row r="232" spans="1:13" s="198" customFormat="1" ht="21" customHeight="1">
+      <c r="A232" s="234" t="s">
         <v>414</v>
       </c>
-      <c r="B232" s="198" t="s">
+      <c r="B232" s="197" t="s">
         <v>415</v>
       </c>
       <c r="D232" s="160">
         <f>L228</f>
         <v>0</v>
       </c>
-      <c r="E232" s="313" t="s">
+      <c r="E232" s="245" t="s">
         <v>416</v>
       </c>
-      <c r="F232" s="314"/>
-      <c r="G232" s="315"/>
-      <c r="H232" s="315"/>
-      <c r="I232" s="315"/>
-      <c r="J232" s="315"/>
-      <c r="K232" s="315"/>
-      <c r="L232" s="316"/>
-      <c r="M232" s="200"/>
-    </row>
-    <row r="233" spans="1:13" s="199" customFormat="1" ht="21" customHeight="1">
-      <c r="A233" s="235" t="s">
+      <c r="F232" s="246"/>
+      <c r="G232" s="247"/>
+      <c r="H232" s="247"/>
+      <c r="I232" s="247"/>
+      <c r="J232" s="247"/>
+      <c r="K232" s="247"/>
+      <c r="L232" s="248"/>
+      <c r="M232" s="199"/>
+    </row>
+    <row r="233" spans="1:13" s="198" customFormat="1" ht="21" customHeight="1">
+      <c r="A233" s="234" t="s">
         <v>417</v>
       </c>
-      <c r="B233" s="198" t="s">
+      <c r="B233" s="197" t="s">
         <v>418</v>
       </c>
       <c r="D233" s="160">
         <f>L214</f>
         <v>0</v>
       </c>
-      <c r="E233" s="313" t="s">
+      <c r="E233" s="245" t="s">
         <v>419</v>
       </c>
-      <c r="F233" s="314"/>
-      <c r="G233" s="315"/>
-      <c r="H233" s="315"/>
-      <c r="I233" s="315"/>
-      <c r="J233" s="315"/>
-      <c r="K233" s="315"/>
-      <c r="L233" s="316"/>
-      <c r="M233" s="200"/>
-    </row>
-    <row r="234" spans="1:13" s="199" customFormat="1" ht="21" customHeight="1">
-      <c r="A234" s="235" t="s">
+      <c r="F233" s="246"/>
+      <c r="G233" s="247"/>
+      <c r="H233" s="247"/>
+      <c r="I233" s="247"/>
+      <c r="J233" s="247"/>
+      <c r="K233" s="247"/>
+      <c r="L233" s="248"/>
+      <c r="M233" s="199"/>
+    </row>
+    <row r="234" spans="1:13" s="198" customFormat="1" ht="21" customHeight="1">
+      <c r="A234" s="234" t="s">
         <v>420</v>
       </c>
-      <c r="B234" s="198" t="s">
+      <c r="B234" s="197" t="s">
         <v>421</v>
       </c>
       <c r="D234" s="160">
         <f>Ke_gio_HK1!L180</f>
         <v>0</v>
       </c>
-      <c r="E234" s="313" t="s">
+      <c r="E234" s="245" t="s">
         <v>422</v>
       </c>
-      <c r="F234" s="314"/>
-      <c r="G234" s="315"/>
-      <c r="H234" s="315"/>
-      <c r="I234" s="315"/>
-      <c r="J234" s="315"/>
-      <c r="K234" s="315"/>
-      <c r="L234" s="316"/>
-      <c r="M234" s="200"/>
-    </row>
-    <row r="235" spans="1:13" s="199" customFormat="1" ht="21" customHeight="1">
-      <c r="A235" s="235" t="s">
+      <c r="F234" s="246"/>
+      <c r="G234" s="247"/>
+      <c r="H234" s="247"/>
+      <c r="I234" s="247"/>
+      <c r="J234" s="247"/>
+      <c r="K234" s="247"/>
+      <c r="L234" s="248"/>
+      <c r="M234" s="199"/>
+    </row>
+    <row r="235" spans="1:13" s="198" customFormat="1" ht="21" customHeight="1">
+      <c r="A235" s="234" t="s">
         <v>423</v>
       </c>
-      <c r="B235" s="198" t="s">
+      <c r="B235" s="197" t="s">
         <v>424</v>
       </c>
       <c r="D235" s="161">
         <f>I199</f>
         <v>0</v>
       </c>
-      <c r="E235" s="313" t="s">
+      <c r="E235" s="245" t="s">
         <v>425</v>
       </c>
-      <c r="F235" s="314"/>
-      <c r="G235" s="315"/>
-      <c r="H235" s="315"/>
-      <c r="I235" s="315"/>
-      <c r="J235" s="315"/>
-      <c r="K235" s="315"/>
-      <c r="L235" s="316"/>
-      <c r="M235" s="200"/>
-    </row>
-    <row r="236" spans="1:13" s="199" customFormat="1" ht="21" customHeight="1">
-      <c r="A236" s="235"/>
-      <c r="B236" s="317" t="s">
+      <c r="F235" s="246"/>
+      <c r="G235" s="247"/>
+      <c r="H235" s="247"/>
+      <c r="I235" s="247"/>
+      <c r="J235" s="247"/>
+      <c r="K235" s="247"/>
+      <c r="L235" s="248"/>
+      <c r="M235" s="199"/>
+    </row>
+    <row r="236" spans="1:13" s="198" customFormat="1" ht="21" customHeight="1">
+      <c r="A236" s="234"/>
+      <c r="B236" s="249" t="s">
         <v>426</v>
       </c>
       <c r="D236" s="162">
         <f>(D232+D233+D234+D235)-D231</f>
         <v>-594</v>
       </c>
-      <c r="E236" s="313" t="s">
+      <c r="E236" s="245" t="s">
         <v>427</v>
       </c>
-      <c r="F236" s="314"/>
-      <c r="G236" s="315"/>
-      <c r="H236" s="315"/>
-      <c r="I236" s="315"/>
-      <c r="J236" s="315"/>
-      <c r="K236" s="315"/>
-      <c r="L236" s="316"/>
-      <c r="M236" s="200"/>
-    </row>
-    <row r="237" spans="1:13" s="199" customFormat="1" ht="21" customHeight="1">
-      <c r="A237" s="235"/>
-      <c r="B237" s="317" t="s">
+      <c r="F236" s="246"/>
+      <c r="G236" s="247"/>
+      <c r="H236" s="247"/>
+      <c r="I236" s="247"/>
+      <c r="J236" s="247"/>
+      <c r="K236" s="247"/>
+      <c r="L236" s="248"/>
+      <c r="M236" s="199"/>
+    </row>
+    <row r="237" spans="1:13" s="198" customFormat="1" ht="21" customHeight="1">
+      <c r="A237" s="234"/>
+      <c r="B237" s="249" t="s">
         <v>428</v>
       </c>
       <c r="D237" s="148">
         <v>0</v>
       </c>
-      <c r="E237" s="201"/>
-      <c r="F237" s="202"/>
-      <c r="G237" s="200"/>
-      <c r="H237" s="200"/>
-      <c r="I237" s="200"/>
-      <c r="J237" s="200"/>
-      <c r="K237" s="200"/>
-      <c r="L237" s="203"/>
-      <c r="M237" s="200"/>
+      <c r="E237" s="200"/>
+      <c r="F237" s="201"/>
+      <c r="G237" s="199"/>
+      <c r="H237" s="199"/>
+      <c r="I237" s="199"/>
+      <c r="J237" s="199"/>
+      <c r="K237" s="199"/>
+      <c r="L237" s="202"/>
+      <c r="M237" s="199"/>
     </row>
     <row r="238" spans="1:13" s="57" customFormat="1" ht="39" customHeight="1">
-      <c r="A238" s="241" t="s">
+      <c r="A238" s="240" t="s">
         <v>398</v>
       </c>
-      <c r="B238" s="275" t="s">
+      <c r="B238" s="285" t="s">
         <v>399</v>
       </c>
-      <c r="C238" s="276"/>
-      <c r="D238" s="276"/>
-      <c r="E238" s="276"/>
-      <c r="F238" s="276"/>
-      <c r="G238" s="276"/>
-      <c r="H238" s="276"/>
-      <c r="I238" s="276"/>
-      <c r="J238" s="276"/>
-      <c r="K238" s="276"/>
-      <c r="L238" s="276"/>
+      <c r="C238" s="286"/>
+      <c r="D238" s="286"/>
+      <c r="E238" s="286"/>
+      <c r="F238" s="286"/>
+      <c r="G238" s="286"/>
+      <c r="H238" s="286"/>
+      <c r="I238" s="286"/>
+      <c r="J238" s="286"/>
+      <c r="K238" s="286"/>
+      <c r="L238" s="286"/>
     </row>
     <row r="239" spans="1:13" ht="15" customHeight="1">
       <c r="J239" s="173" t="s">
@@ -23174,23 +23186,23 @@
       </c>
       <c r="L239" s="87"/>
     </row>
-    <row r="240" spans="1:13" s="205" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A240" s="235"/>
-      <c r="B240" s="204" t="s">
+    <row r="240" spans="1:13" s="204" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A240" s="234"/>
+      <c r="B240" s="203" t="s">
         <v>401</v>
       </c>
-      <c r="D240" s="204" t="s">
+      <c r="D240" s="203" t="s">
         <v>402</v>
       </c>
-      <c r="E240" s="206"/>
-      <c r="F240" s="207"/>
-      <c r="G240" s="204" t="s">
+      <c r="E240" s="205"/>
+      <c r="F240" s="206"/>
+      <c r="G240" s="203" t="s">
         <v>403</v>
       </c>
-      <c r="J240" s="204" t="s">
+      <c r="J240" s="203" t="s">
         <v>404</v>
       </c>
-      <c r="K240" s="204"/>
+      <c r="K240" s="203"/>
     </row>
     <row r="241" spans="4:12" ht="15" customHeight="1"/>
     <row r="242" spans="4:12" ht="15" customHeight="1"/>
@@ -23204,20 +23216,59 @@
     <row r="244" spans="4:12" ht="15" customHeight="1">
       <c r="D244" s="27"/>
       <c r="E244" s="81"/>
-      <c r="J244" s="264"/>
-      <c r="K244" s="265"/>
-      <c r="L244" s="265"/>
+      <c r="J244" s="277"/>
+      <c r="K244" s="276"/>
+      <c r="L244" s="276"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D218:K218"/>
-    <mergeCell ref="D217:K217"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="D227:K227"/>
-    <mergeCell ref="D225:K225"/>
-    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="J190:L190"/>
+    <mergeCell ref="J199:L199"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="A182:L182"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="J184:L184"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:K207"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="J195:L195"/>
+    <mergeCell ref="J186:L186"/>
+    <mergeCell ref="J244:L244"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="D211:K211"/>
+    <mergeCell ref="D220:K220"/>
+    <mergeCell ref="A201:L201"/>
+    <mergeCell ref="D223:K223"/>
+    <mergeCell ref="D226:K226"/>
+    <mergeCell ref="B238:L238"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="A228:K228"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D222:K222"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="J188:L188"/>
+    <mergeCell ref="J194:L194"/>
+    <mergeCell ref="D212:K212"/>
+    <mergeCell ref="D205:K205"/>
+    <mergeCell ref="D224:K224"/>
+    <mergeCell ref="D221:K221"/>
+    <mergeCell ref="D219:K219"/>
+    <mergeCell ref="D213:K213"/>
+    <mergeCell ref="A215:L215"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="A214:K214"/>
+    <mergeCell ref="J197:L197"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="D209:K209"/>
     <mergeCell ref="A180:D180"/>
     <mergeCell ref="D203:K203"/>
     <mergeCell ref="J4:L4"/>
@@ -23234,53 +23285,14 @@
     <mergeCell ref="B205:C205"/>
     <mergeCell ref="J189:L189"/>
     <mergeCell ref="J185:L185"/>
-    <mergeCell ref="J188:L188"/>
-    <mergeCell ref="J194:L194"/>
-    <mergeCell ref="D212:K212"/>
-    <mergeCell ref="D205:K205"/>
-    <mergeCell ref="D224:K224"/>
-    <mergeCell ref="D221:K221"/>
-    <mergeCell ref="D219:K219"/>
-    <mergeCell ref="D213:K213"/>
-    <mergeCell ref="A215:L215"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="A214:K214"/>
-    <mergeCell ref="J197:L197"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="D209:K209"/>
-    <mergeCell ref="J244:L244"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="D211:K211"/>
-    <mergeCell ref="D220:K220"/>
-    <mergeCell ref="A201:L201"/>
-    <mergeCell ref="D223:K223"/>
-    <mergeCell ref="D226:K226"/>
-    <mergeCell ref="B238:L238"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="A228:K228"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="D222:K222"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="J190:L190"/>
-    <mergeCell ref="J199:L199"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="A182:L182"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="J184:L184"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D207:K207"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="J195:L195"/>
-    <mergeCell ref="J186:L186"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D218:K218"/>
+    <mergeCell ref="D217:K217"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="D227:K227"/>
+    <mergeCell ref="D225:K225"/>
+    <mergeCell ref="B226:C226"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -23887,42 +23899,42 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="F25" s="296" t="s">
+      <c r="F25" s="315" t="s">
         <v>499</v>
       </c>
-      <c r="G25" s="258"/>
-      <c r="H25" s="297"/>
-      <c r="I25" s="258"/>
+      <c r="G25" s="264"/>
+      <c r="H25" s="316"/>
+      <c r="I25" s="264"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="F26" s="258"/>
-      <c r="G26" s="258"/>
-      <c r="H26" s="297"/>
-      <c r="I26" s="258"/>
+      <c r="F26" s="264"/>
+      <c r="G26" s="264"/>
+      <c r="H26" s="316"/>
+      <c r="I26" s="264"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="F27" s="258"/>
-      <c r="G27" s="258"/>
-      <c r="H27" s="297"/>
-      <c r="I27" s="258"/>
+      <c r="F27" s="264"/>
+      <c r="G27" s="264"/>
+      <c r="H27" s="316"/>
+      <c r="I27" s="264"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="F28" s="258"/>
-      <c r="G28" s="258"/>
-      <c r="H28" s="297"/>
-      <c r="I28" s="258"/>
+      <c r="F28" s="264"/>
+      <c r="G28" s="264"/>
+      <c r="H28" s="316"/>
+      <c r="I28" s="264"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="F29" s="258"/>
-      <c r="G29" s="258"/>
-      <c r="H29" s="297"/>
-      <c r="I29" s="258"/>
+      <c r="F29" s="264"/>
+      <c r="G29" s="264"/>
+      <c r="H29" s="316"/>
+      <c r="I29" s="264"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="F30" s="258"/>
-      <c r="G30" s="258"/>
-      <c r="H30" s="297"/>
-      <c r="I30" s="258"/>
+      <c r="F30" s="264"/>
+      <c r="G30" s="264"/>
+      <c r="H30" s="316"/>
+      <c r="I30" s="264"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data_base/mau_kegio.xlsx
+++ b/data_base/mau_kegio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sumik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0E07FD-7CBC-4A74-9994-0E29EA0CE5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E721910-098E-4996-903A-1A9A4406A619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hướng dẫn" sheetId="1" r:id="rId1"/>
@@ -2323,7 +2323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2643,6 +2643,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2664,7 +2690,7 @@
     <xf numFmtId="172" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3490,6 +3516,22 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3528,39 +3570,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -3589,10 +3617,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
@@ -3601,116 +3653,114 @@
       <alignment shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -4561,25 +4611,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="16.899999999999999" customHeight="1">
-      <c r="A2" s="250" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
+      <c r="A2" s="254" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" ht="17.45" customHeight="1">
       <c r="A3" s="6"/>
@@ -4770,18 +4820,18 @@
     </row>
     <row r="22" spans="1:256" s="191" customFormat="1" ht="18" customHeight="1">
       <c r="B22" s="192"/>
-      <c r="C22" s="256" t="s">
+      <c r="C22" s="260" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="257"/>
-      <c r="E22" s="257"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="257"/>
-      <c r="H22" s="257"/>
-      <c r="I22" s="257"/>
-      <c r="J22" s="257"/>
-      <c r="K22" s="257"/>
-      <c r="L22" s="257"/>
+      <c r="D22" s="261"/>
+      <c r="E22" s="261"/>
+      <c r="F22" s="261"/>
+      <c r="G22" s="261"/>
+      <c r="H22" s="261"/>
+      <c r="I22" s="261"/>
+      <c r="J22" s="261"/>
+      <c r="K22" s="261"/>
+      <c r="L22" s="261"/>
     </row>
     <row r="23" spans="1:256" ht="21" customHeight="1">
       <c r="A23" s="5">
@@ -5761,18 +5811,18 @@
       <c r="C54" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="254" t="s">
+      <c r="D54" s="258" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="255"/>
-      <c r="F54" s="254" t="s">
+      <c r="E54" s="259"/>
+      <c r="F54" s="258" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="255"/>
-      <c r="H54" s="254" t="s">
+      <c r="G54" s="259"/>
+      <c r="H54" s="258" t="s">
         <v>24</v>
       </c>
-      <c r="I54" s="255"/>
+      <c r="I54" s="259"/>
       <c r="J54" s="138" t="s">
         <v>25</v>
       </c>
@@ -5959,18 +6009,18 @@
       <c r="C62" s="140">
         <v>7</v>
       </c>
-      <c r="D62" s="252" t="s">
+      <c r="D62" s="256" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="253"/>
-      <c r="F62" s="252" t="s">
+      <c r="E62" s="257"/>
+      <c r="F62" s="256" t="s">
         <v>30</v>
       </c>
-      <c r="G62" s="253"/>
-      <c r="H62" s="252" t="s">
+      <c r="G62" s="257"/>
+      <c r="H62" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="I62" s="253"/>
+      <c r="I62" s="257"/>
       <c r="J62" s="143">
         <v>1.3</v>
       </c>
@@ -6158,36 +6208,36 @@
       <c r="R1" s="96"/>
     </row>
     <row r="2" spans="1:19" ht="21" customHeight="1">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="265" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
-      <c r="K2" s="264"/>
-      <c r="L2" s="264"/>
-      <c r="M2" s="264"/>
-      <c r="N2" s="264"/>
-      <c r="O2" s="264"/>
-      <c r="P2" s="264"/>
-      <c r="Q2" s="264"/>
-      <c r="R2" s="264"/>
-      <c r="S2" s="264"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="268"/>
+      <c r="H2" s="268"/>
+      <c r="I2" s="268"/>
+      <c r="J2" s="268"/>
+      <c r="K2" s="268"/>
+      <c r="L2" s="268"/>
+      <c r="M2" s="268"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="268"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="268"/>
+      <c r="S2" s="268"/>
     </row>
     <row r="4" spans="1:19" ht="21" customHeight="1">
-      <c r="A4" s="265" t="s">
+      <c r="A4" s="269" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="266"/>
-      <c r="C4" s="266"/>
-      <c r="D4" s="266"/>
-      <c r="E4" s="255"/>
+      <c r="B4" s="270"/>
+      <c r="C4" s="270"/>
+      <c r="D4" s="270"/>
+      <c r="E4" s="259"/>
       <c r="F4" s="104" t="s">
         <v>52</v>
       </c>
@@ -6227,16 +6277,16 @@
       <c r="R4" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="258" t="s">
+      <c r="S4" s="262" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="37.15" customHeight="1">
-      <c r="A5" s="267"/>
-      <c r="B5" s="268"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="269"/>
+      <c r="A5" s="271"/>
+      <c r="B5" s="272"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="273"/>
       <c r="F5" s="137" t="s">
         <v>66</v>
       </c>
@@ -6276,7 +6326,7 @@
       <c r="R5" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="S5" s="259"/>
+      <c r="S5" s="263"/>
     </row>
     <row r="6" spans="1:19" s="39" customFormat="1" ht="21.6" customHeight="1">
       <c r="A6" s="103" t="s">
@@ -6329,7 +6379,7 @@
       <c r="R6" s="133">
         <v>45839</v>
       </c>
-      <c r="S6" s="260"/>
+      <c r="S6" s="264"/>
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1">
       <c r="A7" s="40" t="s">
@@ -13949,8 +13999,8 @@
   </sheetPr>
   <dimension ref="A1:N211"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="A181" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185:D202"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A180" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F203" sqref="F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -13978,14 +14028,14 @@
       <c r="D1" s="280" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
+      <c r="E1" s="275"/>
+      <c r="F1" s="275"/>
+      <c r="G1" s="275"/>
+      <c r="H1" s="275"/>
+      <c r="I1" s="275"/>
+      <c r="J1" s="275"/>
+      <c r="K1" s="275"/>
+      <c r="L1" s="275"/>
     </row>
     <row r="2" spans="1:12">
       <c r="B2" s="11"/>
@@ -14019,9 +14069,9 @@
         <v>369</v>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="275"/>
-      <c r="K4" s="276"/>
-      <c r="L4" s="276"/>
+      <c r="J4" s="292"/>
+      <c r="K4" s="275"/>
+      <c r="L4" s="275"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="B5" s="10" t="s">
@@ -17540,12 +17590,12 @@
       </c>
     </row>
     <row r="180" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A180" s="272" t="s">
+      <c r="A180" s="291" t="s">
         <v>386</v>
       </c>
-      <c r="B180" s="273"/>
-      <c r="C180" s="273"/>
-      <c r="D180" s="274"/>
+      <c r="B180" s="288"/>
+      <c r="C180" s="288"/>
+      <c r="D180" s="289"/>
       <c r="E180" s="80"/>
       <c r="F180" s="165">
         <f>SUM(F8:F179)</f>
@@ -17588,17 +17638,17 @@
       <c r="A182" s="281" t="s">
         <v>387</v>
       </c>
-      <c r="B182" s="276"/>
-      <c r="C182" s="276"/>
-      <c r="D182" s="276"/>
-      <c r="E182" s="276"/>
-      <c r="F182" s="276"/>
-      <c r="G182" s="276"/>
-      <c r="H182" s="276"/>
-      <c r="I182" s="276"/>
-      <c r="J182" s="276"/>
-      <c r="K182" s="276"/>
-      <c r="L182" s="276"/>
+      <c r="B182" s="275"/>
+      <c r="C182" s="275"/>
+      <c r="D182" s="275"/>
+      <c r="E182" s="275"/>
+      <c r="F182" s="275"/>
+      <c r="G182" s="275"/>
+      <c r="H182" s="275"/>
+      <c r="I182" s="275"/>
+      <c r="J182" s="275"/>
+      <c r="K182" s="275"/>
+      <c r="L182" s="275"/>
     </row>
     <row r="183" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
       <c r="A183" s="232"/>
@@ -17654,7 +17704,7 @@
       </c>
       <c r="B185" s="88"/>
       <c r="C185" s="88"/>
-      <c r="D185" s="320"/>
+      <c r="D185" s="253"/>
       <c r="E185" s="154">
         <f t="array" ref="E185">MIN(IF(($B$8:$B$180=B185)*($D$8:$D$180=D185), $E$8:$E$180))</f>
         <v>0</v>
@@ -17671,10 +17721,13 @@
         <f t="shared" ref="H185:H202" si="14">SUMIFS($H$8:$H$180, $B$8:$B$180,B185,$D$8:$D$180,D185)</f>
         <v>0</v>
       </c>
-      <c r="I185" s="176"/>
-      <c r="J185" s="270"/>
-      <c r="K185" s="271"/>
-      <c r="L185" s="271"/>
+      <c r="I185" s="155">
+        <f t="shared" ref="I185:I202" si="15">SUMIFS($L$8:$L$180, $B$8:$B$180,B185,$D$8:$D$180,D185)</f>
+        <v>0</v>
+      </c>
+      <c r="J185" s="278"/>
+      <c r="K185" s="279"/>
+      <c r="L185" s="279"/>
     </row>
     <row r="186" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A186" s="226">
@@ -17682,7 +17735,7 @@
       </c>
       <c r="B186" s="88"/>
       <c r="C186" s="88"/>
-      <c r="D186" s="318"/>
+      <c r="D186" s="251"/>
       <c r="E186" s="154">
         <f t="array" ref="E186">MIN(IF(($B$8:$B$180=B186)*($D$8:$D$180=D186), $E$8:$E$180))</f>
         <v>0</v>
@@ -17700,12 +17753,12 @@
         <v>0</v>
       </c>
       <c r="I186" s="155">
-        <f t="shared" ref="I186:I202" si="15">SUMIFS($L$8:$L$180, $B$8:$B$180,B186,$D$8:$D$180,D186)</f>
-        <v>0</v>
-      </c>
-      <c r="J186" s="270"/>
-      <c r="K186" s="271"/>
-      <c r="L186" s="271"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J186" s="278"/>
+      <c r="K186" s="279"/>
+      <c r="L186" s="279"/>
     </row>
     <row r="187" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A187" s="226">
@@ -17713,7 +17766,7 @@
       </c>
       <c r="B187" s="88"/>
       <c r="C187" s="88"/>
-      <c r="D187" s="318"/>
+      <c r="D187" s="251"/>
       <c r="E187" s="154">
         <f t="array" ref="E187">MIN(IF(($B$8:$B$180=B187)*($D$8:$D$180=D187), $E$8:$E$180))</f>
         <v>0</v>
@@ -17734,9 +17787,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J187" s="270"/>
-      <c r="K187" s="271"/>
-      <c r="L187" s="271"/>
+      <c r="J187" s="278"/>
+      <c r="K187" s="279"/>
+      <c r="L187" s="279"/>
     </row>
     <row r="188" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A188" s="226">
@@ -17744,7 +17797,7 @@
       </c>
       <c r="B188" s="88"/>
       <c r="C188" s="88"/>
-      <c r="D188" s="318"/>
+      <c r="D188" s="251"/>
       <c r="E188" s="154">
         <f t="array" ref="E188">MIN(IF(($B$8:$B$180=B188)*($D$8:$D$180=D188), $E$8:$E$180))</f>
         <v>0</v>
@@ -17765,9 +17818,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J188" s="270"/>
-      <c r="K188" s="271"/>
-      <c r="L188" s="271"/>
+      <c r="J188" s="278"/>
+      <c r="K188" s="279"/>
+      <c r="L188" s="279"/>
     </row>
     <row r="189" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A189" s="226">
@@ -17775,7 +17828,7 @@
       </c>
       <c r="B189" s="88"/>
       <c r="C189" s="88"/>
-      <c r="D189" s="318"/>
+      <c r="D189" s="251"/>
       <c r="E189" s="154">
         <f t="array" ref="E189">MIN(IF(($B$8:$B$180=B189)*($D$8:$D$180=D189), $E$8:$E$180))</f>
         <v>0</v>
@@ -17796,9 +17849,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J189" s="270"/>
-      <c r="K189" s="271"/>
-      <c r="L189" s="271"/>
+      <c r="J189" s="278"/>
+      <c r="K189" s="279"/>
+      <c r="L189" s="279"/>
     </row>
     <row r="190" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A190" s="226">
@@ -17806,7 +17859,7 @@
       </c>
       <c r="B190" s="88"/>
       <c r="C190" s="88"/>
-      <c r="D190" s="318"/>
+      <c r="D190" s="251"/>
       <c r="E190" s="154">
         <f t="array" ref="E190">MIN(IF(($B$8:$B$180=B190)*($D$8:$D$180=D190), $E$8:$E$180))</f>
         <v>0</v>
@@ -17827,9 +17880,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J190" s="270"/>
-      <c r="K190" s="271"/>
-      <c r="L190" s="271"/>
+      <c r="J190" s="278"/>
+      <c r="K190" s="279"/>
+      <c r="L190" s="279"/>
     </row>
     <row r="191" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A191" s="226">
@@ -17837,7 +17890,7 @@
       </c>
       <c r="B191" s="88"/>
       <c r="C191" s="88"/>
-      <c r="D191" s="318"/>
+      <c r="D191" s="251"/>
       <c r="E191" s="154">
         <f t="array" ref="E191">MIN(IF(($B$8:$B$180=B191)*($D$8:$D$180=D191), $E$8:$E$180))</f>
         <v>0</v>
@@ -17858,9 +17911,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J191" s="270"/>
-      <c r="K191" s="271"/>
-      <c r="L191" s="271"/>
+      <c r="J191" s="278"/>
+      <c r="K191" s="279"/>
+      <c r="L191" s="279"/>
     </row>
     <row r="192" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A192" s="226">
@@ -17868,7 +17921,7 @@
       </c>
       <c r="B192" s="88"/>
       <c r="C192" s="88"/>
-      <c r="D192" s="318"/>
+      <c r="D192" s="251"/>
       <c r="E192" s="154">
         <f t="array" ref="E192">MIN(IF(($B$8:$B$180=B192)*($D$8:$D$180=D192), $E$8:$E$180))</f>
         <v>0</v>
@@ -17889,9 +17942,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J192" s="270"/>
-      <c r="K192" s="271"/>
-      <c r="L192" s="271"/>
+      <c r="J192" s="278"/>
+      <c r="K192" s="279"/>
+      <c r="L192" s="279"/>
     </row>
     <row r="193" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A193" s="226">
@@ -17899,7 +17952,7 @@
       </c>
       <c r="B193" s="88"/>
       <c r="C193" s="88"/>
-      <c r="D193" s="318"/>
+      <c r="D193" s="251"/>
       <c r="E193" s="154">
         <f t="array" ref="E193">MIN(IF(($B$8:$B$180=B193)*($D$8:$D$180=D193), $E$8:$E$180))</f>
         <v>0</v>
@@ -17920,9 +17973,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J193" s="270"/>
-      <c r="K193" s="271"/>
-      <c r="L193" s="271"/>
+      <c r="J193" s="278"/>
+      <c r="K193" s="279"/>
+      <c r="L193" s="279"/>
     </row>
     <row r="194" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A194" s="226">
@@ -17930,7 +17983,7 @@
       </c>
       <c r="B194" s="88"/>
       <c r="C194" s="88"/>
-      <c r="D194" s="318"/>
+      <c r="D194" s="251"/>
       <c r="E194" s="154">
         <f t="array" ref="E194">MIN(IF(($B$8:$B$180=B194)*($D$8:$D$180=D194), $E$8:$E$180))</f>
         <v>0</v>
@@ -17951,9 +18004,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J194" s="270"/>
-      <c r="K194" s="271"/>
-      <c r="L194" s="271"/>
+      <c r="J194" s="278"/>
+      <c r="K194" s="279"/>
+      <c r="L194" s="279"/>
     </row>
     <row r="195" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A195" s="226">
@@ -17961,7 +18014,7 @@
       </c>
       <c r="B195" s="88"/>
       <c r="C195" s="88"/>
-      <c r="D195" s="318"/>
+      <c r="D195" s="251"/>
       <c r="E195" s="154">
         <f t="array" ref="E195">MIN(IF(($B$8:$B$180=B195)*($D$8:$D$180=D195), $E$8:$E$180))</f>
         <v>0</v>
@@ -17982,9 +18035,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J195" s="270"/>
-      <c r="K195" s="271"/>
-      <c r="L195" s="271"/>
+      <c r="J195" s="278"/>
+      <c r="K195" s="279"/>
+      <c r="L195" s="279"/>
     </row>
     <row r="196" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A196" s="226">
@@ -17992,7 +18045,7 @@
       </c>
       <c r="B196" s="88"/>
       <c r="C196" s="88"/>
-      <c r="D196" s="318"/>
+      <c r="D196" s="251"/>
       <c r="E196" s="154">
         <f t="array" ref="E196">MIN(IF(($B$8:$B$180=B196)*($D$8:$D$180=D196), $E$8:$E$180))</f>
         <v>0</v>
@@ -18013,9 +18066,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J196" s="270"/>
-      <c r="K196" s="271"/>
-      <c r="L196" s="271"/>
+      <c r="J196" s="278"/>
+      <c r="K196" s="279"/>
+      <c r="L196" s="279"/>
     </row>
     <row r="197" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A197" s="226">
@@ -18023,7 +18076,7 @@
       </c>
       <c r="B197" s="88"/>
       <c r="C197" s="88"/>
-      <c r="D197" s="318"/>
+      <c r="D197" s="251"/>
       <c r="E197" s="154">
         <f t="array" ref="E197">MIN(IF(($B$8:$B$180=B197)*($D$8:$D$180=D197), $E$8:$E$180))</f>
         <v>0</v>
@@ -18044,9 +18097,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J197" s="270"/>
-      <c r="K197" s="271"/>
-      <c r="L197" s="271"/>
+      <c r="J197" s="278"/>
+      <c r="K197" s="279"/>
+      <c r="L197" s="279"/>
     </row>
     <row r="198" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A198" s="226">
@@ -18054,7 +18107,7 @@
       </c>
       <c r="B198" s="88"/>
       <c r="C198" s="88"/>
-      <c r="D198" s="318"/>
+      <c r="D198" s="251"/>
       <c r="E198" s="154">
         <f t="array" ref="E198">MIN(IF(($B$8:$B$180=B198)*($D$8:$D$180=D198), $E$8:$E$180))</f>
         <v>0</v>
@@ -18075,9 +18128,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J198" s="270"/>
-      <c r="K198" s="271"/>
-      <c r="L198" s="271"/>
+      <c r="J198" s="278"/>
+      <c r="K198" s="279"/>
+      <c r="L198" s="279"/>
     </row>
     <row r="199" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A199" s="226">
@@ -18085,7 +18138,7 @@
       </c>
       <c r="B199" s="88"/>
       <c r="C199" s="88"/>
-      <c r="D199" s="318"/>
+      <c r="D199" s="251"/>
       <c r="E199" s="154">
         <f t="array" ref="E199">MIN(IF(($B$8:$B$180=B199)*($D$8:$D$180=D199), $E$8:$E$180))</f>
         <v>0</v>
@@ -18106,9 +18159,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J199" s="270"/>
-      <c r="K199" s="271"/>
-      <c r="L199" s="271"/>
+      <c r="J199" s="278"/>
+      <c r="K199" s="279"/>
+      <c r="L199" s="279"/>
     </row>
     <row r="200" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A200" s="226">
@@ -18116,7 +18169,7 @@
       </c>
       <c r="B200" s="88"/>
       <c r="C200" s="88"/>
-      <c r="D200" s="318"/>
+      <c r="D200" s="251"/>
       <c r="E200" s="154">
         <f t="array" ref="E200">MIN(IF(($B$8:$B$180=B200)*($D$8:$D$180=D200), $E$8:$E$180))</f>
         <v>0</v>
@@ -18137,9 +18190,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J200" s="270"/>
-      <c r="K200" s="271"/>
-      <c r="L200" s="271"/>
+      <c r="J200" s="278"/>
+      <c r="K200" s="279"/>
+      <c r="L200" s="279"/>
     </row>
     <row r="201" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A201" s="226">
@@ -18147,7 +18200,7 @@
       </c>
       <c r="B201" s="88"/>
       <c r="C201" s="88"/>
-      <c r="D201" s="318"/>
+      <c r="D201" s="251"/>
       <c r="E201" s="154">
         <f t="array" ref="E201">MIN(IF(($B$8:$B$180=B201)*($D$8:$D$180=D201), $E$8:$E$180))</f>
         <v>0</v>
@@ -18168,9 +18221,9 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J201" s="270"/>
-      <c r="K201" s="271"/>
-      <c r="L201" s="271"/>
+      <c r="J201" s="278"/>
+      <c r="K201" s="279"/>
+      <c r="L201" s="279"/>
     </row>
     <row r="202" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A202" s="227">
@@ -18178,7 +18231,7 @@
       </c>
       <c r="B202" s="147"/>
       <c r="C202" s="147"/>
-      <c r="D202" s="319"/>
+      <c r="D202" s="252"/>
       <c r="E202" s="222">
         <f t="array" ref="E202">MIN(IF(($B$8:$B$180=B202)*($D$8:$D$180=D202), $E$8:$E$180))</f>
         <v>0</v>
@@ -18199,17 +18252,17 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J202" s="278"/>
-      <c r="K202" s="279"/>
-      <c r="L202" s="279"/>
+      <c r="J202" s="276"/>
+      <c r="K202" s="277"/>
+      <c r="L202" s="277"/>
     </row>
     <row r="203" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A203" s="288" t="s">
+      <c r="A203" s="290" t="s">
         <v>397</v>
       </c>
-      <c r="B203" s="273"/>
-      <c r="C203" s="273"/>
-      <c r="D203" s="274"/>
+      <c r="B203" s="288"/>
+      <c r="C203" s="288"/>
+      <c r="D203" s="289"/>
       <c r="E203" s="172"/>
       <c r="F203" s="159">
         <f>SUM(F185:F202)</f>
@@ -18228,8 +18281,8 @@
         <v>0</v>
       </c>
       <c r="J203" s="287"/>
-      <c r="K203" s="273"/>
-      <c r="L203" s="274"/>
+      <c r="K203" s="288"/>
+      <c r="L203" s="289"/>
     </row>
     <row r="204" spans="1:14" s="20" customFormat="1" ht="12.95" customHeight="1">
       <c r="A204" s="232"/>
@@ -18299,12 +18352,23 @@
     <row r="211" spans="4:12" ht="15" customHeight="1">
       <c r="D211" s="27"/>
       <c r="E211" s="81"/>
-      <c r="J211" s="277"/>
-      <c r="K211" s="276"/>
-      <c r="L211" s="276"/>
+      <c r="J211" s="274"/>
+      <c r="K211" s="275"/>
+      <c r="L211" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="J201:L201"/>
+    <mergeCell ref="J192:L192"/>
+    <mergeCell ref="J198:L198"/>
+    <mergeCell ref="J189:L189"/>
+    <mergeCell ref="J185:L185"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J191:L191"/>
+    <mergeCell ref="J187:L187"/>
+    <mergeCell ref="J196:L196"/>
+    <mergeCell ref="J193:L193"/>
     <mergeCell ref="J211:L211"/>
     <mergeCell ref="J202:L202"/>
     <mergeCell ref="J195:L195"/>
@@ -18321,17 +18385,6 @@
     <mergeCell ref="J200:L200"/>
     <mergeCell ref="A203:D203"/>
     <mergeCell ref="J197:L197"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J191:L191"/>
-    <mergeCell ref="J187:L187"/>
-    <mergeCell ref="J196:L196"/>
-    <mergeCell ref="J193:L193"/>
-    <mergeCell ref="J201:L201"/>
-    <mergeCell ref="J192:L192"/>
-    <mergeCell ref="J198:L198"/>
-    <mergeCell ref="J189:L189"/>
-    <mergeCell ref="J185:L185"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -18353,8 +18406,8 @@
   </sheetPr>
   <dimension ref="A1:M244"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A168" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185:D198"/>
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="A139" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="L180" sqref="L180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -18381,14 +18434,14 @@
       <c r="D1" s="280" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
+      <c r="E1" s="275"/>
+      <c r="F1" s="275"/>
+      <c r="G1" s="275"/>
+      <c r="H1" s="275"/>
+      <c r="I1" s="275"/>
+      <c r="J1" s="275"/>
+      <c r="K1" s="275"/>
+      <c r="L1" s="275"/>
     </row>
     <row r="2" spans="1:12">
       <c r="B2" s="11"/>
@@ -18423,9 +18476,9 @@
         <v>369</v>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="275"/>
-      <c r="K4" s="276"/>
-      <c r="L4" s="276"/>
+      <c r="J4" s="292"/>
+      <c r="K4" s="275"/>
+      <c r="L4" s="275"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="B5" s="10" t="s">
@@ -21940,12 +21993,12 @@
       </c>
     </row>
     <row r="180" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A180" s="300" t="s">
+      <c r="A180" s="309" t="s">
         <v>386</v>
       </c>
-      <c r="B180" s="273"/>
-      <c r="C180" s="273"/>
-      <c r="D180" s="274"/>
+      <c r="B180" s="288"/>
+      <c r="C180" s="288"/>
+      <c r="D180" s="289"/>
       <c r="E180" s="149"/>
       <c r="F180" s="164">
         <f>SUM(F8:F179)</f>
@@ -21988,17 +22041,17 @@
       <c r="A182" s="281" t="s">
         <v>405</v>
       </c>
-      <c r="B182" s="276"/>
-      <c r="C182" s="276"/>
-      <c r="D182" s="276"/>
-      <c r="E182" s="276"/>
-      <c r="F182" s="276"/>
-      <c r="G182" s="276"/>
-      <c r="H182" s="276"/>
-      <c r="I182" s="276"/>
-      <c r="J182" s="276"/>
-      <c r="K182" s="276"/>
-      <c r="L182" s="276"/>
+      <c r="B182" s="275"/>
+      <c r="C182" s="275"/>
+      <c r="D182" s="275"/>
+      <c r="E182" s="275"/>
+      <c r="F182" s="275"/>
+      <c r="G182" s="275"/>
+      <c r="H182" s="275"/>
+      <c r="I182" s="275"/>
+      <c r="J182" s="275"/>
+      <c r="K182" s="275"/>
+      <c r="L182" s="275"/>
     </row>
     <row r="183" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
       <c r="A183" s="232"/>
@@ -22042,11 +22095,11 @@
       <c r="I184" s="177" t="s">
         <v>395</v>
       </c>
-      <c r="J184" s="313" t="s">
+      <c r="J184" s="300" t="s">
         <v>396</v>
       </c>
-      <c r="K184" s="273"/>
-      <c r="L184" s="274"/>
+      <c r="K184" s="288"/>
+      <c r="L184" s="289"/>
     </row>
     <row r="185" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A185" s="225">
@@ -22054,7 +22107,7 @@
       </c>
       <c r="B185" s="174"/>
       <c r="C185" s="174"/>
-      <c r="D185" s="317"/>
+      <c r="D185" s="250"/>
       <c r="E185" s="175">
         <f t="array" ref="E185">MIN(IF(($B$8:$B$180=B185)*($D$8:$D$180=D185), $E$8:$E$180))</f>
         <v>0</v>
@@ -22071,10 +22124,13 @@
         <f t="shared" ref="H185:H198" si="8">SUMIFS($H$8:$H$180, $B$8:$B$180,B185,$D$8:$D$180,D185)</f>
         <v>0</v>
       </c>
-      <c r="I185" s="176"/>
-      <c r="J185" s="309"/>
-      <c r="K185" s="310"/>
-      <c r="L185" s="311"/>
+      <c r="I185" s="155">
+        <f t="shared" ref="I185:I198" si="9">SUMIFS($L$8:$L$180, $B$8:$B$180,B185,$D$8:$D$180,D185)</f>
+        <v>0</v>
+      </c>
+      <c r="J185" s="315"/>
+      <c r="K185" s="316"/>
+      <c r="L185" s="317"/>
     </row>
     <row r="186" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A186" s="226">
@@ -22082,7 +22138,7 @@
       </c>
       <c r="B186" s="88"/>
       <c r="C186" s="88"/>
-      <c r="D186" s="318"/>
+      <c r="D186" s="251"/>
       <c r="E186" s="154">
         <f t="array" ref="E186">MIN(IF(($B$8:$B$180=B186)*($D$8:$D$180=D186), $E$8:$E$180))</f>
         <v>0</v>
@@ -22100,12 +22156,12 @@
         <v>0</v>
       </c>
       <c r="I186" s="155">
-        <f t="shared" ref="I186:I198" si="9">SUMIFS($L$8:$L$180, $B$8:$B$180,B186,$D$8:$D$180,D186)</f>
-        <v>0</v>
-      </c>
-      <c r="J186" s="270"/>
-      <c r="K186" s="301"/>
-      <c r="L186" s="302"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J186" s="278"/>
+      <c r="K186" s="293"/>
+      <c r="L186" s="294"/>
     </row>
     <row r="187" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A187" s="226">
@@ -22113,7 +22169,7 @@
       </c>
       <c r="B187" s="88"/>
       <c r="C187" s="88"/>
-      <c r="D187" s="318"/>
+      <c r="D187" s="251"/>
       <c r="E187" s="154">
         <f t="array" ref="E187">MIN(IF(($B$8:$B$180=B187)*($D$8:$D$180=D187), $E$8:$E$180))</f>
         <v>0</v>
@@ -22134,9 +22190,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J187" s="270"/>
-      <c r="K187" s="301"/>
-      <c r="L187" s="302"/>
+      <c r="J187" s="278"/>
+      <c r="K187" s="293"/>
+      <c r="L187" s="294"/>
     </row>
     <row r="188" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A188" s="226">
@@ -22144,7 +22200,7 @@
       </c>
       <c r="B188" s="88"/>
       <c r="C188" s="88"/>
-      <c r="D188" s="318"/>
+      <c r="D188" s="251"/>
       <c r="E188" s="154">
         <f t="array" ref="E188">MIN(IF(($B$8:$B$180=B188)*($D$8:$D$180=D188), $E$8:$E$180))</f>
         <v>0</v>
@@ -22165,9 +22221,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J188" s="270"/>
-      <c r="K188" s="301"/>
-      <c r="L188" s="302"/>
+      <c r="J188" s="278"/>
+      <c r="K188" s="293"/>
+      <c r="L188" s="294"/>
     </row>
     <row r="189" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A189" s="226">
@@ -22175,7 +22231,7 @@
       </c>
       <c r="B189" s="88"/>
       <c r="C189" s="88"/>
-      <c r="D189" s="318"/>
+      <c r="D189" s="251"/>
       <c r="E189" s="154">
         <f t="array" ref="E189">MIN(IF(($B$8:$B$180=B189)*($D$8:$D$180=D189), $E$8:$E$180))</f>
         <v>0</v>
@@ -22196,9 +22252,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J189" s="270"/>
-      <c r="K189" s="301"/>
-      <c r="L189" s="302"/>
+      <c r="J189" s="278"/>
+      <c r="K189" s="293"/>
+      <c r="L189" s="294"/>
     </row>
     <row r="190" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A190" s="226">
@@ -22206,7 +22262,7 @@
       </c>
       <c r="B190" s="88"/>
       <c r="C190" s="88"/>
-      <c r="D190" s="318"/>
+      <c r="D190" s="251"/>
       <c r="E190" s="154">
         <f t="array" ref="E190">MIN(IF(($B$8:$B$180=B190)*($D$8:$D$180=D190), $E$8:$E$180))</f>
         <v>0</v>
@@ -22227,9 +22283,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J190" s="270"/>
-      <c r="K190" s="301"/>
-      <c r="L190" s="302"/>
+      <c r="J190" s="278"/>
+      <c r="K190" s="293"/>
+      <c r="L190" s="294"/>
     </row>
     <row r="191" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A191" s="226">
@@ -22237,7 +22293,7 @@
       </c>
       <c r="B191" s="88"/>
       <c r="C191" s="88"/>
-      <c r="D191" s="318"/>
+      <c r="D191" s="251"/>
       <c r="E191" s="154">
         <f t="array" ref="E191">MIN(IF(($B$8:$B$180=B191)*($D$8:$D$180=D191), $E$8:$E$180))</f>
         <v>0</v>
@@ -22258,9 +22314,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J191" s="270"/>
-      <c r="K191" s="301"/>
-      <c r="L191" s="302"/>
+      <c r="J191" s="278"/>
+      <c r="K191" s="293"/>
+      <c r="L191" s="294"/>
     </row>
     <row r="192" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A192" s="226">
@@ -22268,7 +22324,7 @@
       </c>
       <c r="B192" s="88"/>
       <c r="C192" s="88"/>
-      <c r="D192" s="318"/>
+      <c r="D192" s="251"/>
       <c r="E192" s="154">
         <f t="array" ref="E192">MIN(IF(($B$8:$B$180=B192)*($D$8:$D$180=D192), $E$8:$E$180))</f>
         <v>0</v>
@@ -22289,9 +22345,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J192" s="270"/>
-      <c r="K192" s="301"/>
-      <c r="L192" s="302"/>
+      <c r="J192" s="278"/>
+      <c r="K192" s="293"/>
+      <c r="L192" s="294"/>
     </row>
     <row r="193" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A193" s="226">
@@ -22299,7 +22355,7 @@
       </c>
       <c r="B193" s="88"/>
       <c r="C193" s="88"/>
-      <c r="D193" s="318"/>
+      <c r="D193" s="251"/>
       <c r="E193" s="154">
         <f t="array" ref="E193">MIN(IF(($B$8:$B$180=B193)*($D$8:$D$180=D193), $E$8:$E$180))</f>
         <v>0</v>
@@ -22320,9 +22376,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J193" s="270"/>
-      <c r="K193" s="301"/>
-      <c r="L193" s="302"/>
+      <c r="J193" s="278"/>
+      <c r="K193" s="293"/>
+      <c r="L193" s="294"/>
     </row>
     <row r="194" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A194" s="226">
@@ -22330,7 +22386,7 @@
       </c>
       <c r="B194" s="88"/>
       <c r="C194" s="88"/>
-      <c r="D194" s="318"/>
+      <c r="D194" s="251"/>
       <c r="E194" s="154">
         <f t="array" ref="E194">MIN(IF(($B$8:$B$180=B194)*($D$8:$D$180=D194), $E$8:$E$180))</f>
         <v>0</v>
@@ -22351,9 +22407,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J194" s="270"/>
-      <c r="K194" s="301"/>
-      <c r="L194" s="302"/>
+      <c r="J194" s="278"/>
+      <c r="K194" s="293"/>
+      <c r="L194" s="294"/>
     </row>
     <row r="195" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A195" s="226">
@@ -22361,7 +22417,7 @@
       </c>
       <c r="B195" s="88"/>
       <c r="C195" s="88"/>
-      <c r="D195" s="318"/>
+      <c r="D195" s="251"/>
       <c r="E195" s="154">
         <f t="array" ref="E195">MIN(IF(($B$8:$B$180=B195)*($D$8:$D$180=D195), $E$8:$E$180))</f>
         <v>0</v>
@@ -22382,9 +22438,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J195" s="270"/>
-      <c r="K195" s="301"/>
-      <c r="L195" s="302"/>
+      <c r="J195" s="278"/>
+      <c r="K195" s="293"/>
+      <c r="L195" s="294"/>
     </row>
     <row r="196" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A196" s="226">
@@ -22392,7 +22448,7 @@
       </c>
       <c r="B196" s="88"/>
       <c r="C196" s="88"/>
-      <c r="D196" s="318"/>
+      <c r="D196" s="251"/>
       <c r="E196" s="154">
         <f t="array" ref="E196">MIN(IF(($B$8:$B$180=B196)*($D$8:$D$180=D196), $E$8:$E$180))</f>
         <v>0</v>
@@ -22413,9 +22469,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J196" s="270"/>
-      <c r="K196" s="301"/>
-      <c r="L196" s="302"/>
+      <c r="J196" s="278"/>
+      <c r="K196" s="293"/>
+      <c r="L196" s="294"/>
     </row>
     <row r="197" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A197" s="226">
@@ -22423,7 +22479,7 @@
       </c>
       <c r="B197" s="88"/>
       <c r="C197" s="88"/>
-      <c r="D197" s="318"/>
+      <c r="D197" s="251"/>
       <c r="E197" s="154">
         <f t="array" ref="E197">MIN(IF(($B$8:$B$180=B197)*($D$8:$D$180=D197), $E$8:$E$180))</f>
         <v>0</v>
@@ -22444,9 +22500,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J197" s="270"/>
-      <c r="K197" s="301"/>
-      <c r="L197" s="302"/>
+      <c r="J197" s="278"/>
+      <c r="K197" s="293"/>
+      <c r="L197" s="294"/>
     </row>
     <row r="198" spans="1:12" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A198" s="227">
@@ -22454,7 +22510,7 @@
       </c>
       <c r="B198" s="147"/>
       <c r="C198" s="147"/>
-      <c r="D198" s="319"/>
+      <c r="D198" s="252"/>
       <c r="E198" s="154">
         <f t="array" ref="E198">MIN(IF(($B$8:$B$180=B198)*($D$8:$D$180=D198), $E$8:$E$180))</f>
         <v>0</v>
@@ -22475,17 +22531,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J198" s="278"/>
-      <c r="K198" s="305"/>
-      <c r="L198" s="306"/>
+      <c r="J198" s="276"/>
+      <c r="K198" s="313"/>
+      <c r="L198" s="314"/>
     </row>
     <row r="199" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A199" s="288" t="s">
+      <c r="A199" s="290" t="s">
         <v>397</v>
       </c>
-      <c r="B199" s="273"/>
-      <c r="C199" s="273"/>
-      <c r="D199" s="274"/>
+      <c r="B199" s="288"/>
+      <c r="C199" s="288"/>
+      <c r="D199" s="289"/>
       <c r="E199" s="168"/>
       <c r="F199" s="159">
         <f>SUM(F185:F198)</f>
@@ -22503,9 +22559,9 @@
         <f>SUM(I185:I198)</f>
         <v>0</v>
       </c>
-      <c r="J199" s="314"/>
-      <c r="K199" s="273"/>
-      <c r="L199" s="274"/>
+      <c r="J199" s="295"/>
+      <c r="K199" s="288"/>
+      <c r="L199" s="289"/>
     </row>
     <row r="200" spans="1:12" s="20" customFormat="1" ht="12.95" customHeight="1">
       <c r="A200" s="232"/>
@@ -22522,20 +22578,20 @@
       <c r="L200" s="83"/>
     </row>
     <row r="201" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A201" s="312" t="s">
+      <c r="A201" s="305" t="s">
         <v>406</v>
       </c>
-      <c r="B201" s="276"/>
-      <c r="C201" s="276"/>
-      <c r="D201" s="276"/>
-      <c r="E201" s="276"/>
-      <c r="F201" s="276"/>
-      <c r="G201" s="276"/>
-      <c r="H201" s="276"/>
-      <c r="I201" s="276"/>
-      <c r="J201" s="276"/>
-      <c r="K201" s="276"/>
-      <c r="L201" s="276"/>
+      <c r="B201" s="275"/>
+      <c r="C201" s="275"/>
+      <c r="D201" s="275"/>
+      <c r="E201" s="275"/>
+      <c r="F201" s="275"/>
+      <c r="G201" s="275"/>
+      <c r="H201" s="275"/>
+      <c r="I201" s="275"/>
+      <c r="J201" s="275"/>
+      <c r="K201" s="275"/>
+      <c r="L201" s="275"/>
     </row>
     <row r="202" spans="1:12" ht="12.95" customHeight="1">
       <c r="B202" s="30"/>
@@ -22554,20 +22610,20 @@
       <c r="A203" s="233" t="s">
         <v>388</v>
       </c>
-      <c r="B203" s="313" t="s">
+      <c r="B203" s="300" t="s">
         <v>407</v>
       </c>
-      <c r="C203" s="274"/>
-      <c r="D203" s="293" t="s">
+      <c r="C203" s="289"/>
+      <c r="D203" s="310" t="s">
         <v>408</v>
       </c>
-      <c r="E203" s="273"/>
-      <c r="F203" s="273"/>
-      <c r="G203" s="273"/>
-      <c r="H203" s="273"/>
-      <c r="I203" s="273"/>
-      <c r="J203" s="273"/>
-      <c r="K203" s="274"/>
+      <c r="E203" s="288"/>
+      <c r="F203" s="288"/>
+      <c r="G203" s="288"/>
+      <c r="H203" s="288"/>
+      <c r="I203" s="288"/>
+      <c r="J203" s="288"/>
+      <c r="K203" s="289"/>
       <c r="L203" s="18" t="s">
         <v>409</v>
       </c>
@@ -22576,196 +22632,196 @@
       <c r="A204" s="242">
         <v>1</v>
       </c>
-      <c r="B204" s="307"/>
-      <c r="C204" s="308"/>
-      <c r="D204" s="303"/>
-      <c r="E204" s="292"/>
-      <c r="F204" s="292"/>
-      <c r="G204" s="292"/>
-      <c r="H204" s="292"/>
-      <c r="I204" s="292"/>
-      <c r="J204" s="292"/>
-      <c r="K204" s="290"/>
+      <c r="B204" s="298"/>
+      <c r="C204" s="299"/>
+      <c r="D204" s="311"/>
+      <c r="E204" s="312"/>
+      <c r="F204" s="312"/>
+      <c r="G204" s="312"/>
+      <c r="H204" s="312"/>
+      <c r="I204" s="312"/>
+      <c r="J204" s="312"/>
+      <c r="K204" s="297"/>
       <c r="L204" s="119"/>
     </row>
     <row r="205" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A205" s="226">
         <v>2</v>
       </c>
-      <c r="B205" s="307"/>
-      <c r="C205" s="308"/>
-      <c r="D205" s="297"/>
-      <c r="E205" s="298"/>
-      <c r="F205" s="298"/>
-      <c r="G205" s="298"/>
-      <c r="H205" s="298"/>
-      <c r="I205" s="298"/>
-      <c r="J205" s="298"/>
-      <c r="K205" s="299"/>
+      <c r="B205" s="321"/>
+      <c r="C205" s="322"/>
+      <c r="D205" s="301"/>
+      <c r="E205" s="302"/>
+      <c r="F205" s="302"/>
+      <c r="G205" s="302"/>
+      <c r="H205" s="302"/>
+      <c r="I205" s="302"/>
+      <c r="J205" s="302"/>
+      <c r="K205" s="303"/>
       <c r="L205" s="120"/>
     </row>
     <row r="206" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A206" s="226">
         <v>3</v>
       </c>
-      <c r="B206" s="307"/>
-      <c r="C206" s="308"/>
+      <c r="B206" s="321"/>
+      <c r="C206" s="322"/>
       <c r="D206" s="304"/>
-      <c r="E206" s="298"/>
-      <c r="F206" s="298"/>
-      <c r="G206" s="298"/>
-      <c r="H206" s="298"/>
-      <c r="I206" s="298"/>
-      <c r="J206" s="298"/>
-      <c r="K206" s="299"/>
+      <c r="E206" s="302"/>
+      <c r="F206" s="302"/>
+      <c r="G206" s="302"/>
+      <c r="H206" s="302"/>
+      <c r="I206" s="302"/>
+      <c r="J206" s="302"/>
+      <c r="K206" s="303"/>
       <c r="L206" s="121"/>
     </row>
     <row r="207" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A207" s="226">
         <v>4</v>
       </c>
-      <c r="B207" s="307"/>
-      <c r="C207" s="308"/>
-      <c r="D207" s="297"/>
-      <c r="E207" s="298"/>
-      <c r="F207" s="298"/>
-      <c r="G207" s="298"/>
-      <c r="H207" s="298"/>
-      <c r="I207" s="298"/>
-      <c r="J207" s="298"/>
-      <c r="K207" s="299"/>
+      <c r="B207" s="321"/>
+      <c r="C207" s="322"/>
+      <c r="D207" s="301"/>
+      <c r="E207" s="302"/>
+      <c r="F207" s="302"/>
+      <c r="G207" s="302"/>
+      <c r="H207" s="302"/>
+      <c r="I207" s="302"/>
+      <c r="J207" s="302"/>
+      <c r="K207" s="303"/>
       <c r="L207" s="120"/>
     </row>
     <row r="208" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A208" s="226">
         <v>5</v>
       </c>
-      <c r="B208" s="307"/>
-      <c r="C208" s="308"/>
-      <c r="D208" s="297"/>
-      <c r="E208" s="298"/>
-      <c r="F208" s="298"/>
-      <c r="G208" s="298"/>
-      <c r="H208" s="298"/>
-      <c r="I208" s="298"/>
-      <c r="J208" s="298"/>
-      <c r="K208" s="299"/>
+      <c r="B208" s="321"/>
+      <c r="C208" s="322"/>
+      <c r="D208" s="301"/>
+      <c r="E208" s="302"/>
+      <c r="F208" s="302"/>
+      <c r="G208" s="302"/>
+      <c r="H208" s="302"/>
+      <c r="I208" s="302"/>
+      <c r="J208" s="302"/>
+      <c r="K208" s="303"/>
       <c r="L208" s="120"/>
     </row>
     <row r="209" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A209" s="226">
         <v>6</v>
       </c>
-      <c r="B209" s="307"/>
-      <c r="C209" s="308"/>
-      <c r="D209" s="297"/>
-      <c r="E209" s="298"/>
-      <c r="F209" s="298"/>
-      <c r="G209" s="298"/>
-      <c r="H209" s="298"/>
-      <c r="I209" s="298"/>
-      <c r="J209" s="298"/>
-      <c r="K209" s="299"/>
+      <c r="B209" s="321"/>
+      <c r="C209" s="322"/>
+      <c r="D209" s="301"/>
+      <c r="E209" s="302"/>
+      <c r="F209" s="302"/>
+      <c r="G209" s="302"/>
+      <c r="H209" s="302"/>
+      <c r="I209" s="302"/>
+      <c r="J209" s="302"/>
+      <c r="K209" s="303"/>
       <c r="L209" s="120"/>
     </row>
     <row r="210" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A210" s="226">
         <v>7</v>
       </c>
-      <c r="B210" s="307"/>
-      <c r="C210" s="308"/>
-      <c r="D210" s="297"/>
-      <c r="E210" s="298"/>
-      <c r="F210" s="298"/>
-      <c r="G210" s="298"/>
-      <c r="H210" s="298"/>
-      <c r="I210" s="298"/>
-      <c r="J210" s="298"/>
-      <c r="K210" s="299"/>
+      <c r="B210" s="321"/>
+      <c r="C210" s="322"/>
+      <c r="D210" s="301"/>
+      <c r="E210" s="302"/>
+      <c r="F210" s="302"/>
+      <c r="G210" s="302"/>
+      <c r="H210" s="302"/>
+      <c r="I210" s="302"/>
+      <c r="J210" s="302"/>
+      <c r="K210" s="303"/>
       <c r="L210" s="120"/>
     </row>
     <row r="211" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A211" s="226">
         <v>8</v>
       </c>
-      <c r="B211" s="307"/>
-      <c r="C211" s="308"/>
-      <c r="D211" s="297"/>
-      <c r="E211" s="298"/>
-      <c r="F211" s="298"/>
-      <c r="G211" s="298"/>
-      <c r="H211" s="298"/>
-      <c r="I211" s="298"/>
-      <c r="J211" s="298"/>
-      <c r="K211" s="299"/>
+      <c r="B211" s="321"/>
+      <c r="C211" s="322"/>
+      <c r="D211" s="301"/>
+      <c r="E211" s="302"/>
+      <c r="F211" s="302"/>
+      <c r="G211" s="302"/>
+      <c r="H211" s="302"/>
+      <c r="I211" s="302"/>
+      <c r="J211" s="302"/>
+      <c r="K211" s="303"/>
       <c r="L211" s="120"/>
     </row>
     <row r="212" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A212" s="226">
         <v>9</v>
       </c>
-      <c r="B212" s="307"/>
-      <c r="C212" s="308"/>
-      <c r="D212" s="297"/>
-      <c r="E212" s="298"/>
-      <c r="F212" s="298"/>
-      <c r="G212" s="298"/>
-      <c r="H212" s="298"/>
-      <c r="I212" s="298"/>
-      <c r="J212" s="298"/>
-      <c r="K212" s="299"/>
+      <c r="B212" s="321"/>
+      <c r="C212" s="322"/>
+      <c r="D212" s="301"/>
+      <c r="E212" s="302"/>
+      <c r="F212" s="302"/>
+      <c r="G212" s="302"/>
+      <c r="H212" s="302"/>
+      <c r="I212" s="302"/>
+      <c r="J212" s="302"/>
+      <c r="K212" s="303"/>
       <c r="L212" s="120"/>
     </row>
     <row r="213" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A213" s="227">
         <v>10</v>
       </c>
-      <c r="B213" s="307"/>
-      <c r="C213" s="308"/>
-      <c r="D213" s="294"/>
-      <c r="E213" s="295"/>
-      <c r="F213" s="295"/>
-      <c r="G213" s="295"/>
-      <c r="H213" s="295"/>
-      <c r="I213" s="295"/>
-      <c r="J213" s="295"/>
-      <c r="K213" s="296"/>
+      <c r="B213" s="323"/>
+      <c r="C213" s="324"/>
+      <c r="D213" s="306"/>
+      <c r="E213" s="307"/>
+      <c r="F213" s="307"/>
+      <c r="G213" s="307"/>
+      <c r="H213" s="307"/>
+      <c r="I213" s="307"/>
+      <c r="J213" s="307"/>
+      <c r="K213" s="308"/>
       <c r="L213" s="122"/>
     </row>
     <row r="214" spans="1:12" ht="15" customHeight="1">
-      <c r="A214" s="272" t="s">
+      <c r="A214" s="291" t="s">
         <v>386</v>
       </c>
-      <c r="B214" s="273"/>
-      <c r="C214" s="273"/>
-      <c r="D214" s="273"/>
-      <c r="E214" s="273"/>
-      <c r="F214" s="273"/>
-      <c r="G214" s="273"/>
-      <c r="H214" s="273"/>
-      <c r="I214" s="273"/>
-      <c r="J214" s="273"/>
-      <c r="K214" s="274"/>
+      <c r="B214" s="288"/>
+      <c r="C214" s="288"/>
+      <c r="D214" s="288"/>
+      <c r="E214" s="288"/>
+      <c r="F214" s="288"/>
+      <c r="G214" s="288"/>
+      <c r="H214" s="288"/>
+      <c r="I214" s="288"/>
+      <c r="J214" s="288"/>
+      <c r="K214" s="289"/>
       <c r="L214" s="163">
         <f>SUM(L204:L213)</f>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A215" s="312" t="s">
+      <c r="A215" s="305" t="s">
         <v>410</v>
       </c>
-      <c r="B215" s="276"/>
-      <c r="C215" s="276"/>
-      <c r="D215" s="276"/>
-      <c r="E215" s="276"/>
-      <c r="F215" s="276"/>
-      <c r="G215" s="276"/>
-      <c r="H215" s="276"/>
-      <c r="I215" s="276"/>
-      <c r="J215" s="276"/>
-      <c r="K215" s="276"/>
-      <c r="L215" s="276"/>
+      <c r="B215" s="275"/>
+      <c r="C215" s="275"/>
+      <c r="D215" s="275"/>
+      <c r="E215" s="275"/>
+      <c r="F215" s="275"/>
+      <c r="G215" s="275"/>
+      <c r="H215" s="275"/>
+      <c r="I215" s="275"/>
+      <c r="J215" s="275"/>
+      <c r="K215" s="275"/>
+      <c r="L215" s="275"/>
     </row>
     <row r="216" spans="1:12" ht="9" customHeight="1">
       <c r="B216" s="30"/>
@@ -22784,20 +22840,20 @@
       <c r="A217" s="233" t="s">
         <v>388</v>
       </c>
-      <c r="B217" s="313" t="s">
+      <c r="B217" s="300" t="s">
         <v>407</v>
       </c>
-      <c r="C217" s="274"/>
-      <c r="D217" s="293" t="s">
+      <c r="C217" s="289"/>
+      <c r="D217" s="310" t="s">
         <v>408</v>
       </c>
-      <c r="E217" s="273"/>
-      <c r="F217" s="273"/>
-      <c r="G217" s="273"/>
-      <c r="H217" s="273"/>
-      <c r="I217" s="273"/>
-      <c r="J217" s="273"/>
-      <c r="K217" s="274"/>
+      <c r="E217" s="288"/>
+      <c r="F217" s="288"/>
+      <c r="G217" s="288"/>
+      <c r="H217" s="288"/>
+      <c r="I217" s="288"/>
+      <c r="J217" s="288"/>
+      <c r="K217" s="289"/>
       <c r="L217" s="18" t="s">
         <v>409</v>
       </c>
@@ -22806,176 +22862,176 @@
       <c r="A218" s="242">
         <v>1</v>
       </c>
-      <c r="B218" s="289"/>
-      <c r="C218" s="290"/>
-      <c r="D218" s="291"/>
-      <c r="E218" s="292"/>
-      <c r="F218" s="292"/>
-      <c r="G218" s="292"/>
-      <c r="H218" s="292"/>
-      <c r="I218" s="292"/>
-      <c r="J218" s="292"/>
-      <c r="K218" s="290"/>
+      <c r="B218" s="296"/>
+      <c r="C218" s="297"/>
+      <c r="D218" s="318"/>
+      <c r="E218" s="312"/>
+      <c r="F218" s="312"/>
+      <c r="G218" s="312"/>
+      <c r="H218" s="312"/>
+      <c r="I218" s="312"/>
+      <c r="J218" s="312"/>
+      <c r="K218" s="297"/>
       <c r="L218" s="119"/>
     </row>
     <row r="219" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A219" s="226">
         <v>2</v>
       </c>
-      <c r="B219" s="289"/>
-      <c r="C219" s="290"/>
-      <c r="D219" s="297"/>
-      <c r="E219" s="298"/>
-      <c r="F219" s="298"/>
-      <c r="G219" s="298"/>
-      <c r="H219" s="298"/>
-      <c r="I219" s="298"/>
-      <c r="J219" s="298"/>
-      <c r="K219" s="299"/>
+      <c r="B219" s="325"/>
+      <c r="C219" s="303"/>
+      <c r="D219" s="301"/>
+      <c r="E219" s="302"/>
+      <c r="F219" s="302"/>
+      <c r="G219" s="302"/>
+      <c r="H219" s="302"/>
+      <c r="I219" s="302"/>
+      <c r="J219" s="302"/>
+      <c r="K219" s="303"/>
       <c r="L219" s="120"/>
     </row>
     <row r="220" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A220" s="226">
         <v>3</v>
       </c>
-      <c r="B220" s="289"/>
-      <c r="C220" s="290"/>
+      <c r="B220" s="325"/>
+      <c r="C220" s="303"/>
       <c r="D220" s="304"/>
-      <c r="E220" s="298"/>
-      <c r="F220" s="298"/>
-      <c r="G220" s="298"/>
-      <c r="H220" s="298"/>
-      <c r="I220" s="298"/>
-      <c r="J220" s="298"/>
-      <c r="K220" s="299"/>
+      <c r="E220" s="302"/>
+      <c r="F220" s="302"/>
+      <c r="G220" s="302"/>
+      <c r="H220" s="302"/>
+      <c r="I220" s="302"/>
+      <c r="J220" s="302"/>
+      <c r="K220" s="303"/>
       <c r="L220" s="121"/>
     </row>
     <row r="221" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A221" s="226">
         <v>4</v>
       </c>
-      <c r="B221" s="289"/>
-      <c r="C221" s="290"/>
-      <c r="D221" s="297"/>
-      <c r="E221" s="298"/>
-      <c r="F221" s="298"/>
-      <c r="G221" s="298"/>
-      <c r="H221" s="298"/>
-      <c r="I221" s="298"/>
-      <c r="J221" s="298"/>
-      <c r="K221" s="299"/>
+      <c r="B221" s="325"/>
+      <c r="C221" s="303"/>
+      <c r="D221" s="301"/>
+      <c r="E221" s="302"/>
+      <c r="F221" s="302"/>
+      <c r="G221" s="302"/>
+      <c r="H221" s="302"/>
+      <c r="I221" s="302"/>
+      <c r="J221" s="302"/>
+      <c r="K221" s="303"/>
       <c r="L221" s="120"/>
     </row>
     <row r="222" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A222" s="226">
         <v>5</v>
       </c>
-      <c r="B222" s="289"/>
-      <c r="C222" s="290"/>
-      <c r="D222" s="297"/>
-      <c r="E222" s="298"/>
-      <c r="F222" s="298"/>
-      <c r="G222" s="298"/>
-      <c r="H222" s="298"/>
-      <c r="I222" s="298"/>
-      <c r="J222" s="298"/>
-      <c r="K222" s="299"/>
+      <c r="B222" s="325"/>
+      <c r="C222" s="303"/>
+      <c r="D222" s="301"/>
+      <c r="E222" s="302"/>
+      <c r="F222" s="302"/>
+      <c r="G222" s="302"/>
+      <c r="H222" s="302"/>
+      <c r="I222" s="302"/>
+      <c r="J222" s="302"/>
+      <c r="K222" s="303"/>
       <c r="L222" s="120"/>
     </row>
     <row r="223" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A223" s="226">
         <v>6</v>
       </c>
-      <c r="B223" s="289"/>
-      <c r="C223" s="290"/>
-      <c r="D223" s="297"/>
-      <c r="E223" s="298"/>
-      <c r="F223" s="298"/>
-      <c r="G223" s="298"/>
-      <c r="H223" s="298"/>
-      <c r="I223" s="298"/>
-      <c r="J223" s="298"/>
-      <c r="K223" s="299"/>
+      <c r="B223" s="325"/>
+      <c r="C223" s="303"/>
+      <c r="D223" s="301"/>
+      <c r="E223" s="302"/>
+      <c r="F223" s="302"/>
+      <c r="G223" s="302"/>
+      <c r="H223" s="302"/>
+      <c r="I223" s="302"/>
+      <c r="J223" s="302"/>
+      <c r="K223" s="303"/>
       <c r="L223" s="120"/>
     </row>
     <row r="224" spans="1:12" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A224" s="226">
         <v>7</v>
       </c>
-      <c r="B224" s="289"/>
-      <c r="C224" s="290"/>
-      <c r="D224" s="297"/>
-      <c r="E224" s="298"/>
-      <c r="F224" s="298"/>
-      <c r="G224" s="298"/>
-      <c r="H224" s="298"/>
-      <c r="I224" s="298"/>
-      <c r="J224" s="298"/>
-      <c r="K224" s="299"/>
+      <c r="B224" s="325"/>
+      <c r="C224" s="303"/>
+      <c r="D224" s="301"/>
+      <c r="E224" s="302"/>
+      <c r="F224" s="302"/>
+      <c r="G224" s="302"/>
+      <c r="H224" s="302"/>
+      <c r="I224" s="302"/>
+      <c r="J224" s="302"/>
+      <c r="K224" s="303"/>
       <c r="L224" s="120"/>
     </row>
     <row r="225" spans="1:13" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A225" s="226">
         <v>8</v>
       </c>
-      <c r="B225" s="289"/>
-      <c r="C225" s="290"/>
-      <c r="D225" s="297"/>
-      <c r="E225" s="298"/>
-      <c r="F225" s="298"/>
-      <c r="G225" s="298"/>
-      <c r="H225" s="298"/>
-      <c r="I225" s="298"/>
-      <c r="J225" s="298"/>
-      <c r="K225" s="299"/>
+      <c r="B225" s="325"/>
+      <c r="C225" s="303"/>
+      <c r="D225" s="301"/>
+      <c r="E225" s="302"/>
+      <c r="F225" s="302"/>
+      <c r="G225" s="302"/>
+      <c r="H225" s="302"/>
+      <c r="I225" s="302"/>
+      <c r="J225" s="302"/>
+      <c r="K225" s="303"/>
       <c r="L225" s="120"/>
     </row>
     <row r="226" spans="1:13" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A226" s="226">
         <v>9</v>
       </c>
-      <c r="B226" s="289"/>
-      <c r="C226" s="290"/>
-      <c r="D226" s="297"/>
-      <c r="E226" s="298"/>
-      <c r="F226" s="298"/>
-      <c r="G226" s="298"/>
-      <c r="H226" s="298"/>
-      <c r="I226" s="298"/>
-      <c r="J226" s="298"/>
-      <c r="K226" s="299"/>
+      <c r="B226" s="325"/>
+      <c r="C226" s="303"/>
+      <c r="D226" s="301"/>
+      <c r="E226" s="302"/>
+      <c r="F226" s="302"/>
+      <c r="G226" s="302"/>
+      <c r="H226" s="302"/>
+      <c r="I226" s="302"/>
+      <c r="J226" s="302"/>
+      <c r="K226" s="303"/>
       <c r="L226" s="120"/>
     </row>
     <row r="227" spans="1:13" s="20" customFormat="1" ht="18" customHeight="1">
       <c r="A227" s="227">
         <v>10</v>
       </c>
-      <c r="B227" s="289"/>
-      <c r="C227" s="290"/>
-      <c r="D227" s="294"/>
-      <c r="E227" s="295"/>
-      <c r="F227" s="295"/>
-      <c r="G227" s="295"/>
-      <c r="H227" s="295"/>
-      <c r="I227" s="295"/>
-      <c r="J227" s="295"/>
-      <c r="K227" s="296"/>
+      <c r="B227" s="326"/>
+      <c r="C227" s="308"/>
+      <c r="D227" s="306"/>
+      <c r="E227" s="307"/>
+      <c r="F227" s="307"/>
+      <c r="G227" s="307"/>
+      <c r="H227" s="307"/>
+      <c r="I227" s="307"/>
+      <c r="J227" s="307"/>
+      <c r="K227" s="308"/>
       <c r="L227" s="122"/>
     </row>
     <row r="228" spans="1:13" ht="15" customHeight="1">
-      <c r="A228" s="272" t="s">
+      <c r="A228" s="291" t="s">
         <v>386</v>
       </c>
-      <c r="B228" s="273"/>
-      <c r="C228" s="273"/>
-      <c r="D228" s="273"/>
-      <c r="E228" s="273"/>
-      <c r="F228" s="273"/>
-      <c r="G228" s="273"/>
-      <c r="H228" s="273"/>
-      <c r="I228" s="273"/>
-      <c r="J228" s="273"/>
-      <c r="K228" s="274"/>
+      <c r="B228" s="288"/>
+      <c r="C228" s="288"/>
+      <c r="D228" s="288"/>
+      <c r="E228" s="288"/>
+      <c r="F228" s="288"/>
+      <c r="G228" s="288"/>
+      <c r="H228" s="288"/>
+      <c r="I228" s="288"/>
+      <c r="J228" s="288"/>
+      <c r="K228" s="289"/>
       <c r="L228" s="163">
         <f>SUM(L218:L227)</f>
         <v>0</v>
@@ -23216,12 +23272,67 @@
     <row r="244" spans="4:12" ht="15" customHeight="1">
       <c r="D244" s="27"/>
       <c r="E244" s="81"/>
-      <c r="J244" s="277"/>
-      <c r="K244" s="276"/>
-      <c r="L244" s="276"/>
+      <c r="J244" s="274"/>
+      <c r="K244" s="275"/>
+      <c r="L244" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D218:K218"/>
+    <mergeCell ref="D217:K217"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="D227:K227"/>
+    <mergeCell ref="D225:K225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="D203:K203"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="D208:K208"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="J191:L191"/>
+    <mergeCell ref="J187:L187"/>
+    <mergeCell ref="J196:L196"/>
+    <mergeCell ref="J193:L193"/>
+    <mergeCell ref="D204:K204"/>
+    <mergeCell ref="J192:L192"/>
+    <mergeCell ref="D206:K206"/>
+    <mergeCell ref="J198:L198"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="J189:L189"/>
+    <mergeCell ref="J185:L185"/>
+    <mergeCell ref="J188:L188"/>
+    <mergeCell ref="J194:L194"/>
+    <mergeCell ref="D212:K212"/>
+    <mergeCell ref="D205:K205"/>
+    <mergeCell ref="D224:K224"/>
+    <mergeCell ref="D221:K221"/>
+    <mergeCell ref="D219:K219"/>
+    <mergeCell ref="D213:K213"/>
+    <mergeCell ref="A215:L215"/>
+    <mergeCell ref="D210:K210"/>
+    <mergeCell ref="A214:K214"/>
+    <mergeCell ref="J197:L197"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="D209:K209"/>
+    <mergeCell ref="J244:L244"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="D211:K211"/>
+    <mergeCell ref="D220:K220"/>
+    <mergeCell ref="A201:L201"/>
+    <mergeCell ref="D223:K223"/>
+    <mergeCell ref="D226:K226"/>
+    <mergeCell ref="B238:L238"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="A228:K228"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D222:K222"/>
+    <mergeCell ref="B224:C224"/>
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="J190:L190"/>
     <mergeCell ref="J199:L199"/>
@@ -23238,61 +23349,6 @@
     <mergeCell ref="B206:C206"/>
     <mergeCell ref="J195:L195"/>
     <mergeCell ref="J186:L186"/>
-    <mergeCell ref="J244:L244"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="D211:K211"/>
-    <mergeCell ref="D220:K220"/>
-    <mergeCell ref="A201:L201"/>
-    <mergeCell ref="D223:K223"/>
-    <mergeCell ref="D226:K226"/>
-    <mergeCell ref="B238:L238"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="A228:K228"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="D222:K222"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="J188:L188"/>
-    <mergeCell ref="J194:L194"/>
-    <mergeCell ref="D212:K212"/>
-    <mergeCell ref="D205:K205"/>
-    <mergeCell ref="D224:K224"/>
-    <mergeCell ref="D221:K221"/>
-    <mergeCell ref="D219:K219"/>
-    <mergeCell ref="D213:K213"/>
-    <mergeCell ref="A215:L215"/>
-    <mergeCell ref="D210:K210"/>
-    <mergeCell ref="A214:K214"/>
-    <mergeCell ref="J197:L197"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="D209:K209"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="D203:K203"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="D208:K208"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="J191:L191"/>
-    <mergeCell ref="J187:L187"/>
-    <mergeCell ref="J196:L196"/>
-    <mergeCell ref="J193:L193"/>
-    <mergeCell ref="D204:K204"/>
-    <mergeCell ref="J192:L192"/>
-    <mergeCell ref="D206:K206"/>
-    <mergeCell ref="J198:L198"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="J189:L189"/>
-    <mergeCell ref="J185:L185"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D218:K218"/>
-    <mergeCell ref="D217:K217"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="D227:K227"/>
-    <mergeCell ref="D225:K225"/>
-    <mergeCell ref="B226:C226"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -23334,7 +23390,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -23899,42 +23955,42 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="F25" s="315" t="s">
+      <c r="F25" s="319" t="s">
         <v>499</v>
       </c>
-      <c r="G25" s="264"/>
-      <c r="H25" s="316"/>
-      <c r="I25" s="264"/>
+      <c r="G25" s="268"/>
+      <c r="H25" s="320"/>
+      <c r="I25" s="268"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="F26" s="264"/>
-      <c r="G26" s="264"/>
-      <c r="H26" s="316"/>
-      <c r="I26" s="264"/>
+      <c r="F26" s="268"/>
+      <c r="G26" s="268"/>
+      <c r="H26" s="320"/>
+      <c r="I26" s="268"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="F27" s="264"/>
-      <c r="G27" s="264"/>
-      <c r="H27" s="316"/>
-      <c r="I27" s="264"/>
+      <c r="F27" s="268"/>
+      <c r="G27" s="268"/>
+      <c r="H27" s="320"/>
+      <c r="I27" s="268"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="F28" s="264"/>
-      <c r="G28" s="264"/>
-      <c r="H28" s="316"/>
-      <c r="I28" s="264"/>
+      <c r="F28" s="268"/>
+      <c r="G28" s="268"/>
+      <c r="H28" s="320"/>
+      <c r="I28" s="268"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="F29" s="264"/>
-      <c r="G29" s="264"/>
-      <c r="H29" s="316"/>
-      <c r="I29" s="264"/>
+      <c r="F29" s="268"/>
+      <c r="G29" s="268"/>
+      <c r="H29" s="320"/>
+      <c r="I29" s="268"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="F30" s="264"/>
-      <c r="G30" s="264"/>
-      <c r="H30" s="316"/>
-      <c r="I30" s="264"/>
+      <c r="F30" s="268"/>
+      <c r="G30" s="268"/>
+      <c r="H30" s="320"/>
+      <c r="I30" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="1">
